--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t>Index</t>
   </si>
@@ -61,118 +61,142 @@
     <t>Humidity</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-07-16</t>
-  </si>
-  <si>
-    <t>11:03:16</t>
-  </si>
-  <si>
-    <t>11:02:44</t>
-  </si>
-  <si>
-    <t>10:42:00</t>
-  </si>
-  <si>
-    <t>09:59:31</t>
-  </si>
-  <si>
-    <t>09:57:29</t>
-  </si>
-  <si>
-    <t>09:57:13</t>
-  </si>
-  <si>
-    <t>05:24:00</t>
-  </si>
-  <si>
-    <t>03:54:48</t>
-  </si>
-  <si>
-    <t>03:54:01</t>
-  </si>
-  <si>
-    <t>03:05:35</t>
-  </si>
-  <si>
-    <t>01:07:52</t>
-  </si>
-  <si>
-    <t>01:06:39</t>
-  </si>
-  <si>
-    <t>01:06:29</t>
-  </si>
-  <si>
-    <t>01:06:10</t>
-  </si>
-  <si>
-    <t>09:06:50</t>
+    <t>2018-07-15</t>
+  </si>
+  <si>
+    <t>07:55:11</t>
+  </si>
+  <si>
+    <t>07:55:04</t>
+  </si>
+  <si>
+    <t>07:54:42</t>
+  </si>
+  <si>
+    <t>06:44:45</t>
+  </si>
+  <si>
+    <t>04:54:34</t>
+  </si>
+  <si>
+    <t>03:35:38</t>
+  </si>
+  <si>
+    <t>03:26:02</t>
+  </si>
+  <si>
+    <t>03:25:41</t>
+  </si>
+  <si>
+    <t>03:25:31</t>
+  </si>
+  <si>
+    <t>02:33:07</t>
+  </si>
+  <si>
+    <t>02:30:56</t>
+  </si>
+  <si>
+    <t>02:25:52</t>
+  </si>
+  <si>
+    <t>02:25:18</t>
+  </si>
+  <si>
+    <t>03:00:55</t>
+  </si>
+  <si>
+    <t>02:59:32</t>
+  </si>
+  <si>
+    <t>02:47:28</t>
+  </si>
+  <si>
+    <t>02:37:54</t>
+  </si>
+  <si>
+    <t>02:23:21</t>
+  </si>
+  <si>
+    <t>No Injuries</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>15617 May Rd</t>
-  </si>
-  <si>
-    <t>1514-1599 Prater Rd</t>
-  </si>
-  <si>
-    <t>18250 - 18289 Interstate 24 Wb</t>
-  </si>
-  <si>
-    <t>18250-18299 Interstate 24  East Bound</t>
-  </si>
-  <si>
-    <t>1440 INTERSTATE 75  NORTH BOUND</t>
-  </si>
-  <si>
-    <t>1101 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>Gunbarrel Rd / E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>6730 - 6999 Shirley Pond Rd</t>
-  </si>
-  <si>
-    <t>100 - 199 Riverside Dr</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>400 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>400 INTERSTATE 75 NB</t>
+  </si>
+  <si>
+    <t>740 MONTLAKE RD</t>
+  </si>
+  <si>
+    <t>Bonny Oaks Dr / Jersey Pike</t>
+  </si>
+  <si>
+    <t>321 Browns Ferry Rd</t>
+  </si>
+  <si>
+    <t>3746 - 3799 Cummings Hwy</t>
+  </si>
+  <si>
+    <t>1800 GREENWOOD RD</t>
+  </si>
+  <si>
+    <t>3131 Mountain Creek Rd</t>
+  </si>
+  <si>
+    <t>1013 S Greenwood Ave</t>
+  </si>
+  <si>
+    <t>1400 Cowart St</t>
+  </si>
+  <si>
+    <t>18500 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>18520 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>7200 LEE HWY</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>RED BANK</t>
-  </si>
-  <si>
-    <t>CHATTANOOGA</t>
-  </si>
-  <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
     <t>partly-cloudy-night</t>
   </si>
   <si>
-    <t>Humid and Mostly Cloudy</t>
-  </si>
-  <si>
-    <t>Humid and Partly Cloudy</t>
+    <t>clear-night</t>
+  </si>
+  <si>
+    <t>Mostly Cloudy</t>
   </si>
   <si>
     <t>Partly Cloudy</t>
+  </si>
+  <si>
+    <t>Clear</t>
   </si>
 </sst>
 </file>
@@ -530,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,58 +609,64 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>35374910</v>
+        <v>35024320</v>
       </c>
       <c r="E2">
-        <v>85064244</v>
+        <v>85174239</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>80.31999999999999</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="O2">
-        <v>75.04000000000001</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="P2">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="Q2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -644,49 +674,52 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>35374910</v>
+        <v>35024320</v>
       </c>
       <c r="E3">
-        <v>85064244</v>
+        <v>85174239</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>80.31999999999999</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="O3">
-        <v>75.04000000000001</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="P3">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="Q3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -694,646 +727,950 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>34988219</v>
+        <v>35024320</v>
       </c>
       <c r="E4">
-        <v>85216439</v>
+        <v>85174239</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>78.18000000000001</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="O4">
-        <v>72.7</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="P4">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="Q4">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>35020588</v>
+        <v>35024320</v>
       </c>
       <c r="E5">
-        <v>85259991</v>
+        <v>85174239</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>72.56999999999999</v>
+      </c>
+      <c r="O5">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.95</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
-      <c r="N5">
-        <v>75.76000000000001</v>
-      </c>
-      <c r="O5">
-        <v>72.48</v>
-      </c>
-      <c r="P5">
-        <v>0.9</v>
-      </c>
-      <c r="Q5">
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
-        <v>17</v>
-      </c>
       <c r="B6">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>35016792</v>
+        <v>35237122</v>
       </c>
       <c r="E6">
-        <v>85255420</v>
+        <v>85223951</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>75.87</v>
+        <v>70.75</v>
       </c>
       <c r="O6">
-        <v>72.45999999999999</v>
+        <v>70.66</v>
       </c>
       <c r="P6">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>35016792</v>
+        <v>35073644</v>
       </c>
       <c r="E7">
-        <v>85255420</v>
+        <v>85190340</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>75.87</v>
+        <v>73.63</v>
       </c>
       <c r="O7">
-        <v>72.45999999999999</v>
+        <v>71.31</v>
       </c>
       <c r="P7">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="Q7">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>35120082</v>
+        <v>35030883</v>
       </c>
       <c r="E8">
-        <v>85043852</v>
+        <v>85363767</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>73.63</v>
+        <v>73.91</v>
       </c>
       <c r="O8">
-        <v>72.09</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="P8">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="Q8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>35075367</v>
+        <v>35018464</v>
       </c>
       <c r="E9">
-        <v>85319310</v>
+        <v>85382482</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
-        <v>73.72</v>
+        <v>73.66</v>
       </c>
       <c r="O9">
-        <v>71.92</v>
+        <v>71.66</v>
       </c>
       <c r="P9">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="Q9">
-        <v>5.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>35075367</v>
+        <v>35056302</v>
       </c>
       <c r="E10">
-        <v>85319310</v>
+        <v>85241207</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>73.72</v>
+        <v>73.38</v>
       </c>
       <c r="O10">
-        <v>71.92</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="P10">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Q10">
-        <v>5.86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>35015214</v>
+        <v>35056302</v>
       </c>
       <c r="E11">
-        <v>85163699</v>
+        <v>85241207</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M11">
         <v>3</v>
       </c>
       <c r="N11">
-        <v>74.25</v>
+        <v>73.38</v>
       </c>
       <c r="O11">
-        <v>71.93000000000001</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="P11">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="Q11">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>35173566</v>
+        <v>35120041</v>
       </c>
       <c r="E12">
-        <v>85088409</v>
+        <v>85315464</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>74.04000000000001</v>
+        <v>74.98</v>
       </c>
       <c r="O12">
-        <v>72.78</v>
+        <v>71.89</v>
       </c>
       <c r="P12">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="Q12">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>35173566</v>
+        <v>35120041</v>
       </c>
       <c r="E13">
-        <v>85088409</v>
+        <v>85315464</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>74.04000000000001</v>
+        <v>74.98</v>
       </c>
       <c r="O13">
-        <v>72.78</v>
+        <v>71.89</v>
       </c>
       <c r="P13">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="Q13">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>35170745</v>
+        <v>35031909</v>
       </c>
       <c r="E14">
-        <v>85085493</v>
+        <v>85285044</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>74.19</v>
+        <v>75.23</v>
       </c>
       <c r="O14">
-        <v>72.81999999999999</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="P14">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="Q14">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>35170745</v>
+        <v>35031909</v>
       </c>
       <c r="E15">
-        <v>85085493</v>
+        <v>85285044</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>74.19</v>
+        <v>75.23</v>
       </c>
       <c r="O15">
-        <v>72.81999999999999</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="P15">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="Q15">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>35056620</v>
+        <v>35038239</v>
       </c>
       <c r="E16">
-        <v>85309646</v>
+        <v>85309338</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
       </c>
       <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>73.84999999999999</v>
+      </c>
+      <c r="O16">
+        <v>71.62</v>
+      </c>
+      <c r="P16">
+        <v>0.93</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>35038239</v>
+      </c>
+      <c r="E17">
+        <v>85309338</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>75.36</v>
+      </c>
+      <c r="O17">
+        <v>71.72</v>
+      </c>
+      <c r="P17">
+        <v>0.89</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>35004334</v>
+      </c>
+      <c r="E18">
+        <v>85221655</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
         <v>50</v>
       </c>
-      <c r="M16">
-        <v>9</v>
-      </c>
-      <c r="N16">
-        <v>76.37</v>
-      </c>
-      <c r="O16">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="P16">
-        <v>0.88</v>
-      </c>
-      <c r="Q16">
-        <v>4.92</v>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>74.88</v>
+      </c>
+      <c r="O18">
+        <v>71.87</v>
+      </c>
+      <c r="P18">
+        <v>0.9</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+      <c r="R18">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>35004095</v>
+      </c>
+      <c r="E19">
+        <v>85218177</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="O19">
+        <v>71.87</v>
+      </c>
+      <c r="P19">
+        <v>0.9</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>82</v>
+      </c>
+      <c r="D20">
+        <v>35050668</v>
+      </c>
+      <c r="E20">
+        <v>85153075</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>74.64</v>
+      </c>
+      <c r="O20">
+        <v>71.86</v>
+      </c>
+      <c r="P20">
+        <v>0.91</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1">
+        <v>82</v>
+      </c>
+      <c r="B21">
+        <v>82</v>
+      </c>
+      <c r="D21">
+        <v>35050668</v>
+      </c>
+      <c r="E21">
+        <v>85153075</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>74.64</v>
+      </c>
+      <c r="O21">
+        <v>71.86</v>
+      </c>
+      <c r="P21">
+        <v>0.91</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>Index</t>
   </si>
@@ -67,136 +67,118 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-07-15</t>
-  </si>
-  <si>
-    <t>07:55:11</t>
-  </si>
-  <si>
-    <t>07:55:04</t>
-  </si>
-  <si>
-    <t>07:54:42</t>
-  </si>
-  <si>
-    <t>06:44:45</t>
-  </si>
-  <si>
-    <t>04:54:34</t>
-  </si>
-  <si>
-    <t>03:35:38</t>
-  </si>
-  <si>
-    <t>03:26:02</t>
-  </si>
-  <si>
-    <t>03:25:41</t>
-  </si>
-  <si>
-    <t>03:25:31</t>
-  </si>
-  <si>
-    <t>02:33:07</t>
-  </si>
-  <si>
-    <t>02:30:56</t>
-  </si>
-  <si>
-    <t>02:25:52</t>
-  </si>
-  <si>
-    <t>02:25:18</t>
-  </si>
-  <si>
-    <t>03:00:55</t>
-  </si>
-  <si>
-    <t>02:59:32</t>
-  </si>
-  <si>
-    <t>02:47:28</t>
-  </si>
-  <si>
-    <t>02:37:54</t>
-  </si>
-  <si>
-    <t>02:23:21</t>
+    <t>2018-07-17</t>
+  </si>
+  <si>
+    <t>05:36:47</t>
+  </si>
+  <si>
+    <t>05:13:50</t>
+  </si>
+  <si>
+    <t>03:54:01</t>
+  </si>
+  <si>
+    <t>03:53:16</t>
+  </si>
+  <si>
+    <t>03:50:15</t>
+  </si>
+  <si>
+    <t>03:50:14</t>
+  </si>
+  <si>
+    <t>03:34:21</t>
+  </si>
+  <si>
+    <t>03:32:21</t>
+  </si>
+  <si>
+    <t>03:19:02</t>
+  </si>
+  <si>
+    <t>03:18:56</t>
+  </si>
+  <si>
+    <t>02:50:06</t>
+  </si>
+  <si>
+    <t>01:06:29</t>
+  </si>
+  <si>
+    <t>01:06:19</t>
+  </si>
+  <si>
+    <t>12:01:08</t>
+  </si>
+  <si>
+    <t>12:00:57</t>
+  </si>
+  <si>
+    <t>04:34:39</t>
+  </si>
+  <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>Injuries</t>
   </si>
   <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>400 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>400 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>740 MONTLAKE RD</t>
-  </si>
-  <si>
-    <t>Bonny Oaks Dr / Jersey Pike</t>
-  </si>
-  <si>
-    <t>321 Browns Ferry Rd</t>
-  </si>
-  <si>
-    <t>3746 - 3799 Cummings Hwy</t>
-  </si>
-  <si>
-    <t>1800 GREENWOOD RD</t>
-  </si>
-  <si>
-    <t>3131 Mountain Creek Rd</t>
-  </si>
-  <si>
-    <t>1013 S Greenwood Ave</t>
-  </si>
-  <si>
-    <t>1400 Cowart St</t>
-  </si>
-  <si>
-    <t>18500 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>18520 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>7200 LEE HWY</t>
+    <t>7700-7899 Lee Hwy</t>
+  </si>
+  <si>
+    <t>3800 DODDS AVE</t>
+  </si>
+  <si>
+    <t>3228 Wilcox Blvd</t>
+  </si>
+  <si>
+    <t>1 - 9 Exit Interstate 75 Off Ramp Nb</t>
+  </si>
+  <si>
+    <t>Tombras Ave / Spriggs St</t>
+  </si>
+  <si>
+    <t>6216 Hixson Pike</t>
+  </si>
+  <si>
+    <t>2409 Dodson Ave</t>
+  </si>
+  <si>
+    <t>E Brainerd Rd / Jenkins Rd</t>
+  </si>
+  <si>
+    <t>6397 LEE HWY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>clear-night</t>
+  </si>
+  <si>
+    <t>rain</t>
   </si>
   <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
-    <t>partly-cloudy-night</t>
-  </si>
-  <si>
-    <t>clear-night</t>
-  </si>
-  <si>
-    <t>Mostly Cloudy</t>
-  </si>
-  <si>
-    <t>Partly Cloudy</t>
-  </si>
-  <si>
     <t>Clear</t>
+  </si>
+  <si>
+    <t>Humid</t>
+  </si>
+  <si>
+    <t>Possible Light Rain</t>
+  </si>
+  <si>
+    <t>Humid and Mostly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -554,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,16 +597,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>35024320</v>
+        <v>35060726</v>
       </c>
       <c r="E2">
-        <v>85174239</v>
+        <v>85134180</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -633,28 +615,28 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>72.56999999999999</v>
+        <v>71.78</v>
       </c>
       <c r="O2">
-        <v>70.98999999999999</v>
+        <v>70.38</v>
       </c>
       <c r="P2">
         <v>0.95</v>
@@ -663,21 +645,21 @@
         <v>7</v>
       </c>
       <c r="R2">
-        <v>3.59</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>35024320</v>
+        <v>34997989</v>
       </c>
       <c r="E3">
-        <v>85174239</v>
+        <v>85282578</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -686,51 +668,51 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>72.56999999999999</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="O3">
-        <v>70.98999999999999</v>
+        <v>70.28</v>
       </c>
       <c r="P3">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q3">
         <v>7</v>
       </c>
       <c r="R3">
-        <v>3.59</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>35024320</v>
+        <v>35047764</v>
       </c>
       <c r="E4">
-        <v>85174239</v>
+        <v>85241454</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -739,938 +721,726 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>72.56999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="O4">
-        <v>70.98999999999999</v>
+        <v>71.34</v>
       </c>
       <c r="P4">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="Q4">
         <v>7</v>
       </c>
       <c r="R4">
-        <v>3.59</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>35024320</v>
+        <v>35047764</v>
       </c>
       <c r="E5">
-        <v>85174239</v>
+        <v>85241454</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>72.56999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="O5">
-        <v>70.98999999999999</v>
+        <v>71.34</v>
       </c>
       <c r="P5">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5">
-        <v>3.59</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>35237122</v>
+        <v>35028192</v>
       </c>
       <c r="E6">
-        <v>85223951</v>
+        <v>85177231</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>70.75</v>
+        <v>72.66</v>
       </c>
       <c r="O6">
-        <v>70.66</v>
+        <v>71.37</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6">
-        <v>5.85</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>35073644</v>
+        <v>35028192</v>
       </c>
       <c r="E7">
-        <v>85190340</v>
+        <v>85177231</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>73.63</v>
+        <v>72.66</v>
       </c>
       <c r="O7">
-        <v>71.31</v>
+        <v>71.37</v>
       </c>
       <c r="P7">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="R7">
-        <v>6.27</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>35030883</v>
+        <v>34992222</v>
       </c>
       <c r="E8">
-        <v>85363767</v>
+        <v>85242734</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M8">
         <v>3</v>
       </c>
       <c r="N8">
-        <v>73.91</v>
+        <v>72.44</v>
       </c>
       <c r="O8">
-        <v>71.65000000000001</v>
+        <v>71.27</v>
       </c>
       <c r="P8">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>5.38</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>35018464</v>
+        <v>34992222</v>
       </c>
       <c r="E9">
-        <v>85382482</v>
+        <v>85242734</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
-        <v>73.66</v>
+        <v>72.44</v>
       </c>
       <c r="O9">
-        <v>71.66</v>
+        <v>71.27</v>
       </c>
       <c r="P9">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="Q9">
         <v>7</v>
       </c>
       <c r="R9">
-        <v>4.73</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>35056302</v>
+        <v>35028192</v>
       </c>
       <c r="E10">
-        <v>85241207</v>
+        <v>85177231</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
         <v>46</v>
       </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>73.38</v>
+        <v>72.66</v>
       </c>
       <c r="O10">
-        <v>71.79000000000001</v>
+        <v>71.37</v>
       </c>
       <c r="P10">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="Q10">
         <v>7</v>
       </c>
       <c r="R10">
-        <v>6.13</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>35028192</v>
+      </c>
+      <c r="E11">
+        <v>85177231</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="B11">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>35056302</v>
-      </c>
-      <c r="E11">
-        <v>85241207</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
       <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
         <v>46</v>
       </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M11">
         <v>3</v>
       </c>
       <c r="N11">
-        <v>73.38</v>
+        <v>72.66</v>
       </c>
       <c r="O11">
-        <v>71.79000000000001</v>
+        <v>71.37</v>
       </c>
       <c r="P11">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="Q11">
         <v>7</v>
       </c>
       <c r="R11">
-        <v>6.13</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>35120041</v>
+        <v>35152942</v>
       </c>
       <c r="E12">
-        <v>85315464</v>
+        <v>85199750</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12">
-        <v>74.98</v>
+        <v>73.81</v>
       </c>
       <c r="O12">
-        <v>71.89</v>
+        <v>72.16</v>
       </c>
       <c r="P12">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="Q12">
         <v>7</v>
       </c>
       <c r="R12">
-        <v>5.95</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>35120041</v>
+        <v>35066152</v>
       </c>
       <c r="E13">
-        <v>85315464</v>
+        <v>85254169</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
         <v>53</v>
       </c>
-      <c r="K13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" t="s">
-        <v>59</v>
-      </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>74.98</v>
+        <v>74.45</v>
       </c>
       <c r="O13">
-        <v>71.89</v>
+        <v>72.02</v>
       </c>
       <c r="P13">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="Q13">
         <v>7</v>
       </c>
       <c r="R13">
-        <v>5.95</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>35031909</v>
+        <v>35066152</v>
       </c>
       <c r="E14">
-        <v>85285044</v>
+        <v>85254169</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
         <v>53</v>
       </c>
-      <c r="K14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" t="s">
-        <v>60</v>
-      </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>75.23</v>
+        <v>74.45</v>
       </c>
       <c r="O14">
-        <v>71.84999999999999</v>
+        <v>72.02</v>
       </c>
       <c r="P14">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="Q14">
         <v>7</v>
       </c>
       <c r="R14">
-        <v>6.01</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>35031909</v>
+        <v>35008538</v>
       </c>
       <c r="E15">
-        <v>85285044</v>
+        <v>85153227</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>75.23</v>
+        <v>82.58</v>
       </c>
       <c r="O15">
-        <v>71.84999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="P15">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="Q15">
         <v>7</v>
       </c>
       <c r="R15">
-        <v>6.01</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16">
-        <v>35038239</v>
+        <v>35008538</v>
       </c>
       <c r="E16">
-        <v>85309338</v>
+        <v>85153227</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>73.84999999999999</v>
+        <v>82.58</v>
       </c>
       <c r="O16">
-        <v>71.62</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="P16">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
       <c r="R16">
-        <v>5.38</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D17">
-        <v>35038239</v>
+        <v>35034262</v>
       </c>
       <c r="E17">
-        <v>85309338</v>
+        <v>85181836</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>75.36</v>
+        <v>72.44</v>
       </c>
       <c r="O17">
-        <v>71.72</v>
+        <v>70.3</v>
       </c>
       <c r="P17">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="Q17">
         <v>7</v>
       </c>
       <c r="R17">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="1">
-        <v>76</v>
-      </c>
-      <c r="B18">
-        <v>76</v>
-      </c>
-      <c r="D18">
-        <v>35004334</v>
-      </c>
-      <c r="E18">
-        <v>85221655</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>74.88</v>
-      </c>
-      <c r="O18">
-        <v>71.87</v>
-      </c>
-      <c r="P18">
-        <v>0.9</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
-      </c>
-      <c r="R18">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1">
-        <v>79</v>
-      </c>
-      <c r="B19">
-        <v>79</v>
-      </c>
-      <c r="D19">
-        <v>35004095</v>
-      </c>
-      <c r="E19">
-        <v>85218177</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="O19">
-        <v>71.87</v>
-      </c>
-      <c r="P19">
-        <v>0.9</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-      <c r="R19">
-        <v>7.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="1">
-        <v>82</v>
-      </c>
-      <c r="B20">
-        <v>82</v>
-      </c>
-      <c r="D20">
-        <v>35050668</v>
-      </c>
-      <c r="E20">
-        <v>85153075</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>74.64</v>
-      </c>
-      <c r="O20">
-        <v>71.86</v>
-      </c>
-      <c r="P20">
-        <v>0.91</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-      <c r="R20">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1">
-        <v>82</v>
-      </c>
-      <c r="B21">
-        <v>82</v>
-      </c>
-      <c r="D21">
-        <v>35050668</v>
-      </c>
-      <c r="E21">
-        <v>85153075</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>74.64</v>
-      </c>
-      <c r="O21">
-        <v>71.86</v>
-      </c>
-      <c r="P21">
-        <v>0.91</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-      <c r="R21">
-        <v>6.8</v>
+        <v>7.12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Index</t>
   </si>
@@ -67,61 +67,85 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-07-18</t>
-  </si>
-  <si>
-    <t>11:32:09</t>
-  </si>
-  <si>
-    <t>11:32:08</t>
-  </si>
-  <si>
-    <t>03:28:01</t>
-  </si>
-  <si>
-    <t>03:26:41</t>
-  </si>
-  <si>
-    <t>03:18:52</t>
-  </si>
-  <si>
-    <t>11:21:47</t>
+    <t>2018-07-19</t>
+  </si>
+  <si>
+    <t>07:43:50</t>
+  </si>
+  <si>
+    <t>07:43:20</t>
+  </si>
+  <si>
+    <t>05:58:14</t>
+  </si>
+  <si>
+    <t>02:21:26</t>
+  </si>
+  <si>
+    <t>12:49:07</t>
+  </si>
+  <si>
+    <t>12:49:06</t>
+  </si>
+  <si>
+    <t>07:55:54</t>
+  </si>
+  <si>
+    <t>06:29:20</t>
+  </si>
+  <si>
+    <t>06:28:09</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Delayed</t>
-  </si>
-  <si>
-    <t>1020 - 1099 Shallowford Rd</t>
-  </si>
-  <si>
-    <t>1600 - 1625 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>1200 Market St</t>
-  </si>
-  <si>
-    <t>3002 Taft Hwy</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>Mayflower Rd / Pickett Rd</t>
+  </si>
+  <si>
+    <t>20 - 29 Exit 179 S On Ramp Eb</t>
+  </si>
+  <si>
+    <t>3805 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>3000 NOA ST</t>
+  </si>
+  <si>
+    <t>1800 DUNCAN AVE</t>
+  </si>
+  <si>
+    <t>1546 Signal Mountain Blvd</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>WALDEN</t>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
+    <t>clear-night</t>
+  </si>
+  <si>
     <t>partly-cloudy-night</t>
   </si>
   <si>
     <t>Partly Cloudy</t>
   </si>
   <si>
-    <t>Mostly Cloudy</t>
+    <t>Clear</t>
   </si>
 </sst>
 </file>
@@ -479,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +564,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>35039190</v>
+        <v>35354683</v>
       </c>
       <c r="E2">
-        <v>85233590</v>
+        <v>85093791</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -558,51 +582,51 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>81.19</v>
+        <v>67.06</v>
       </c>
       <c r="O2">
-        <v>71.92</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="P2">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="Q2">
         <v>7</v>
       </c>
       <c r="R2">
-        <v>7.13</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>35039190</v>
+        <v>35354683</v>
       </c>
       <c r="E3">
-        <v>85233590</v>
+        <v>85093791</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -611,51 +635,51 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>81.19</v>
+        <v>67.06</v>
       </c>
       <c r="O3">
-        <v>71.92</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="P3">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="Q3">
         <v>7</v>
       </c>
       <c r="R3">
-        <v>7.13</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>35018435</v>
+        <v>35028709</v>
       </c>
       <c r="E4">
-        <v>85161921</v>
+        <v>85311360</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -664,51 +688,51 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>72.5</v>
+        <v>71.27</v>
       </c>
       <c r="O4">
-        <v>71.25</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="P4">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="Q4">
         <v>7</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>35018435</v>
+        <v>34999972</v>
       </c>
       <c r="E5">
-        <v>85161921</v>
+        <v>85256608</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -717,51 +741,51 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>72.5</v>
+        <v>71.36</v>
       </c>
       <c r="O5">
-        <v>71.25</v>
+        <v>66.37</v>
       </c>
       <c r="P5">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>35041634</v>
+        <v>35069892</v>
       </c>
       <c r="E6">
-        <v>85307743</v>
+        <v>85245012</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -770,51 +794,51 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N6">
-        <v>72.43000000000001</v>
+        <v>82.61</v>
       </c>
       <c r="O6">
-        <v>70.90000000000001</v>
+        <v>66.89</v>
       </c>
       <c r="P6">
-        <v>0.95</v>
+        <v>0.59</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>35165519</v>
+        <v>35069892</v>
       </c>
       <c r="E7">
-        <v>85320250</v>
+        <v>85245012</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -823,37 +847,196 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>82.61</v>
+      </c>
+      <c r="O7">
+        <v>66.89</v>
+      </c>
+      <c r="P7">
+        <v>0.59</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>35035357</v>
+      </c>
+      <c r="E8">
+        <v>85276473</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>69.22</v>
+      </c>
+      <c r="O8">
+        <v>64.65000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.85</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>35108519</v>
+      </c>
+      <c r="E9">
+        <v>85350236</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>68.38</v>
+      </c>
+      <c r="O9">
+        <v>62.36</v>
+      </c>
+      <c r="P9">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>35108519</v>
+      </c>
+      <c r="E10">
+        <v>85350236</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7">
-        <v>11</v>
-      </c>
-      <c r="N7">
-        <v>80.3</v>
-      </c>
-      <c r="O7">
-        <v>68.63</v>
-      </c>
-      <c r="P7">
-        <v>0.68</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
-      </c>
-      <c r="R7">
-        <v>10</v>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>68.38</v>
+      </c>
+      <c r="O10">
+        <v>62.36</v>
+      </c>
+      <c r="P10">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>7.55</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>Index</t>
   </si>
@@ -67,85 +67,94 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-07-19</t>
-  </si>
-  <si>
-    <t>07:43:50</t>
-  </si>
-  <si>
-    <t>07:43:20</t>
-  </si>
-  <si>
-    <t>05:58:14</t>
-  </si>
-  <si>
-    <t>02:21:26</t>
-  </si>
-  <si>
-    <t>12:49:07</t>
-  </si>
-  <si>
-    <t>12:49:06</t>
-  </si>
-  <si>
-    <t>07:55:54</t>
-  </si>
-  <si>
-    <t>06:29:20</t>
-  </si>
-  <si>
-    <t>06:28:09</t>
+    <t>2018-07-22</t>
+  </si>
+  <si>
+    <t>07:49:58</t>
+  </si>
+  <si>
+    <t>07:49:57</t>
+  </si>
+  <si>
+    <t>07:49:39</t>
+  </si>
+  <si>
+    <t>06:06:18</t>
+  </si>
+  <si>
+    <t>06:05:47</t>
+  </si>
+  <si>
+    <t>05:20:14</t>
+  </si>
+  <si>
+    <t>04:56:06</t>
+  </si>
+  <si>
+    <t>04:51:21</t>
+  </si>
+  <si>
+    <t>03:14:26</t>
+  </si>
+  <si>
+    <t>03:14:00</t>
+  </si>
+  <si>
+    <t>12:38:46</t>
+  </si>
+  <si>
+    <t>12:37:57</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Mayflower Rd / Pickett Rd</t>
-  </si>
-  <si>
-    <t>20 - 29 Exit 179 S On Ramp Eb</t>
-  </si>
-  <si>
-    <t>3805 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>3000 NOA ST</t>
-  </si>
-  <si>
-    <t>1800 DUNCAN AVE</t>
-  </si>
-  <si>
-    <t>1546 Signal Mountain Blvd</t>
+    <t>1140 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>700 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>E Brainerd Rd / Morris Hill Rd</t>
+  </si>
+  <si>
+    <t>17400 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>18290-18309 INTERSTATE 24  WEST BOUND</t>
+  </si>
+  <si>
+    <t>Bonny Oaks Dr / Silverdale Rd</t>
+  </si>
+  <si>
+    <t>9012 Fuller Rd</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>CHATTANOOGA</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
     <t>clear-night</t>
   </si>
   <si>
-    <t>partly-cloudy-night</t>
-  </si>
-  <si>
     <t>Partly Cloudy</t>
   </si>
   <si>
     <t>Clear</t>
+  </si>
+  <si>
+    <t>Mostly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -503,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,16 +573,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>35354683</v>
+        <v>35084997</v>
       </c>
       <c r="E2">
-        <v>85093791</v>
+        <v>85071142</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -582,51 +591,51 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M2">
         <v>7</v>
       </c>
       <c r="N2">
-        <v>67.06</v>
+        <v>67.78</v>
       </c>
       <c r="O2">
-        <v>64.29000000000001</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="P2">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q2">
         <v>7</v>
       </c>
       <c r="R2">
-        <v>8.67</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>35354683</v>
+        <v>35084997</v>
       </c>
       <c r="E3">
-        <v>85093791</v>
+        <v>85071142</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -635,51 +644,51 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3">
         <v>7</v>
       </c>
       <c r="N3">
-        <v>67.06</v>
+        <v>67.78</v>
       </c>
       <c r="O3">
-        <v>64.29000000000001</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="P3">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q3">
         <v>7</v>
       </c>
       <c r="R3">
-        <v>8.67</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>35028709</v>
+        <v>35084997</v>
       </c>
       <c r="E4">
-        <v>85311360</v>
+        <v>85071142</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -688,51 +697,51 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>71.27</v>
+        <v>67.78</v>
       </c>
       <c r="O4">
-        <v>64.56999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="P4">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q4">
         <v>7</v>
       </c>
       <c r="R4">
-        <v>6.01</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>34999972</v>
+        <v>35055684</v>
       </c>
       <c r="E5">
-        <v>85256608</v>
+        <v>85136675</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -741,51 +750,51 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>71.36</v>
+        <v>68.86</v>
       </c>
       <c r="O5">
-        <v>66.37</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="P5">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5">
-        <v>6.16</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>35069892</v>
+        <v>35055684</v>
       </c>
       <c r="E6">
-        <v>85245012</v>
+        <v>85136675</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -794,51 +803,51 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>82.61</v>
+        <v>68.86</v>
       </c>
       <c r="O6">
-        <v>66.89</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="P6">
-        <v>0.59</v>
+        <v>0.88</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6">
-        <v>5.76</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>35069892</v>
+        <v>35000853</v>
       </c>
       <c r="E7">
-        <v>85245012</v>
+        <v>85132549</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -847,51 +856,51 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>82.61</v>
+        <v>69.8</v>
       </c>
       <c r="O7">
-        <v>66.89</v>
+        <v>66.34</v>
       </c>
       <c r="P7">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="R7">
-        <v>5.76</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>35035357</v>
+        <v>35021426</v>
       </c>
       <c r="E8">
-        <v>85276473</v>
+        <v>85380506</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -900,51 +909,51 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>69.22</v>
+        <v>69.38</v>
       </c>
       <c r="O8">
-        <v>64.65000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="P8">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>6.41</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>35108519</v>
+        <v>35015660</v>
       </c>
       <c r="E9">
-        <v>85350236</v>
+        <v>85253732</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -953,51 +962,51 @@
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>68.38</v>
+        <v>69.87</v>
       </c>
       <c r="O9">
-        <v>62.36</v>
+        <v>65.83</v>
       </c>
       <c r="P9">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Q9">
         <v>7</v>
       </c>
       <c r="R9">
-        <v>7.55</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>35108519</v>
+        <v>35062271</v>
       </c>
       <c r="E10">
-        <v>85350236</v>
+        <v>85137823</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1006,37 +1015,196 @@
         <v>26</v>
       </c>
       <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="O10">
+        <v>66.22</v>
+      </c>
+      <c r="P10">
+        <v>0.83</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>35062271</v>
+      </c>
+      <c r="E11">
+        <v>85137823</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="O11">
+        <v>66.22</v>
+      </c>
+      <c r="P11">
+        <v>0.83</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>34996156</v>
+      </c>
+      <c r="E12">
+        <v>85121996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>78.89</v>
+      </c>
+      <c r="O12">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="P12">
+        <v>0.64</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>34996156</v>
+      </c>
+      <c r="E13">
+        <v>85121996</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
         <v>41</v>
       </c>
-      <c r="L10" t="s">
+      <c r="K13" t="s">
         <v>42</v>
       </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>68.38</v>
-      </c>
-      <c r="O10">
-        <v>62.36</v>
-      </c>
-      <c r="P10">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10">
-        <v>7.55</v>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>78.89</v>
+      </c>
+      <c r="O13">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.64</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>5.29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
   <si>
     <t>Index</t>
   </si>
@@ -67,79 +67,103 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-07-25</t>
-  </si>
-  <si>
-    <t>23:29:47</t>
-  </si>
-  <si>
-    <t>23:29:46</t>
-  </si>
-  <si>
-    <t>17:40:47</t>
-  </si>
-  <si>
-    <t>17:25:40</t>
-  </si>
-  <si>
-    <t>16:37:56</t>
-  </si>
-  <si>
-    <t>14:15:43</t>
-  </si>
-  <si>
-    <t>14:14:46</t>
-  </si>
-  <si>
-    <t>13:47:19</t>
-  </si>
-  <si>
-    <t>13:44:26</t>
+    <t>2018-07-26</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>18:15:20</t>
+  </si>
+  <si>
+    <t>17:29:03</t>
+  </si>
+  <si>
+    <t>17:28:38</t>
+  </si>
+  <si>
+    <t>17:12:30</t>
+  </si>
+  <si>
+    <t>17:12:19</t>
+  </si>
+  <si>
+    <t>16:42:25</t>
+  </si>
+  <si>
+    <t>16:20:44</t>
+  </si>
+  <si>
+    <t>15:01:41</t>
+  </si>
+  <si>
+    <t>08:26:23</t>
+  </si>
+  <si>
+    <t>08:26:05</t>
+  </si>
+  <si>
+    <t>08:25:24</t>
+  </si>
+  <si>
+    <t>07:29:19</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>4800 - 4849 Ellis Ave</t>
-  </si>
-  <si>
-    <t>7300-7351 Standifer Gap Rd</t>
-  </si>
-  <si>
-    <t>1430 Interstate 75  North Bound</t>
-  </si>
-  <si>
-    <t>4628 Oakwood Dr</t>
-  </si>
-  <si>
-    <t>99 W 11th St</t>
-  </si>
-  <si>
-    <t>1100 BROAD ST</t>
-  </si>
-  <si>
-    <t>2100 Hamilton Place Blvd</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>E 3RD ST / N HIGHLAND PARK AVE</t>
+  </si>
+  <si>
+    <t>Miles Rd / James Blvd</t>
+  </si>
+  <si>
+    <t>Bramlett Rd / Highway 58</t>
+  </si>
+  <si>
+    <t>Highway 58 / Greenwood Rd</t>
+  </si>
+  <si>
+    <t>314 Morrison Springs Rd</t>
+  </si>
+  <si>
+    <t>4287 SHALLOWFORD RD</t>
+  </si>
+  <si>
+    <t>5208 Hixson Pike</t>
+  </si>
+  <si>
+    <t>Hunter Rd / British Rd</t>
+  </si>
+  <si>
+    <t>2400 E 4th St</t>
+  </si>
+  <si>
+    <t>Derby Cir / Derby St</t>
+  </si>
+  <si>
+    <t>1-149 N WILLOW ST</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>SIGNAL MOUNTAIN</t>
+  </si>
+  <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>clear-night</t>
+    <t>RED BANK</t>
   </si>
   <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
-    <t>clear-day</t>
-  </si>
-  <si>
-    <t>Clear</t>
+    <t>Mostly Cloudy</t>
   </si>
   <si>
     <t>Partly Cloudy</t>
@@ -500,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,16 +585,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>35.02188</v>
+        <v>35.043083</v>
       </c>
       <c r="E2">
-        <v>-85.22581599999999</v>
+        <v>-85.277952</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -579,240 +603,240 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N2">
-        <v>75.47</v>
+        <v>87.42</v>
       </c>
       <c r="O2">
-        <v>65.83</v>
+        <v>62.99</v>
       </c>
       <c r="P2">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="Q2">
         <v>7</v>
       </c>
       <c r="R2">
-        <v>7.58</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>35.02188</v>
+        <v>35.043083</v>
       </c>
       <c r="E3">
-        <v>-85.22581599999999</v>
+        <v>-85.277952</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N3">
-        <v>75.47</v>
+        <v>87.42</v>
       </c>
       <c r="O3">
-        <v>65.83</v>
+        <v>62.99</v>
       </c>
       <c r="P3">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="Q3">
         <v>7</v>
       </c>
       <c r="R3">
-        <v>7.58</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>35.052178</v>
+        <v>35.145374</v>
       </c>
       <c r="E4">
-        <v>-85.147361</v>
+        <v>-85.328225</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4">
-        <v>88.51000000000001</v>
+        <v>80.69</v>
       </c>
       <c r="O4">
-        <v>64</v>
+        <v>67.27</v>
       </c>
       <c r="P4">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="Q4">
         <v>7</v>
       </c>
       <c r="R4">
-        <v>7.12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>35.168151</v>
+      </c>
+      <c r="E5">
+        <v>-85.078096</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>35.118774</v>
-      </c>
-      <c r="E5">
-        <v>-85.044735</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M5">
         <v>17</v>
       </c>
       <c r="N5">
-        <v>87.7</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="O5">
-        <v>65.11</v>
+        <v>63.18</v>
       </c>
       <c r="P5">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5">
-        <v>7.5</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>35.084738</v>
+        <v>35.168151</v>
       </c>
       <c r="E6">
-        <v>-85.176486</v>
+        <v>-85.078096</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N6">
-        <v>87.97</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="O6">
-        <v>64.17</v>
+        <v>63.18</v>
       </c>
       <c r="P6">
         <v>0.45</v>
@@ -821,219 +845,696 @@
         <v>7</v>
       </c>
       <c r="R6">
-        <v>6.96</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>35.043932</v>
+        <v>35.168151</v>
       </c>
       <c r="E7">
-        <v>-85.310332</v>
+        <v>-85.078096</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N7">
-        <v>85.56</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="O7">
-        <v>63.89</v>
+        <v>63.18</v>
       </c>
       <c r="P7">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="R7">
-        <v>6.12</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>35.043932</v>
+        <v>35.121052</v>
       </c>
       <c r="E8">
-        <v>-85.310332</v>
+        <v>-85.294965</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N8">
-        <v>85.56</v>
+        <v>87.12</v>
       </c>
       <c r="O8">
-        <v>63.89</v>
+        <v>62.37</v>
       </c>
       <c r="P8">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>6.12</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>35.034528</v>
+        <v>35.121052</v>
       </c>
       <c r="E9">
-        <v>-85.158706</v>
+        <v>-85.294965</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N9">
-        <v>83.91</v>
+        <v>87.12</v>
       </c>
       <c r="O9">
-        <v>65.81</v>
+        <v>62.37</v>
       </c>
       <c r="P9">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="Q9">
         <v>7</v>
       </c>
       <c r="R9">
-        <v>7.05</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>35.034528</v>
+        <v>35.045205</v>
       </c>
       <c r="E10">
-        <v>-85.158706</v>
+        <v>-85.216538</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>88.05</v>
+      </c>
+      <c r="O10">
+        <v>61.79</v>
+      </c>
+      <c r="P10">
+        <v>0.42</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>35.137202</v>
+      </c>
+      <c r="E11">
+        <v>-85.23574499999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>88.05</v>
+      </c>
+      <c r="O11">
+        <v>64.04000000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.45</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>35.137202</v>
+      </c>
+      <c r="E12">
+        <v>-85.23574499999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>88.05</v>
+      </c>
+      <c r="O12">
+        <v>64.04000000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.45</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>35.12143</v>
+      </c>
+      <c r="E13">
+        <v>-85.09732200000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>88.16</v>
+      </c>
+      <c r="O13">
+        <v>61.49</v>
+      </c>
+      <c r="P13">
+        <v>0.41</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>35.12143</v>
+      </c>
+      <c r="E14">
+        <v>-85.09732200000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>88.16</v>
+      </c>
+      <c r="O14">
+        <v>61.49</v>
+      </c>
+      <c r="P14">
+        <v>0.41</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>94</v>
+      </c>
+      <c r="D15">
+        <v>35.036718</v>
+      </c>
+      <c r="E15">
+        <v>-85.26434</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>69.54000000000001</v>
+      </c>
+      <c r="O15">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="P15">
+        <v>0.87</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>96</v>
+      </c>
+      <c r="D16">
+        <v>35.038542</v>
+      </c>
+      <c r="E16">
+        <v>-85.265013</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
         <v>42</v>
       </c>
-      <c r="M10">
-        <v>13</v>
-      </c>
-      <c r="N10">
-        <v>83.91</v>
-      </c>
-      <c r="O10">
-        <v>65.81</v>
-      </c>
-      <c r="P10">
-        <v>0.55</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10">
-        <v>7.05</v>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>69.63</v>
+      </c>
+      <c r="O16">
+        <v>65.5</v>
+      </c>
+      <c r="P16">
+        <v>0.87</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>35.038542</v>
+      </c>
+      <c r="E17">
+        <v>-85.265013</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>69.63</v>
+      </c>
+      <c r="O17">
+        <v>65.5</v>
+      </c>
+      <c r="P17">
+        <v>0.87</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1">
+        <v>102</v>
+      </c>
+      <c r="B18">
+        <v>102</v>
+      </c>
+      <c r="D18">
+        <v>35.03502</v>
+      </c>
+      <c r="E18">
+        <v>-85.27175200000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>67.34</v>
+      </c>
+      <c r="O18">
+        <v>64.22</v>
+      </c>
+      <c r="P18">
+        <v>0.9</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+      <c r="R18">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>103</v>
+      </c>
+      <c r="D19">
+        <v>35.03502</v>
+      </c>
+      <c r="E19">
+        <v>-85.27175200000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>67.34</v>
+      </c>
+      <c r="O19">
+        <v>64.22</v>
+      </c>
+      <c r="P19">
+        <v>0.9</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <v>5.46</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>Index</t>
   </si>
@@ -67,106 +67,118 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-07-26</t>
-  </si>
-  <si>
-    <t>18:30:00</t>
-  </si>
-  <si>
-    <t>18:15:20</t>
-  </si>
-  <si>
-    <t>17:29:03</t>
-  </si>
-  <si>
-    <t>17:28:38</t>
-  </si>
-  <si>
-    <t>17:12:30</t>
-  </si>
-  <si>
-    <t>17:12:19</t>
-  </si>
-  <si>
-    <t>16:42:25</t>
-  </si>
-  <si>
-    <t>16:20:44</t>
-  </si>
-  <si>
-    <t>15:01:41</t>
-  </si>
-  <si>
-    <t>08:26:23</t>
-  </si>
-  <si>
-    <t>08:26:05</t>
-  </si>
-  <si>
-    <t>08:25:24</t>
-  </si>
-  <si>
-    <t>07:29:19</t>
+    <t>2018-07-29</t>
+  </si>
+  <si>
+    <t>21:34:59</t>
+  </si>
+  <si>
+    <t>21:34:31</t>
+  </si>
+  <si>
+    <t>19:46:28</t>
+  </si>
+  <si>
+    <t>19:46:19</t>
+  </si>
+  <si>
+    <t>19:09:51</t>
+  </si>
+  <si>
+    <t>19:09:03</t>
+  </si>
+  <si>
+    <t>16:52:59</t>
+  </si>
+  <si>
+    <t>16:52:38</t>
+  </si>
+  <si>
+    <t>15:08:35</t>
+  </si>
+  <si>
+    <t>15:07:17</t>
+  </si>
+  <si>
+    <t>14:57:33</t>
+  </si>
+  <si>
+    <t>14:57:15</t>
+  </si>
+  <si>
+    <t>14:30:29</t>
+  </si>
+  <si>
+    <t>10:22:40</t>
+  </si>
+  <si>
+    <t>10:21:23</t>
+  </si>
+  <si>
+    <t>06:56:25</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>E 3RD ST / N HIGHLAND PARK AVE</t>
-  </si>
-  <si>
-    <t>Miles Rd / James Blvd</t>
-  </si>
-  <si>
-    <t>Bramlett Rd / Highway 58</t>
-  </si>
-  <si>
-    <t>Highway 58 / Greenwood Rd</t>
-  </si>
-  <si>
-    <t>314 Morrison Springs Rd</t>
-  </si>
-  <si>
-    <t>4287 SHALLOWFORD RD</t>
-  </si>
-  <si>
-    <t>5208 Hixson Pike</t>
-  </si>
-  <si>
-    <t>Hunter Rd / British Rd</t>
-  </si>
-  <si>
-    <t>2400 E 4th St</t>
-  </si>
-  <si>
-    <t>Derby Cir / Derby St</t>
-  </si>
-  <si>
-    <t>1-149 N WILLOW ST</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>8321 Daisy Dallas Rd</t>
+  </si>
+  <si>
+    <t>Dodds Ave / E 43rd St</t>
+  </si>
+  <si>
+    <t>5650 Old Hixson Pike</t>
+  </si>
+  <si>
+    <t>5609 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>Central Ave / E Martin Luther King Blvd</t>
+  </si>
+  <si>
+    <t>2124-2199 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>3765 CUMMINGS HWY</t>
+  </si>
+  <si>
+    <t>Standifer Gap Rd / Maplewood Dr</t>
+  </si>
+  <si>
+    <t>1201 Riverfront Pkwy</t>
+  </si>
+  <si>
+    <t>LAKESITE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>SIGNAL MOUNTAIN</t>
-  </si>
-  <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>RED BANK</t>
+    <t>partly-cloudy-night</t>
   </si>
   <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
+    <t>clear-day</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
+  </si>
+  <si>
     <t>Mostly Cloudy</t>
   </si>
   <si>
-    <t>Partly Cloudy</t>
+    <t>Clear</t>
   </si>
 </sst>
 </file>
@@ -524,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,16 +597,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>35.043083</v>
+        <v>35.203845</v>
       </c>
       <c r="E2">
-        <v>-85.277952</v>
+        <v>-85.162363</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -603,346 +615,346 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2">
-        <v>87.42</v>
+        <v>79.23</v>
       </c>
       <c r="O2">
-        <v>62.99</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="P2">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="Q2">
         <v>7</v>
       </c>
       <c r="R2">
-        <v>6.8</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>35.043083</v>
+        <v>35.203845</v>
       </c>
       <c r="E3">
-        <v>-85.277952</v>
+        <v>-85.162363</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N3">
-        <v>87.42</v>
+        <v>79.23</v>
       </c>
       <c r="O3">
-        <v>62.99</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="P3">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="Q3">
         <v>7</v>
       </c>
       <c r="R3">
-        <v>6.8</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>35.145374</v>
+        <v>34.99283</v>
       </c>
       <c r="E4">
-        <v>-85.328225</v>
+        <v>-85.28568199999999</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
       <c r="N4">
-        <v>80.69</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="O4">
-        <v>67.27</v>
+        <v>63.09</v>
       </c>
       <c r="P4">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="Q4">
         <v>7</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>35.168151</v>
+        <v>34.99283</v>
       </c>
       <c r="E5">
-        <v>-85.078096</v>
+        <v>-85.28568199999999</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N5">
-        <v>87.43000000000001</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="O5">
-        <v>63.18</v>
+        <v>63.09</v>
       </c>
       <c r="P5">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5">
-        <v>8.56</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>35.168151</v>
+        <v>35.150719</v>
       </c>
       <c r="E6">
-        <v>-85.078096</v>
+        <v>-85.224242</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N6">
-        <v>87.43000000000001</v>
+        <v>87.44</v>
       </c>
       <c r="O6">
-        <v>63.18</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="P6">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6">
-        <v>8.56</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>35.168151</v>
+        <v>35.150719</v>
       </c>
       <c r="E7">
-        <v>-85.078096</v>
+        <v>-85.224242</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N7">
-        <v>87.43000000000001</v>
+        <v>87.44</v>
       </c>
       <c r="O7">
-        <v>63.18</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="P7">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="R7">
-        <v>8.56</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>35.121052</v>
+        <v>35.010978</v>
       </c>
       <c r="E8">
-        <v>-85.294965</v>
+        <v>-85.21756499999999</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N8">
-        <v>87.12</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="O8">
-        <v>62.37</v>
+        <v>63.25</v>
       </c>
       <c r="P8">
         <v>0.44</v>
@@ -951,51 +963,51 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>6.87</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>35.121052</v>
+        <v>35.010978</v>
       </c>
       <c r="E9">
-        <v>-85.294965</v>
+        <v>-85.21756499999999</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N9">
-        <v>87.12</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="O9">
-        <v>62.37</v>
+        <v>63.25</v>
       </c>
       <c r="P9">
         <v>0.44</v>
@@ -1004,537 +1016,431 @@
         <v>7</v>
       </c>
       <c r="R9">
-        <v>6.87</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>35.045205</v>
+        <v>35.039775</v>
       </c>
       <c r="E10">
-        <v>-85.216538</v>
+        <v>-85.292119</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10">
-        <v>88.05</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="O10">
-        <v>61.79</v>
+        <v>63.17</v>
       </c>
       <c r="P10">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="Q10">
         <v>7</v>
       </c>
       <c r="R10">
-        <v>8.25</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>35.039775</v>
+      </c>
+      <c r="E11">
+        <v>-85.292119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
         <v>50</v>
       </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="D11">
-        <v>35.137202</v>
-      </c>
-      <c r="E11">
-        <v>-85.23574499999999</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11">
-        <v>88.05</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="O11">
-        <v>64.04000000000001</v>
+        <v>63.17</v>
       </c>
       <c r="P11">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="Q11">
         <v>7</v>
       </c>
       <c r="R11">
-        <v>7.5</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>35.137202</v>
+        <v>35.035658</v>
       </c>
       <c r="E12">
-        <v>-85.23574499999999</v>
+        <v>-85.152559</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N12">
-        <v>88.05</v>
+        <v>85.67</v>
       </c>
       <c r="O12">
-        <v>64.04000000000001</v>
+        <v>63.33</v>
       </c>
       <c r="P12">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="Q12">
         <v>7</v>
       </c>
       <c r="R12">
-        <v>7.5</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>35.12143</v>
+        <v>35.035658</v>
       </c>
       <c r="E13">
-        <v>-85.09732200000001</v>
+        <v>-85.152559</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13">
-        <v>88.16</v>
+        <v>85.67</v>
       </c>
       <c r="O13">
-        <v>61.49</v>
+        <v>63.33</v>
       </c>
       <c r="P13">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="Q13">
         <v>7</v>
       </c>
       <c r="R13">
-        <v>6.61</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>35.12143</v>
+        <v>35.018631</v>
       </c>
       <c r="E14">
-        <v>-85.09732200000001</v>
+        <v>-85.38312500000001</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14">
-        <v>88.16</v>
+        <v>85.02</v>
       </c>
       <c r="O14">
-        <v>61.49</v>
+        <v>63.29</v>
       </c>
       <c r="P14">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="Q14">
         <v>7</v>
       </c>
       <c r="R14">
-        <v>6.61</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>35.036718</v>
+        <v>35.032342</v>
       </c>
       <c r="E15">
-        <v>-85.26434</v>
+        <v>-85.104885</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>69.54000000000001</v>
+        <v>74.08</v>
       </c>
       <c r="O15">
-        <v>65.48999999999999</v>
+        <v>63.92</v>
       </c>
       <c r="P15">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="Q15">
         <v>7</v>
       </c>
       <c r="R15">
-        <v>5.74</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>35.038542</v>
+        <v>35.032342</v>
       </c>
       <c r="E16">
-        <v>-85.265013</v>
+        <v>-85.104885</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>69.63</v>
+        <v>74.08</v>
       </c>
       <c r="O16">
-        <v>65.5</v>
+        <v>63.92</v>
       </c>
       <c r="P16">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
       <c r="R16">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>35.038542</v>
+        <v>35.043763</v>
       </c>
       <c r="E17">
-        <v>-85.265013</v>
+        <v>-85.322155</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>69.63</v>
+        <v>67.94</v>
       </c>
       <c r="O17">
-        <v>65.5</v>
+        <v>61.74</v>
       </c>
       <c r="P17">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q17">
         <v>7</v>
       </c>
       <c r="R17">
-        <v>5.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="1">
-        <v>102</v>
-      </c>
-      <c r="B18">
-        <v>102</v>
-      </c>
-      <c r="D18">
-        <v>35.03502</v>
-      </c>
-      <c r="E18">
-        <v>-85.27175200000001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18">
-        <v>7</v>
-      </c>
-      <c r="N18">
-        <v>67.34</v>
-      </c>
-      <c r="O18">
-        <v>64.22</v>
-      </c>
-      <c r="P18">
-        <v>0.9</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
-      </c>
-      <c r="R18">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1">
-        <v>103</v>
-      </c>
-      <c r="B19">
-        <v>103</v>
-      </c>
-      <c r="D19">
-        <v>35.03502</v>
-      </c>
-      <c r="E19">
-        <v>-85.27175200000001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19">
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <v>67.34</v>
-      </c>
-      <c r="O19">
-        <v>64.22</v>
-      </c>
-      <c r="P19">
-        <v>0.9</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-      <c r="R19">
-        <v>5.46</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>Index</t>
   </si>
@@ -67,100 +67,67 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-07-29</t>
-  </si>
-  <si>
-    <t>21:34:59</t>
-  </si>
-  <si>
-    <t>21:34:31</t>
-  </si>
-  <si>
-    <t>19:46:28</t>
-  </si>
-  <si>
-    <t>19:46:19</t>
-  </si>
-  <si>
-    <t>19:09:51</t>
-  </si>
-  <si>
-    <t>19:09:03</t>
-  </si>
-  <si>
-    <t>16:52:59</t>
-  </si>
-  <si>
-    <t>16:52:38</t>
-  </si>
-  <si>
-    <t>15:08:35</t>
-  </si>
-  <si>
-    <t>15:07:17</t>
-  </si>
-  <si>
-    <t>14:57:33</t>
-  </si>
-  <si>
-    <t>14:57:15</t>
-  </si>
-  <si>
-    <t>14:30:29</t>
-  </si>
-  <si>
-    <t>10:22:40</t>
-  </si>
-  <si>
-    <t>10:21:23</t>
-  </si>
-  <si>
-    <t>06:56:25</t>
+    <t>2018-07-30</t>
+  </si>
+  <si>
+    <t>22:41:19</t>
+  </si>
+  <si>
+    <t>22:41:15</t>
+  </si>
+  <si>
+    <t>22:41:08</t>
+  </si>
+  <si>
+    <t>22:11:47</t>
+  </si>
+  <si>
+    <t>22:10:49</t>
+  </si>
+  <si>
+    <t>17:14:53</t>
+  </si>
+  <si>
+    <t>17:12:30</t>
+  </si>
+  <si>
+    <t>11:26:56</t>
+  </si>
+  <si>
+    <t>08:28:48</t>
+  </si>
+  <si>
+    <t>08:17:21</t>
+  </si>
+  <si>
+    <t>Unknown Injuries</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>8321 Daisy Dallas Rd</t>
-  </si>
-  <si>
-    <t>Dodds Ave / E 43rd St</t>
-  </si>
-  <si>
-    <t>5650 Old Hixson Pike</t>
-  </si>
-  <si>
-    <t>5609 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>Central Ave / E Martin Luther King Blvd</t>
-  </si>
-  <si>
-    <t>2124-2199 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>3765 CUMMINGS HWY</t>
-  </si>
-  <si>
-    <t>Standifer Gap Rd / Maplewood Dr</t>
-  </si>
-  <si>
-    <t>1201 Riverfront Pkwy</t>
-  </si>
-  <si>
-    <t>LAKESITE</t>
+    <t>1706 Keeble St</t>
+  </si>
+  <si>
+    <t>340 - 379 Highway 153 Nb</t>
+  </si>
+  <si>
+    <t>4700 Jersey Pike</t>
+  </si>
+  <si>
+    <t>Dayton Blvd / Signal Mountain Rd</t>
+  </si>
+  <si>
+    <t>280 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
+    <t>RED BANK</t>
   </si>
   <si>
     <t>partly-cloudy-night</t>
@@ -169,16 +136,10 @@
     <t>partly-cloudy-day</t>
   </si>
   <si>
-    <t>clear-day</t>
+    <t>Mostly Cloudy</t>
   </si>
   <si>
     <t>Partly Cloudy</t>
-  </si>
-  <si>
-    <t>Mostly Cloudy</t>
-  </si>
-  <si>
-    <t>Clear</t>
   </si>
 </sst>
 </file>
@@ -536,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,16 +558,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>35.203845</v>
+        <v>34.985927</v>
       </c>
       <c r="E2">
-        <v>-85.162363</v>
+        <v>-85.22297399999999</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -615,51 +576,51 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2">
-        <v>79.23</v>
+        <v>77.14</v>
       </c>
       <c r="O2">
-        <v>68.54000000000001</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="P2">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="Q2">
         <v>7</v>
       </c>
       <c r="R2">
-        <v>7.45</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>35.203845</v>
+        <v>34.985927</v>
       </c>
       <c r="E3">
-        <v>-85.162363</v>
+        <v>-85.22297399999999</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -668,51 +629,51 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3">
-        <v>79.23</v>
+        <v>77.14</v>
       </c>
       <c r="O3">
-        <v>68.54000000000001</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="P3">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="Q3">
         <v>7</v>
       </c>
       <c r="R3">
-        <v>7.45</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>34.99283</v>
+        <v>34.985927</v>
       </c>
       <c r="E4">
-        <v>-85.28568199999999</v>
+        <v>-85.22297399999999</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -721,51 +682,51 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N4">
-        <v>87.51000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="O4">
-        <v>63.09</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="P4">
-        <v>0.44</v>
+        <v>0.82</v>
       </c>
       <c r="Q4">
         <v>7</v>
       </c>
       <c r="R4">
-        <v>6.24</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>34.99283</v>
+        <v>35.067423</v>
       </c>
       <c r="E5">
-        <v>-85.28568199999999</v>
+        <v>-85.195768</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -774,51 +735,51 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N5">
-        <v>87.51000000000001</v>
+        <v>76.81</v>
       </c>
       <c r="O5">
-        <v>63.09</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="P5">
-        <v>0.44</v>
+        <v>0.84</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5">
-        <v>6.24</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>35.150719</v>
+        <v>35.067423</v>
       </c>
       <c r="E6">
-        <v>-85.224242</v>
+        <v>-85.195768</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -827,51 +788,51 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N6">
-        <v>87.44</v>
+        <v>76.81</v>
       </c>
       <c r="O6">
-        <v>64.51000000000001</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="P6">
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6">
-        <v>7.54</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>35.150719</v>
+        <v>35.084857</v>
       </c>
       <c r="E7">
-        <v>-85.224242</v>
+        <v>-85.184206</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -880,51 +841,51 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7">
-        <v>87.44</v>
+        <v>87.73999999999999</v>
       </c>
       <c r="O7">
-        <v>64.51000000000001</v>
+        <v>68</v>
       </c>
       <c r="P7">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="R7">
-        <v>7.54</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>35.010978</v>
+        <v>35.084857</v>
       </c>
       <c r="E8">
-        <v>-85.21756499999999</v>
+        <v>-85.184206</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -933,51 +894,51 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N8">
-        <v>87.70999999999999</v>
+        <v>87.73999999999999</v>
       </c>
       <c r="O8">
-        <v>63.25</v>
+        <v>68</v>
       </c>
       <c r="P8">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>7.57</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>35.010978</v>
+        <v>35.083977</v>
       </c>
       <c r="E9">
-        <v>-85.21756499999999</v>
+        <v>-85.317611</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -986,51 +947,51 @@
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
         <v>40</v>
       </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
       <c r="M9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N9">
-        <v>87.70999999999999</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="O9">
-        <v>63.25</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="P9">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q9">
         <v>7</v>
       </c>
       <c r="R9">
-        <v>7.57</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>35.039775</v>
+        <v>35.011441</v>
       </c>
       <c r="E10">
-        <v>-85.292119</v>
+        <v>-85.18806499999999</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1039,51 +1000,51 @@
         <v>26</v>
       </c>
       <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
         <v>41</v>
       </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
       <c r="M10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>86.73999999999999</v>
+        <v>70.87</v>
       </c>
       <c r="O10">
-        <v>63.17</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="P10">
-        <v>0.46</v>
+        <v>0.88</v>
       </c>
       <c r="Q10">
         <v>7</v>
       </c>
       <c r="R10">
-        <v>6.63</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>35.039775</v>
+        <v>35.011441</v>
       </c>
       <c r="E11">
-        <v>-85.292119</v>
+        <v>-85.18806499999999</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1092,355 +1053,37 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
         <v>41</v>
       </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
-        <v>53</v>
-      </c>
       <c r="M11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N11">
-        <v>86.73999999999999</v>
+        <v>70.87</v>
       </c>
       <c r="O11">
-        <v>63.17</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="P11">
-        <v>0.46</v>
+        <v>0.88</v>
       </c>
       <c r="Q11">
         <v>7</v>
       </c>
       <c r="R11">
-        <v>6.63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>39</v>
-      </c>
-      <c r="D12">
-        <v>35.035658</v>
-      </c>
-      <c r="E12">
-        <v>-85.152559</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12">
-        <v>14</v>
-      </c>
-      <c r="N12">
-        <v>85.67</v>
-      </c>
-      <c r="O12">
-        <v>63.33</v>
-      </c>
-      <c r="P12">
-        <v>0.47</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-      <c r="R12">
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>35.035658</v>
-      </c>
-      <c r="E13">
-        <v>-85.152559</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>85.67</v>
-      </c>
-      <c r="O13">
-        <v>63.33</v>
-      </c>
-      <c r="P13">
-        <v>0.47</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-      <c r="R13">
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="1">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>44</v>
-      </c>
-      <c r="D14">
-        <v>35.018631</v>
-      </c>
-      <c r="E14">
-        <v>-85.38312500000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>85.02</v>
-      </c>
-      <c r="O14">
-        <v>63.29</v>
-      </c>
-      <c r="P14">
-        <v>0.48</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-      <c r="R14">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1">
-        <v>64</v>
-      </c>
-      <c r="B15">
-        <v>64</v>
-      </c>
-      <c r="D15">
-        <v>35.032342</v>
-      </c>
-      <c r="E15">
-        <v>-85.104885</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>74.08</v>
-      </c>
-      <c r="O15">
-        <v>63.92</v>
-      </c>
-      <c r="P15">
-        <v>0.71</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-      <c r="R15">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1">
-        <v>65</v>
-      </c>
-      <c r="B16">
-        <v>65</v>
-      </c>
-      <c r="D16">
-        <v>35.032342</v>
-      </c>
-      <c r="E16">
-        <v>-85.104885</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-      <c r="N16">
-        <v>74.08</v>
-      </c>
-      <c r="O16">
-        <v>63.92</v>
-      </c>
-      <c r="P16">
-        <v>0.71</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-      <c r="R16">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1">
-        <v>71</v>
-      </c>
-      <c r="B17">
-        <v>71</v>
-      </c>
-      <c r="D17">
-        <v>35.043763</v>
-      </c>
-      <c r="E17">
-        <v>-85.322155</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="N17">
-        <v>67.94</v>
-      </c>
-      <c r="O17">
-        <v>61.74</v>
-      </c>
-      <c r="P17">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
+        <v>6.97</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Index</t>
   </si>
@@ -67,37 +67,37 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-07-30</t>
-  </si>
-  <si>
-    <t>22:41:19</t>
-  </si>
-  <si>
-    <t>22:41:15</t>
-  </si>
-  <si>
-    <t>22:41:08</t>
-  </si>
-  <si>
-    <t>22:11:47</t>
-  </si>
-  <si>
-    <t>22:10:49</t>
-  </si>
-  <si>
-    <t>17:14:53</t>
-  </si>
-  <si>
-    <t>17:12:30</t>
-  </si>
-  <si>
-    <t>11:26:56</t>
-  </si>
-  <si>
-    <t>08:28:48</t>
-  </si>
-  <si>
-    <t>08:17:21</t>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>20:19:29</t>
+  </si>
+  <si>
+    <t>15:10:36</t>
+  </si>
+  <si>
+    <t>15:09:35</t>
+  </si>
+  <si>
+    <t>14:10:26</t>
+  </si>
+  <si>
+    <t>14:10:09</t>
+  </si>
+  <si>
+    <t>11:53:34</t>
+  </si>
+  <si>
+    <t>10:11:54</t>
+  </si>
+  <si>
+    <t>09:34:03</t>
+  </si>
+  <si>
+    <t>08:11:42</t>
+  </si>
+  <si>
+    <t>05:24:46</t>
   </si>
   <si>
     <t>Unknown Injuries</t>
@@ -106,19 +106,31 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>1706 Keeble St</t>
-  </si>
-  <si>
-    <t>340 - 379 Highway 153 Nb</t>
-  </si>
-  <si>
-    <t>4700 Jersey Pike</t>
-  </si>
-  <si>
-    <t>Dayton Blvd / Signal Mountain Rd</t>
-  </si>
-  <si>
-    <t>280 Interstate 75 Nb</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>S SEMINOLE DR / OLD RINGGOLD RD</t>
+  </si>
+  <si>
+    <t>18240 INTERSTATE 24  WEST BOUND</t>
+  </si>
+  <si>
+    <t>2035 Tunnel Blvd</t>
+  </si>
+  <si>
+    <t>5570 HIGHWAY 153</t>
+  </si>
+  <si>
+    <t>300 INTERSTATE 75 SB</t>
+  </si>
+  <si>
+    <t>2001 Mcbrien Rd</t>
+  </si>
+  <si>
+    <t>2000 RIVERSIDE DR</t>
+  </si>
+  <si>
+    <t>S Dent Rd / Boy Scout Rd</t>
   </si>
   <si>
     <t>EAST RIDGE</t>
@@ -127,13 +139,28 @@
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>RED BANK</t>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>partly-cloudy-day</t>
   </si>
   <si>
     <t>partly-cloudy-night</t>
   </si>
   <si>
-    <t>partly-cloudy-day</t>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Humid and Mostly Cloudy</t>
   </si>
   <si>
     <t>Mostly Cloudy</t>
@@ -497,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,16 +585,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>34.985927</v>
+        <v>35.00845</v>
       </c>
       <c r="E2">
-        <v>-85.22297399999999</v>
+        <v>-85.26536900000001</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -579,48 +606,48 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>77.14</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="O2">
-        <v>71.31999999999999</v>
+        <v>67.39</v>
       </c>
       <c r="P2">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="Q2">
         <v>7</v>
       </c>
       <c r="R2">
-        <v>4.66</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>34.985927</v>
+        <v>35.021191</v>
       </c>
       <c r="E3">
-        <v>-85.22297399999999</v>
+        <v>-85.26137199999999</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -632,458 +659,511 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N3">
-        <v>77.14</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="O3">
-        <v>71.31999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="P3">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="Q3">
         <v>7</v>
       </c>
       <c r="R3">
-        <v>4.66</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>34.985927</v>
+        <v>35.021191</v>
       </c>
       <c r="E4">
-        <v>-85.22297399999999</v>
+        <v>-85.26137199999999</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N4">
-        <v>77.14</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="O4">
-        <v>71.31999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="P4">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="Q4">
         <v>7</v>
       </c>
       <c r="R4">
-        <v>4.66</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>35.067423</v>
+        <v>35.021191</v>
       </c>
       <c r="E5">
-        <v>-85.195768</v>
+        <v>-85.26137199999999</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N5">
-        <v>76.81</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="O5">
-        <v>71.48999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="P5">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="R5">
-        <v>5.1</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>35.067423</v>
+        <v>35.053408</v>
       </c>
       <c r="E6">
-        <v>-85.195768</v>
+        <v>-85.233887</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N6">
-        <v>76.81</v>
+        <v>79.95</v>
       </c>
       <c r="O6">
-        <v>71.48999999999999</v>
+        <v>72.45</v>
       </c>
       <c r="P6">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6">
-        <v>5.1</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>35.084857</v>
+        <v>35.053408</v>
       </c>
       <c r="E7">
-        <v>-85.184206</v>
+        <v>-85.233887</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N7">
-        <v>87.73999999999999</v>
+        <v>79.95</v>
       </c>
       <c r="O7">
-        <v>68</v>
+        <v>72.45</v>
       </c>
       <c r="P7">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="R7">
-        <v>7.31</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.084857</v>
+        <v>35.148367</v>
       </c>
       <c r="E8">
-        <v>-85.184206</v>
+        <v>-85.24855700000001</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>87.73999999999999</v>
+        <v>78.83</v>
       </c>
       <c r="O8">
-        <v>68</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="P8">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>7.31</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>35.083977</v>
+        <v>35.012866</v>
       </c>
       <c r="E9">
-        <v>-85.317611</v>
+        <v>-85.18423799999999</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>79.98999999999999</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="O9">
-        <v>68.98999999999999</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="P9">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="Q9">
         <v>7</v>
       </c>
       <c r="R9">
-        <v>6.97</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>35.011441</v>
+        <v>34.989014</v>
       </c>
       <c r="E10">
-        <v>-85.18806499999999</v>
+        <v>-85.239954</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>70.87</v>
+        <v>75.14</v>
       </c>
       <c r="O10">
-        <v>67.15000000000001</v>
+        <v>71.06</v>
       </c>
       <c r="P10">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="Q10">
         <v>7</v>
       </c>
       <c r="R10">
-        <v>6.97</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>35.011441</v>
+        <v>35.05854</v>
       </c>
       <c r="E11">
-        <v>-85.18806499999999</v>
+        <v>-85.275747</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M11">
         <v>8</v>
       </c>
       <c r="N11">
-        <v>70.87</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="O11">
-        <v>67.15000000000001</v>
+        <v>70.59</v>
       </c>
       <c r="P11">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="Q11">
         <v>7</v>
       </c>
       <c r="R11">
-        <v>6.97</v>
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <v>35.176328</v>
+      </c>
+      <c r="E12">
+        <v>-85.21627599999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>73.5</v>
+      </c>
+      <c r="O12">
+        <v>70.66</v>
+      </c>
+      <c r="P12">
+        <v>0.91</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>6.29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="77">
   <si>
     <t>Index</t>
   </si>
@@ -67,79 +67,166 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-07-31</t>
-  </si>
-  <si>
-    <t>20:19:29</t>
-  </si>
-  <si>
-    <t>15:10:36</t>
-  </si>
-  <si>
-    <t>15:09:35</t>
-  </si>
-  <si>
-    <t>14:10:26</t>
-  </si>
-  <si>
-    <t>14:10:09</t>
-  </si>
-  <si>
-    <t>11:53:34</t>
-  </si>
-  <si>
-    <t>10:11:54</t>
-  </si>
-  <si>
-    <t>09:34:03</t>
-  </si>
-  <si>
-    <t>08:11:42</t>
-  </si>
-  <si>
-    <t>05:24:46</t>
+    <t>2018-08-01</t>
+  </si>
+  <si>
+    <t>19:04:45</t>
+  </si>
+  <si>
+    <t>19:01:51</t>
+  </si>
+  <si>
+    <t>18:48:24</t>
+  </si>
+  <si>
+    <t>18:40:46</t>
+  </si>
+  <si>
+    <t>16:42:44</t>
+  </si>
+  <si>
+    <t>16:38:40</t>
+  </si>
+  <si>
+    <t>16:07:16</t>
+  </si>
+  <si>
+    <t>16:07:15</t>
+  </si>
+  <si>
+    <t>16:06:33</t>
+  </si>
+  <si>
+    <t>16:00:09</t>
+  </si>
+  <si>
+    <t>15:59:20</t>
+  </si>
+  <si>
+    <t>15:56:37</t>
+  </si>
+  <si>
+    <t>15:38:37</t>
+  </si>
+  <si>
+    <t>15:37:15</t>
+  </si>
+  <si>
+    <t>14:45:11</t>
+  </si>
+  <si>
+    <t>13:56:58</t>
+  </si>
+  <si>
+    <t>12:39:18</t>
+  </si>
+  <si>
+    <t>12:38:44</t>
+  </si>
+  <si>
+    <t>12:38:17</t>
+  </si>
+  <si>
+    <t>12:36:45</t>
+  </si>
+  <si>
+    <t>11:15:33</t>
+  </si>
+  <si>
+    <t>10:33:28</t>
+  </si>
+  <si>
+    <t>10:14:04</t>
+  </si>
+  <si>
+    <t>09:20:23</t>
+  </si>
+  <si>
+    <t>09:19:34</t>
+  </si>
+  <si>
+    <t>09:09:28</t>
+  </si>
+  <si>
+    <t>09:08:26</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>No Injuries</t>
   </si>
   <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>S SEMINOLE DR / OLD RINGGOLD RD</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>Edgmon Rd / Penneywood Ln</t>
+  </si>
+  <si>
+    <t>140899741 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>500-1399 Workman Rd</t>
+  </si>
+  <si>
+    <t>Wheeler Ave / Wilcox Blvd</t>
+  </si>
+  <si>
+    <t>2300 - 2325 Westside Dr</t>
+  </si>
+  <si>
+    <t>18380 INTERSTATE 24 WB</t>
+  </si>
+  <si>
+    <t>4824 Hixson Pike</t>
+  </si>
+  <si>
+    <t>1711 Tunnel Blvd</t>
+  </si>
+  <si>
+    <t>120 - 159 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>5700 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>200 - 299 Greenway View Dr</t>
+  </si>
+  <si>
+    <t>200 GREENWAY VIEW DR</t>
+  </si>
+  <si>
+    <t>2600 E 3RD ST</t>
+  </si>
+  <si>
+    <t>700 - 799 E 3rd St</t>
   </si>
   <si>
     <t>18240 INTERSTATE 24  WEST BOUND</t>
   </si>
   <si>
-    <t>2035 Tunnel Blvd</t>
-  </si>
-  <si>
-    <t>5570 HIGHWAY 153</t>
-  </si>
-  <si>
-    <t>300 INTERSTATE 75 SB</t>
-  </si>
-  <si>
-    <t>2001 Mcbrien Rd</t>
-  </si>
-  <si>
-    <t>2000 RIVERSIDE DR</t>
-  </si>
-  <si>
-    <t>S Dent Rd / Boy Scout Rd</t>
+    <t>4115 MOUNTAIN CREEK RD</t>
+  </si>
+  <si>
+    <t>1-9 Exit 1a On Ramp Nb</t>
+  </si>
+  <si>
+    <t>50 - 119 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>COLLEGEDALE</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>CHATTANOOGA</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
+    <t>partly-cloudy-day</t>
   </si>
   <si>
     <t>cloudy</t>
@@ -148,25 +235,16 @@
     <t>rain</t>
   </si>
   <si>
-    <t>partly-cloudy-day</t>
-  </si>
-  <si>
-    <t>partly-cloudy-night</t>
+    <t>Mostly Cloudy</t>
   </si>
   <si>
     <t>Overcast</t>
   </si>
   <si>
+    <t>Light Rain</t>
+  </si>
+  <si>
     <t>Rain</t>
-  </si>
-  <si>
-    <t>Humid and Mostly Cloudy</t>
-  </si>
-  <si>
-    <t>Mostly Cloudy</t>
-  </si>
-  <si>
-    <t>Partly Cloudy</t>
   </si>
 </sst>
 </file>
@@ -524,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,16 +663,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>35.00845</v>
+        <v>35.067809</v>
       </c>
       <c r="E2">
-        <v>-85.26536900000001</v>
+        <v>-85.03793</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -603,51 +681,51 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2">
-        <v>70.09999999999999</v>
+        <v>70.73</v>
       </c>
       <c r="O2">
-        <v>67.39</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="P2">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2">
-        <v>5.25</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>35.021191</v>
+        <v>35.067809</v>
       </c>
       <c r="E3">
-        <v>-85.26137199999999</v>
+        <v>-85.03793</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -656,514 +734,1362 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N3">
-        <v>78.76000000000001</v>
+        <v>70.73</v>
       </c>
       <c r="O3">
-        <v>71.91</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="P3">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>3.27</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>35.021191</v>
+        <v>35.105349</v>
       </c>
       <c r="E4">
-        <v>-85.26137199999999</v>
+        <v>-85.051507</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N4">
-        <v>78.76000000000001</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="O4">
-        <v>71.91</v>
+        <v>69.41</v>
       </c>
       <c r="P4">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>3.27</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>35.021191</v>
+        <v>34.994376</v>
       </c>
       <c r="E5">
-        <v>-85.26137199999999</v>
+        <v>-85.302288</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N5">
-        <v>78.76000000000001</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="O5">
-        <v>71.91</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="P5">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>3.27</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>35.053408</v>
+        <v>35.052089</v>
       </c>
       <c r="E6">
-        <v>-85.233887</v>
+        <v>-85.25749399999999</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N6">
-        <v>79.95</v>
+        <v>71.52</v>
       </c>
       <c r="O6">
-        <v>72.45</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="P6">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>5.28</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>35.053408</v>
+        <v>35.01572</v>
       </c>
       <c r="E7">
-        <v>-85.233887</v>
+        <v>-85.273583</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N7">
-        <v>79.95</v>
+        <v>71.45</v>
       </c>
       <c r="O7">
-        <v>72.45</v>
+        <v>69.31</v>
       </c>
       <c r="P7">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>5.28</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>35.148367</v>
+        <v>35.010064</v>
       </c>
       <c r="E8">
-        <v>-85.24855700000001</v>
+        <v>-85.24105400000001</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N8">
-        <v>78.83</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="O8">
-        <v>71.51000000000001</v>
+        <v>69.13</v>
       </c>
       <c r="P8">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8">
-        <v>5.7</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>35.012866</v>
+        <v>35.010064</v>
       </c>
       <c r="E9">
-        <v>-85.18423799999999</v>
+        <v>-85.24105400000001</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N9">
-        <v>76.51000000000001</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="O9">
-        <v>71.76000000000001</v>
+        <v>69.13</v>
       </c>
       <c r="P9">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R9">
-        <v>4.96</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>34.989014</v>
+        <v>35.010064</v>
       </c>
       <c r="E10">
-        <v>-85.239954</v>
+        <v>-85.24105400000001</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N10">
-        <v>75.14</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="O10">
-        <v>71.06</v>
+        <v>69.13</v>
       </c>
       <c r="P10">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R10">
-        <v>4.7</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>35.05854</v>
+        <v>35.010064</v>
       </c>
       <c r="E11">
-        <v>-85.275747</v>
+        <v>-85.24105400000001</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N11">
-        <v>74.59999999999999</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="O11">
-        <v>70.59</v>
+        <v>69.13</v>
       </c>
       <c r="P11">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R11">
-        <v>5.88</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>35.010064</v>
+      </c>
+      <c r="E12">
+        <v>-85.24105400000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
         <v>73</v>
       </c>
-      <c r="B12">
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>71.34</v>
+      </c>
+      <c r="O12">
+        <v>69.17</v>
+      </c>
+      <c r="P12">
+        <v>0.93</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>35.127564</v>
+      </c>
+      <c r="E13">
+        <v>-85.246298</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
         <v>73</v>
       </c>
-      <c r="D12">
-        <v>35.176328</v>
-      </c>
-      <c r="E12">
-        <v>-85.21627599999999</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>71.92</v>
+      </c>
+      <c r="O13">
+        <v>69.58</v>
+      </c>
+      <c r="P13">
+        <v>0.92</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>35.048638</v>
+      </c>
+      <c r="E14">
+        <v>-85.236902</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>71.17</v>
+      </c>
+      <c r="O14">
+        <v>69.13</v>
+      </c>
+      <c r="P14">
+        <v>0.93</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>35.048638</v>
+      </c>
+      <c r="E15">
+        <v>-85.236902</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>71.17</v>
+      </c>
+      <c r="O15">
+        <v>69.13</v>
+      </c>
+      <c r="P15">
+        <v>0.93</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1">
+        <v>91</v>
+      </c>
+      <c r="B16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>35.001294</v>
+      </c>
+      <c r="E16">
+        <v>-85.210866</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>71.5</v>
+      </c>
+      <c r="O16">
+        <v>68.98</v>
+      </c>
+      <c r="P16">
+        <v>0.92</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>105</v>
+      </c>
+      <c r="D17">
+        <v>35.011607</v>
+      </c>
+      <c r="E17">
+        <v>-85.21422</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>71.22</v>
+      </c>
+      <c r="O17">
+        <v>68.8</v>
+      </c>
+      <c r="P17">
+        <v>0.92</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1">
+        <v>127</v>
+      </c>
+      <c r="B18">
+        <v>127</v>
+      </c>
+      <c r="D18">
+        <v>35.013904</v>
+      </c>
+      <c r="E18">
+        <v>-85.211097</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>70.7</v>
+      </c>
+      <c r="O18">
+        <v>68.53</v>
+      </c>
+      <c r="P18">
+        <v>0.93</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
+        <v>128</v>
+      </c>
+      <c r="B19">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <v>35.013904</v>
+      </c>
+      <c r="E19">
+        <v>-85.211097</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>70.7</v>
+      </c>
+      <c r="O19">
+        <v>68.53</v>
+      </c>
+      <c r="P19">
+        <v>0.93</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1">
+        <v>131</v>
+      </c>
+      <c r="B20">
+        <v>131</v>
+      </c>
+      <c r="D20">
+        <v>35.013904</v>
+      </c>
+      <c r="E20">
+        <v>-85.211097</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20">
+        <v>12</v>
+      </c>
+      <c r="N20">
+        <v>70.7</v>
+      </c>
+      <c r="O20">
+        <v>68.53</v>
+      </c>
+      <c r="P20">
+        <v>0.93</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1">
+        <v>133</v>
+      </c>
+      <c r="B21">
+        <v>133</v>
+      </c>
+      <c r="D21">
+        <v>35.036828</v>
+      </c>
+      <c r="E21">
+        <v>-85.261088</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>70.12</v>
+      </c>
+      <c r="O21">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.95</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1">
+        <v>144</v>
+      </c>
+      <c r="B22">
+        <v>144</v>
+      </c>
+      <c r="D22">
+        <v>35.051994</v>
+      </c>
+      <c r="E22">
+        <v>-85.301304</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
         <v>38</v>
       </c>
-      <c r="J12" t="s">
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>69.67</v>
+      </c>
+      <c r="O22">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.96</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1">
+        <v>149</v>
+      </c>
+      <c r="B23">
+        <v>149</v>
+      </c>
+      <c r="D23">
+        <v>35.021191</v>
+      </c>
+      <c r="E23">
+        <v>-85.26137199999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>68.91</v>
+      </c>
+      <c r="O23">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="P23">
+        <v>0.98</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1">
+        <v>151</v>
+      </c>
+      <c r="B24">
+        <v>151</v>
+      </c>
+      <c r="D24">
+        <v>35.131138</v>
+      </c>
+      <c r="E24">
+        <v>-85.309696</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>69.14</v>
+      </c>
+      <c r="O24">
+        <v>68.42</v>
+      </c>
+      <c r="P24">
+        <v>0.98</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1">
+        <v>157</v>
+      </c>
+      <c r="B25">
+        <v>157</v>
+      </c>
+      <c r="D25">
+        <v>34.989284</v>
+      </c>
+      <c r="E25">
+        <v>-85.203158</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
         <v>41</v>
       </c>
-      <c r="K12" t="s">
+      <c r="H25" t="s">
         <v>45</v>
       </c>
-      <c r="L12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>73.5</v>
-      </c>
-      <c r="O12">
-        <v>70.66</v>
-      </c>
-      <c r="P12">
-        <v>0.91</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-      <c r="R12">
-        <v>6.29</v>
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>69.77</v>
+      </c>
+      <c r="O25">
+        <v>68.39</v>
+      </c>
+      <c r="P25">
+        <v>0.95</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1">
+        <v>158</v>
+      </c>
+      <c r="B26">
+        <v>158</v>
+      </c>
+      <c r="D26">
+        <v>34.989284</v>
+      </c>
+      <c r="E26">
+        <v>-85.203158</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>69.77</v>
+      </c>
+      <c r="O26">
+        <v>68.39</v>
+      </c>
+      <c r="P26">
+        <v>0.95</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1">
+        <v>160</v>
+      </c>
+      <c r="B27">
+        <v>160</v>
+      </c>
+      <c r="D27">
+        <v>34.993245</v>
+      </c>
+      <c r="E27">
+        <v>-85.205913</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27">
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <v>69.78</v>
+      </c>
+      <c r="O27">
+        <v>68.39</v>
+      </c>
+      <c r="P27">
+        <v>0.95</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1">
+        <v>161</v>
+      </c>
+      <c r="B28">
+        <v>161</v>
+      </c>
+      <c r="D28">
+        <v>34.993245</v>
+      </c>
+      <c r="E28">
+        <v>-85.205913</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
+      <c r="N28">
+        <v>69.78</v>
+      </c>
+      <c r="O28">
+        <v>68.39</v>
+      </c>
+      <c r="P28">
+        <v>0.95</v>
+      </c>
+      <c r="Q28">
+        <v>8</v>
+      </c>
+      <c r="R28">
+        <v>2.21</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="95">
   <si>
     <t>Index</t>
   </si>
@@ -67,88 +67,118 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>2018-08-01</t>
-  </si>
-  <si>
-    <t>19:04:45</t>
-  </si>
-  <si>
-    <t>19:01:51</t>
-  </si>
-  <si>
-    <t>18:48:24</t>
-  </si>
-  <si>
-    <t>18:40:46</t>
-  </si>
-  <si>
-    <t>16:42:44</t>
-  </si>
-  <si>
-    <t>16:38:40</t>
-  </si>
-  <si>
-    <t>16:07:16</t>
-  </si>
-  <si>
-    <t>16:07:15</t>
-  </si>
-  <si>
-    <t>16:06:33</t>
-  </si>
-  <si>
-    <t>16:00:09</t>
-  </si>
-  <si>
-    <t>15:59:20</t>
-  </si>
-  <si>
-    <t>15:56:37</t>
-  </si>
-  <si>
-    <t>15:38:37</t>
-  </si>
-  <si>
-    <t>15:37:15</t>
-  </si>
-  <si>
-    <t>14:45:11</t>
-  </si>
-  <si>
-    <t>13:56:58</t>
-  </si>
-  <si>
-    <t>12:39:18</t>
-  </si>
-  <si>
-    <t>12:38:44</t>
-  </si>
-  <si>
-    <t>12:38:17</t>
-  </si>
-  <si>
-    <t>12:36:45</t>
-  </si>
-  <si>
-    <t>11:15:33</t>
-  </si>
-  <si>
-    <t>10:33:28</t>
-  </si>
-  <si>
-    <t>10:14:04</t>
-  </si>
-  <si>
-    <t>09:20:23</t>
-  </si>
-  <si>
-    <t>09:19:34</t>
-  </si>
-  <si>
-    <t>09:09:28</t>
-  </si>
-  <si>
-    <t>09:08:26</t>
+    <t>2018-08-02</t>
+  </si>
+  <si>
+    <t>16:47:47</t>
+  </si>
+  <si>
+    <t>16:46:47</t>
+  </si>
+  <si>
+    <t>15:59:46</t>
+  </si>
+  <si>
+    <t>15:59:30</t>
+  </si>
+  <si>
+    <t>15:13:54</t>
+  </si>
+  <si>
+    <t>15:08:25</t>
+  </si>
+  <si>
+    <t>15:08:06</t>
+  </si>
+  <si>
+    <t>15:01:24</t>
+  </si>
+  <si>
+    <t>15:00:57</t>
+  </si>
+  <si>
+    <t>15:00:51</t>
+  </si>
+  <si>
+    <t>14:59:30</t>
+  </si>
+  <si>
+    <t>14:52:16</t>
+  </si>
+  <si>
+    <t>14:50:39</t>
+  </si>
+  <si>
+    <t>14:50:31</t>
+  </si>
+  <si>
+    <t>14:49:59</t>
+  </si>
+  <si>
+    <t>14:49:42</t>
+  </si>
+  <si>
+    <t>14:28:22</t>
+  </si>
+  <si>
+    <t>14:27:35</t>
+  </si>
+  <si>
+    <t>14:19:16</t>
+  </si>
+  <si>
+    <t>14:09:22</t>
+  </si>
+  <si>
+    <t>13:58:11</t>
+  </si>
+  <si>
+    <t>13:32:14</t>
+  </si>
+  <si>
+    <t>13:06:56</t>
+  </si>
+  <si>
+    <t>13:06:55</t>
+  </si>
+  <si>
+    <t>12:43:19</t>
+  </si>
+  <si>
+    <t>12:40:31</t>
+  </si>
+  <si>
+    <t>12:27:33</t>
+  </si>
+  <si>
+    <t>12:09:36</t>
+  </si>
+  <si>
+    <t>12:09:35</t>
+  </si>
+  <si>
+    <t>09:40:13</t>
+  </si>
+  <si>
+    <t>09:28:27</t>
+  </si>
+  <si>
+    <t>08:45:50</t>
+  </si>
+  <si>
+    <t>08:44:41</t>
+  </si>
+  <si>
+    <t>08:12:09</t>
+  </si>
+  <si>
+    <t>07:35:14</t>
+  </si>
+  <si>
+    <t>07:34:48</t>
+  </si>
+  <si>
+    <t>05:57:53</t>
   </si>
   <si>
     <t>Injuries</t>
@@ -163,88 +193,112 @@
     <t>Entrapment</t>
   </si>
   <si>
-    <t>Edgmon Rd / Penneywood Ln</t>
-  </si>
-  <si>
-    <t>140899741 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>500-1399 Workman Rd</t>
-  </si>
-  <si>
-    <t>Wheeler Ave / Wilcox Blvd</t>
-  </si>
-  <si>
-    <t>2300 - 2325 Westside Dr</t>
-  </si>
-  <si>
-    <t>18380 INTERSTATE 24 WB</t>
-  </si>
-  <si>
-    <t>4824 Hixson Pike</t>
-  </si>
-  <si>
-    <t>1711 Tunnel Blvd</t>
-  </si>
-  <si>
-    <t>120 - 159 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>5700 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>200 - 299 Greenway View Dr</t>
-  </si>
-  <si>
-    <t>200 GREENWAY VIEW DR</t>
-  </si>
-  <si>
-    <t>2600 E 3RD ST</t>
-  </si>
-  <si>
-    <t>700 - 799 E 3rd St</t>
-  </si>
-  <si>
-    <t>18240 INTERSTATE 24  WEST BOUND</t>
-  </si>
-  <si>
-    <t>4115 MOUNTAIN CREEK RD</t>
-  </si>
-  <si>
-    <t>1-9 Exit 1a On Ramp Nb</t>
-  </si>
-  <si>
-    <t>50 - 119 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>COLLEGEDALE</t>
+    <t>1-9 EXIT INTERSTATE 24 W OFF RAMP SB</t>
+  </si>
+  <si>
+    <t>Dallas Hollow Rd / Hixson Pike</t>
+  </si>
+  <si>
+    <t>1500 INTERSTATE 75  SOUTH BOUND</t>
+  </si>
+  <si>
+    <t>Prater Rd / Ringgold Rd</t>
+  </si>
+  <si>
+    <t>Ringgold Rd / Prater Rd</t>
+  </si>
+  <si>
+    <t>2100 - 2199 Bailey Ave</t>
+  </si>
+  <si>
+    <t>S Willow St / Bailey Ave</t>
+  </si>
+  <si>
+    <t>Bailey Ave / S Willow St</t>
+  </si>
+  <si>
+    <t>1 - 9 Exit Interstate 75 Off Ramp Nb</t>
+  </si>
+  <si>
+    <t>500 HIGHWAY 153 NB</t>
+  </si>
+  <si>
+    <t>500 Highway 153 Nb</t>
+  </si>
+  <si>
+    <t>Highway 153 Nb / Exit Highway 58 N Off Ramp Nb</t>
+  </si>
+  <si>
+    <t>4079 Amnicola Hwy</t>
+  </si>
+  <si>
+    <t>Dupont Pkwy Nb / Exit Amnicola Hwy On E Ramp Nb</t>
+  </si>
+  <si>
+    <t>4067 S ACCESS RD</t>
+  </si>
+  <si>
+    <t>1900 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>5764 Highway 153</t>
+  </si>
+  <si>
+    <t>3902 Bennett Rd</t>
+  </si>
+  <si>
+    <t>Navajo Dr / S Seminole Dr</t>
+  </si>
+  <si>
+    <t>18010-18029 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>9301 Lee Hwy</t>
+  </si>
+  <si>
+    <t>4120-4624 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>1006-1399 W 37th St</t>
+  </si>
+  <si>
+    <t>1510 - 1521 Mcbrien Rd</t>
+  </si>
+  <si>
+    <t>1900 N CONCORD RD</t>
+  </si>
+  <si>
+    <t>60 HIGHWAY 153 NB</t>
+  </si>
+  <si>
+    <t>18200 INTERSTATE 24  WEST BOUND</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>partly-cloudy-day</t>
+    <t>rain</t>
   </si>
   <si>
     <t>cloudy</t>
   </si>
   <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>Mostly Cloudy</t>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Light Rain</t>
   </si>
   <si>
     <t>Overcast</t>
-  </si>
-  <si>
-    <t>Light Rain</t>
-  </si>
-  <si>
-    <t>Rain</t>
   </si>
 </sst>
 </file>
@@ -602,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,16 +717,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>35.067809</v>
+        <v>35.035472</v>
       </c>
       <c r="E2">
-        <v>-85.03793</v>
+        <v>-85.319542</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -681,51 +735,51 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N2">
-        <v>70.73</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="O2">
-        <v>69.54000000000001</v>
+        <v>70.63</v>
       </c>
       <c r="P2">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="Q2">
         <v>8</v>
       </c>
       <c r="R2">
-        <v>6.39</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>35.067809</v>
+        <v>35.035472</v>
       </c>
       <c r="E3">
-        <v>-85.03793</v>
+        <v>-85.319542</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -734,51 +788,51 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N3">
-        <v>70.73</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="O3">
-        <v>69.54000000000001</v>
+        <v>70.63</v>
       </c>
       <c r="P3">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="Q3">
         <v>8</v>
       </c>
       <c r="R3">
-        <v>6.39</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>35.105349</v>
+        <v>35.273635</v>
       </c>
       <c r="E4">
-        <v>-85.051507</v>
+        <v>-85.143683</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -787,51 +841,51 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N4">
-        <v>71.48999999999999</v>
+        <v>72.37</v>
       </c>
       <c r="O4">
-        <v>69.41</v>
+        <v>70.97</v>
       </c>
       <c r="P4">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="Q4">
         <v>8</v>
       </c>
       <c r="R4">
-        <v>6.54</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>34.994376</v>
+        <v>35.273635</v>
       </c>
       <c r="E5">
-        <v>-85.302288</v>
+        <v>-85.143683</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -840,51 +894,51 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N5">
-        <v>71.76000000000001</v>
+        <v>72.37</v>
       </c>
       <c r="O5">
-        <v>68.45999999999999</v>
+        <v>70.97</v>
       </c>
       <c r="P5">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="Q5">
         <v>8</v>
       </c>
       <c r="R5">
-        <v>5.97</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>35.052089</v>
+        <v>35.126242</v>
       </c>
       <c r="E6">
-        <v>-85.25749399999999</v>
+        <v>-85.036728</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -893,293 +947,293 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6">
-        <v>71.52</v>
+        <v>72.7</v>
       </c>
       <c r="O6">
-        <v>69.18000000000001</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="P6">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="Q6">
         <v>8</v>
       </c>
       <c r="R6">
-        <v>4.54</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>35.01572</v>
+        <v>35.126242</v>
       </c>
       <c r="E7">
-        <v>-85.273583</v>
+        <v>-85.036728</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7">
-        <v>71.45</v>
+        <v>72.7</v>
       </c>
       <c r="O7">
-        <v>69.31</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="P7">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="Q7">
         <v>8</v>
       </c>
       <c r="R7">
-        <v>4.38</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>35.010064</v>
+        <v>34.990126</v>
       </c>
       <c r="E8">
-        <v>-85.24105400000001</v>
+        <v>-85.216354</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>71.54000000000001</v>
+        <v>73.52</v>
       </c>
       <c r="O8">
-        <v>69.13</v>
+        <v>70.78</v>
       </c>
       <c r="P8">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="Q8">
         <v>8</v>
       </c>
       <c r="R8">
-        <v>4.57</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>35.010064</v>
+        <v>34.990126</v>
       </c>
       <c r="E9">
-        <v>-85.24105400000001</v>
+        <v>-85.216354</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>71.54000000000001</v>
+        <v>73.52</v>
       </c>
       <c r="O9">
-        <v>69.13</v>
+        <v>70.78</v>
       </c>
       <c r="P9">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9">
-        <v>4.57</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>35.010064</v>
+        <v>34.990126</v>
       </c>
       <c r="E10">
-        <v>-85.24105400000001</v>
+        <v>-85.216354</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10">
-        <v>71.54000000000001</v>
+        <v>73.52</v>
       </c>
       <c r="O10">
-        <v>69.13</v>
+        <v>70.78</v>
       </c>
       <c r="P10">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="Q10">
         <v>8</v>
       </c>
       <c r="R10">
-        <v>4.57</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>35.032371</v>
+      </c>
+      <c r="E11">
+        <v>-85.273219</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
         <v>64</v>
       </c>
-      <c r="B11">
-        <v>64</v>
-      </c>
-      <c r="D11">
-        <v>35.010064</v>
-      </c>
-      <c r="E11">
-        <v>-85.24105400000001</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11">
-        <v>71.54000000000001</v>
+        <v>73.17</v>
       </c>
       <c r="O11">
-        <v>69.13</v>
+        <v>70.67</v>
       </c>
       <c r="P11">
         <v>0.92</v>
@@ -1188,104 +1242,104 @@
         <v>8</v>
       </c>
       <c r="R11">
-        <v>4.57</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.010064</v>
+        <v>35.032371</v>
       </c>
       <c r="E12">
-        <v>-85.24105400000001</v>
+        <v>-85.273219</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M12">
         <v>15</v>
       </c>
       <c r="N12">
-        <v>71.34</v>
+        <v>73.17</v>
       </c>
       <c r="O12">
-        <v>69.17</v>
+        <v>70.67</v>
       </c>
       <c r="P12">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q12">
         <v>8</v>
       </c>
       <c r="R12">
-        <v>5.29</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>35.127564</v>
+        <v>35.032371</v>
       </c>
       <c r="E13">
-        <v>-85.246298</v>
+        <v>-85.273219</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M13">
         <v>15</v>
       </c>
       <c r="N13">
-        <v>71.92</v>
+        <v>73.17</v>
       </c>
       <c r="O13">
-        <v>69.58</v>
+        <v>70.67</v>
       </c>
       <c r="P13">
         <v>0.92</v>
@@ -1294,157 +1348,157 @@
         <v>8</v>
       </c>
       <c r="R13">
-        <v>5.68</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>35.048638</v>
+        <v>35.032371</v>
       </c>
       <c r="E14">
-        <v>-85.236902</v>
+        <v>-85.273219</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M14">
         <v>15</v>
       </c>
       <c r="N14">
-        <v>71.17</v>
+        <v>73.17</v>
       </c>
       <c r="O14">
-        <v>69.13</v>
+        <v>70.67</v>
       </c>
       <c r="P14">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q14">
         <v>8</v>
       </c>
       <c r="R14">
-        <v>5.32</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>35.048638</v>
+        <v>35.032371</v>
       </c>
       <c r="E15">
-        <v>-85.236902</v>
+        <v>-85.273219</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M15">
         <v>15</v>
       </c>
       <c r="N15">
-        <v>71.17</v>
+        <v>73.17</v>
       </c>
       <c r="O15">
-        <v>69.13</v>
+        <v>70.67</v>
       </c>
       <c r="P15">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q15">
         <v>8</v>
       </c>
       <c r="R15">
-        <v>5.32</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>35.001294</v>
+        <v>35.032371</v>
       </c>
       <c r="E16">
-        <v>-85.210866</v>
+        <v>-85.273219</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N16">
-        <v>71.5</v>
+        <v>73.17</v>
       </c>
       <c r="O16">
-        <v>68.98</v>
+        <v>70.67</v>
       </c>
       <c r="P16">
         <v>0.92</v>
@@ -1453,263 +1507,263 @@
         <v>8</v>
       </c>
       <c r="R16">
-        <v>5.1</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D17">
-        <v>35.011607</v>
+        <v>35.028192</v>
       </c>
       <c r="E17">
-        <v>-85.21422</v>
+        <v>-85.17723100000001</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N17">
-        <v>71.22</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="O17">
-        <v>68.8</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="P17">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q17">
         <v>8</v>
       </c>
       <c r="R17">
-        <v>5.57</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="B18">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>35.013904</v>
+        <v>35.126242</v>
       </c>
       <c r="E18">
-        <v>-85.211097</v>
+        <v>-85.036728</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N18">
-        <v>70.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="O18">
-        <v>68.53</v>
+        <v>70.98</v>
       </c>
       <c r="P18">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="Q18">
         <v>8</v>
       </c>
       <c r="R18">
-        <v>2.88</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B19">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>35.013904</v>
+        <v>35.086065</v>
       </c>
       <c r="E19">
-        <v>-85.211097</v>
+        <v>-85.211434</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N19">
-        <v>70.7</v>
+        <v>72.12</v>
       </c>
       <c r="O19">
-        <v>68.53</v>
+        <v>70.62</v>
       </c>
       <c r="P19">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="Q19">
         <v>8</v>
       </c>
       <c r="R19">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B20">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>35.013904</v>
+        <v>35.086065</v>
       </c>
       <c r="E20">
-        <v>-85.211097</v>
+        <v>-85.211434</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N20">
-        <v>70.7</v>
+        <v>72.12</v>
       </c>
       <c r="O20">
-        <v>68.53</v>
+        <v>70.62</v>
       </c>
       <c r="P20">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="Q20">
         <v>8</v>
       </c>
       <c r="R20">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="B21">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>35.036828</v>
+        <v>35.081075</v>
       </c>
       <c r="E21">
-        <v>-85.261088</v>
+        <v>-85.204961</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N21">
-        <v>70.12</v>
+        <v>72.08</v>
       </c>
       <c r="O21">
-        <v>68.76000000000001</v>
+        <v>70.61</v>
       </c>
       <c r="P21">
         <v>0.95</v>
@@ -1718,210 +1772,210 @@
         <v>8</v>
       </c>
       <c r="R21">
-        <v>2.91</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="B22">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="D22">
-        <v>35.051994</v>
+        <v>35.086065</v>
       </c>
       <c r="E22">
-        <v>-85.301304</v>
+        <v>-85.211434</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N22">
-        <v>69.67</v>
+        <v>72.12</v>
       </c>
       <c r="O22">
-        <v>68.51000000000001</v>
+        <v>70.62</v>
       </c>
       <c r="P22">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="Q22">
         <v>8</v>
       </c>
       <c r="R22">
-        <v>2.07</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="B23">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="D23">
-        <v>35.021191</v>
+        <v>35.0966</v>
       </c>
       <c r="E23">
-        <v>-85.26137199999999</v>
+        <v>-85.252005</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N23">
-        <v>68.91</v>
+        <v>72.56</v>
       </c>
       <c r="O23">
-        <v>68.34999999999999</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="P23">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="Q23">
         <v>8</v>
       </c>
       <c r="R23">
-        <v>1.6</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>35.131138</v>
+        <v>35.097725</v>
       </c>
       <c r="E24">
-        <v>-85.309696</v>
+        <v>-85.251357</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N24">
-        <v>69.14</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="O24">
-        <v>68.42</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="P24">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="Q24">
         <v>8</v>
       </c>
       <c r="R24">
-        <v>1.72</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="B25">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="D25">
-        <v>34.989284</v>
+        <v>35.084546</v>
       </c>
       <c r="E25">
-        <v>-85.203158</v>
+        <v>-85.213905</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N25">
-        <v>69.77</v>
+        <v>72.19</v>
       </c>
       <c r="O25">
-        <v>68.39</v>
+        <v>70.58</v>
       </c>
       <c r="P25">
         <v>0.95</v>
@@ -1930,104 +1984,104 @@
         <v>8</v>
       </c>
       <c r="R25">
-        <v>2.18</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="B26">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D26">
-        <v>34.989284</v>
+        <v>35.027055</v>
       </c>
       <c r="E26">
-        <v>-85.203158</v>
+        <v>-85.156695</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M26">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N26">
-        <v>69.77</v>
+        <v>72.7</v>
       </c>
       <c r="O26">
-        <v>68.39</v>
+        <v>70.83</v>
       </c>
       <c r="P26">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q26">
         <v>8</v>
       </c>
       <c r="R26">
-        <v>2.18</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="B27">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D27">
-        <v>34.993245</v>
+        <v>35.152975</v>
       </c>
       <c r="E27">
-        <v>-85.205913</v>
+        <v>-85.24562</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N27">
-        <v>69.78</v>
+        <v>71.7</v>
       </c>
       <c r="O27">
-        <v>68.39</v>
+        <v>70.12</v>
       </c>
       <c r="P27">
         <v>0.95</v>
@@ -2036,51 +2090,51 @@
         <v>8</v>
       </c>
       <c r="R27">
-        <v>2.21</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="B28">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="D28">
-        <v>34.993245</v>
+        <v>34.994309</v>
       </c>
       <c r="E28">
-        <v>-85.205913</v>
+        <v>-85.255627</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>69.78</v>
+        <v>71.7</v>
       </c>
       <c r="O28">
-        <v>68.39</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="P28">
         <v>0.95</v>
@@ -2089,7 +2143,855 @@
         <v>8</v>
       </c>
       <c r="R28">
-        <v>2.21</v>
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1">
+        <v>111</v>
+      </c>
+      <c r="B29">
+        <v>111</v>
+      </c>
+      <c r="D29">
+        <v>35.022773</v>
+      </c>
+      <c r="E29">
+        <v>-85.25858100000001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
+      </c>
+      <c r="N29">
+        <v>71.26000000000001</v>
+      </c>
+      <c r="O29">
+        <v>70.05</v>
+      </c>
+      <c r="P29">
+        <v>0.96</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1">
+        <v>112</v>
+      </c>
+      <c r="B30">
+        <v>112</v>
+      </c>
+      <c r="D30">
+        <v>35.022773</v>
+      </c>
+      <c r="E30">
+        <v>-85.25858100000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30">
+        <v>13</v>
+      </c>
+      <c r="N30">
+        <v>71.26000000000001</v>
+      </c>
+      <c r="O30">
+        <v>70.05</v>
+      </c>
+      <c r="P30">
+        <v>0.96</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+      <c r="R30">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1">
+        <v>119</v>
+      </c>
+      <c r="B31">
+        <v>119</v>
+      </c>
+      <c r="D31">
+        <v>35.022773</v>
+      </c>
+      <c r="E31">
+        <v>-85.25858100000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>70.72</v>
+      </c>
+      <c r="O31">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="P31">
+        <v>0.95</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1">
+        <v>120</v>
+      </c>
+      <c r="B32">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <v>35.022773</v>
+      </c>
+      <c r="E32">
+        <v>-85.25858100000001</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" t="s">
+        <v>92</v>
+      </c>
+      <c r="M32">
+        <v>12</v>
+      </c>
+      <c r="N32">
+        <v>70.72</v>
+      </c>
+      <c r="O32">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="P32">
+        <v>0.95</v>
+      </c>
+      <c r="Q32">
+        <v>8</v>
+      </c>
+      <c r="R32">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1">
+        <v>126</v>
+      </c>
+      <c r="B33">
+        <v>126</v>
+      </c>
+      <c r="D33">
+        <v>35.019031</v>
+      </c>
+      <c r="E33">
+        <v>-85.29516099999999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" t="s">
+        <v>92</v>
+      </c>
+      <c r="M33">
+        <v>12</v>
+      </c>
+      <c r="N33">
+        <v>71.63</v>
+      </c>
+      <c r="O33">
+        <v>69.11</v>
+      </c>
+      <c r="P33">
+        <v>0.92</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1">
+        <v>133</v>
+      </c>
+      <c r="B34">
+        <v>133</v>
+      </c>
+      <c r="D34">
+        <v>35.082749</v>
+      </c>
+      <c r="E34">
+        <v>-85.05853999999999</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34">
+        <v>12</v>
+      </c>
+      <c r="N34">
+        <v>71.36</v>
+      </c>
+      <c r="O34">
+        <v>69.76000000000001</v>
+      </c>
+      <c r="P34">
+        <v>0.95</v>
+      </c>
+      <c r="Q34">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>134</v>
+      </c>
+      <c r="D35">
+        <v>35.082749</v>
+      </c>
+      <c r="E35">
+        <v>-85.05853999999999</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>71.36</v>
+      </c>
+      <c r="O35">
+        <v>69.76000000000001</v>
+      </c>
+      <c r="P35">
+        <v>0.95</v>
+      </c>
+      <c r="Q35">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1">
+        <v>146</v>
+      </c>
+      <c r="B36">
+        <v>146</v>
+      </c>
+      <c r="D36">
+        <v>35.046216</v>
+      </c>
+      <c r="E36">
+        <v>-85.215715</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" t="s">
+        <v>93</v>
+      </c>
+      <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="N36">
+        <v>70.04000000000001</v>
+      </c>
+      <c r="O36">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="P36">
+        <v>0.95</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="1">
+        <v>149</v>
+      </c>
+      <c r="B37">
+        <v>149</v>
+      </c>
+      <c r="D37">
+        <v>35.011209</v>
+      </c>
+      <c r="E37">
+        <v>-85.321765</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" t="s">
+        <v>93</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <v>70.17</v>
+      </c>
+      <c r="O37">
+        <v>68.84</v>
+      </c>
+      <c r="P37">
+        <v>0.96</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="1">
+        <v>156</v>
+      </c>
+      <c r="B38">
+        <v>156</v>
+      </c>
+      <c r="D38">
+        <v>34.994783</v>
+      </c>
+      <c r="E38">
+        <v>-85.235823</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" t="s">
+        <v>94</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>70.52</v>
+      </c>
+      <c r="O38">
+        <v>68.56</v>
+      </c>
+      <c r="P38">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1">
+        <v>157</v>
+      </c>
+      <c r="B39">
+        <v>157</v>
+      </c>
+      <c r="D39">
+        <v>34.994783</v>
+      </c>
+      <c r="E39">
+        <v>-85.235823</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" t="s">
+        <v>94</v>
+      </c>
+      <c r="M39">
+        <v>8</v>
+      </c>
+      <c r="N39">
+        <v>70.52</v>
+      </c>
+      <c r="O39">
+        <v>68.56</v>
+      </c>
+      <c r="P39">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q39">
+        <v>8</v>
+      </c>
+      <c r="R39">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1">
+        <v>163</v>
+      </c>
+      <c r="B40">
+        <v>163</v>
+      </c>
+      <c r="D40">
+        <v>35.030416</v>
+      </c>
+      <c r="E40">
+        <v>-85.16795500000001</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" t="s">
+        <v>94</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40">
+        <v>70.36</v>
+      </c>
+      <c r="O40">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="P40">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q40">
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1">
+        <v>169</v>
+      </c>
+      <c r="B41">
+        <v>169</v>
+      </c>
+      <c r="D41">
+        <v>35.031302</v>
+      </c>
+      <c r="E41">
+        <v>-85.1819</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" t="s">
+        <v>94</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>69.56</v>
+      </c>
+      <c r="O41">
+        <v>68.41</v>
+      </c>
+      <c r="P41">
+        <v>0.96</v>
+      </c>
+      <c r="Q41">
+        <v>8</v>
+      </c>
+      <c r="R41">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="1">
+        <v>170</v>
+      </c>
+      <c r="B42">
+        <v>170</v>
+      </c>
+      <c r="D42">
+        <v>35.031302</v>
+      </c>
+      <c r="E42">
+        <v>-85.1819</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" t="s">
+        <v>94</v>
+      </c>
+      <c r="M42">
+        <v>7</v>
+      </c>
+      <c r="N42">
+        <v>69.56</v>
+      </c>
+      <c r="O42">
+        <v>68.41</v>
+      </c>
+      <c r="P42">
+        <v>0.96</v>
+      </c>
+      <c r="Q42">
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="1">
+        <v>185</v>
+      </c>
+      <c r="B43">
+        <v>185</v>
+      </c>
+      <c r="D43">
+        <v>35.019224</v>
+      </c>
+      <c r="E43">
+        <v>-85.267436</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" t="s">
+        <v>86</v>
+      </c>
+      <c r="K43" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" t="s">
+        <v>94</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>69.55</v>
+      </c>
+      <c r="O43">
+        <v>68.25</v>
+      </c>
+      <c r="P43">
+        <v>0.96</v>
+      </c>
+      <c r="Q43">
+        <v>8</v>
+      </c>
+      <c r="R43">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="1">
+        <v>186</v>
+      </c>
+      <c r="B44">
+        <v>186</v>
+      </c>
+      <c r="D44">
+        <v>35.019224</v>
+      </c>
+      <c r="E44">
+        <v>-85.267436</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>69.55</v>
+      </c>
+      <c r="O44">
+        <v>68.25</v>
+      </c>
+      <c r="P44">
+        <v>0.96</v>
+      </c>
+      <c r="Q44">
+        <v>8</v>
+      </c>
+      <c r="R44">
+        <v>3.22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>Index</t>
   </si>
@@ -88,88 +88,43 @@
     <t>Precip_Intensity_Time</t>
   </si>
   <si>
-    <t>2018-08-01</t>
-  </si>
-  <si>
-    <t>19:04:45</t>
-  </si>
-  <si>
-    <t>19:01:51</t>
-  </si>
-  <si>
-    <t>18:48:24</t>
-  </si>
-  <si>
-    <t>18:40:46</t>
-  </si>
-  <si>
-    <t>16:42:44</t>
-  </si>
-  <si>
-    <t>16:38:40</t>
-  </si>
-  <si>
-    <t>16:07:16</t>
-  </si>
-  <si>
-    <t>16:07:15</t>
-  </si>
-  <si>
-    <t>16:06:33</t>
-  </si>
-  <si>
-    <t>16:00:09</t>
-  </si>
-  <si>
-    <t>15:59:20</t>
-  </si>
-  <si>
-    <t>15:56:37</t>
-  </si>
-  <si>
-    <t>15:38:37</t>
-  </si>
-  <si>
-    <t>15:37:15</t>
-  </si>
-  <si>
-    <t>14:45:11</t>
-  </si>
-  <si>
-    <t>13:56:58</t>
-  </si>
-  <si>
-    <t>12:39:18</t>
-  </si>
-  <si>
-    <t>12:38:44</t>
-  </si>
-  <si>
-    <t>12:38:17</t>
-  </si>
-  <si>
-    <t>12:36:45</t>
-  </si>
-  <si>
-    <t>11:15:33</t>
-  </si>
-  <si>
-    <t>10:33:28</t>
-  </si>
-  <si>
-    <t>10:14:04</t>
-  </si>
-  <si>
-    <t>09:20:23</t>
-  </si>
-  <si>
-    <t>09:19:34</t>
-  </si>
-  <si>
-    <t>09:09:28</t>
-  </si>
-  <si>
-    <t>09:08:26</t>
+    <t>2018-08-07</t>
+  </si>
+  <si>
+    <t>18:09:55</t>
+  </si>
+  <si>
+    <t>17:34:53</t>
+  </si>
+  <si>
+    <t>17:15:35</t>
+  </si>
+  <si>
+    <t>17:14:57</t>
+  </si>
+  <si>
+    <t>16:49:47</t>
+  </si>
+  <si>
+    <t>15:53:31</t>
+  </si>
+  <si>
+    <t>12:49:41</t>
+  </si>
+  <si>
+    <t>12:49:39</t>
+  </si>
+  <si>
+    <t>12:49:10</t>
+  </si>
+  <si>
+    <t>09:41:23</t>
+  </si>
+  <si>
+    <t>09:40:58</t>
+  </si>
+  <si>
+    <t>Unknown Injuries</t>
   </si>
   <si>
     <t>Injuries</t>
@@ -178,91 +133,52 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>Edgmon Rd / Penneywood Ln</t>
-  </si>
-  <si>
-    <t>140899741 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>500-1399 Workman Rd</t>
-  </si>
-  <si>
-    <t>Wheeler Ave / Wilcox Blvd</t>
-  </si>
-  <si>
-    <t>2300 - 2325 Westside Dr</t>
-  </si>
-  <si>
-    <t>18380 INTERSTATE 24 WB</t>
-  </si>
-  <si>
-    <t>4824 Hixson Pike</t>
-  </si>
-  <si>
-    <t>1711 Tunnel Blvd</t>
-  </si>
-  <si>
-    <t>120 - 159 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>5700 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>200 - 299 Greenway View Dr</t>
-  </si>
-  <si>
-    <t>200 GREENWAY VIEW DR</t>
-  </si>
-  <si>
-    <t>2600 E 3RD ST</t>
-  </si>
-  <si>
-    <t>700 - 799 E 3rd St</t>
-  </si>
-  <si>
-    <t>18240 INTERSTATE 24  WEST BOUND</t>
-  </si>
-  <si>
-    <t>4115 MOUNTAIN CREEK RD</t>
-  </si>
-  <si>
-    <t>1-9 Exit 1a On Ramp Nb</t>
-  </si>
-  <si>
-    <t>50 - 119 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>COLLEGEDALE</t>
+    <t>Highway 58 / Hickory Valley Rd</t>
+  </si>
+  <si>
+    <t>500 - 539 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>250 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>6100-6799 HIGHWAY 153</t>
+  </si>
+  <si>
+    <t>8905 Highway 58</t>
+  </si>
+  <si>
+    <t>1150 - 1169 Ridgeway Ave</t>
+  </si>
+  <si>
+    <t>520 Highway 153 Nb</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>SIGNAL MOUNTAIN</t>
   </si>
   <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
-    <t>cloudy</t>
+    <t>clear-day</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
+  </si>
+  <si>
+    <t>Mostly Cloudy</t>
+  </si>
+  <si>
+    <t>Humid</t>
   </si>
   <si>
     <t>rain</t>
-  </si>
-  <si>
-    <t>Mostly Cloudy</t>
-  </si>
-  <si>
-    <t>Overcast</t>
-  </si>
-  <si>
-    <t>Light Rain</t>
   </si>
 </sst>
 </file>
@@ -620,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,16 +618,16 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>35.067809</v>
+        <v>35.104728</v>
       </c>
       <c r="E2">
-        <v>-85.03793</v>
+        <v>-85.159644</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -720,69 +636,72 @@
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2">
-        <v>70.73</v>
+        <v>91.36</v>
       </c>
       <c r="O2">
-        <v>71.18000000000001</v>
+        <v>91.36</v>
       </c>
       <c r="P2">
-        <v>68.97</v>
+        <v>71.8</v>
       </c>
       <c r="Q2">
-        <v>69.54000000000001</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="R2">
-        <v>0.96</v>
+        <v>0.49</v>
       </c>
       <c r="S2">
         <v>8</v>
       </c>
       <c r="T2">
-        <v>6.39</v>
+        <v>6.94</v>
+      </c>
+      <c r="U2">
+        <v>0.32</v>
       </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="W2">
-        <v>0.0453</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="X2">
-        <v>0.2439</v>
+        <v>0.0063</v>
       </c>
       <c r="Y2">
-        <v>1533135600</v>
+        <v>1533668400</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>35.067809</v>
+        <v>35.035266</v>
       </c>
       <c r="E3">
-        <v>-85.03793</v>
+        <v>-85.163861</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -791,69 +710,72 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3">
-        <v>70.73</v>
+        <v>91.61</v>
       </c>
       <c r="O3">
-        <v>71.18000000000001</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="P3">
-        <v>68.97</v>
+        <v>72.13</v>
       </c>
       <c r="Q3">
-        <v>69.54000000000001</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="R3">
-        <v>0.96</v>
+        <v>0.47</v>
       </c>
       <c r="S3">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>6.39</v>
+        <v>7.34</v>
+      </c>
+      <c r="U3">
+        <v>0.32</v>
       </c>
       <c r="V3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="W3">
-        <v>0.0453</v>
+        <v>0.0004</v>
       </c>
       <c r="X3">
-        <v>0.2439</v>
+        <v>0.0046</v>
       </c>
       <c r="Y3">
-        <v>1533135600</v>
+        <v>1533668400</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>35.105349</v>
+        <v>35.010092</v>
       </c>
       <c r="E4">
-        <v>-85.051507</v>
+        <v>-85.19291699999999</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -862,69 +784,72 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4">
-        <v>71.48999999999999</v>
+        <v>91.69</v>
       </c>
       <c r="O4">
-        <v>71.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="P4">
-        <v>69.51000000000001</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="Q4">
-        <v>69.41</v>
+        <v>68.3</v>
       </c>
       <c r="R4">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
       <c r="S4">
         <v>8</v>
       </c>
       <c r="T4">
-        <v>6.54</v>
+        <v>7.51</v>
+      </c>
+      <c r="U4">
+        <v>0.33</v>
       </c>
       <c r="V4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="W4">
-        <v>0.0416</v>
+        <v>0.0004</v>
       </c>
       <c r="X4">
-        <v>0.2129</v>
+        <v>0.0043</v>
       </c>
       <c r="Y4">
-        <v>1533135600</v>
+        <v>1533668400</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>34.994376</v>
+        <v>35.010092</v>
       </c>
       <c r="E5">
-        <v>-85.302288</v>
+        <v>-85.19291699999999</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -933,69 +858,72 @@
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5">
-        <v>71.76000000000001</v>
+        <v>91.69</v>
       </c>
       <c r="O5">
-        <v>72.26000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="P5">
-        <v>69.34999999999999</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="Q5">
-        <v>68.45999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="R5">
-        <v>0.89</v>
+        <v>0.47</v>
       </c>
       <c r="S5">
         <v>8</v>
       </c>
       <c r="T5">
-        <v>5.97</v>
+        <v>7.51</v>
+      </c>
+      <c r="U5">
+        <v>0.33</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="W5">
-        <v>0.0321</v>
+        <v>0.0004</v>
       </c>
       <c r="X5">
-        <v>0.1491</v>
+        <v>0.0043</v>
       </c>
       <c r="Y5">
-        <v>1533132000</v>
+        <v>1533668400</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>35.052089</v>
+        <v>35.18082</v>
       </c>
       <c r="E6">
-        <v>-85.25749399999999</v>
+        <v>-85.24705</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1004,69 +932,72 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
         <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
       </c>
       <c r="M6">
         <v>16</v>
       </c>
       <c r="N6">
-        <v>71.52</v>
+        <v>90.8</v>
       </c>
       <c r="O6">
-        <v>72.14</v>
+        <v>91.25</v>
       </c>
       <c r="P6">
-        <v>69.22</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="Q6">
-        <v>69.18000000000001</v>
+        <v>69.73</v>
       </c>
       <c r="R6">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
         <v>8</v>
       </c>
       <c r="T6">
-        <v>4.54</v>
+        <v>7.31</v>
+      </c>
+      <c r="U6">
+        <v>0.3</v>
       </c>
       <c r="V6" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="W6">
-        <v>0.032</v>
+        <v>0.0013</v>
       </c>
       <c r="X6">
-        <v>0.1519</v>
+        <v>0.0137</v>
       </c>
       <c r="Y6">
-        <v>1533132000</v>
+        <v>1533668400</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>35.01572</v>
+        <v>35.181105</v>
       </c>
       <c r="E7">
-        <v>-85.273583</v>
+        <v>-85.06789000000001</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1075,33 +1006,72 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>75</v>
-      </c>
       <c r="M7">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>89.05</v>
+      </c>
+      <c r="O7">
+        <v>90.33</v>
+      </c>
+      <c r="P7">
+        <v>70.89</v>
+      </c>
+      <c r="Q7">
+        <v>70.34</v>
+      </c>
+      <c r="R7">
+        <v>0.54</v>
       </c>
       <c r="S7">
         <v>8</v>
+      </c>
+      <c r="T7">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.27</v>
+      </c>
+      <c r="V7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="X7">
+        <v>0.0063</v>
+      </c>
+      <c r="Y7">
+        <v>1533668400</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>35.010064</v>
+        <v>35.135607</v>
       </c>
       <c r="E8">
-        <v>-85.24105400000001</v>
+        <v>-85.33196100000001</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1110,33 +1080,72 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="O8">
+        <v>87.36</v>
+      </c>
+      <c r="P8">
+        <v>69.38</v>
+      </c>
+      <c r="Q8">
+        <v>72.20999999999999</v>
+      </c>
+      <c r="R8">
+        <v>0.68</v>
       </c>
       <c r="S8">
         <v>8</v>
+      </c>
+      <c r="T8">
+        <v>9.52</v>
+      </c>
+      <c r="U8">
+        <v>0.28</v>
+      </c>
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="X8">
+        <v>0.005</v>
+      </c>
+      <c r="Y8">
+        <v>1533686400</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>35.010064</v>
+        <v>35.135607</v>
       </c>
       <c r="E9">
-        <v>-85.24105400000001</v>
+        <v>-85.33196100000001</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1145,33 +1154,72 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="O9">
+        <v>87.36</v>
+      </c>
+      <c r="P9">
+        <v>69.38</v>
+      </c>
+      <c r="Q9">
+        <v>72.20999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.68</v>
       </c>
       <c r="S9">
         <v>8</v>
+      </c>
+      <c r="T9">
+        <v>9.52</v>
+      </c>
+      <c r="U9">
+        <v>0.28</v>
+      </c>
+      <c r="V9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="X9">
+        <v>0.005</v>
+      </c>
+      <c r="Y9">
+        <v>1533686400</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>35.010064</v>
+        <v>35.135607</v>
       </c>
       <c r="E10">
-        <v>-85.24105400000001</v>
+        <v>-85.33196100000001</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1180,649 +1228,280 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="O10">
+        <v>87.36</v>
+      </c>
+      <c r="P10">
+        <v>69.38</v>
+      </c>
+      <c r="Q10">
+        <v>72.20999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.68</v>
       </c>
       <c r="S10">
         <v>8</v>
+      </c>
+      <c r="T10">
+        <v>9.52</v>
+      </c>
+      <c r="U10">
+        <v>0.28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="X10">
+        <v>0.005</v>
+      </c>
+      <c r="Y10">
+        <v>1533686400</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>35.010064</v>
+        <v>35.135607</v>
       </c>
       <c r="E11">
-        <v>-85.24105400000001</v>
+        <v>-85.33196100000001</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="O11">
+        <v>87.36</v>
+      </c>
+      <c r="P11">
+        <v>69.38</v>
+      </c>
+      <c r="Q11">
+        <v>72.20999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.68</v>
       </c>
       <c r="S11">
         <v>8</v>
+      </c>
+      <c r="T11">
+        <v>9.52</v>
+      </c>
+      <c r="U11">
+        <v>0.28</v>
+      </c>
+      <c r="V11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.005</v>
+      </c>
+      <c r="Y11">
+        <v>1533686400</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D12">
-        <v>35.010064</v>
+        <v>35.087611</v>
       </c>
       <c r="E12">
-        <v>-85.24105400000001</v>
+        <v>-85.214113</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>77.69</v>
+      </c>
+      <c r="O12">
+        <v>91.86</v>
+      </c>
+      <c r="P12">
+        <v>72.14</v>
+      </c>
+      <c r="Q12">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.8</v>
       </c>
       <c r="S12">
         <v>8</v>
+      </c>
+      <c r="T12">
+        <v>6.84</v>
+      </c>
+      <c r="U12">
+        <v>0.33</v>
+      </c>
+      <c r="V12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12">
+        <v>0.0005</v>
+      </c>
+      <c r="X12">
+        <v>0.0054</v>
+      </c>
+      <c r="Y12">
+        <v>1533668400</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>35.127564</v>
+        <v>35.087611</v>
       </c>
       <c r="E13">
-        <v>-85.246298</v>
+        <v>-85.214113</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>77.69</v>
+      </c>
+      <c r="O13">
+        <v>91.86</v>
+      </c>
+      <c r="P13">
+        <v>72.14</v>
+      </c>
+      <c r="Q13">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.8</v>
       </c>
       <c r="S13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="1">
-        <v>74</v>
-      </c>
-      <c r="B14">
-        <v>74</v>
-      </c>
-      <c r="D14">
-        <v>35.048638</v>
-      </c>
-      <c r="E14">
-        <v>-85.236902</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14">
-        <v>15</v>
-      </c>
-      <c r="S14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1">
-        <v>75</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="D15">
-        <v>35.048638</v>
-      </c>
-      <c r="E15">
-        <v>-85.236902</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="T13">
+        <v>6.84</v>
+      </c>
+      <c r="U13">
+        <v>0.33</v>
+      </c>
+      <c r="V13" t="s">
         <v>54</v>
       </c>
-      <c r="I15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15">
-        <v>15</v>
-      </c>
-      <c r="S15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="1">
-        <v>91</v>
-      </c>
-      <c r="B16">
-        <v>91</v>
-      </c>
-      <c r="D16">
-        <v>35.001294</v>
-      </c>
-      <c r="E16">
-        <v>-85.210866</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16">
-        <v>14</v>
-      </c>
-      <c r="S16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="1">
-        <v>105</v>
-      </c>
-      <c r="B17">
-        <v>105</v>
-      </c>
-      <c r="D17">
-        <v>35.011607</v>
-      </c>
-      <c r="E17">
-        <v>-85.21422</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17">
-        <v>13</v>
-      </c>
-      <c r="S17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="1">
-        <v>127</v>
-      </c>
-      <c r="B18">
-        <v>127</v>
-      </c>
-      <c r="D18">
-        <v>35.013904</v>
-      </c>
-      <c r="E18">
-        <v>-85.211097</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18">
-        <v>12</v>
-      </c>
-      <c r="S18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="1">
-        <v>128</v>
-      </c>
-      <c r="B19">
-        <v>128</v>
-      </c>
-      <c r="D19">
-        <v>35.013904</v>
-      </c>
-      <c r="E19">
-        <v>-85.211097</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
-      <c r="S19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="1">
-        <v>131</v>
-      </c>
-      <c r="B20">
-        <v>131</v>
-      </c>
-      <c r="D20">
-        <v>35.013904</v>
-      </c>
-      <c r="E20">
-        <v>-85.211097</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="S20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="1">
-        <v>133</v>
-      </c>
-      <c r="B21">
-        <v>133</v>
-      </c>
-      <c r="D21">
-        <v>35.036828</v>
-      </c>
-      <c r="E21">
-        <v>-85.261088</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21">
-        <v>12</v>
-      </c>
-      <c r="S21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="1">
-        <v>144</v>
-      </c>
-      <c r="B22">
-        <v>144</v>
-      </c>
-      <c r="D22">
-        <v>35.051994</v>
-      </c>
-      <c r="E22">
-        <v>-85.301304</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22">
-        <v>11</v>
-      </c>
-      <c r="S22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="1">
-        <v>149</v>
-      </c>
-      <c r="B23">
-        <v>149</v>
-      </c>
-      <c r="D23">
-        <v>35.021191</v>
-      </c>
-      <c r="E23">
-        <v>-85.26137199999999</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="S23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="1">
-        <v>151</v>
-      </c>
-      <c r="B24">
-        <v>151</v>
-      </c>
-      <c r="D24">
-        <v>35.131138</v>
-      </c>
-      <c r="E24">
-        <v>-85.309696</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="S24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="1">
-        <v>157</v>
-      </c>
-      <c r="B25">
-        <v>157</v>
-      </c>
-      <c r="D25">
-        <v>34.989284</v>
-      </c>
-      <c r="E25">
-        <v>-85.203158</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25">
-        <v>9</v>
-      </c>
-      <c r="S25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="1">
-        <v>158</v>
-      </c>
-      <c r="B26">
-        <v>158</v>
-      </c>
-      <c r="D26">
-        <v>34.989284</v>
-      </c>
-      <c r="E26">
-        <v>-85.203158</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26">
-        <v>9</v>
-      </c>
-      <c r="S26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="1">
-        <v>160</v>
-      </c>
-      <c r="B27">
-        <v>160</v>
-      </c>
-      <c r="D27">
-        <v>34.993245</v>
-      </c>
-      <c r="E27">
-        <v>-85.205913</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27">
-        <v>9</v>
-      </c>
-      <c r="S27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="1">
-        <v>161</v>
-      </c>
-      <c r="B28">
-        <v>161</v>
-      </c>
-      <c r="D28">
-        <v>34.993245</v>
-      </c>
-      <c r="E28">
-        <v>-85.205913</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" t="s">
-        <v>76</v>
-      </c>
-      <c r="M28">
-        <v>9</v>
-      </c>
-      <c r="S28">
-        <v>8</v>
+      <c r="W13">
+        <v>0.0005</v>
+      </c>
+      <c r="X13">
+        <v>0.0054</v>
+      </c>
+      <c r="Y13">
+        <v>1533668400</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -660,7 +660,7 @@
         <v>91.36</v>
       </c>
       <c r="P2">
-        <v>71.8</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="Q2">
         <v>69.56999999999999</v>
@@ -950,13 +950,13 @@
         <v>16</v>
       </c>
       <c r="N6">
-        <v>90.8</v>
+        <v>90.86</v>
       </c>
       <c r="O6">
-        <v>91.25</v>
+        <v>91.28</v>
       </c>
       <c r="P6">
-        <v>71.59999999999999</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="Q6">
         <v>69.73</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="N7">
-        <v>89.05</v>
+        <v>89.06</v>
       </c>
       <c r="O7">
-        <v>90.33</v>
+        <v>90.34</v>
       </c>
       <c r="P7">
-        <v>70.89</v>
+        <v>70.87</v>
       </c>
       <c r="Q7">
         <v>70.34</v>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
   <si>
     <t>Index</t>
   </si>
@@ -88,97 +88,112 @@
     <t>Precip_Intensity_Time</t>
   </si>
   <si>
-    <t>2018-08-07</t>
-  </si>
-  <si>
-    <t>18:09:55</t>
-  </si>
-  <si>
-    <t>17:34:53</t>
-  </si>
-  <si>
-    <t>17:15:35</t>
-  </si>
-  <si>
-    <t>17:14:57</t>
-  </si>
-  <si>
-    <t>16:49:47</t>
-  </si>
-  <si>
-    <t>15:53:31</t>
-  </si>
-  <si>
-    <t>12:49:41</t>
-  </si>
-  <si>
-    <t>12:49:39</t>
-  </si>
-  <si>
-    <t>12:49:10</t>
-  </si>
-  <si>
-    <t>09:41:23</t>
-  </si>
-  <si>
-    <t>09:40:58</t>
+    <t>EventBefore</t>
+  </si>
+  <si>
+    <t>ConditionBefore</t>
+  </si>
+  <si>
+    <t>2018-08-13</t>
+  </si>
+  <si>
+    <t>17:38:49</t>
+  </si>
+  <si>
+    <t>17:01:44</t>
+  </si>
+  <si>
+    <t>16:58:18</t>
+  </si>
+  <si>
+    <t>14:31:38</t>
+  </si>
+  <si>
+    <t>14:31:30</t>
+  </si>
+  <si>
+    <t>11:16:51</t>
+  </si>
+  <si>
+    <t>11:16:28</t>
+  </si>
+  <si>
+    <t>08:57:22</t>
+  </si>
+  <si>
+    <t>08:57:21</t>
+  </si>
+  <si>
+    <t>07:52:03</t>
+  </si>
+  <si>
+    <t>07:51:02</t>
+  </si>
+  <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>Injuries</t>
   </si>
   <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>Highway 58 / Hickory Valley Rd</t>
-  </si>
-  <si>
-    <t>500 - 539 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>250 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>6100-6799 HIGHWAY 153</t>
-  </si>
-  <si>
-    <t>8905 Highway 58</t>
-  </si>
-  <si>
-    <t>1150 - 1169 Ridgeway Ave</t>
-  </si>
-  <si>
-    <t>520 Highway 153 Nb</t>
+    <t>13008 Mcgill Rd</t>
+  </si>
+  <si>
+    <t>3000 Mary Walker Pl</t>
+  </si>
+  <si>
+    <t>Highway 58 / Murray Hills Dr</t>
+  </si>
+  <si>
+    <t>SHADOWLAWN DR / S SEMINOLE DR</t>
+  </si>
+  <si>
+    <t>1231 S Seminole Dr</t>
+  </si>
+  <si>
+    <t>E 37th St / Clio Ave</t>
+  </si>
+  <si>
+    <t>2000 E 37TH ST</t>
+  </si>
+  <si>
+    <t>7600 MAHAN GAP RD</t>
+  </si>
+  <si>
+    <t>5845 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>SIGNAL MOUNTAIN</t>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>clear-day</t>
   </si>
   <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
-    <t>clear-day</t>
+    <t>clear-night</t>
+  </si>
+  <si>
+    <t>Clear</t>
   </si>
   <si>
     <t>Partly Cloudy</t>
   </si>
   <si>
-    <t>Mostly Cloudy</t>
-  </si>
-  <si>
-    <t>Humid</t>
-  </si>
-  <si>
     <t>rain</t>
+  </si>
+  <si>
+    <t>partly-cloudy-night</t>
   </si>
 </sst>
 </file>
@@ -536,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,351 +630,381 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>35.104728</v>
+        <v>35.326982</v>
       </c>
       <c r="E2">
-        <v>-85.159644</v>
+        <v>-85.12810399999999</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2">
-        <v>91.36</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="O2">
-        <v>91.36</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="P2">
-        <v>71.79000000000001</v>
+        <v>65.48</v>
       </c>
       <c r="Q2">
-        <v>69.56999999999999</v>
+        <v>65.02</v>
       </c>
       <c r="R2">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="S2">
         <v>8</v>
       </c>
       <c r="T2">
-        <v>6.94</v>
+        <v>10</v>
       </c>
       <c r="U2">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2">
+        <v>0.0002</v>
+      </c>
+      <c r="X2">
+        <v>0.0009</v>
+      </c>
+      <c r="Y2">
+        <v>1534165200</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>35.049123</v>
+      </c>
+      <c r="E3">
+        <v>-85.247978</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="W2">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="X2">
-        <v>0.0063</v>
-      </c>
-      <c r="Y2">
-        <v>1533668400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>35.035266</v>
-      </c>
-      <c r="E3">
-        <v>-85.163861</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M3">
         <v>17</v>
       </c>
       <c r="N3">
-        <v>91.61</v>
+        <v>86.75</v>
       </c>
       <c r="O3">
-        <v>92.23999999999999</v>
+        <v>86.75</v>
       </c>
       <c r="P3">
-        <v>72.13</v>
+        <v>67.05</v>
       </c>
       <c r="Q3">
-        <v>68.48999999999999</v>
+        <v>62.66</v>
       </c>
       <c r="R3">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="S3">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>7.34</v>
+        <v>10</v>
       </c>
       <c r="U3">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3">
+        <v>0.0001</v>
+      </c>
+      <c r="X3">
+        <v>0.0004</v>
+      </c>
+      <c r="Y3">
+        <v>1534201200</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>35.083711</v>
+      </c>
+      <c r="E4">
+        <v>-85.20334200000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="W3">
-        <v>0.0004</v>
-      </c>
-      <c r="X3">
-        <v>0.0046</v>
-      </c>
-      <c r="Y3">
-        <v>1533668400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>35.010092</v>
-      </c>
-      <c r="E4">
-        <v>-85.19291699999999</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4">
-        <v>91.69</v>
+        <v>86.97</v>
       </c>
       <c r="O4">
-        <v>92.40000000000001</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="P4">
-        <v>72.34999999999999</v>
+        <v>67.25</v>
       </c>
       <c r="Q4">
-        <v>68.3</v>
+        <v>62.88</v>
       </c>
       <c r="R4">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="S4">
         <v>8</v>
       </c>
       <c r="T4">
-        <v>7.51</v>
+        <v>10</v>
       </c>
       <c r="U4">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W4">
+        <v>0.0001</v>
+      </c>
+      <c r="X4">
         <v>0.0004</v>
       </c>
-      <c r="X4">
-        <v>0.0043</v>
-      </c>
       <c r="Y4">
-        <v>1533668400</v>
+        <v>1534201200</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>35.010092</v>
+        <v>34.996636</v>
       </c>
       <c r="E5">
-        <v>-85.19291699999999</v>
+        <v>-85.266768</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N5">
-        <v>91.69</v>
+        <v>85.56</v>
       </c>
       <c r="O5">
-        <v>92.40000000000001</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="P5">
-        <v>72.34999999999999</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="Q5">
-        <v>68.3</v>
+        <v>64.5</v>
       </c>
       <c r="R5">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
         <v>8</v>
       </c>
       <c r="T5">
-        <v>7.51</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W5">
+        <v>0.0001</v>
+      </c>
+      <c r="X5">
         <v>0.0004</v>
       </c>
-      <c r="X5">
-        <v>0.0043</v>
-      </c>
       <c r="Y5">
-        <v>1533668400</v>
+        <v>1534201200</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>35.18082</v>
+        <v>34.996468</v>
       </c>
       <c r="E6">
-        <v>-85.24705</v>
+        <v>-85.267161</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N6">
-        <v>90.86</v>
+        <v>85.55</v>
       </c>
       <c r="O6">
-        <v>91.28</v>
+        <v>86.81</v>
       </c>
       <c r="P6">
-        <v>71.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="Q6">
-        <v>69.73</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="R6">
         <v>0.5</v>
@@ -968,540 +1013,478 @@
         <v>8</v>
       </c>
       <c r="T6">
-        <v>7.31</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W6">
-        <v>0.0013</v>
+        <v>0.0001</v>
       </c>
       <c r="X6">
-        <v>0.0137</v>
+        <v>0.0004</v>
       </c>
       <c r="Y6">
-        <v>1533668400</v>
+        <v>1534201200</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>35.181105</v>
+        <v>35.00156</v>
       </c>
       <c r="E7">
-        <v>-85.06789000000001</v>
+        <v>-85.29097899999999</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>89.06</v>
-      </c>
-      <c r="O7">
-        <v>90.34</v>
-      </c>
-      <c r="P7">
-        <v>70.87</v>
+        <v>79.91</v>
       </c>
       <c r="Q7">
-        <v>70.34</v>
+        <v>67.31</v>
       </c>
       <c r="R7">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="S7">
         <v>8</v>
       </c>
       <c r="T7">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="U7">
-        <v>0.27</v>
-      </c>
-      <c r="V7" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="W7">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0063</v>
-      </c>
-      <c r="Y7">
-        <v>1533668400</v>
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.135607</v>
+        <v>35.00156</v>
       </c>
       <c r="E8">
-        <v>-85.33196100000001</v>
+        <v>-85.29097899999999</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>83.70999999999999</v>
-      </c>
-      <c r="O8">
-        <v>87.36</v>
-      </c>
-      <c r="P8">
-        <v>69.38</v>
+        <v>79.91</v>
       </c>
       <c r="Q8">
-        <v>72.20999999999999</v>
+        <v>67.31</v>
       </c>
       <c r="R8">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="S8">
         <v>8</v>
       </c>
       <c r="T8">
-        <v>9.52</v>
-      </c>
-      <c r="U8">
-        <v>0.28</v>
-      </c>
-      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>35.181082</v>
+      </c>
+      <c r="E9">
+        <v>-85.05466</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
         <v>54</v>
       </c>
-      <c r="W8">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="X8">
-        <v>0.005</v>
-      </c>
-      <c r="Y8">
-        <v>1533686400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>71</v>
-      </c>
-      <c r="D9">
-        <v>35.135607</v>
-      </c>
-      <c r="E9">
-        <v>-85.33196100000001</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>83.70999999999999</v>
+        <v>67.41</v>
       </c>
       <c r="O9">
-        <v>87.36</v>
+        <v>87.11</v>
       </c>
       <c r="P9">
-        <v>69.38</v>
+        <v>66</v>
       </c>
       <c r="Q9">
-        <v>72.20999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="R9">
-        <v>0.68</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S9">
         <v>8</v>
       </c>
       <c r="T9">
-        <v>9.52</v>
+        <v>5.12</v>
       </c>
       <c r="U9">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="V9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9">
+        <v>0.0002</v>
+      </c>
+      <c r="X9">
+        <v>0.0007</v>
+      </c>
+      <c r="Y9">
+        <v>1534165200</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>35.181082</v>
+      </c>
+      <c r="E10">
+        <v>-85.05466</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
         <v>54</v>
       </c>
-      <c r="W9">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="X9">
-        <v>0.005</v>
-      </c>
-      <c r="Y9">
-        <v>1533686400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1">
-        <v>72</v>
-      </c>
-      <c r="B10">
-        <v>72</v>
-      </c>
-      <c r="D10">
-        <v>35.135607</v>
-      </c>
-      <c r="E10">
-        <v>-85.33196100000001</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>83.70999999999999</v>
+        <v>67.41</v>
       </c>
       <c r="O10">
-        <v>87.36</v>
+        <v>87.11</v>
       </c>
       <c r="P10">
-        <v>69.38</v>
+        <v>66</v>
       </c>
       <c r="Q10">
-        <v>72.20999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="R10">
-        <v>0.68</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S10">
         <v>8</v>
       </c>
       <c r="T10">
-        <v>9.52</v>
+        <v>5.12</v>
       </c>
       <c r="U10">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="V10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W10">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
       <c r="X10">
-        <v>0.005</v>
+        <v>0.0007</v>
       </c>
       <c r="Y10">
-        <v>1533686400</v>
+        <v>1534165200</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>35.135607</v>
+        <v>35.014277</v>
       </c>
       <c r="E11">
-        <v>-85.33196100000001</v>
+        <v>-85.211161</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N11">
-        <v>83.70999999999999</v>
+        <v>67.41</v>
       </c>
       <c r="O11">
-        <v>87.36</v>
+        <v>87.63</v>
       </c>
       <c r="P11">
-        <v>69.38</v>
+        <v>67.41</v>
       </c>
       <c r="Q11">
-        <v>72.20999999999999</v>
+        <v>64.66</v>
       </c>
       <c r="R11">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
       <c r="S11">
         <v>8</v>
       </c>
       <c r="T11">
-        <v>9.52</v>
+        <v>6.27</v>
       </c>
       <c r="U11">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="V11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W11">
-        <v>0.0005999999999999999</v>
+        <v>0.0001</v>
       </c>
       <c r="X11">
-        <v>0.005</v>
+        <v>0.0003</v>
       </c>
       <c r="Y11">
-        <v>1533686400</v>
+        <v>1534201200</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>35.087611</v>
+        <v>35.014277</v>
       </c>
       <c r="E12">
-        <v>-85.214113</v>
+        <v>-85.211161</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N12">
-        <v>77.69</v>
+        <v>67.41</v>
       </c>
       <c r="O12">
-        <v>91.86</v>
+        <v>87.63</v>
       </c>
       <c r="P12">
-        <v>72.14</v>
+        <v>67.41</v>
       </c>
       <c r="Q12">
-        <v>71.09999999999999</v>
+        <v>64.66</v>
       </c>
       <c r="R12">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="S12">
         <v>8</v>
       </c>
       <c r="T12">
-        <v>6.84</v>
+        <v>6.27</v>
       </c>
       <c r="U12">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W12">
-        <v>0.0005</v>
+        <v>0.0001</v>
       </c>
       <c r="X12">
-        <v>0.0054</v>
+        <v>0.0003</v>
       </c>
       <c r="Y12">
-        <v>1533668400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1">
-        <v>87</v>
-      </c>
-      <c r="B13">
-        <v>87</v>
-      </c>
-      <c r="D13">
-        <v>35.087611</v>
-      </c>
-      <c r="E13">
-        <v>-85.214113</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13">
-        <v>9</v>
-      </c>
-      <c r="N13">
-        <v>77.69</v>
-      </c>
-      <c r="O13">
-        <v>91.86</v>
-      </c>
-      <c r="P13">
-        <v>72.14</v>
-      </c>
-      <c r="Q13">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="R13">
-        <v>0.8</v>
-      </c>
-      <c r="S13">
-        <v>8</v>
-      </c>
-      <c r="T13">
-        <v>6.84</v>
-      </c>
-      <c r="U13">
-        <v>0.33</v>
-      </c>
-      <c r="V13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W13">
-        <v>0.0005</v>
-      </c>
-      <c r="X13">
-        <v>0.0054</v>
-      </c>
-      <c r="Y13">
-        <v>1533668400</v>
+        <v>1534201200</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
   <si>
     <t>Index</t>
   </si>
@@ -112,100 +112,148 @@
     <t>ConditionBefore</t>
   </si>
   <si>
-    <t>2018-08-14</t>
-  </si>
-  <si>
-    <t>20:34:24</t>
-  </si>
-  <si>
-    <t>20:34:04</t>
-  </si>
-  <si>
-    <t>18:07:57</t>
-  </si>
-  <si>
-    <t>18:05:40</t>
-  </si>
-  <si>
-    <t>15:47:41</t>
-  </si>
-  <si>
-    <t>15:45:34</t>
-  </si>
-  <si>
-    <t>14:58:20</t>
-  </si>
-  <si>
-    <t>14:28:02</t>
-  </si>
-  <si>
-    <t>14:27:19</t>
-  </si>
-  <si>
-    <t>13:28:37</t>
-  </si>
-  <si>
-    <t>13:14:40</t>
-  </si>
-  <si>
-    <t>13:13:22</t>
-  </si>
-  <si>
-    <t>12:09:47</t>
-  </si>
-  <si>
-    <t>11:58:44</t>
-  </si>
-  <si>
-    <t>10:17:00</t>
-  </si>
-  <si>
-    <t>10:15:58</t>
-  </si>
-  <si>
-    <t>01:39:57</t>
+    <t>2018-08-16</t>
+  </si>
+  <si>
+    <t>23:08:56</t>
+  </si>
+  <si>
+    <t>18:16:11</t>
+  </si>
+  <si>
+    <t>18:14:35</t>
+  </si>
+  <si>
+    <t>17:35:05</t>
+  </si>
+  <si>
+    <t>17:20:57</t>
+  </si>
+  <si>
+    <t>17:04:39</t>
+  </si>
+  <si>
+    <t>16:28:29</t>
+  </si>
+  <si>
+    <t>16:17:23</t>
+  </si>
+  <si>
+    <t>15:54:31</t>
+  </si>
+  <si>
+    <t>15:41:14</t>
+  </si>
+  <si>
+    <t>15:31:02</t>
+  </si>
+  <si>
+    <t>14:47:01</t>
+  </si>
+  <si>
+    <t>12:57:03</t>
+  </si>
+  <si>
+    <t>12:57:02</t>
+  </si>
+  <si>
+    <t>12:10:43</t>
+  </si>
+  <si>
+    <t>12:10:24</t>
+  </si>
+  <si>
+    <t>11:41:06</t>
+  </si>
+  <si>
+    <t>11:36:07</t>
+  </si>
+  <si>
+    <t>11:36:00</t>
+  </si>
+  <si>
+    <t>11:24:42</t>
+  </si>
+  <si>
+    <t>11:20:13</t>
+  </si>
+  <si>
+    <t>08:07:21</t>
+  </si>
+  <si>
+    <t>00:28:45</t>
+  </si>
+  <si>
+    <t>Unknown Injuries</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>E 3rd St / Lookout St</t>
-  </si>
-  <si>
-    <t>4500 Highway 58</t>
-  </si>
-  <si>
-    <t>914 N Hickory St</t>
-  </si>
-  <si>
-    <t>1627 MILNE ST</t>
-  </si>
-  <si>
-    <t>4434 Highway 58</t>
-  </si>
-  <si>
-    <t>5647 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>Old Lee Hwy / Little Debbie Pkwy</t>
-  </si>
-  <si>
-    <t>5113 Highway 153</t>
-  </si>
-  <si>
-    <t>Hickory Valley Rd / Bonny Oaks Dr</t>
-  </si>
-  <si>
-    <t>18500 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>N HOLTZCLAW AVE / MCCALLIE AVE</t>
+    <t>18300 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>2000 - 2099 Northpoint Blvd</t>
+  </si>
+  <si>
+    <t>18310 - 18399 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>420 - 479 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>Windsor St / Dodson Ave</t>
+  </si>
+  <si>
+    <t>18360 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>18300 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>3151 Broad St</t>
+  </si>
+  <si>
+    <t>Apison Pike / Little Debbie Pkwy</t>
+  </si>
+  <si>
+    <t>1 - 9 Exit Lee Hwy Off Ramp Sb</t>
+  </si>
+  <si>
+    <t>3550 W Rd</t>
+  </si>
+  <si>
+    <t>1200 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>1009 W 39th St</t>
+  </si>
+  <si>
+    <t>COMMONS BLVD / GUNBARREL RD</t>
+  </si>
+  <si>
+    <t>Citico Ave / N Orchard Knob Ave</t>
+  </si>
+  <si>
+    <t>800 N ORCHARD KNOB AVE</t>
+  </si>
+  <si>
+    <t>Broad St / Cummings Hwy</t>
+  </si>
+  <si>
+    <t>Broad St / Old Wauhatchie Pike</t>
+  </si>
+  <si>
+    <t>7500 - 7539 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>205 Glenwood Dr</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -214,22 +262,40 @@
     <t>COLLEGEDALE</t>
   </si>
   <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>partly-cloudy-night</t>
+  </si>
+  <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
-    <t>clear-day</t>
-  </si>
-  <si>
     <t>clear-night</t>
   </si>
   <si>
+    <t>Mostly Cloudy</t>
+  </si>
+  <si>
     <t>Partly Cloudy</t>
   </si>
   <si>
+    <t>Humid and Partly Cloudy</t>
+  </si>
+  <si>
+    <t>Humid and Mostly Cloudy</t>
+  </si>
+  <si>
     <t>Clear</t>
   </si>
   <si>
     <t>rain</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>Overcast</t>
   </si>
 </sst>
 </file>
@@ -587,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,16 +759,16 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>35.053585</v>
+        <v>35.015818</v>
       </c>
       <c r="E2">
-        <v>-85.306529</v>
+        <v>-85.254192</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -711,31 +777,31 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2">
-        <v>82.66</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="O2">
-        <v>89.16</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="P2">
-        <v>68.2</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -756,48 +822,48 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>65.61</v>
+        <v>71.14</v>
       </c>
       <c r="X2">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="Y2">
         <v>8</v>
       </c>
       <c r="Z2">
-        <v>6.54</v>
+        <v>5.68</v>
       </c>
       <c r="AA2">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AE2">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>35.053585</v>
+        <v>35.13598</v>
       </c>
       <c r="E3">
-        <v>-85.306529</v>
+        <v>-85.23961799999999</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -806,31 +872,31 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N3">
-        <v>82.66</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="O3">
-        <v>89.16</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="P3">
-        <v>68.2</v>
+        <v>71.52</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -851,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>65.61</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="X3">
         <v>0.57</v>
@@ -860,39 +926,42 @@
         <v>8</v>
       </c>
       <c r="Z3">
-        <v>6.54</v>
+        <v>7.15</v>
       </c>
       <c r="AA3">
-        <v>0.23</v>
+        <v>0.44</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>91</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AD3">
-        <v>0.0004</v>
+        <v>0.0016</v>
       </c>
       <c r="AE3">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>35.084245</v>
+        <v>35.13598</v>
       </c>
       <c r="E4">
-        <v>-85.19831000000001</v>
+        <v>-85.23961799999999</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -901,31 +970,31 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M4">
         <v>18</v>
       </c>
       <c r="N4">
-        <v>88.05</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="O4">
-        <v>88.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="P4">
-        <v>67.98999999999999</v>
+        <v>71.52</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -946,48 +1015,51 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>62.06</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="X4">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="Y4">
         <v>8</v>
       </c>
       <c r="Z4">
-        <v>6.81</v>
+        <v>7.15</v>
       </c>
       <c r="AA4">
-        <v>0.23</v>
+        <v>0.44</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>91</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="AD4">
-        <v>0.0004</v>
+        <v>0.0016</v>
       </c>
       <c r="AE4">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>35.084245</v>
+        <v>35.014338</v>
       </c>
       <c r="E5">
-        <v>-85.19831000000001</v>
+        <v>-85.25206900000001</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -996,31 +1068,31 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5">
-        <v>88.05</v>
+        <v>89.44</v>
       </c>
       <c r="O5">
-        <v>88.90000000000001</v>
+        <v>90.72</v>
       </c>
       <c r="P5">
-        <v>67.98999999999999</v>
+        <v>71.17</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1041,48 +1113,48 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>62.06</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="X5">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="Y5">
         <v>8</v>
       </c>
       <c r="Z5">
-        <v>6.81</v>
+        <v>6.25</v>
       </c>
       <c r="AA5">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AE5">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>35.048932</v>
+        <v>35.032543</v>
       </c>
       <c r="E6">
-        <v>-85.270938</v>
+        <v>-85.166732</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -1091,25 +1163,31 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N6">
-        <v>88.12</v>
+        <v>89.93000000000001</v>
+      </c>
+      <c r="O6">
+        <v>90.97</v>
+      </c>
+      <c r="P6">
+        <v>71.09</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1130,42 +1208,48 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>61.63</v>
+        <v>68.97</v>
       </c>
       <c r="X6">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="Y6">
         <v>8</v>
       </c>
       <c r="Z6">
-        <v>3.66</v>
+        <v>6.12</v>
+      </c>
+      <c r="AA6">
+        <v>0.39</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.0002</v>
+      </c>
+      <c r="AE6">
+        <v>1534464000</v>
       </c>
       <c r="AF6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>35.049702</v>
+        <v>35.047743</v>
       </c>
       <c r="E7">
-        <v>-85.27088500000001</v>
+        <v>-85.26318999999999</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1174,31 +1258,31 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N7">
-        <v>88.34</v>
+        <v>89.62</v>
       </c>
       <c r="O7">
-        <v>89.27</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="P7">
-        <v>68.44</v>
+        <v>71.47</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1219,48 +1303,48 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>61.54</v>
+        <v>68.91</v>
       </c>
       <c r="X7">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="Y7">
         <v>8</v>
       </c>
       <c r="Z7">
-        <v>6.9</v>
+        <v>6.24</v>
       </c>
       <c r="AA7">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="AE7">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>35.083965</v>
+        <v>35.01101</v>
       </c>
       <c r="E8">
-        <v>-85.19922800000001</v>
+        <v>-85.244051</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1269,31 +1353,31 @@
         <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N8">
-        <v>87.18000000000001</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="O8">
-        <v>88.89</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="P8">
-        <v>67.98</v>
+        <v>71.39</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1314,48 +1398,48 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>61.25</v>
+        <v>69.62</v>
       </c>
       <c r="X8">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="Y8">
         <v>8</v>
       </c>
       <c r="Z8">
-        <v>6.81</v>
+        <v>6.22</v>
       </c>
       <c r="AA8">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.0005</v>
+        <v>0.0003</v>
       </c>
       <c r="AE8">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF8" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>35.011594</v>
+        <v>35.015818</v>
       </c>
       <c r="E9">
-        <v>-85.215643</v>
+        <v>-85.254192</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -1364,31 +1448,31 @@
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N9">
-        <v>87.64</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="O9">
-        <v>89.39</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="P9">
-        <v>68.18000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1409,19 +1493,19 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>61.93</v>
+        <v>69.62</v>
       </c>
       <c r="X9">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="Y9">
         <v>8</v>
       </c>
       <c r="Z9">
-        <v>7.61</v>
+        <v>6.26</v>
       </c>
       <c r="AA9">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1430,27 +1514,27 @@
         <v>0.0003</v>
       </c>
       <c r="AE9">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG9" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>35.011594</v>
+        <v>35.019269</v>
       </c>
       <c r="E10">
-        <v>-85.215643</v>
+        <v>-85.321684</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1459,31 +1543,31 @@
         <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10">
-        <v>87.64</v>
+        <v>90.47</v>
       </c>
       <c r="O10">
-        <v>89.39</v>
+        <v>91.22</v>
       </c>
       <c r="P10">
-        <v>68.18000000000001</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1504,34 +1588,37 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>61.93</v>
+        <v>69.92</v>
       </c>
       <c r="X10">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="Y10">
         <v>8</v>
       </c>
       <c r="Z10">
-        <v>7.61</v>
+        <v>2.75</v>
       </c>
       <c r="AA10">
-        <v>0.23</v>
+        <v>0.51</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>91</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AD10">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="AE10">
-        <v>1534233600</v>
+        <v>1534453200</v>
       </c>
       <c r="AF10" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="AG10" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1542,10 +1629,10 @@
         <v>49</v>
       </c>
       <c r="D11">
-        <v>35.083346</v>
+        <v>35.062983</v>
       </c>
       <c r="E11">
-        <v>-85.064362</v>
+        <v>-85.07423</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -1554,31 +1641,31 @@
         <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N11">
-        <v>85.73999999999999</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="O11">
-        <v>88.63</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="P11">
-        <v>66.59999999999999</v>
+        <v>70.81</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1599,51 +1686,48 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>64.66</v>
+        <v>70.34</v>
       </c>
       <c r="X11">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="Y11">
         <v>8</v>
       </c>
       <c r="Z11">
-        <v>6.98</v>
+        <v>6.37</v>
       </c>
       <c r="AA11">
-        <v>0.22</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>71</v>
+        <v>0.34</v>
       </c>
       <c r="AC11">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
       <c r="AE11">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF11" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>35.121975</v>
+        <v>35.036125</v>
       </c>
       <c r="E12">
-        <v>-85.239625</v>
+        <v>-85.18406</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1652,31 +1736,31 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N12">
-        <v>86.3</v>
+        <v>90.06</v>
       </c>
       <c r="O12">
-        <v>89.06999999999999</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="P12">
-        <v>68.09</v>
+        <v>71.09</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1697,48 +1781,48 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>63.1</v>
+        <v>69.95</v>
       </c>
       <c r="X12">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="Y12">
         <v>8</v>
       </c>
       <c r="Z12">
-        <v>7.74</v>
+        <v>5.95</v>
       </c>
       <c r="AA12">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="AE12">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF12" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG12" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>35.121975</v>
+        <v>35.110565</v>
       </c>
       <c r="E13">
-        <v>-85.239625</v>
+        <v>-85.32789200000001</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1747,31 +1831,31 @@
         <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N13">
-        <v>86.3</v>
+        <v>89.33</v>
       </c>
       <c r="O13">
-        <v>89.06999999999999</v>
+        <v>90.31</v>
       </c>
       <c r="P13">
-        <v>68.09</v>
+        <v>70.69</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1792,48 +1876,51 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>63.1</v>
+        <v>71.84</v>
       </c>
       <c r="X13">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="Y13">
         <v>8</v>
       </c>
       <c r="Z13">
-        <v>7.74</v>
+        <v>6.63</v>
       </c>
       <c r="AA13">
-        <v>0.23</v>
+        <v>0.47</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>91</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AD13">
-        <v>0.0004</v>
+        <v>0.0012</v>
       </c>
       <c r="AE13">
-        <v>1534233600</v>
+        <v>1534453200</v>
       </c>
       <c r="AF13" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG13" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>35.071531</v>
+        <v>35.090087</v>
       </c>
       <c r="E14">
-        <v>-85.156379</v>
+        <v>-85.06041</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
@@ -1842,25 +1929,31 @@
         <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="M14">
         <v>12</v>
       </c>
       <c r="N14">
-        <v>84.34</v>
+        <v>85.73999999999999</v>
+      </c>
+      <c r="O14">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="P14">
+        <v>70.84</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1881,42 +1974,48 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>67.55</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="X14">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="Y14">
         <v>8</v>
       </c>
       <c r="Z14">
-        <v>6.49</v>
+        <v>6.92</v>
+      </c>
+      <c r="AA14">
+        <v>0.33</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>0.0002</v>
+      </c>
+      <c r="AE14">
+        <v>1534464000</v>
       </c>
       <c r="AF14" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG14" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>35.071531</v>
+        <v>35.090087</v>
       </c>
       <c r="E15">
-        <v>-85.156379</v>
+        <v>-85.06041</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -1925,31 +2024,31 @@
         <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>79.84</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="O15">
-        <v>88.98999999999999</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="P15">
-        <v>67.29000000000001</v>
+        <v>70.84</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1970,48 +2069,48 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>68.73999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="X15">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="Y15">
         <v>8</v>
       </c>
       <c r="Z15">
-        <v>7.15</v>
+        <v>6.92</v>
       </c>
       <c r="AA15">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="AE15">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF15" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG15" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16">
-        <v>35.004334</v>
+        <v>35.008587</v>
       </c>
       <c r="E16">
-        <v>-85.221655</v>
+        <v>-85.321031</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -2020,31 +2119,31 @@
         <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>76.06</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="O16">
-        <v>89.33</v>
+        <v>91.16</v>
       </c>
       <c r="P16">
-        <v>67.98999999999999</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2065,19 +2164,19 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>67.54000000000001</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="X16">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="Y16">
         <v>8</v>
       </c>
       <c r="Z16">
-        <v>7.33</v>
+        <v>2.28</v>
       </c>
       <c r="AA16">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2086,27 +2185,27 @@
         <v>0.0003</v>
       </c>
       <c r="AE16">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF16" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="AG16" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>35.004334</v>
+        <v>35.008587</v>
       </c>
       <c r="E17">
-        <v>-85.221655</v>
+        <v>-85.321031</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -2115,31 +2214,31 @@
         <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N17">
-        <v>76.06</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="O17">
-        <v>89.33</v>
+        <v>91.16</v>
       </c>
       <c r="P17">
-        <v>67.98999999999999</v>
+        <v>71.68000000000001</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2160,19 +2259,19 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>67.54000000000001</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="X17">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="Y17">
         <v>8</v>
       </c>
       <c r="Z17">
-        <v>7.33</v>
+        <v>2.28</v>
       </c>
       <c r="AA17">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2181,13 +2280,13 @@
         <v>0.0003</v>
       </c>
       <c r="AE17">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF17" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="AG17" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2198,10 +2297,10 @@
         <v>84</v>
       </c>
       <c r="D18">
-        <v>35.038935</v>
+        <v>35.036959</v>
       </c>
       <c r="E18">
-        <v>-85.28286199999999</v>
+        <v>-85.15182299999999</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -2210,31 +2309,31 @@
         <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N18">
-        <v>70.98</v>
+        <v>83.34</v>
       </c>
       <c r="O18">
-        <v>89.23</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="P18">
-        <v>68.36</v>
+        <v>71.11</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2255,34 +2354,610 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>67.48999999999999</v>
+        <v>71.89</v>
       </c>
       <c r="X18">
-        <v>0.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y18">
         <v>8</v>
       </c>
       <c r="Z18">
-        <v>6.21</v>
+        <v>5.91</v>
       </c>
       <c r="AA18">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="AE18">
-        <v>1534233600</v>
+        <v>1534464000</v>
       </c>
       <c r="AF18" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="1">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <v>86</v>
+      </c>
+      <c r="D19">
+        <v>35.045878</v>
+      </c>
+      <c r="E19">
+        <v>-85.269401</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="O19">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="P19">
+        <v>71.66</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="X19">
+        <v>0.68</v>
+      </c>
+      <c r="Y19">
+        <v>8</v>
+      </c>
+      <c r="Z19">
+        <v>6.25</v>
+      </c>
+      <c r="AA19">
+        <v>0.47</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0.0003</v>
+      </c>
+      <c r="AE19">
+        <v>1534464000</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="1">
+        <v>87</v>
+      </c>
+      <c r="B20">
+        <v>87</v>
+      </c>
+      <c r="D20">
+        <v>35.045878</v>
+      </c>
+      <c r="E20">
+        <v>-85.269401</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="O20">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="P20">
+        <v>71.66</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="X20">
+        <v>0.68</v>
+      </c>
+      <c r="Y20">
+        <v>8</v>
+      </c>
+      <c r="Z20">
+        <v>6.25</v>
+      </c>
+      <c r="AA20">
+        <v>0.47</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0.0003</v>
+      </c>
+      <c r="AE20">
+        <v>1534464000</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="1">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>89</v>
+      </c>
+      <c r="D21">
+        <v>35.013727</v>
+      </c>
+      <c r="E21">
+        <v>-85.32828499999999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21">
+        <v>11</v>
+      </c>
+      <c r="N21">
+        <v>83.2</v>
+      </c>
+      <c r="O21">
+        <v>91.09</v>
+      </c>
+      <c r="P21">
+        <v>71.58</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>71.83</v>
+      </c>
+      <c r="X21">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>3.42</v>
+      </c>
+      <c r="AA21">
+        <v>0.51</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21">
+        <v>0.0001</v>
+      </c>
+      <c r="AD21">
+        <v>0.0008</v>
+      </c>
+      <c r="AE21">
+        <v>1534453200</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="1">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>35.013727</v>
+      </c>
+      <c r="E22">
+        <v>-85.32828499999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>83.2</v>
+      </c>
+      <c r="O22">
+        <v>91.09</v>
+      </c>
+      <c r="P22">
+        <v>71.58</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>71.83</v>
+      </c>
+      <c r="X22">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y22">
+        <v>8</v>
+      </c>
+      <c r="Z22">
+        <v>3.42</v>
+      </c>
+      <c r="AA22">
+        <v>0.51</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22">
+        <v>0.0001</v>
+      </c>
+      <c r="AD22">
+        <v>0.0008</v>
+      </c>
+      <c r="AE22">
+        <v>1534453200</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="1">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>105</v>
+      </c>
+      <c r="D23">
+        <v>35.013797</v>
+      </c>
+      <c r="E23">
+        <v>-85.16132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>72.09</v>
+      </c>
+      <c r="O23">
+        <v>91.06999999999999</v>
+      </c>
+      <c r="P23">
+        <v>71.2</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>67.88</v>
+      </c>
+      <c r="X23">
+        <v>0.87</v>
+      </c>
+      <c r="Y23">
+        <v>8</v>
+      </c>
+      <c r="Z23">
+        <v>3.78</v>
+      </c>
+      <c r="AA23">
+        <v>0.39</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0.0002</v>
+      </c>
+      <c r="AE23">
+        <v>1534464000</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="1">
+        <v>111</v>
+      </c>
+      <c r="B24">
+        <v>111</v>
+      </c>
+      <c r="D24">
+        <v>35.033982</v>
+      </c>
+      <c r="E24">
+        <v>-85.263012</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="O24">
+        <v>89.04000000000001</v>
+      </c>
+      <c r="P24">
+        <v>67.83</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="X24">
+        <v>0.82</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>5.85</v>
+      </c>
+      <c r="AA24">
+        <v>0.49</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0.0003</v>
+      </c>
+      <c r="AE24">
+        <v>1534374000</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
   <si>
     <t>Index</t>
   </si>
@@ -112,43 +112,190 @@
     <t>ConditionBefore</t>
   </si>
   <si>
-    <t>2018-08-21</t>
-  </si>
-  <si>
-    <t>17:52:13</t>
-  </si>
-  <si>
-    <t>17:51:42</t>
-  </si>
-  <si>
-    <t>08:07:28</t>
-  </si>
-  <si>
-    <t>08:06:54</t>
+    <t>2018-08-16</t>
+  </si>
+  <si>
+    <t>23:08:56</t>
+  </si>
+  <si>
+    <t>18:16:11</t>
+  </si>
+  <si>
+    <t>18:14:35</t>
+  </si>
+  <si>
+    <t>17:35:05</t>
+  </si>
+  <si>
+    <t>17:20:57</t>
+  </si>
+  <si>
+    <t>17:04:39</t>
+  </si>
+  <si>
+    <t>16:28:29</t>
+  </si>
+  <si>
+    <t>16:17:23</t>
+  </si>
+  <si>
+    <t>15:54:31</t>
+  </si>
+  <si>
+    <t>15:41:14</t>
+  </si>
+  <si>
+    <t>15:31:02</t>
+  </si>
+  <si>
+    <t>14:47:01</t>
+  </si>
+  <si>
+    <t>12:57:03</t>
+  </si>
+  <si>
+    <t>12:57:02</t>
+  </si>
+  <si>
+    <t>12:10:43</t>
+  </si>
+  <si>
+    <t>12:10:24</t>
+  </si>
+  <si>
+    <t>11:41:06</t>
+  </si>
+  <si>
+    <t>11:36:07</t>
+  </si>
+  <si>
+    <t>11:36:00</t>
+  </si>
+  <si>
+    <t>11:24:42</t>
+  </si>
+  <si>
+    <t>11:20:13</t>
+  </si>
+  <si>
+    <t>08:07:21</t>
+  </si>
+  <si>
+    <t>00:28:45</t>
+  </si>
+  <si>
+    <t>Unknown Injuries</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Brainerd Rd / N Germantown Rd</t>
-  </si>
-  <si>
-    <t>Brainerd Rd / Woodlawn Dr</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>18300 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>2000 - 2099 Northpoint Blvd</t>
+  </si>
+  <si>
+    <t>18310 - 18399 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>420 - 479 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>Windsor St / Dodson Ave</t>
+  </si>
+  <si>
+    <t>18360 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>18300 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>3151 Broad St</t>
+  </si>
+  <si>
+    <t>Apison Pike / Little Debbie Pkwy</t>
+  </si>
+  <si>
+    <t>1 - 9 Exit Lee Hwy Off Ramp Sb</t>
+  </si>
+  <si>
+    <t>3550 W Rd</t>
+  </si>
+  <si>
+    <t>1200 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>1009 W 39th St</t>
+  </si>
+  <si>
+    <t>COMMONS BLVD / GUNBARREL RD</t>
+  </si>
+  <si>
+    <t>Citico Ave / N Orchard Knob Ave</t>
+  </si>
+  <si>
+    <t>800 N ORCHARD KNOB AVE</t>
+  </si>
+  <si>
+    <t>Broad St / Cummings Hwy</t>
+  </si>
+  <si>
+    <t>Broad St / Old Wauhatchie Pike</t>
+  </si>
+  <si>
+    <t>7500 - 7539 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>205 Glenwood Dr</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>COLLEGEDALE</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>partly-cloudy-night</t>
+  </si>
+  <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
+    <t>clear-night</t>
+  </si>
+  <si>
     <t>Mostly Cloudy</t>
   </si>
   <si>
+    <t>Partly Cloudy</t>
+  </si>
+  <si>
+    <t>Humid and Partly Cloudy</t>
+  </si>
+  <si>
+    <t>Humid and Mostly Cloudy</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
     <t>rain</t>
   </si>
   <si>
-    <t>partly-cloudy-night</t>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>Overcast</t>
   </si>
 </sst>
 </file>
@@ -506,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,16 +759,16 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>35.024158</v>
+        <v>35.015818</v>
       </c>
       <c r="E2">
-        <v>-85.24646799999999</v>
+        <v>-85.254192</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -630,31 +777,31 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N2">
-        <v>84.73</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="O2">
-        <v>84.73</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="P2">
-        <v>72.98</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -675,51 +822,48 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>67.31999999999999</v>
+        <v>71.14</v>
       </c>
       <c r="X2">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="Y2">
         <v>8</v>
       </c>
       <c r="Z2">
-        <v>5.72</v>
+        <v>5.68</v>
       </c>
       <c r="AA2">
-        <v>0.83</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="AC2">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0103</v>
+        <v>0.0003</v>
       </c>
       <c r="AE2">
-        <v>1534867200</v>
+        <v>1534464000</v>
       </c>
       <c r="AF2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="AG2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>35.024158</v>
+        <v>35.13598</v>
       </c>
       <c r="E3">
-        <v>-85.24646799999999</v>
+        <v>-85.23961799999999</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -728,31 +872,31 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
-        <v>84.73</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="O3">
-        <v>84.73</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="P3">
-        <v>72.98</v>
+        <v>71.52</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -773,51 +917,51 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>67.31999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="X3">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="Y3">
         <v>8</v>
       </c>
       <c r="Z3">
-        <v>5.72</v>
+        <v>7.15</v>
       </c>
       <c r="AA3">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="AB3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="AC3">
-        <v>0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="AD3">
-        <v>0.0103</v>
+        <v>0.0016</v>
       </c>
       <c r="AE3">
-        <v>1534867200</v>
+        <v>1534464000</v>
       </c>
       <c r="AF3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="AG3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>35.026267</v>
+        <v>35.13598</v>
       </c>
       <c r="E4">
-        <v>-85.25196099999999</v>
+        <v>-85.23961799999999</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -826,31 +970,31 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
-        <v>72.98999999999999</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="O4">
-        <v>84.63</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="P4">
-        <v>72.88</v>
+        <v>71.52</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -871,51 +1015,51 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>71.37</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="X4">
-        <v>0.95</v>
+        <v>0.57</v>
       </c>
       <c r="Y4">
         <v>8</v>
       </c>
       <c r="Z4">
-        <v>5.54</v>
+        <v>7.15</v>
       </c>
       <c r="AA4">
-        <v>0.82</v>
+        <v>0.44</v>
       </c>
       <c r="AB4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="AC4">
-        <v>0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="AD4">
-        <v>0.0103</v>
+        <v>0.0016</v>
       </c>
       <c r="AE4">
-        <v>1534867200</v>
+        <v>1534464000</v>
       </c>
       <c r="AF4" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="AG4" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>35.026267</v>
+        <v>35.014338</v>
       </c>
       <c r="E5">
-        <v>-85.25196099999999</v>
+        <v>-85.25206900000001</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -924,31 +1068,31 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N5">
-        <v>72.98999999999999</v>
+        <v>89.44</v>
       </c>
       <c r="O5">
-        <v>84.63</v>
+        <v>90.72</v>
       </c>
       <c r="P5">
-        <v>72.88</v>
+        <v>71.17</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -969,37 +1113,1851 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>71.37</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="X5">
-        <v>0.95</v>
+        <v>0.51</v>
       </c>
       <c r="Y5">
         <v>8</v>
       </c>
       <c r="Z5">
-        <v>5.54</v>
+        <v>6.25</v>
       </c>
       <c r="AA5">
+        <v>0.43</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.0003</v>
+      </c>
+      <c r="AE5">
+        <v>1534464000</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>35.032543</v>
+      </c>
+      <c r="E6">
+        <v>-85.166732</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>89.93000000000001</v>
+      </c>
+      <c r="O6">
+        <v>90.97</v>
+      </c>
+      <c r="P6">
+        <v>71.09</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>68.97</v>
+      </c>
+      <c r="X6">
+        <v>0.5</v>
+      </c>
+      <c r="Y6">
+        <v>8</v>
+      </c>
+      <c r="Z6">
+        <v>6.12</v>
+      </c>
+      <c r="AA6">
+        <v>0.39</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0.0002</v>
+      </c>
+      <c r="AE6">
+        <v>1534464000</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="1">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>35.047743</v>
+      </c>
+      <c r="E7">
+        <v>-85.26318999999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7">
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <v>89.62</v>
+      </c>
+      <c r="O7">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="P7">
+        <v>71.47</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>68.91</v>
+      </c>
+      <c r="X7">
+        <v>0.51</v>
+      </c>
+      <c r="Y7">
+        <v>8</v>
+      </c>
+      <c r="Z7">
+        <v>6.24</v>
+      </c>
+      <c r="AA7">
+        <v>0.46</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0.0003</v>
+      </c>
+      <c r="AE7">
+        <v>1534464000</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="1">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>35.01101</v>
+      </c>
+      <c r="E8">
+        <v>-85.244051</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>90.93000000000001</v>
+      </c>
+      <c r="O8">
+        <v>90.93000000000001</v>
+      </c>
+      <c r="P8">
+        <v>71.39</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>69.62</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>6.22</v>
+      </c>
+      <c r="AA8">
+        <v>0.42</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0.0003</v>
+      </c>
+      <c r="AE8">
+        <v>1534464000</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="1">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>35.015818</v>
+      </c>
+      <c r="E9">
+        <v>-85.254192</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="O9">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="P9">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>69.62</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>6.26</v>
+      </c>
+      <c r="AA9">
+        <v>0.43</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0.0003</v>
+      </c>
+      <c r="AE9">
+        <v>1534464000</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="1">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>35.019269</v>
+      </c>
+      <c r="E10">
+        <v>-85.321684</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10">
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <v>90.47</v>
+      </c>
+      <c r="O10">
+        <v>91.22</v>
+      </c>
+      <c r="P10">
+        <v>71.70999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>69.92</v>
+      </c>
+      <c r="X10">
+        <v>0.51</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <v>2.75</v>
+      </c>
+      <c r="AA10">
+        <v>0.51</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC10">
+        <v>0.0001</v>
+      </c>
+      <c r="AD10">
+        <v>0.0008</v>
+      </c>
+      <c r="AE10">
+        <v>1534453200</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="1">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>35.062983</v>
+      </c>
+      <c r="E11">
+        <v>-85.07423</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="O11">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="P11">
+        <v>70.81</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>70.34</v>
+      </c>
+      <c r="X11">
+        <v>0.53</v>
+      </c>
+      <c r="Y11">
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <v>6.37</v>
+      </c>
+      <c r="AA11">
+        <v>0.34</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0.0002</v>
+      </c>
+      <c r="AE11">
+        <v>1534464000</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="1">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>35.036125</v>
+      </c>
+      <c r="E12">
+        <v>-85.18406</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>90.06</v>
+      </c>
+      <c r="O12">
+        <v>90.95999999999999</v>
+      </c>
+      <c r="P12">
+        <v>71.09</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>69.95</v>
+      </c>
+      <c r="X12">
+        <v>0.52</v>
+      </c>
+      <c r="Y12">
+        <v>8</v>
+      </c>
+      <c r="Z12">
+        <v>5.95</v>
+      </c>
+      <c r="AA12">
+        <v>0.4</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0.0002</v>
+      </c>
+      <c r="AE12">
+        <v>1534464000</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>35.110565</v>
+      </c>
+      <c r="E13">
+        <v>-85.32789200000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>89.33</v>
+      </c>
+      <c r="O13">
+        <v>90.31</v>
+      </c>
+      <c r="P13">
+        <v>70.69</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>71.84</v>
+      </c>
+      <c r="X13">
+        <v>0.57</v>
+      </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>6.63</v>
+      </c>
+      <c r="AA13">
+        <v>0.47</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13">
+        <v>0.0001</v>
+      </c>
+      <c r="AD13">
+        <v>0.0012</v>
+      </c>
+      <c r="AE13">
+        <v>1534453200</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="1">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>35.090087</v>
+      </c>
+      <c r="E14">
+        <v>-85.06041</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>85.73999999999999</v>
+      </c>
+      <c r="O14">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="P14">
+        <v>70.84</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="X14">
+        <v>0.65</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>6.92</v>
+      </c>
+      <c r="AA14">
+        <v>0.33</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0.0002</v>
+      </c>
+      <c r="AE14">
+        <v>1534464000</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="1">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>35.090087</v>
+      </c>
+      <c r="E15">
+        <v>-85.06041</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>85.73999999999999</v>
+      </c>
+      <c r="O15">
+        <v>90.84999999999999</v>
+      </c>
+      <c r="P15">
+        <v>70.84</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="X15">
+        <v>0.65</v>
+      </c>
+      <c r="Y15">
+        <v>8</v>
+      </c>
+      <c r="Z15">
+        <v>6.92</v>
+      </c>
+      <c r="AA15">
+        <v>0.33</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0.0002</v>
+      </c>
+      <c r="AE15">
+        <v>1534464000</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="1">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>35.008587</v>
+      </c>
+      <c r="E16">
+        <v>-85.321031</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="O16">
+        <v>91.16</v>
+      </c>
+      <c r="P16">
+        <v>71.68000000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>72.56999999999999</v>
+      </c>
+      <c r="X16">
+        <v>0.65</v>
+      </c>
+      <c r="Y16">
+        <v>8</v>
+      </c>
+      <c r="Z16">
+        <v>2.28</v>
+      </c>
+      <c r="AA16">
+        <v>0.51</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0.0003</v>
+      </c>
+      <c r="AE16">
+        <v>1534464000</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="1">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>35.008587</v>
+      </c>
+      <c r="E17">
+        <v>-85.321031</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="N17">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="O17">
+        <v>91.16</v>
+      </c>
+      <c r="P17">
+        <v>71.68000000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>72.56999999999999</v>
+      </c>
+      <c r="X17">
+        <v>0.65</v>
+      </c>
+      <c r="Y17">
+        <v>8</v>
+      </c>
+      <c r="Z17">
+        <v>2.28</v>
+      </c>
+      <c r="AA17">
+        <v>0.51</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0.0003</v>
+      </c>
+      <c r="AE17">
+        <v>1534464000</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="1">
+        <v>84</v>
+      </c>
+      <c r="B18">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>35.036959</v>
+      </c>
+      <c r="E18">
+        <v>-85.15182299999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>83.34</v>
+      </c>
+      <c r="O18">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="P18">
+        <v>71.11</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>71.89</v>
+      </c>
+      <c r="X18">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y18">
+        <v>8</v>
+      </c>
+      <c r="Z18">
+        <v>5.91</v>
+      </c>
+      <c r="AA18">
+        <v>0.38</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0.0002</v>
+      </c>
+      <c r="AE18">
+        <v>1534464000</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="1">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <v>86</v>
+      </c>
+      <c r="D19">
+        <v>35.045878</v>
+      </c>
+      <c r="E19">
+        <v>-85.269401</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="O19">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="P19">
+        <v>71.66</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="X19">
+        <v>0.68</v>
+      </c>
+      <c r="Y19">
+        <v>8</v>
+      </c>
+      <c r="Z19">
+        <v>6.25</v>
+      </c>
+      <c r="AA19">
+        <v>0.47</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0.0003</v>
+      </c>
+      <c r="AE19">
+        <v>1534464000</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="1">
+        <v>87</v>
+      </c>
+      <c r="B20">
+        <v>87</v>
+      </c>
+      <c r="D20">
+        <v>35.045878</v>
+      </c>
+      <c r="E20">
+        <v>-85.269401</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="O20">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="P20">
+        <v>71.66</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="X20">
+        <v>0.68</v>
+      </c>
+      <c r="Y20">
+        <v>8</v>
+      </c>
+      <c r="Z20">
+        <v>6.25</v>
+      </c>
+      <c r="AA20">
+        <v>0.47</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0.0003</v>
+      </c>
+      <c r="AE20">
+        <v>1534464000</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="1">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>89</v>
+      </c>
+      <c r="D21">
+        <v>35.013727</v>
+      </c>
+      <c r="E21">
+        <v>-85.32828499999999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21">
+        <v>11</v>
+      </c>
+      <c r="N21">
+        <v>83.2</v>
+      </c>
+      <c r="O21">
+        <v>91.09</v>
+      </c>
+      <c r="P21">
+        <v>71.58</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>71.83</v>
+      </c>
+      <c r="X21">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>3.42</v>
+      </c>
+      <c r="AA21">
+        <v>0.51</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21">
+        <v>0.0001</v>
+      </c>
+      <c r="AD21">
+        <v>0.0008</v>
+      </c>
+      <c r="AE21">
+        <v>1534453200</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="1">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>35.013727</v>
+      </c>
+      <c r="E22">
+        <v>-85.32828499999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>83.2</v>
+      </c>
+      <c r="O22">
+        <v>91.09</v>
+      </c>
+      <c r="P22">
+        <v>71.58</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>71.83</v>
+      </c>
+      <c r="X22">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y22">
+        <v>8</v>
+      </c>
+      <c r="Z22">
+        <v>3.42</v>
+      </c>
+      <c r="AA22">
+        <v>0.51</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22">
+        <v>0.0001</v>
+      </c>
+      <c r="AD22">
+        <v>0.0008</v>
+      </c>
+      <c r="AE22">
+        <v>1534453200</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="1">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>105</v>
+      </c>
+      <c r="D23">
+        <v>35.013797</v>
+      </c>
+      <c r="E23">
+        <v>-85.16132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>72.09</v>
+      </c>
+      <c r="O23">
+        <v>91.06999999999999</v>
+      </c>
+      <c r="P23">
+        <v>71.2</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>67.88</v>
+      </c>
+      <c r="X23">
+        <v>0.87</v>
+      </c>
+      <c r="Y23">
+        <v>8</v>
+      </c>
+      <c r="Z23">
+        <v>3.78</v>
+      </c>
+      <c r="AA23">
+        <v>0.39</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0.0002</v>
+      </c>
+      <c r="AE23">
+        <v>1534464000</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="1">
+        <v>111</v>
+      </c>
+      <c r="B24">
+        <v>111</v>
+      </c>
+      <c r="D24">
+        <v>35.033982</v>
+      </c>
+      <c r="E24">
+        <v>-85.263012</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="O24">
+        <v>89.04000000000001</v>
+      </c>
+      <c r="P24">
+        <v>67.83</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="X24">
         <v>0.82</v>
       </c>
-      <c r="AB5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5">
-        <v>0.0008</v>
-      </c>
-      <c r="AD5">
-        <v>0.0103</v>
-      </c>
-      <c r="AE5">
-        <v>1534867200</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>5.85</v>
+      </c>
+      <c r="AA24">
+        <v>0.49</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0.0003</v>
+      </c>
+      <c r="AE24">
+        <v>1534374000</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>Index</t>
   </si>
@@ -85,7 +85,19 @@
     <t>Temp_30to40</t>
   </si>
   <si>
-    <t>Temp_Above_40</t>
+    <t>Temp_40to50</t>
+  </si>
+  <si>
+    <t>Temp_50to60</t>
+  </si>
+  <si>
+    <t>Temp_60to70</t>
+  </si>
+  <si>
+    <t>Temp_Above_70</t>
+  </si>
+  <si>
+    <t>Daily_Avg_Temp</t>
   </si>
   <si>
     <t>Dewpoint</t>
@@ -115,28 +127,52 @@
     <t>Precip_Intensity_Time</t>
   </si>
   <si>
-    <t>2018-08-21</t>
-  </si>
-  <si>
-    <t>17:52:13</t>
-  </si>
-  <si>
-    <t>17:51:42</t>
-  </si>
-  <si>
-    <t>08:07:28</t>
-  </si>
-  <si>
-    <t>08:06:54</t>
+    <t>2018-09-23</t>
+  </si>
+  <si>
+    <t>15:00:34</t>
+  </si>
+  <si>
+    <t>14:56:18</t>
+  </si>
+  <si>
+    <t>13:01:51</t>
+  </si>
+  <si>
+    <t>13:01:08</t>
+  </si>
+  <si>
+    <t>11:57:07</t>
+  </si>
+  <si>
+    <t>11:56:53</t>
+  </si>
+  <si>
+    <t>10:55:55</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Brainerd Rd / N Germantown Rd</t>
-  </si>
-  <si>
-    <t>Brainerd Rd / Woodlawn Dr</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>1000 SIGNAL MOUNTAIN BLVD</t>
+  </si>
+  <si>
+    <t>1200 - 1205 Taft Hwy</t>
+  </si>
+  <si>
+    <t>5200 Hixson Pike</t>
+  </si>
+  <si>
+    <t>4400 HIGHWAY 58</t>
+  </si>
+  <si>
+    <t>Gunbarrel Rd / Pinewood Dr</t>
+  </si>
+  <si>
+    <t>SIGNAL MOUNTAIN</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -149,6 +185,9 @@
   </si>
   <si>
     <t>partly-cloudy-night</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
   </si>
   <si>
     <t>rain</t>
@@ -509,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:38">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,397 +654,766 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:38">
       <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>35.110514</v>
+      </c>
+      <c r="E2">
+        <v>-85.35275900000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>79.92</v>
+      </c>
+      <c r="Q2">
+        <v>83.17</v>
+      </c>
+      <c r="R2">
+        <v>69.02</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>65.83</v>
+      </c>
+      <c r="AE2">
+        <v>0.62</v>
+      </c>
+      <c r="AF2">
+        <v>9</v>
+      </c>
+      <c r="AG2">
+        <v>2.91</v>
+      </c>
+      <c r="AH2">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2">
+        <v>0.0012</v>
+      </c>
+      <c r="AK2">
+        <v>0.0067</v>
+      </c>
+      <c r="AL2">
+        <v>1537736400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" s="1">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>35.138329</v>
+      </c>
+      <c r="E3">
+        <v>-85.33038999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>80.76000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>81.94</v>
+      </c>
+      <c r="R3">
+        <v>67.5</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>67.75</v>
+      </c>
+      <c r="AE3">
+        <v>0.65</v>
+      </c>
+      <c r="AF3">
+        <v>9</v>
+      </c>
+      <c r="AG3">
+        <v>7.44</v>
+      </c>
+      <c r="AH3">
+        <v>0.66</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3">
+        <v>0.0011</v>
+      </c>
+      <c r="AK3">
+        <v>0.0064</v>
+      </c>
+      <c r="AL3">
+        <v>1537736400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="1">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>35.137282</v>
+      </c>
+      <c r="E4">
+        <v>-85.23681999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="R4">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>67.43000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0.55</v>
+      </c>
+      <c r="AF4">
+        <v>9</v>
+      </c>
+      <c r="AG4">
+        <v>7.01</v>
+      </c>
+      <c r="AH4">
+        <v>0.64</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4">
+        <v>0.0008</v>
+      </c>
+      <c r="AK4">
+        <v>0.0039</v>
+      </c>
+      <c r="AL4">
+        <v>1537736400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="1">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>35.137282</v>
+      </c>
+      <c r="E5">
+        <v>-85.23681999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="R5">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>67.43000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>0.55</v>
+      </c>
+      <c r="AF5">
+        <v>9</v>
+      </c>
+      <c r="AG5">
+        <v>7.01</v>
+      </c>
+      <c r="AH5">
+        <v>0.64</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ5">
+        <v>0.0008</v>
+      </c>
+      <c r="AK5">
+        <v>0.0039</v>
+      </c>
+      <c r="AL5">
+        <v>1537736400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" s="1">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>35.084378</v>
+      </c>
+      <c r="E6">
+        <v>-85.201244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="P6">
+        <v>78.89</v>
+      </c>
+      <c r="Q6">
+        <v>85.54000000000001</v>
+      </c>
+      <c r="R6">
+        <v>70.76000000000001</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>66.33</v>
+      </c>
+      <c r="AE6">
+        <v>0.66</v>
+      </c>
+      <c r="AF6">
+        <v>9</v>
+      </c>
+      <c r="AG6">
+        <v>6.22</v>
+      </c>
+      <c r="AH6">
+        <v>0.64</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6">
+        <v>0.0003</v>
+      </c>
+      <c r="AK6">
+        <v>0.0027</v>
+      </c>
+      <c r="AL6">
+        <v>1537736400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>35.084387</v>
+      </c>
+      <c r="E7">
+        <v>-85.201204</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>35.024158</v>
-      </c>
-      <c r="E2">
-        <v>-85.24646799999999</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P7">
+        <v>78.89</v>
+      </c>
+      <c r="Q7">
+        <v>85.54000000000001</v>
+      </c>
+      <c r="R7">
+        <v>70.76000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>66.33</v>
+      </c>
+      <c r="AE7">
+        <v>0.66</v>
+      </c>
+      <c r="AF7">
+        <v>9</v>
+      </c>
+      <c r="AG7">
+        <v>6.22</v>
+      </c>
+      <c r="AH7">
+        <v>0.64</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ7">
+        <v>0.0003</v>
+      </c>
+      <c r="AK7">
+        <v>0.0027</v>
+      </c>
+      <c r="AL7">
+        <v>1537736400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" s="1">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>35.048637</v>
+      </c>
+      <c r="E8">
+        <v>-85.145493</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2">
-        <v>17</v>
-      </c>
-      <c r="P2">
-        <v>84.73</v>
-      </c>
-      <c r="Q2">
-        <v>84.73</v>
-      </c>
-      <c r="R2">
-        <v>72.98</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>75.75</v>
+      </c>
+      <c r="Q8">
+        <v>86.06</v>
+      </c>
+      <c r="R8">
+        <v>70.39</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>1</v>
       </c>
-      <c r="Z2">
-        <v>67.31999999999999</v>
-      </c>
-      <c r="AA2">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>8</v>
-      </c>
-      <c r="AC2">
-        <v>5.72</v>
-      </c>
-      <c r="AD2">
-        <v>0.83</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF2">
-        <v>0.0008</v>
-      </c>
-      <c r="AG2">
-        <v>0.0103</v>
-      </c>
-      <c r="AH2">
-        <v>1534867200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>35.024158</v>
-      </c>
-      <c r="E3">
-        <v>-85.24646799999999</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3">
-        <v>17</v>
-      </c>
-      <c r="P3">
-        <v>84.73</v>
-      </c>
-      <c r="Q3">
-        <v>84.73</v>
-      </c>
-      <c r="R3">
-        <v>72.98</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>67.31999999999999</v>
-      </c>
-      <c r="AA3">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB3">
-        <v>8</v>
-      </c>
-      <c r="AC3">
-        <v>5.72</v>
-      </c>
-      <c r="AD3">
-        <v>0.83</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3">
-        <v>0.0008</v>
-      </c>
-      <c r="AG3">
-        <v>0.0103</v>
-      </c>
-      <c r="AH3">
-        <v>1534867200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="1">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>54</v>
-      </c>
-      <c r="D4">
-        <v>35.026267</v>
-      </c>
-      <c r="E4">
-        <v>-85.25196099999999</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4">
-        <v>8</v>
-      </c>
-      <c r="P4">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="Q4">
-        <v>84.63</v>
-      </c>
-      <c r="R4">
-        <v>72.88</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>71.37</v>
-      </c>
-      <c r="AA4">
-        <v>0.95</v>
-      </c>
-      <c r="AB4">
-        <v>8</v>
-      </c>
-      <c r="AC4">
-        <v>5.54</v>
-      </c>
-      <c r="AD4">
-        <v>0.82</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF4">
-        <v>0.0008</v>
-      </c>
-      <c r="AG4">
-        <v>0.0103</v>
-      </c>
-      <c r="AH4">
-        <v>1534867200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="1">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>35.026267</v>
-      </c>
-      <c r="E5">
-        <v>-85.25196099999999</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="Q5">
-        <v>84.63</v>
-      </c>
-      <c r="R5">
-        <v>72.88</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>71.37</v>
-      </c>
-      <c r="AA5">
-        <v>0.95</v>
-      </c>
-      <c r="AB5">
-        <v>8</v>
-      </c>
-      <c r="AC5">
-        <v>5.54</v>
-      </c>
-      <c r="AD5">
-        <v>0.82</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF5">
-        <v>0.0008</v>
-      </c>
-      <c r="AG5">
-        <v>0.0103</v>
-      </c>
-      <c r="AH5">
-        <v>1534867200</v>
+      <c r="AD8">
+        <v>65.67</v>
+      </c>
+      <c r="AE8">
+        <v>0.71</v>
+      </c>
+      <c r="AF8">
+        <v>9</v>
+      </c>
+      <c r="AG8">
+        <v>6.14</v>
+      </c>
+      <c r="AH8">
+        <v>0.58</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ8">
+        <v>0.0002</v>
+      </c>
+      <c r="AK8">
+        <v>0.002</v>
+      </c>
+      <c r="AL8">
+        <v>1537736400</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
   <si>
     <t>Index</t>
   </si>
@@ -127,28 +127,94 @@
     <t>Precip_Intensity_Time</t>
   </si>
   <si>
-    <t>2018-09-23</t>
-  </si>
-  <si>
-    <t>15:00:34</t>
-  </si>
-  <si>
-    <t>14:56:18</t>
-  </si>
-  <si>
-    <t>13:01:51</t>
-  </si>
-  <si>
-    <t>13:01:08</t>
-  </si>
-  <si>
-    <t>11:57:07</t>
-  </si>
-  <si>
-    <t>11:56:53</t>
-  </si>
-  <si>
-    <t>10:55:55</t>
+    <t>2018-09-26</t>
+  </si>
+  <si>
+    <t>18:04:53</t>
+  </si>
+  <si>
+    <t>18:04:17</t>
+  </si>
+  <si>
+    <t>18:01:55</t>
+  </si>
+  <si>
+    <t>18:01:28</t>
+  </si>
+  <si>
+    <t>17:35:31</t>
+  </si>
+  <si>
+    <t>15:59:55</t>
+  </si>
+  <si>
+    <t>15:34:37</t>
+  </si>
+  <si>
+    <t>15:34:01</t>
+  </si>
+  <si>
+    <t>15:24:35</t>
+  </si>
+  <si>
+    <t>14:53:40</t>
+  </si>
+  <si>
+    <t>14:53:35</t>
+  </si>
+  <si>
+    <t>14:28:41</t>
+  </si>
+  <si>
+    <t>14:08:46</t>
+  </si>
+  <si>
+    <t>14:07:48</t>
+  </si>
+  <si>
+    <t>12:58:03</t>
+  </si>
+  <si>
+    <t>10:33:12</t>
+  </si>
+  <si>
+    <t>10:31:51</t>
+  </si>
+  <si>
+    <t>10:13:47</t>
+  </si>
+  <si>
+    <t>09:45:02</t>
+  </si>
+  <si>
+    <t>09:44:15</t>
+  </si>
+  <si>
+    <t>09:34:20</t>
+  </si>
+  <si>
+    <t>08:04:37</t>
+  </si>
+  <si>
+    <t>08:03:53</t>
+  </si>
+  <si>
+    <t>08:03:14</t>
+  </si>
+  <si>
+    <t>08:02:29</t>
+  </si>
+  <si>
+    <t>08:01:38</t>
+  </si>
+  <si>
+    <t>07:56:03</t>
+  </si>
+  <si>
+    <t>07:18:01</t>
+  </si>
+  <si>
+    <t>06:57:53</t>
   </si>
   <si>
     <t>Injuries</t>
@@ -157,40 +223,103 @@
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>1000 SIGNAL MOUNTAIN BLVD</t>
-  </si>
-  <si>
-    <t>1200 - 1205 Taft Hwy</t>
-  </si>
-  <si>
-    <t>5200 Hixson Pike</t>
-  </si>
-  <si>
-    <t>4400 HIGHWAY 58</t>
-  </si>
-  <si>
-    <t>Gunbarrel Rd / Pinewood Dr</t>
-  </si>
-  <si>
-    <t>SIGNAL MOUNTAIN</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>8300 - 8399 Thunder Farms Trl</t>
+  </si>
+  <si>
+    <t>1966 Northpoint Blvd</t>
+  </si>
+  <si>
+    <t>18250 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>522 S MOORE RD</t>
+  </si>
+  <si>
+    <t>Workman Rd / E 47th St</t>
+  </si>
+  <si>
+    <t>18080 - 18119 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>324 TUNNEL BLVD</t>
+  </si>
+  <si>
+    <t>140 HIGHWAY 27 SB</t>
+  </si>
+  <si>
+    <t>Boy Scout Rd / Sandswitch Rd</t>
+  </si>
+  <si>
+    <t>17820 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>7020-7099 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>12108 - 13099 Highway 111 Sb</t>
+  </si>
+  <si>
+    <t>7000-7011 Highway 153</t>
+  </si>
+  <si>
+    <t>300 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>1000 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>900 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>Hamilton Mill Dr / Jenkins Rd</t>
+  </si>
+  <si>
+    <t>5579 Highway 153</t>
+  </si>
+  <si>
+    <t>2200 ROSSVILLE BLVD</t>
+  </si>
+  <si>
+    <t>Stonesage Rd / Igou Ferry Rd</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
     <t>partly-cloudy-day</t>
   </si>
   <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>partly-cloudy-night</t>
+  </si>
+  <si>
     <t>Mostly Cloudy</t>
   </si>
   <si>
-    <t>partly-cloudy-night</t>
-  </si>
-  <si>
-    <t>Partly Cloudy</t>
-  </si>
-  <si>
-    <t>rain</t>
+    <t>Light Rain</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Overcast</t>
   </si>
 </sst>
 </file>
@@ -548,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,16 +798,16 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>35.110514</v>
+        <v>35.1163</v>
       </c>
       <c r="E2">
-        <v>-85.35275900000001</v>
+        <v>-85.068532</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -687,37 +816,37 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>79.92</v>
+        <v>72.83</v>
       </c>
       <c r="Q2">
-        <v>83.17</v>
+        <v>75.14</v>
       </c>
       <c r="R2">
-        <v>69.02</v>
+        <v>71.17</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -747,45 +876,45 @@
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>65.83</v>
+        <v>70.86</v>
       </c>
       <c r="AE2">
-        <v>0.62</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AF2">
         <v>9</v>
       </c>
       <c r="AG2">
-        <v>2.91</v>
+        <v>5.9</v>
       </c>
       <c r="AH2">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AI2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AJ2">
-        <v>0.0012</v>
+        <v>0.0658</v>
       </c>
       <c r="AK2">
-        <v>0.0067</v>
+        <v>0.1803</v>
       </c>
       <c r="AL2">
-        <v>1537736400</v>
+        <v>1537945200</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>35.138329</v>
+        <v>35.1163</v>
       </c>
       <c r="E3">
-        <v>-85.33038999999999</v>
+        <v>-85.068532</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -794,37 +923,37 @@
         <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="O3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P3">
-        <v>80.76000000000001</v>
+        <v>72.83</v>
       </c>
       <c r="Q3">
-        <v>81.94</v>
+        <v>75.14</v>
       </c>
       <c r="R3">
-        <v>67.5</v>
+        <v>71.17</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -854,45 +983,45 @@
         <v>1</v>
       </c>
       <c r="AD3">
-        <v>67.75</v>
+        <v>70.86</v>
       </c>
       <c r="AE3">
-        <v>0.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AF3">
         <v>9</v>
       </c>
       <c r="AG3">
-        <v>7.44</v>
+        <v>5.9</v>
       </c>
       <c r="AH3">
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
       <c r="AI3" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AJ3">
-        <v>0.0011</v>
+        <v>0.0658</v>
       </c>
       <c r="AK3">
-        <v>0.0064</v>
+        <v>0.1803</v>
       </c>
       <c r="AL3">
-        <v>1537736400</v>
+        <v>1537945200</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="1">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>35.137282</v>
+        <v>35.136132</v>
       </c>
       <c r="E4">
-        <v>-85.23681999999999</v>
+        <v>-85.242141</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -901,37 +1030,37 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="O4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P4">
-        <v>85.68000000000001</v>
+        <v>72.88</v>
       </c>
       <c r="Q4">
-        <v>85.68000000000001</v>
+        <v>75.34</v>
       </c>
       <c r="R4">
-        <v>71.76000000000001</v>
+        <v>71.16</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -961,45 +1090,45 @@
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>67.43000000000001</v>
+        <v>70.63</v>
       </c>
       <c r="AE4">
-        <v>0.55</v>
+        <v>0.93</v>
       </c>
       <c r="AF4">
         <v>9</v>
       </c>
       <c r="AG4">
-        <v>7.01</v>
+        <v>5.63</v>
       </c>
       <c r="AH4">
-        <v>0.64</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AI4" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AJ4">
-        <v>0.0008</v>
+        <v>0.0707</v>
       </c>
       <c r="AK4">
-        <v>0.0039</v>
+        <v>0.168</v>
       </c>
       <c r="AL4">
-        <v>1537736400</v>
+        <v>1537945200</v>
       </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>35.137282</v>
+        <v>35.136132</v>
       </c>
       <c r="E5">
-        <v>-85.23681999999999</v>
+        <v>-85.242141</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -1008,37 +1137,37 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="O5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P5">
-        <v>85.68000000000001</v>
+        <v>72.88</v>
       </c>
       <c r="Q5">
-        <v>85.68000000000001</v>
+        <v>75.34</v>
       </c>
       <c r="R5">
-        <v>71.76000000000001</v>
+        <v>71.16</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1068,45 +1197,45 @@
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>67.43000000000001</v>
+        <v>70.63</v>
       </c>
       <c r="AE5">
-        <v>0.55</v>
+        <v>0.93</v>
       </c>
       <c r="AF5">
         <v>9</v>
       </c>
       <c r="AG5">
-        <v>7.01</v>
+        <v>5.63</v>
       </c>
       <c r="AH5">
-        <v>0.64</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AI5" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AJ5">
-        <v>0.0008</v>
+        <v>0.0707</v>
       </c>
       <c r="AK5">
-        <v>0.0039</v>
+        <v>0.168</v>
       </c>
       <c r="AL5">
-        <v>1537736400</v>
+        <v>1537945200</v>
       </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>35.084378</v>
+        <v>35.020465</v>
       </c>
       <c r="E6">
-        <v>-85.201244</v>
+        <v>-85.260097</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -1115,37 +1244,37 @@
         <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="O6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P6">
-        <v>78.89</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="Q6">
-        <v>85.54000000000001</v>
+        <v>74.67</v>
       </c>
       <c r="R6">
-        <v>70.76000000000001</v>
+        <v>70.38</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1175,45 +1304,45 @@
         <v>1</v>
       </c>
       <c r="AD6">
-        <v>66.33</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="AE6">
-        <v>0.66</v>
+        <v>0.95</v>
       </c>
       <c r="AF6">
         <v>9</v>
       </c>
       <c r="AG6">
-        <v>6.22</v>
+        <v>2.92</v>
       </c>
       <c r="AH6">
-        <v>0.64</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AI6" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AJ6">
-        <v>0.0003</v>
+        <v>0.0585</v>
       </c>
       <c r="AK6">
-        <v>0.0027</v>
+        <v>0.1614</v>
       </c>
       <c r="AL6">
-        <v>1537736400</v>
+        <v>1537941600</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="1">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>35.084387</v>
+        <v>35.003725</v>
       </c>
       <c r="E7">
-        <v>-85.201204</v>
+        <v>-85.232951</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -1222,37 +1351,37 @@
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="O7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P7">
-        <v>78.89</v>
+        <v>72.66</v>
       </c>
       <c r="Q7">
-        <v>85.54000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="R7">
-        <v>70.76000000000001</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1282,45 +1411,45 @@
         <v>1</v>
       </c>
       <c r="AD7">
-        <v>66.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AE7">
-        <v>0.66</v>
+        <v>0.96</v>
       </c>
       <c r="AF7">
         <v>9</v>
       </c>
       <c r="AG7">
-        <v>6.22</v>
+        <v>2.58</v>
       </c>
       <c r="AH7">
-        <v>0.64</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AI7" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AJ7">
-        <v>0.0003</v>
+        <v>0.0567</v>
       </c>
       <c r="AK7">
-        <v>0.0027</v>
+        <v>0.1627</v>
       </c>
       <c r="AL7">
-        <v>1537736400</v>
+        <v>1537941600</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>35.048637</v>
+        <v>34.98971</v>
       </c>
       <c r="E8">
-        <v>-85.145493</v>
+        <v>-85.289841</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -1329,37 +1458,37 @@
         <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P8">
-        <v>75.75</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="Q8">
-        <v>86.06</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="R8">
-        <v>70.39</v>
+        <v>70.95</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1389,31 +1518,2599 @@
         <v>1</v>
       </c>
       <c r="AD8">
-        <v>65.67</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AE8">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="AF8">
         <v>9</v>
       </c>
       <c r="AG8">
-        <v>6.14</v>
+        <v>2.44</v>
       </c>
       <c r="AH8">
-        <v>0.58</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AI8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ8">
+        <v>0.0562</v>
+      </c>
+      <c r="AK8">
+        <v>0.156</v>
+      </c>
+      <c r="AL8">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" s="1">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>34.98971</v>
+      </c>
+      <c r="E9">
+        <v>-85.289841</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>75.34999999999999</v>
+      </c>
+      <c r="R9">
+        <v>70.95</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0.96</v>
+      </c>
+      <c r="AF9">
+        <v>9</v>
+      </c>
+      <c r="AG9">
+        <v>2.44</v>
+      </c>
+      <c r="AH9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ9">
+        <v>0.0562</v>
+      </c>
+      <c r="AK9">
+        <v>0.156</v>
+      </c>
+      <c r="AL9">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" s="1">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>35.017606</v>
+      </c>
+      <c r="E10">
+        <v>-85.28446</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>72.41</v>
+      </c>
+      <c r="Q10">
+        <v>75.48</v>
+      </c>
+      <c r="R10">
+        <v>71.19</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>71.42</v>
+      </c>
+      <c r="AE10">
+        <v>0.97</v>
+      </c>
+      <c r="AF10">
+        <v>9</v>
+      </c>
+      <c r="AG10">
+        <v>2.51</v>
+      </c>
+      <c r="AH10">
+        <v>0.95</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ10">
+        <v>0.0583</v>
+      </c>
+      <c r="AK10">
+        <v>0.1594</v>
+      </c>
+      <c r="AL10">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" s="1">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>35.031885</v>
+      </c>
+      <c r="E11">
+        <v>-85.24496600000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>72.67</v>
+      </c>
+      <c r="Q11">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="R11">
+        <v>70.63</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="AE11">
+        <v>0.95</v>
+      </c>
+      <c r="AF11">
+        <v>9</v>
+      </c>
+      <c r="AG11">
+        <v>2.07</v>
+      </c>
+      <c r="AH11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ11">
+        <v>0.059</v>
+      </c>
+      <c r="AK11">
+        <v>0.1649</v>
+      </c>
+      <c r="AL11">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" s="1">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>35.031885</v>
+      </c>
+      <c r="E12">
+        <v>-85.24496600000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <v>72.67</v>
+      </c>
+      <c r="Q12">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="R12">
+        <v>70.63</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="AE12">
+        <v>0.95</v>
+      </c>
+      <c r="AF12">
+        <v>9</v>
+      </c>
+      <c r="AG12">
+        <v>2.07</v>
+      </c>
+      <c r="AH12">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ12">
+        <v>0.059</v>
+      </c>
+      <c r="AK12">
+        <v>0.1649</v>
+      </c>
+      <c r="AL12">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" s="1">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>35.049871</v>
+      </c>
+      <c r="E13">
+        <v>-85.31433800000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13">
+        <v>14</v>
+      </c>
+      <c r="P13">
+        <v>72.87</v>
+      </c>
+      <c r="Q13">
+        <v>75.34</v>
+      </c>
+      <c r="R13">
+        <v>70.94</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="AE13">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>9</v>
+      </c>
+      <c r="AG13">
+        <v>1.43</v>
+      </c>
+      <c r="AH13">
+        <v>0.95</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ13">
+        <v>0.0618</v>
+      </c>
+      <c r="AK13">
+        <v>0.1591</v>
+      </c>
+      <c r="AL13">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="1">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>35.175901</v>
+      </c>
+      <c r="E14">
+        <v>-85.23233399999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>75.45999999999999</v>
+      </c>
+      <c r="R14">
+        <v>71.5</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>70.87</v>
+      </c>
+      <c r="AE14">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AF14">
+        <v>9</v>
+      </c>
+      <c r="AG14">
+        <v>2.3</v>
+      </c>
+      <c r="AH14">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ14">
+        <v>0.0752</v>
+      </c>
+      <c r="AK14">
+        <v>0.1989</v>
+      </c>
+      <c r="AL14">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" s="1">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>35.175901</v>
+      </c>
+      <c r="E15">
+        <v>-85.23233399999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="Q15">
+        <v>75.45999999999999</v>
+      </c>
+      <c r="R15">
+        <v>71.5</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>70.87</v>
+      </c>
+      <c r="AE15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AF15">
+        <v>9</v>
+      </c>
+      <c r="AG15">
+        <v>2.3</v>
+      </c>
+      <c r="AH15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ15">
+        <v>0.0752</v>
+      </c>
+      <c r="AK15">
+        <v>0.1989</v>
+      </c>
+      <c r="AL15">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16" s="1">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>35.028932</v>
+      </c>
+      <c r="E16">
+        <v>-85.322434</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16">
+        <v>12</v>
+      </c>
+      <c r="P16">
+        <v>73.28</v>
+      </c>
+      <c r="Q16">
+        <v>75.54000000000001</v>
+      </c>
+      <c r="R16">
+        <v>71.14</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>70.86</v>
+      </c>
+      <c r="AE16">
+        <v>0.92</v>
+      </c>
+      <c r="AF16">
+        <v>9</v>
+      </c>
+      <c r="AG16">
+        <v>1.45</v>
+      </c>
+      <c r="AH16">
+        <v>0.95</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ16">
+        <v>0.0595</v>
+      </c>
+      <c r="AK16">
+        <v>0.1564</v>
+      </c>
+      <c r="AL16">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" s="1">
+        <v>107</v>
+      </c>
+      <c r="B17">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>35.043079</v>
+      </c>
+      <c r="E17">
+        <v>-85.157495</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>73.03</v>
+      </c>
+      <c r="Q17">
+        <v>75.33</v>
+      </c>
+      <c r="R17">
+        <v>71.03</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>0.93</v>
+      </c>
+      <c r="AF17">
+        <v>9</v>
+      </c>
+      <c r="AG17">
+        <v>2.6</v>
+      </c>
+      <c r="AH17">
+        <v>0.93</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ17">
+        <v>0.0593</v>
+      </c>
+      <c r="AK17">
+        <v>0.1491</v>
+      </c>
+      <c r="AL17">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
+      <c r="A18" s="1">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>35.043079</v>
+      </c>
+      <c r="E18">
+        <v>-85.157495</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>73.03</v>
+      </c>
+      <c r="Q18">
+        <v>75.33</v>
+      </c>
+      <c r="R18">
+        <v>71.03</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="AE18">
+        <v>0.93</v>
+      </c>
+      <c r="AF18">
+        <v>9</v>
+      </c>
+      <c r="AG18">
+        <v>2.6</v>
+      </c>
+      <c r="AH18">
+        <v>0.93</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ18">
+        <v>0.0593</v>
+      </c>
+      <c r="AK18">
+        <v>0.1491</v>
+      </c>
+      <c r="AL18">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
+      <c r="A19" s="1">
+        <v>112</v>
+      </c>
+      <c r="B19">
+        <v>112</v>
+      </c>
+      <c r="D19">
+        <v>35.310941</v>
+      </c>
+      <c r="E19">
+        <v>-85.163296</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>72.31</v>
+      </c>
+      <c r="Q19">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="R19">
+        <v>70.39</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>71.31999999999999</v>
+      </c>
+      <c r="AE19">
+        <v>0.97</v>
+      </c>
+      <c r="AF19">
+        <v>9</v>
+      </c>
+      <c r="AG19">
+        <v>4</v>
+      </c>
+      <c r="AH19">
+        <v>0.93</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ19">
+        <v>0.09719999999999999</v>
+      </c>
+      <c r="AK19">
+        <v>0.2719</v>
+      </c>
+      <c r="AL19">
+        <v>1537948800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" s="1">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>115</v>
+      </c>
+      <c r="D20">
+        <v>35.183422</v>
+      </c>
+      <c r="E20">
+        <v>-85.246606</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20">
+        <v>9</v>
+      </c>
+      <c r="P20">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>75.43000000000001</v>
+      </c>
+      <c r="R20">
+        <v>71.48</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>70.7</v>
+      </c>
+      <c r="AE20">
+        <v>0.92</v>
+      </c>
+      <c r="AF20">
+        <v>9</v>
+      </c>
+      <c r="AG20">
+        <v>1.81</v>
+      </c>
+      <c r="AH20">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ20">
+        <v>0.0757</v>
+      </c>
+      <c r="AK20">
+        <v>0.2016</v>
+      </c>
+      <c r="AL20">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" s="1">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>116</v>
+      </c>
+      <c r="D21">
+        <v>35.183422</v>
+      </c>
+      <c r="E21">
+        <v>-85.246606</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21">
+        <v>9</v>
+      </c>
+      <c r="P21">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="Q21">
+        <v>75.43000000000001</v>
+      </c>
+      <c r="R21">
+        <v>71.48</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>70.7</v>
+      </c>
+      <c r="AE21">
+        <v>0.92</v>
+      </c>
+      <c r="AF21">
+        <v>9</v>
+      </c>
+      <c r="AG21">
+        <v>1.81</v>
+      </c>
+      <c r="AH21">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ21">
+        <v>0.0757</v>
+      </c>
+      <c r="AK21">
+        <v>0.2016</v>
+      </c>
+      <c r="AL21">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" s="1">
+        <v>118</v>
+      </c>
+      <c r="B22">
+        <v>118</v>
+      </c>
+      <c r="D22">
+        <v>35.012866</v>
+      </c>
+      <c r="E22">
+        <v>-85.18423799999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
         <v>58</v>
       </c>
-      <c r="AJ8">
-        <v>0.0002</v>
-      </c>
-      <c r="AK8">
-        <v>0.002</v>
-      </c>
-      <c r="AL8">
-        <v>1537736400</v>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22">
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <v>72.66</v>
+      </c>
+      <c r="Q22">
+        <v>75.36</v>
+      </c>
+      <c r="R22">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="AE22">
+        <v>0.93</v>
+      </c>
+      <c r="AF22">
+        <v>9</v>
+      </c>
+      <c r="AG22">
+        <v>1.22</v>
+      </c>
+      <c r="AH22">
+        <v>0.93</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ22">
+        <v>0.0569</v>
+      </c>
+      <c r="AK22">
+        <v>0.1485</v>
+      </c>
+      <c r="AL22">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" s="1">
+        <v>147</v>
+      </c>
+      <c r="B23">
+        <v>147</v>
+      </c>
+      <c r="D23">
+        <v>35.078536</v>
+      </c>
+      <c r="E23">
+        <v>-85.095313</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="P23">
+        <v>72.31</v>
+      </c>
+      <c r="Q23">
+        <v>74.61</v>
+      </c>
+      <c r="R23">
+        <v>70.56999999999999</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>70.33</v>
+      </c>
+      <c r="AE23">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>9</v>
+      </c>
+      <c r="AG23">
+        <v>3.02</v>
+      </c>
+      <c r="AH23">
+        <v>0.93</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ23">
+        <v>0.0625</v>
+      </c>
+      <c r="AK23">
+        <v>0.1634</v>
+      </c>
+      <c r="AL23">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" s="1">
+        <v>148</v>
+      </c>
+      <c r="B24">
+        <v>148</v>
+      </c>
+      <c r="D24">
+        <v>35.078536</v>
+      </c>
+      <c r="E24">
+        <v>-85.095313</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <v>72.31</v>
+      </c>
+      <c r="Q24">
+        <v>74.61</v>
+      </c>
+      <c r="R24">
+        <v>70.56999999999999</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>70.33</v>
+      </c>
+      <c r="AE24">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AF24">
+        <v>9</v>
+      </c>
+      <c r="AG24">
+        <v>3.02</v>
+      </c>
+      <c r="AH24">
+        <v>0.93</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ24">
+        <v>0.0625</v>
+      </c>
+      <c r="AK24">
+        <v>0.1634</v>
+      </c>
+      <c r="AL24">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" s="1">
+        <v>149</v>
+      </c>
+      <c r="B25">
+        <v>149</v>
+      </c>
+      <c r="D25">
+        <v>35.078536</v>
+      </c>
+      <c r="E25">
+        <v>-85.095313</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>72.31</v>
+      </c>
+      <c r="Q25">
+        <v>74.61</v>
+      </c>
+      <c r="R25">
+        <v>70.56999999999999</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>70.33</v>
+      </c>
+      <c r="AE25">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AF25">
+        <v>9</v>
+      </c>
+      <c r="AG25">
+        <v>3.02</v>
+      </c>
+      <c r="AH25">
+        <v>0.93</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ25">
+        <v>0.0625</v>
+      </c>
+      <c r="AK25">
+        <v>0.1634</v>
+      </c>
+      <c r="AL25">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26" s="1">
+        <v>151</v>
+      </c>
+      <c r="B26">
+        <v>151</v>
+      </c>
+      <c r="D26">
+        <v>35.073843</v>
+      </c>
+      <c r="E26">
+        <v>-85.11212500000001</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <v>72.14</v>
+      </c>
+      <c r="Q26">
+        <v>74.45</v>
+      </c>
+      <c r="R26">
+        <v>70.38</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>70.31</v>
+      </c>
+      <c r="AE26">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AF26">
+        <v>9</v>
+      </c>
+      <c r="AG26">
+        <v>2.99</v>
+      </c>
+      <c r="AH26">
+        <v>0.93</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ26">
+        <v>0.0625</v>
+      </c>
+      <c r="AK26">
+        <v>0.1616</v>
+      </c>
+      <c r="AL26">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="A27" s="1">
+        <v>152</v>
+      </c>
+      <c r="B27">
+        <v>152</v>
+      </c>
+      <c r="D27">
+        <v>35.073843</v>
+      </c>
+      <c r="E27">
+        <v>-85.11212500000001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27">
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <v>72.14</v>
+      </c>
+      <c r="Q27">
+        <v>74.45</v>
+      </c>
+      <c r="R27">
+        <v>70.38</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>70.31</v>
+      </c>
+      <c r="AE27">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AF27">
+        <v>9</v>
+      </c>
+      <c r="AG27">
+        <v>2.99</v>
+      </c>
+      <c r="AH27">
+        <v>0.93</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ27">
+        <v>0.0625</v>
+      </c>
+      <c r="AK27">
+        <v>0.1616</v>
+      </c>
+      <c r="AL27">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="A28" s="1">
+        <v>152</v>
+      </c>
+      <c r="B28">
+        <v>152</v>
+      </c>
+      <c r="D28">
+        <v>35.073843</v>
+      </c>
+      <c r="E28">
+        <v>-85.11212500000001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28">
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <v>72.14</v>
+      </c>
+      <c r="Q28">
+        <v>74.45</v>
+      </c>
+      <c r="R28">
+        <v>70.38</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>70.31</v>
+      </c>
+      <c r="AE28">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AF28">
+        <v>9</v>
+      </c>
+      <c r="AG28">
+        <v>2.99</v>
+      </c>
+      <c r="AH28">
+        <v>0.93</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ28">
+        <v>0.0625</v>
+      </c>
+      <c r="AK28">
+        <v>0.1616</v>
+      </c>
+      <c r="AL28">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29" s="1">
+        <v>158</v>
+      </c>
+      <c r="B29">
+        <v>158</v>
+      </c>
+      <c r="D29">
+        <v>35.029751</v>
+      </c>
+      <c r="E29">
+        <v>-85.137185</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" t="s">
+        <v>97</v>
+      </c>
+      <c r="N29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>72.73</v>
+      </c>
+      <c r="Q29">
+        <v>75.17</v>
+      </c>
+      <c r="R29">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>70.22</v>
+      </c>
+      <c r="AE29">
+        <v>0.92</v>
+      </c>
+      <c r="AF29">
+        <v>9</v>
+      </c>
+      <c r="AG29">
+        <v>2.83</v>
+      </c>
+      <c r="AH29">
+        <v>0.93</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ29">
+        <v>0.0582</v>
+      </c>
+      <c r="AK29">
+        <v>0.154</v>
+      </c>
+      <c r="AL29">
+        <v>1537970400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30" s="1">
+        <v>163</v>
+      </c>
+      <c r="B30">
+        <v>163</v>
+      </c>
+      <c r="D30">
+        <v>35.146073</v>
+      </c>
+      <c r="E30">
+        <v>-85.25221500000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <v>72.97</v>
+      </c>
+      <c r="Q30">
+        <v>75.3</v>
+      </c>
+      <c r="R30">
+        <v>71.31999999999999</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>70.5</v>
+      </c>
+      <c r="AE30">
+        <v>0.92</v>
+      </c>
+      <c r="AF30">
+        <v>9</v>
+      </c>
+      <c r="AG30">
+        <v>7.43</v>
+      </c>
+      <c r="AH30">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ30">
+        <v>0.0711</v>
+      </c>
+      <c r="AK30">
+        <v>0.1889</v>
+      </c>
+      <c r="AL30">
+        <v>1537945200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" s="1">
+        <v>172</v>
+      </c>
+      <c r="B31">
+        <v>172</v>
+      </c>
+      <c r="D31">
+        <v>35.02626</v>
+      </c>
+      <c r="E31">
+        <v>-85.299374</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O31">
+        <v>7</v>
+      </c>
+      <c r="P31">
+        <v>73.11</v>
+      </c>
+      <c r="Q31">
+        <v>75.48</v>
+      </c>
+      <c r="R31">
+        <v>71.18000000000001</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="AE31">
+        <v>0.91</v>
+      </c>
+      <c r="AF31">
+        <v>9</v>
+      </c>
+      <c r="AG31">
+        <v>8.48</v>
+      </c>
+      <c r="AH31">
+        <v>0.95</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ31">
+        <v>0.0589</v>
+      </c>
+      <c r="AK31">
+        <v>0.159</v>
+      </c>
+      <c r="AL31">
+        <v>1537941600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="A32" s="1">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <v>175</v>
+      </c>
+      <c r="D32">
+        <v>35.233339</v>
+      </c>
+      <c r="E32">
+        <v>-85.09549199999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" t="s">
+        <v>98</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="P32">
+        <v>73.52</v>
+      </c>
+      <c r="Q32">
+        <v>74.69</v>
+      </c>
+      <c r="R32">
+        <v>71.5</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="AE32">
+        <v>0.95</v>
+      </c>
+      <c r="AF32">
+        <v>9</v>
+      </c>
+      <c r="AG32">
+        <v>7.86</v>
+      </c>
+      <c r="AH32">
+        <v>0.93</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ32">
+        <v>0.0757</v>
+      </c>
+      <c r="AK32">
+        <v>0.2275</v>
+      </c>
+      <c r="AL32">
+        <v>1537945200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Accident</t>
   </si>
@@ -172,112 +172,139 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2018-10-10</t>
-  </si>
-  <si>
-    <t>21:45:15</t>
-  </si>
-  <si>
-    <t>20:46:27</t>
-  </si>
-  <si>
-    <t>20:30:08</t>
-  </si>
-  <si>
-    <t>12:36:09</t>
-  </si>
-  <si>
-    <t>12:35:37</t>
-  </si>
-  <si>
-    <t>12:35:33</t>
-  </si>
-  <si>
-    <t>09:32:13</t>
-  </si>
-  <si>
-    <t>09:31:14</t>
-  </si>
-  <si>
-    <t>08:23:57</t>
-  </si>
-  <si>
-    <t>07:15:51</t>
-  </si>
-  <si>
-    <t>07:14:52</t>
-  </si>
-  <si>
-    <t>05:28:17</t>
-  </si>
-  <si>
-    <t>02:10:16</t>
-  </si>
-  <si>
-    <t>417 Market St</t>
-  </si>
-  <si>
-    <t>18420 INTERSTATE 24 WB</t>
-  </si>
-  <si>
-    <t>4907 PATTENTOWN RD</t>
-  </si>
-  <si>
-    <t>4907 Pattentown Rd</t>
-  </si>
-  <si>
-    <t>1500 - 1599 Workman Rd</t>
-  </si>
-  <si>
-    <t>1900 - 2099 Cummings Hwy</t>
-  </si>
-  <si>
-    <t>105 S Moore Rd</t>
-  </si>
-  <si>
-    <t>105 S MOORE RD</t>
-  </si>
-  <si>
-    <t>17280 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>7300 Igou Gap Rd</t>
+    <t>2018-09-01</t>
+  </si>
+  <si>
+    <t>23:07:41</t>
+  </si>
+  <si>
+    <t>23:06:33</t>
+  </si>
+  <si>
+    <t>22:15:06</t>
+  </si>
+  <si>
+    <t>22:01:32</t>
+  </si>
+  <si>
+    <t>22:01:16</t>
+  </si>
+  <si>
+    <t>21:03:05</t>
+  </si>
+  <si>
+    <t>19:44:53</t>
+  </si>
+  <si>
+    <t>18:25:19</t>
+  </si>
+  <si>
+    <t>18:17:43</t>
+  </si>
+  <si>
+    <t>18:16:05</t>
+  </si>
+  <si>
+    <t>17:43:07</t>
+  </si>
+  <si>
+    <t>15:13:39</t>
+  </si>
+  <si>
+    <t>15:06:21</t>
+  </si>
+  <si>
+    <t>12:54:26</t>
+  </si>
+  <si>
+    <t>12:53:52</t>
+  </si>
+  <si>
+    <t>11:46:14</t>
+  </si>
+  <si>
+    <t>11:45:28</t>
+  </si>
+  <si>
+    <t>4119 Cummings Hwy</t>
+  </si>
+  <si>
+    <t>Gunbarrel Rd / Shallowford Rd</t>
+  </si>
+  <si>
+    <t>2300 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>6600 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>1050-1103 Dayton Blvd</t>
+  </si>
+  <si>
+    <t>Preston Cir / Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>Spears Ave / Peak St</t>
+  </si>
+  <si>
+    <t>E Martin Luther King Blvd / Central Ave</t>
+  </si>
+  <si>
+    <t>E 40th St / Rossville Blvd</t>
+  </si>
+  <si>
+    <t>9504 Ooltewah Georgetown Rd</t>
+  </si>
+  <si>
+    <t>17560 Interstate 24 Eb</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>RED BANK</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
-    <t>20</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -635,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,16 +828,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.051766</v>
+        <v>35.025288</v>
       </c>
       <c r="E2">
-        <v>-85.30981300000001</v>
+        <v>-85.398428</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -819,30 +846,30 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Y2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>35.007818</v>
+        <v>35.025288</v>
       </c>
       <c r="E3">
-        <v>-85.234962</v>
+        <v>-85.398428</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -851,464 +878,496 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.007818</v>
+        <v>35.040336</v>
       </c>
       <c r="E4">
-        <v>-85.234962</v>
+        <v>-85.150002</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Y4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.007818</v>
+        <v>35.040336</v>
       </c>
       <c r="E5">
-        <v>-85.234962</v>
+        <v>-85.150002</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Y5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>35.065238</v>
+        <v>35.040336</v>
       </c>
       <c r="E6">
-        <v>-85.099723</v>
+        <v>-85.150002</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Y6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7">
-        <v>35.065238</v>
+        <v>34.989515</v>
       </c>
       <c r="E7">
-        <v>-85.099723</v>
+        <v>-85.206802</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.065238</v>
+        <v>35.075039</v>
       </c>
       <c r="E8">
-        <v>-85.099723</v>
+        <v>-85.318684</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="Y8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9">
-        <v>35.065238</v>
+        <v>35.041505</v>
       </c>
       <c r="E9">
-        <v>-85.099723</v>
+        <v>-85.149359</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>34.990836</v>
+        <v>35.071871</v>
       </c>
       <c r="E10">
-        <v>-85.292756</v>
+        <v>-85.309802</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="Y10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>34.990836</v>
+        <v>35.071871</v>
       </c>
       <c r="E11">
-        <v>-85.292756</v>
+        <v>-85.309802</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.013733</v>
+        <v>35.039775</v>
       </c>
       <c r="E12">
-        <v>-85.328307</v>
+        <v>-85.292119</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>35.013733</v>
+        <v>34.997665</v>
       </c>
       <c r="E13">
-        <v>-85.328307</v>
+        <v>-85.291434</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="Y13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>35.011492</v>
+        <v>34.997665</v>
       </c>
       <c r="E14">
-        <v>-85.229305</v>
+        <v>-85.291434</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="Y14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>35.011492</v>
+        <v>35.18934</v>
       </c>
       <c r="E15">
-        <v>-85.229305</v>
+        <v>-85.01459699999999</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>35.006105</v>
+        <v>35.18934</v>
       </c>
       <c r="E16">
-        <v>-85.39532699999999</v>
+        <v>-85.01459699999999</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Y16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>35.027622</v>
+        <v>35.028964</v>
       </c>
       <c r="E17">
-        <v>-85.159424</v>
+        <v>-85.35714</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Y17">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>35.028964</v>
+      </c>
+      <c r="E18">
+        <v>-85.35714</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y18">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>Accident</t>
   </si>
@@ -175,118 +175,76 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2018-09-01</t>
-  </si>
-  <si>
-    <t>23:07:41</t>
-  </si>
-  <si>
-    <t>23:06:33</t>
-  </si>
-  <si>
-    <t>22:15:06</t>
-  </si>
-  <si>
-    <t>22:01:32</t>
-  </si>
-  <si>
-    <t>22:01:16</t>
-  </si>
-  <si>
-    <t>21:03:05</t>
-  </si>
-  <si>
-    <t>19:44:53</t>
-  </si>
-  <si>
-    <t>18:25:19</t>
-  </si>
-  <si>
-    <t>18:17:43</t>
-  </si>
-  <si>
-    <t>18:16:05</t>
-  </si>
-  <si>
-    <t>17:43:07</t>
-  </si>
-  <si>
-    <t>15:13:39</t>
-  </si>
-  <si>
-    <t>15:06:21</t>
-  </si>
-  <si>
-    <t>12:54:26</t>
-  </si>
-  <si>
-    <t>12:53:52</t>
-  </si>
-  <si>
-    <t>11:46:14</t>
-  </si>
-  <si>
-    <t>11:45:28</t>
-  </si>
-  <si>
-    <t>4119 Cummings Hwy</t>
-  </si>
-  <si>
-    <t>Gunbarrel Rd / Shallowford Rd</t>
-  </si>
-  <si>
-    <t>2300 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>6600 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>1050-1103 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>Preston Cir / Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>Spears Ave / Peak St</t>
-  </si>
-  <si>
-    <t>E Martin Luther King Blvd / Central Ave</t>
-  </si>
-  <si>
-    <t>E 40th St / Rossville Blvd</t>
-  </si>
-  <si>
-    <t>9504 Ooltewah Georgetown Rd</t>
-  </si>
-  <si>
-    <t>17560 Interstate 24 Eb</t>
+    <t>2018-10-23</t>
+  </si>
+  <si>
+    <t>19:00:51</t>
+  </si>
+  <si>
+    <t>18:02:43</t>
+  </si>
+  <si>
+    <t>17:18:13</t>
+  </si>
+  <si>
+    <t>17:16:07</t>
+  </si>
+  <si>
+    <t>14:06:22</t>
+  </si>
+  <si>
+    <t>14:03:58</t>
+  </si>
+  <si>
+    <t>13:12:56</t>
+  </si>
+  <si>
+    <t>13:11:56</t>
+  </si>
+  <si>
+    <t>12:58:45</t>
+  </si>
+  <si>
+    <t>12:58:18</t>
+  </si>
+  <si>
+    <t>08:14:43</t>
+  </si>
+  <si>
+    <t>00:31:51</t>
+  </si>
+  <si>
+    <t>00:30:46</t>
+  </si>
+  <si>
+    <t>600-699 S Holtzclaw Ave</t>
+  </si>
+  <si>
+    <t>900 AIRPORT RD</t>
+  </si>
+  <si>
+    <t>4200 Jersey Pike</t>
+  </si>
+  <si>
+    <t>9334 Dayton Pike</t>
+  </si>
+  <si>
+    <t>1400 RIVERSIDE DR</t>
+  </si>
+  <si>
+    <t>501 Signal Mountain Rd</t>
+  </si>
+  <si>
+    <t>18200 INTERSTATE 24 WB</t>
+  </si>
+  <si>
+    <t>8005 Volkswagen Dr</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>RED BANK</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>SODDY DAISY</t>
   </si>
   <si>
     <t>19</t>
@@ -298,13 +256,19 @@
     <t>17</t>
   </si>
   <si>
-    <t>15</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>11</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -662,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,546 +792,418 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.025288</v>
+        <v>35.036421</v>
       </c>
       <c r="E2">
-        <v>-85.398428</v>
+        <v>-85.28427499999999</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="Y2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.025288</v>
+        <v>35.030907</v>
       </c>
       <c r="E3">
-        <v>-85.398428</v>
+        <v>-85.194733</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.040336</v>
+        <v>35.06559</v>
       </c>
       <c r="E4">
-        <v>-85.150002</v>
+        <v>-85.194373</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Y4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>35.06559</v>
+      </c>
+      <c r="E5">
+        <v>-85.194373</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="D5">
-        <v>35.040336</v>
-      </c>
-      <c r="E5">
-        <v>-85.150002</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Y5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>35.234297</v>
+      </c>
+      <c r="E6">
+        <v>-85.199279</v>
+      </c>
+      <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="D6">
-        <v>35.040336</v>
-      </c>
-      <c r="E6">
-        <v>-85.150002</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Y6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>35.234297</v>
+      </c>
+      <c r="E7">
+        <v>-85.199279</v>
+      </c>
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="D7">
-        <v>34.989515</v>
-      </c>
-      <c r="E7">
-        <v>-85.206802</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
         <v>76</v>
       </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.075039</v>
+        <v>35.053399</v>
       </c>
       <c r="E8">
-        <v>-85.318684</v>
+        <v>-85.28665599999999</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Y8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.041505</v>
+        <v>35.053399</v>
       </c>
       <c r="E9">
-        <v>-85.149359</v>
+        <v>-85.28665599999999</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="Y9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.071871</v>
+        <v>35.094368</v>
       </c>
       <c r="E10">
-        <v>-85.309802</v>
+        <v>-85.331318</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.071871</v>
+        <v>35.094368</v>
       </c>
       <c r="E11">
-        <v>-85.309802</v>
+        <v>-85.331318</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Y11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.039775</v>
+        <v>35.019224</v>
       </c>
       <c r="E12">
-        <v>-85.292119</v>
+        <v>-85.267436</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="Y12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>34.997665</v>
+        <v>35.087197</v>
       </c>
       <c r="E13">
-        <v>-85.291434</v>
+        <v>-85.134496</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
         <v>84</v>
       </c>
-      <c r="P13" t="s">
-        <v>94</v>
-      </c>
       <c r="Y13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>35.087197</v>
+      </c>
+      <c r="E14">
+        <v>-85.134496</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="D14">
-        <v>34.997665</v>
-      </c>
-      <c r="E14">
-        <v>-85.291434</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
         <v>84</v>
       </c>
-      <c r="P14" t="s">
-        <v>94</v>
-      </c>
       <c r="Y14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>35.18934</v>
-      </c>
-      <c r="E15">
-        <v>-85.01459699999999</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>35.18934</v>
-      </c>
-      <c r="E16">
-        <v>-85.01459699999999</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" t="s">
-        <v>87</v>
-      </c>
-      <c r="P16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>35.028964</v>
-      </c>
-      <c r="E17">
-        <v>-85.35714</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" t="s">
-        <v>84</v>
-      </c>
-      <c r="P17" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>35.028964</v>
-      </c>
-      <c r="E18">
-        <v>-85.35714</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" t="s">
-        <v>84</v>
-      </c>
-      <c r="P18" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="100">
   <si>
     <t>Accident</t>
   </si>
@@ -172,103 +172,148 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>2018-10-23</t>
-  </si>
-  <si>
-    <t>19:00:51</t>
-  </si>
-  <si>
-    <t>18:02:43</t>
-  </si>
-  <si>
-    <t>17:18:13</t>
-  </si>
-  <si>
-    <t>17:16:07</t>
-  </si>
-  <si>
-    <t>14:06:22</t>
-  </si>
-  <si>
-    <t>14:03:58</t>
-  </si>
-  <si>
-    <t>13:12:56</t>
-  </si>
-  <si>
-    <t>13:11:56</t>
-  </si>
-  <si>
-    <t>12:58:45</t>
-  </si>
-  <si>
-    <t>12:58:18</t>
-  </si>
-  <si>
-    <t>08:14:43</t>
-  </si>
-  <si>
-    <t>00:31:51</t>
-  </si>
-  <si>
-    <t>00:30:46</t>
-  </si>
-  <si>
-    <t>600-699 S Holtzclaw Ave</t>
-  </si>
-  <si>
-    <t>900 AIRPORT RD</t>
-  </si>
-  <si>
-    <t>4200 Jersey Pike</t>
-  </si>
-  <si>
-    <t>9334 Dayton Pike</t>
-  </si>
-  <si>
-    <t>1400 RIVERSIDE DR</t>
-  </si>
-  <si>
-    <t>501 Signal Mountain Rd</t>
-  </si>
-  <si>
-    <t>18200 INTERSTATE 24 WB</t>
-  </si>
-  <si>
-    <t>8005 Volkswagen Dr</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>2018-10-24</t>
+  </si>
+  <si>
+    <t>20:06:18</t>
+  </si>
+  <si>
+    <t>20:05:52</t>
+  </si>
+  <si>
+    <t>17:15:08</t>
+  </si>
+  <si>
+    <t>17:14:13</t>
+  </si>
+  <si>
+    <t>16:51:59</t>
+  </si>
+  <si>
+    <t>14:46:15</t>
+  </si>
+  <si>
+    <t>14:45:15</t>
+  </si>
+  <si>
+    <t>14:12:29</t>
+  </si>
+  <si>
+    <t>12:02:26</t>
+  </si>
+  <si>
+    <t>12:00:02</t>
+  </si>
+  <si>
+    <t>10:14:36</t>
+  </si>
+  <si>
+    <t>09:46:40</t>
+  </si>
+  <si>
+    <t>09:30:53</t>
+  </si>
+  <si>
+    <t>09:30:52</t>
+  </si>
+  <si>
+    <t>09:11:58</t>
+  </si>
+  <si>
+    <t>09:10:27</t>
+  </si>
+  <si>
+    <t>08:46:56</t>
+  </si>
+  <si>
+    <t>08:45:54</t>
+  </si>
+  <si>
+    <t>08:16:40</t>
+  </si>
+  <si>
+    <t>08:16:19</t>
+  </si>
+  <si>
+    <t>7815 MAHAN GAP RD</t>
+  </si>
+  <si>
+    <t>840 - 985 Airport Rd</t>
+  </si>
+  <si>
+    <t>5241 Highway 153</t>
+  </si>
+  <si>
+    <t>10502 DOLLY POND RD</t>
+  </si>
+  <si>
+    <t>Ringgold Rd / Tombras Ave</t>
+  </si>
+  <si>
+    <t>1100 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>1100 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>Ringgold Rd / Prigmore Rd</t>
+  </si>
+  <si>
+    <t>900 - 939 Spring Creek Rd</t>
+  </si>
+  <si>
+    <t>18500 Interstate 24 Wb</t>
+  </si>
+  <si>
+    <t>1100 INTERSTATE 75 SB</t>
+  </si>
+  <si>
+    <t>960 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -626,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:BA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,31 +837,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.036421</v>
+        <v>35.178606</v>
       </c>
       <c r="E2">
-        <v>-85.28427499999999</v>
+        <v>-85.044124</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Y2">
         <v>10</v>
@@ -824,31 +869,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.030907</v>
+        <v>35.178606</v>
       </c>
       <c r="E3">
-        <v>-85.194733</v>
+        <v>-85.044124</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="Y3">
         <v>10</v>
@@ -856,31 +901,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.06559</v>
+        <v>35.032565</v>
       </c>
       <c r="E4">
-        <v>-85.194373</v>
+        <v>-85.194553</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="Y4">
         <v>10</v>
@@ -888,31 +933,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.06559</v>
+        <v>35.032565</v>
       </c>
       <c r="E5">
-        <v>-85.194373</v>
+        <v>-85.194553</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -920,31 +965,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.234297</v>
+        <v>35.125657</v>
       </c>
       <c r="E6">
-        <v>-85.199279</v>
+        <v>-85.241135</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -952,31 +997,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.234297</v>
+        <v>35.2302</v>
       </c>
       <c r="E7">
-        <v>-85.199279</v>
+        <v>-85.025938</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -984,31 +1029,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.053399</v>
+        <v>35.2302</v>
       </c>
       <c r="E8">
-        <v>-85.28665599999999</v>
+        <v>-85.025938</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1016,31 +1061,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>35.053399</v>
+        <v>34.99638</v>
       </c>
       <c r="E9">
-        <v>-85.28665599999999</v>
+        <v>-85.24076599999999</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -1048,31 +1093,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>35.094368</v>
+        <v>34.99638</v>
       </c>
       <c r="E10">
-        <v>-85.331318</v>
+        <v>-85.24076599999999</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1080,31 +1125,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>35.094368</v>
+        <v>35.082723</v>
       </c>
       <c r="E11">
-        <v>-85.331318</v>
+        <v>-85.07817900000001</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1112,31 +1157,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>35.019224</v>
+        <v>35.082723</v>
       </c>
       <c r="E12">
-        <v>-85.267436</v>
+        <v>-85.07817900000001</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1144,31 +1189,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>35.087197</v>
+        <v>35.082723</v>
       </c>
       <c r="E13">
-        <v>-85.134496</v>
+        <v>-85.07817900000001</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1176,33 +1221,417 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>35.082937</v>
+      </c>
+      <c r="E14">
+        <v>-85.078216</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>34.993903</v>
+      </c>
+      <c r="E15">
+        <v>-85.231149</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>35.082937</v>
+      </c>
+      <c r="E16">
+        <v>-85.078216</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>35.082937</v>
+      </c>
+      <c r="E17">
+        <v>-85.078216</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>35.082937</v>
+      </c>
+      <c r="E18">
+        <v>-85.078216</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>35.00333</v>
+      </c>
+      <c r="E19">
+        <v>-85.219193</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>35.004613</v>
+      </c>
+      <c r="E20">
+        <v>-85.220466</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>35.082937</v>
+      </c>
+      <c r="E21">
+        <v>-85.078216</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>35.082937</v>
+      </c>
+      <c r="E22">
+        <v>-85.078216</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>35.082937</v>
+      </c>
+      <c r="E23">
+        <v>-85.078216</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>35.087197</v>
-      </c>
-      <c r="E14">
-        <v>-85.134496</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>35.076759</v>
+      </c>
+      <c r="E24">
+        <v>-85.102221</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
         <v>75</v>
       </c>
-      <c r="P14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y14">
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>35.076759</v>
+      </c>
+      <c r="E25">
+        <v>-85.102221</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>35.076759</v>
+      </c>
+      <c r="E26">
+        <v>-85.102221</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y26">
         <v>10</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Accident</t>
   </si>
@@ -172,6 +172,9 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
     <t>Entrapment</t>
   </si>
   <si>
@@ -181,106 +184,91 @@
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2018-10-24</t>
-  </si>
-  <si>
-    <t>20:06:18</t>
-  </si>
-  <si>
-    <t>20:05:52</t>
-  </si>
-  <si>
-    <t>17:15:08</t>
-  </si>
-  <si>
-    <t>17:14:13</t>
-  </si>
-  <si>
-    <t>16:51:59</t>
-  </si>
-  <si>
-    <t>14:46:15</t>
-  </si>
-  <si>
-    <t>14:45:15</t>
-  </si>
-  <si>
-    <t>14:12:29</t>
-  </si>
-  <si>
-    <t>12:02:26</t>
-  </si>
-  <si>
-    <t>12:00:02</t>
-  </si>
-  <si>
-    <t>10:14:36</t>
-  </si>
-  <si>
-    <t>09:46:40</t>
-  </si>
-  <si>
-    <t>09:30:53</t>
-  </si>
-  <si>
-    <t>09:30:52</t>
-  </si>
-  <si>
-    <t>09:11:58</t>
-  </si>
-  <si>
-    <t>09:10:27</t>
-  </si>
-  <si>
-    <t>08:46:56</t>
-  </si>
-  <si>
-    <t>08:45:54</t>
-  </si>
-  <si>
-    <t>08:16:40</t>
-  </si>
-  <si>
-    <t>08:16:19</t>
-  </si>
-  <si>
-    <t>7815 MAHAN GAP RD</t>
-  </si>
-  <si>
-    <t>840 - 985 Airport Rd</t>
-  </si>
-  <si>
-    <t>5241 Highway 153</t>
-  </si>
-  <si>
-    <t>10502 DOLLY POND RD</t>
-  </si>
-  <si>
-    <t>Ringgold Rd / Tombras Ave</t>
-  </si>
-  <si>
-    <t>1100 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>1100 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>Ringgold Rd / Prigmore Rd</t>
-  </si>
-  <si>
-    <t>900 - 939 Spring Creek Rd</t>
-  </si>
-  <si>
-    <t>18500 Interstate 24 Wb</t>
-  </si>
-  <si>
-    <t>1100 INTERSTATE 75 SB</t>
-  </si>
-  <si>
-    <t>960 Interstate 75 Sb</t>
+    <t>2018-10-25</t>
+  </si>
+  <si>
+    <t>18:47:13</t>
+  </si>
+  <si>
+    <t>18:11:30</t>
+  </si>
+  <si>
+    <t>18:11:02</t>
+  </si>
+  <si>
+    <t>18:10:46</t>
+  </si>
+  <si>
+    <t>17:48:10</t>
+  </si>
+  <si>
+    <t>17:40:00</t>
+  </si>
+  <si>
+    <t>17:37:59</t>
+  </si>
+  <si>
+    <t>17:12:19</t>
+  </si>
+  <si>
+    <t>16:35:22</t>
+  </si>
+  <si>
+    <t>16:34:48</t>
+  </si>
+  <si>
+    <t>15:39:30</t>
+  </si>
+  <si>
+    <t>14:04:06</t>
+  </si>
+  <si>
+    <t>14:01:58</t>
+  </si>
+  <si>
+    <t>11:59:14</t>
+  </si>
+  <si>
+    <t>10:15:32</t>
+  </si>
+  <si>
+    <t>JOHN ROSS RD / GREENS LAKE RD</t>
+  </si>
+  <si>
+    <t>9328 Bill Reed Rd</t>
+  </si>
+  <si>
+    <t>3012 4th Ave</t>
+  </si>
+  <si>
+    <t>18500 INTERSTATE 24 WB</t>
+  </si>
+  <si>
+    <t>1100 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>E 23rd St / Rossville Blvd</t>
+  </si>
+  <si>
+    <t>7752 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>3500-3798 Amnicola Hwy</t>
+  </si>
+  <si>
+    <t>Fairmount Pike / Palmer Ave</t>
+  </si>
+  <si>
+    <t>FAIRMOUNT PIKE / PALMER AVE</t>
+  </si>
+  <si>
+    <t>4131 RINGGOLD RD</t>
+  </si>
+  <si>
+    <t>2250 E 28TH ST</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
@@ -289,10 +277,10 @@
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>WALDEN</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>17</t>
@@ -301,19 +289,16 @@
     <t>16</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>12</t>
+    <t>11</t>
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -671,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA26"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,16 +822,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.178606</v>
+        <v>34.996033</v>
       </c>
       <c r="E2">
-        <v>-85.044124</v>
+        <v>-85.25321599999999</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -855,13 +840,13 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y2">
         <v>10</v>
@@ -869,16 +854,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
       </c>
       <c r="D3">
-        <v>35.178606</v>
+        <v>35.04627</v>
       </c>
       <c r="E3">
-        <v>-85.044124</v>
+        <v>-85.08309199999999</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -887,13 +872,13 @@
         <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y3">
         <v>10</v>
@@ -901,16 +886,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4">
-        <v>35.032565</v>
+        <v>35.04627</v>
       </c>
       <c r="E4">
-        <v>-85.194553</v>
+        <v>-85.08309199999999</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -919,13 +904,13 @@
         <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y4">
         <v>10</v>
@@ -933,16 +918,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>35.032565</v>
+        <v>35.04627</v>
       </c>
       <c r="E5">
-        <v>-85.194553</v>
+        <v>-85.08309199999999</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -951,13 +936,13 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -965,16 +950,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>35.125657</v>
+        <v>35.008059</v>
       </c>
       <c r="E6">
-        <v>-85.241135</v>
+        <v>-85.28464700000001</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -983,13 +968,13 @@
         <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -997,16 +982,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>35.2302</v>
+        <v>35.004613</v>
       </c>
       <c r="E7">
-        <v>-85.025938</v>
+        <v>-85.220466</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -1015,13 +1000,13 @@
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
         <v>89</v>
-      </c>
-      <c r="P7" t="s">
-        <v>95</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -1029,16 +1014,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>35.2302</v>
+        <v>35.039593</v>
       </c>
       <c r="E8">
-        <v>-85.025938</v>
+        <v>-85.227785</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1047,13 +1032,13 @@
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
         <v>89</v>
-      </c>
-      <c r="P8" t="s">
-        <v>95</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1061,16 +1046,16 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9">
-        <v>34.99638</v>
+        <v>35.024513</v>
       </c>
       <c r="E9">
-        <v>-85.24076599999999</v>
+        <v>-85.297979</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1079,13 +1064,13 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -1093,31 +1078,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
       </c>
       <c r="D10">
-        <v>34.99638</v>
+        <v>35.010043</v>
       </c>
       <c r="E10">
-        <v>-85.24076599999999</v>
+        <v>-85.154461</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1125,31 +1110,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>35.082723</v>
+        <v>35.010043</v>
       </c>
       <c r="E11">
-        <v>-85.07817900000001</v>
+        <v>-85.154461</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
         <v>90</v>
-      </c>
-      <c r="P11" t="s">
-        <v>96</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1157,31 +1142,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>35.082723</v>
+        <v>35.09027</v>
       </c>
       <c r="E12">
-        <v>-85.07817900000001</v>
+        <v>-85.25902000000001</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1189,31 +1174,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>35.082723</v>
+        <v>35.168094</v>
       </c>
       <c r="E13">
-        <v>-85.07817900000001</v>
+        <v>-85.316351</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1221,31 +1206,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>35.082937</v>
+        <v>35.168094</v>
       </c>
       <c r="E14">
-        <v>-85.078216</v>
+        <v>-85.316351</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Y14">
         <v>10</v>
@@ -1253,31 +1238,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>34.993903</v>
+        <v>34.997998</v>
       </c>
       <c r="E15">
-        <v>-85.231149</v>
+        <v>-85.245493</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
         <v>84</v>
       </c>
-      <c r="K15" t="s">
-        <v>91</v>
-      </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y15">
         <v>10</v>
@@ -1285,31 +1270,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>35.082937</v>
+        <v>34.997998</v>
       </c>
       <c r="E16">
-        <v>-85.078216</v>
+        <v>-85.245493</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -1317,321 +1302,33 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>35.082937</v>
+        <v>35.011028</v>
       </c>
       <c r="E17">
-        <v>-85.078216</v>
+        <v>-85.28230600000001</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>35.082937</v>
-      </c>
-      <c r="E18">
-        <v>-85.078216</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>35.00333</v>
-      </c>
-      <c r="E19">
-        <v>-85.219193</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>35.004613</v>
-      </c>
-      <c r="E20">
-        <v>-85.220466</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="1">
-        <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21">
-        <v>35.082937</v>
-      </c>
-      <c r="E21">
-        <v>-85.078216</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" t="s">
-        <v>90</v>
-      </c>
-      <c r="P21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="1">
-        <v>108</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22">
-        <v>35.082937</v>
-      </c>
-      <c r="E22">
-        <v>-85.078216</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22" t="s">
-        <v>90</v>
-      </c>
-      <c r="P22" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="1">
-        <v>111</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23">
-        <v>35.082937</v>
-      </c>
-      <c r="E23">
-        <v>-85.078216</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" t="s">
-        <v>90</v>
-      </c>
-      <c r="P23" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="1">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24">
-        <v>35.076759</v>
-      </c>
-      <c r="E24">
-        <v>-85.102221</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" t="s">
-        <v>90</v>
-      </c>
-      <c r="P24" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="1">
-        <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25">
-        <v>35.076759</v>
-      </c>
-      <c r="E25">
-        <v>-85.102221</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" t="s">
-        <v>90</v>
-      </c>
-      <c r="P25" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="1">
-        <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26">
-        <v>35.076759</v>
-      </c>
-      <c r="E26">
-        <v>-85.102221</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" t="s">
-        <v>90</v>
-      </c>
-      <c r="P26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y26">
         <v>10</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>Accident</t>
   </si>
@@ -172,115 +172,76 @@
     <t>Pavement_Type</t>
   </si>
   <si>
-    <t>No Injuries</t>
+    <t>Injuries</t>
   </si>
   <si>
     <t>Entrapment</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2018-10-25</t>
-  </si>
-  <si>
-    <t>18:47:13</t>
-  </si>
-  <si>
-    <t>18:11:30</t>
-  </si>
-  <si>
-    <t>18:11:02</t>
-  </si>
-  <si>
-    <t>18:10:46</t>
-  </si>
-  <si>
-    <t>17:48:10</t>
-  </si>
-  <si>
-    <t>17:40:00</t>
-  </si>
-  <si>
-    <t>17:37:59</t>
-  </si>
-  <si>
-    <t>17:12:19</t>
-  </si>
-  <si>
-    <t>16:35:22</t>
-  </si>
-  <si>
-    <t>16:34:48</t>
-  </si>
-  <si>
-    <t>15:39:30</t>
-  </si>
-  <si>
-    <t>14:04:06</t>
-  </si>
-  <si>
-    <t>14:01:58</t>
-  </si>
-  <si>
-    <t>11:59:14</t>
-  </si>
-  <si>
-    <t>10:15:32</t>
-  </si>
-  <si>
-    <t>JOHN ROSS RD / GREENS LAKE RD</t>
-  </si>
-  <si>
-    <t>9328 Bill Reed Rd</t>
-  </si>
-  <si>
-    <t>3012 4th Ave</t>
-  </si>
-  <si>
-    <t>18500 INTERSTATE 24 WB</t>
-  </si>
-  <si>
-    <t>1100 Shallowford Rd</t>
-  </si>
-  <si>
-    <t>E 23rd St / Rossville Blvd</t>
-  </si>
-  <si>
-    <t>7752 E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>3500-3798 Amnicola Hwy</t>
-  </si>
-  <si>
-    <t>Fairmount Pike / Palmer Ave</t>
-  </si>
-  <si>
-    <t>FAIRMOUNT PIKE / PALMER AVE</t>
-  </si>
-  <si>
-    <t>4131 RINGGOLD RD</t>
-  </si>
-  <si>
-    <t>2250 E 28TH ST</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
+    <t>2018-10-28</t>
+  </si>
+  <si>
+    <t>17:40:09</t>
+  </si>
+  <si>
+    <t>17:39:27</t>
+  </si>
+  <si>
+    <t>16:54:55</t>
+  </si>
+  <si>
+    <t>16:52:54</t>
+  </si>
+  <si>
+    <t>15:48:01</t>
+  </si>
+  <si>
+    <t>15:47:52</t>
+  </si>
+  <si>
+    <t>14:22:33</t>
+  </si>
+  <si>
+    <t>13:03:40</t>
+  </si>
+  <si>
+    <t>11:49:14</t>
+  </si>
+  <si>
+    <t>02:39:30</t>
+  </si>
+  <si>
+    <t>02:38:52</t>
+  </si>
+  <si>
+    <t>E 29th St / Dodds Ave</t>
+  </si>
+  <si>
+    <t>17540-17819 Interstate 24 Wb</t>
+  </si>
+  <si>
+    <t>17820 INTERSTATE 24 WB</t>
+  </si>
+  <si>
+    <t>3300 Dayton Blvd</t>
+  </si>
+  <si>
+    <t>1001 ASHLAND TER</t>
+  </si>
+  <si>
+    <t>2000 CUMMINGS HWY</t>
+  </si>
+  <si>
+    <t>Cummings Hwy / Broad St</t>
+  </si>
+  <si>
+    <t>1300 Interstate 75 Sb</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>WALDEN</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>RED BANK</t>
   </si>
   <si>
     <t>17</t>
@@ -295,10 +256,13 @@
     <t>14</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>10</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -656,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,31 +786,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>34.996033</v>
+        <v>35.007983</v>
       </c>
       <c r="E2">
-        <v>-85.25321599999999</v>
+        <v>-85.277733</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="Y2">
         <v>10</v>
@@ -854,31 +818,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>35.04627</v>
+        <v>35.007983</v>
       </c>
       <c r="E3">
-        <v>-85.08309199999999</v>
+        <v>-85.277733</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="Y3">
         <v>10</v>
@@ -886,31 +850,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.04627</v>
+        <v>35.029872</v>
       </c>
       <c r="E4">
-        <v>-85.08309199999999</v>
+        <v>-85.32222</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="Y4">
         <v>10</v>
@@ -918,31 +882,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.04627</v>
+        <v>35.029902</v>
       </c>
       <c r="E5">
-        <v>-85.08309199999999</v>
+        <v>-85.32220700000001</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -950,31 +914,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>35.108942</v>
+      </c>
+      <c r="E6">
+        <v>-85.294904</v>
+      </c>
+      <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="D6">
-        <v>35.008059</v>
-      </c>
-      <c r="E6">
-        <v>-85.28464700000001</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -982,31 +946,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.004613</v>
+        <v>35.108942</v>
       </c>
       <c r="E7">
-        <v>-85.220466</v>
+        <v>-85.294904</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -1014,31 +978,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>35.115792</v>
+      </c>
+      <c r="E8">
+        <v>-85.26196299999999</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="D8">
-        <v>35.039593</v>
-      </c>
-      <c r="E8">
-        <v>-85.227785</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1046,31 +1010,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9">
+        <v>35.017043</v>
+      </c>
+      <c r="E9">
+        <v>-85.333708</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="D9">
-        <v>35.024513</v>
-      </c>
-      <c r="E9">
-        <v>-85.297979</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -1078,31 +1042,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>35.013727</v>
+      </c>
+      <c r="E10">
+        <v>-85.32828499999999</v>
+      </c>
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="D10">
-        <v>35.010043</v>
-      </c>
-      <c r="E10">
-        <v>-85.154461</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1110,31 +1074,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>35.101727</v>
+      </c>
+      <c r="E11">
+        <v>-85.05348499999999</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="D11">
-        <v>35.010043</v>
-      </c>
-      <c r="E11">
-        <v>-85.154461</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1142,31 +1106,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>35.101727</v>
+      </c>
+      <c r="E12">
+        <v>-85.05348499999999</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="D12">
-        <v>35.09027</v>
-      </c>
-      <c r="E12">
-        <v>-85.25902000000001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1174,161 +1138,33 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>35.101727</v>
+      </c>
+      <c r="E13">
+        <v>-85.05348499999999</v>
+      </c>
+      <c r="F13" t="s">
         <v>54</v>
       </c>
-      <c r="D13">
-        <v>35.168094</v>
-      </c>
-      <c r="E13">
-        <v>-85.316351</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Y13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>35.168094</v>
-      </c>
-      <c r="E14">
-        <v>-85.316351</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15">
-        <v>34.997998</v>
-      </c>
-      <c r="E15">
-        <v>-85.245493</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16">
-        <v>34.997998</v>
-      </c>
-      <c r="E16">
-        <v>-85.245493</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17">
-        <v>35.011028</v>
-      </c>
-      <c r="E17">
-        <v>-85.28230600000001</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y17">
         <v>10</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
   <si>
     <t>Accident</t>
   </si>
@@ -175,73 +175,127 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
     <t>Entrapment</t>
   </si>
   <si>
-    <t>2018-10-28</t>
-  </si>
-  <si>
-    <t>17:40:09</t>
-  </si>
-  <si>
-    <t>17:39:27</t>
-  </si>
-  <si>
-    <t>16:54:55</t>
-  </si>
-  <si>
-    <t>16:52:54</t>
-  </si>
-  <si>
-    <t>15:48:01</t>
-  </si>
-  <si>
-    <t>15:47:52</t>
-  </si>
-  <si>
-    <t>14:22:33</t>
-  </si>
-  <si>
-    <t>13:03:40</t>
-  </si>
-  <si>
-    <t>11:49:14</t>
-  </si>
-  <si>
-    <t>02:39:30</t>
-  </si>
-  <si>
-    <t>02:38:52</t>
-  </si>
-  <si>
-    <t>E 29th St / Dodds Ave</t>
-  </si>
-  <si>
-    <t>17540-17819 Interstate 24 Wb</t>
-  </si>
-  <si>
-    <t>17820 INTERSTATE 24 WB</t>
-  </si>
-  <si>
-    <t>3300 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>1001 ASHLAND TER</t>
-  </si>
-  <si>
-    <t>2000 CUMMINGS HWY</t>
-  </si>
-  <si>
-    <t>Cummings Hwy / Broad St</t>
-  </si>
-  <si>
-    <t>1300 Interstate 75 Sb</t>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>23:52:39</t>
+  </si>
+  <si>
+    <t>22:26:50</t>
+  </si>
+  <si>
+    <t>19:53:36</t>
+  </si>
+  <si>
+    <t>18:19:53</t>
+  </si>
+  <si>
+    <t>17:30:45</t>
+  </si>
+  <si>
+    <t>17:06:45</t>
+  </si>
+  <si>
+    <t>17:00:30</t>
+  </si>
+  <si>
+    <t>16:05:16</t>
+  </si>
+  <si>
+    <t>16:04:54</t>
+  </si>
+  <si>
+    <t>16:01:29</t>
+  </si>
+  <si>
+    <t>15:25:08</t>
+  </si>
+  <si>
+    <t>15:24:35</t>
+  </si>
+  <si>
+    <t>14:49:00</t>
+  </si>
+  <si>
+    <t>11:23:26</t>
+  </si>
+  <si>
+    <t>07:44:47</t>
+  </si>
+  <si>
+    <t>18080 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>9103 Bill Reed Rd</t>
+  </si>
+  <si>
+    <t>8612 Bill Reed Rd</t>
+  </si>
+  <si>
+    <t>300 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>Scruggs Rd / Ringgold Rd</t>
+  </si>
+  <si>
+    <t>Duncan Ave / S Holly St</t>
+  </si>
+  <si>
+    <t>4838 Bonny Lake Ln</t>
+  </si>
+  <si>
+    <t>7000-7011 HIGHWAY 153</t>
+  </si>
+  <si>
+    <t>4115 S Access Rd</t>
+  </si>
+  <si>
+    <t>10729 Lovell Rd</t>
+  </si>
+  <si>
+    <t>10729 LOVELL RD</t>
+  </si>
+  <si>
+    <t>3815 RINGGOLD RD</t>
+  </si>
+  <si>
+    <t>200 INTERSTATE 75 NB</t>
+  </si>
+  <si>
+    <t>10085 Dayton Pike</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>RED BANK</t>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>17</t>
@@ -256,13 +310,10 @@
     <t>14</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>2</t>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -620,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,31 +837,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.007983</v>
+        <v>35.017606</v>
       </c>
       <c r="E2">
-        <v>-85.277733</v>
+        <v>-85.28446</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="Y2">
         <v>10</v>
@@ -818,31 +869,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.007983</v>
+        <v>35.017606</v>
       </c>
       <c r="E3">
-        <v>-85.277733</v>
+        <v>-85.28446</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="Y3">
         <v>10</v>
@@ -850,31 +901,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.029872</v>
+        <v>35.043783</v>
       </c>
       <c r="E4">
-        <v>-85.32222</v>
+        <v>-85.092814</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="Y4">
         <v>10</v>
@@ -882,31 +933,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.029902</v>
+        <v>35.044254</v>
       </c>
       <c r="E5">
-        <v>-85.32220700000001</v>
+        <v>-85.10009100000001</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -914,31 +965,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.108942</v>
+        <v>35.044254</v>
       </c>
       <c r="E6">
-        <v>-85.294904</v>
+        <v>-85.10009100000001</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -946,31 +997,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.108942</v>
+        <v>35.01246</v>
       </c>
       <c r="E7">
-        <v>-85.294904</v>
+        <v>-85.184679</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -978,31 +1029,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.115792</v>
+        <v>34.988345</v>
       </c>
       <c r="E8">
-        <v>-85.26196299999999</v>
+        <v>-85.191565</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1010,31 +1061,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.017043</v>
+        <v>35.036623</v>
       </c>
       <c r="E9">
-        <v>-85.333708</v>
+        <v>-85.279297</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
         <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -1042,31 +1093,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.013727</v>
+        <v>35.077202</v>
       </c>
       <c r="E10">
-        <v>-85.32828499999999</v>
+        <v>-85.188649</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
         <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1074,31 +1125,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
       <c r="D11">
-        <v>35.101727</v>
+        <v>35.182639</v>
       </c>
       <c r="E11">
-        <v>-85.05348499999999</v>
+        <v>-85.24668800000001</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1106,31 +1157,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.101727</v>
+        <v>35.087525</v>
       </c>
       <c r="E12">
-        <v>-85.05348499999999</v>
+        <v>-85.21756999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1138,33 +1189,193 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>35.087525</v>
+      </c>
+      <c r="E13">
+        <v>-85.21756999999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>35.261384</v>
+      </c>
+      <c r="E14">
+        <v>-85.155897</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>35.261384</v>
+      </c>
+      <c r="E15">
+        <v>-85.155897</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D13">
-        <v>35.101727</v>
-      </c>
-      <c r="E13">
-        <v>-85.05348499999999</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y13">
+      <c r="D16">
+        <v>34.999689</v>
+      </c>
+      <c r="E16">
+        <v>-85.256281</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>35.007825</v>
+      </c>
+      <c r="E17">
+        <v>-85.201076</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>35.2542</v>
+      </c>
+      <c r="E18">
+        <v>-85.183313</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y18">
         <v>10</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Accident</t>
   </si>
@@ -178,123 +178,105 @@
     <t>Unknown Injuries</t>
   </si>
   <si>
+    <t>Delayed</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2018-10-29</t>
-  </si>
-  <si>
-    <t>23:52:39</t>
-  </si>
-  <si>
-    <t>22:26:50</t>
-  </si>
-  <si>
-    <t>19:53:36</t>
-  </si>
-  <si>
-    <t>18:19:53</t>
-  </si>
-  <si>
-    <t>17:30:45</t>
-  </si>
-  <si>
-    <t>17:06:45</t>
-  </si>
-  <si>
-    <t>17:00:30</t>
-  </si>
-  <si>
-    <t>16:05:16</t>
-  </si>
-  <si>
-    <t>16:04:54</t>
-  </si>
-  <si>
-    <t>16:01:29</t>
-  </si>
-  <si>
-    <t>15:25:08</t>
-  </si>
-  <si>
-    <t>15:24:35</t>
-  </si>
-  <si>
-    <t>14:49:00</t>
-  </si>
-  <si>
-    <t>11:23:26</t>
-  </si>
-  <si>
-    <t>07:44:47</t>
-  </si>
-  <si>
-    <t>18080 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>9103 Bill Reed Rd</t>
-  </si>
-  <si>
-    <t>8612 Bill Reed Rd</t>
-  </si>
-  <si>
-    <t>300 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>Scruggs Rd / Ringgold Rd</t>
-  </si>
-  <si>
-    <t>Duncan Ave / S Holly St</t>
-  </si>
-  <si>
-    <t>4838 Bonny Lake Ln</t>
-  </si>
-  <si>
-    <t>7000-7011 HIGHWAY 153</t>
-  </si>
-  <si>
-    <t>4115 S Access Rd</t>
-  </si>
-  <si>
-    <t>10729 Lovell Rd</t>
-  </si>
-  <si>
-    <t>10729 LOVELL RD</t>
-  </si>
-  <si>
-    <t>3815 RINGGOLD RD</t>
-  </si>
-  <si>
-    <t>200 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>10085 Dayton Pike</t>
+    <t>2018-10-30</t>
+  </si>
+  <si>
+    <t>18:48:14</t>
+  </si>
+  <si>
+    <t>18:47:36</t>
+  </si>
+  <si>
+    <t>18:16:37</t>
+  </si>
+  <si>
+    <t>17:01:03</t>
+  </si>
+  <si>
+    <t>16:51:40</t>
+  </si>
+  <si>
+    <t>16:08:17</t>
+  </si>
+  <si>
+    <t>16:06:25</t>
+  </si>
+  <si>
+    <t>16:06:13</t>
+  </si>
+  <si>
+    <t>13:03:40</t>
+  </si>
+  <si>
+    <t>11:18:03</t>
+  </si>
+  <si>
+    <t>08:36:32</t>
+  </si>
+  <si>
+    <t>08:35:31</t>
+  </si>
+  <si>
+    <t>07:16:39</t>
+  </si>
+  <si>
+    <t>07:15:44</t>
+  </si>
+  <si>
+    <t>06:10:54</t>
+  </si>
+  <si>
+    <t>Bunker Hill Dr / E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>7199 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>7400-7598 Old Lee Hwy</t>
+  </si>
+  <si>
+    <t>Igou Gap Rd / N Concord Rd</t>
+  </si>
+  <si>
+    <t>1031-1099 John Ross Rd</t>
+  </si>
+  <si>
+    <t>1800 Mccallie Ave</t>
+  </si>
+  <si>
+    <t>400 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>6933 LEE HWY</t>
+  </si>
+  <si>
+    <t>Lee Hwy / Charles Dr</t>
+  </si>
+  <si>
+    <t>5908-5915 LEE HWY</t>
+  </si>
+  <si>
+    <t>8200-8405 Highway 58</t>
+  </si>
+  <si>
+    <t>8001 Volkswagen Dr</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -304,16 +286,19 @@
     <t>16</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>13</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -671,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,16 +822,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.017606</v>
+        <v>35.01779</v>
       </c>
       <c r="E2">
-        <v>-85.28446</v>
+        <v>-85.168677</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -858,10 +843,10 @@
         <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y2">
         <v>10</v>
@@ -869,31 +854,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.017606</v>
+        <v>35.01779</v>
       </c>
       <c r="E3">
-        <v>-85.28446</v>
+        <v>-85.168677</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y3">
         <v>10</v>
@@ -901,16 +886,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.043783</v>
+        <v>35.01779</v>
       </c>
       <c r="E4">
-        <v>-85.092814</v>
+        <v>-85.168677</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -922,10 +907,10 @@
         <v>73</v>
       </c>
       <c r="K4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
         <v>87</v>
-      </c>
-      <c r="P4" t="s">
-        <v>91</v>
       </c>
       <c r="Y4">
         <v>10</v>
@@ -933,16 +918,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.044254</v>
+        <v>35.06248</v>
       </c>
       <c r="E5">
-        <v>-85.10009100000001</v>
+        <v>-85.12682</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -954,10 +939,10 @@
         <v>74</v>
       </c>
       <c r="K5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
         <v>87</v>
-      </c>
-      <c r="P5" t="s">
-        <v>92</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -965,31 +950,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.044254</v>
+        <v>35.030416</v>
       </c>
       <c r="E6">
-        <v>-85.10009100000001</v>
+        <v>-85.16795500000001</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -997,31 +982,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.01246</v>
+        <v>34.996196</v>
       </c>
       <c r="E7">
-        <v>-85.184679</v>
+        <v>-85.25289100000001</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -1029,31 +1014,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>34.988345</v>
+        <v>35.036069</v>
       </c>
       <c r="E8">
-        <v>-85.191565</v>
+        <v>-85.275953</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1061,31 +1046,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.036623</v>
+        <v>35.036069</v>
       </c>
       <c r="E9">
-        <v>-85.279297</v>
+        <v>-85.275953</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
         <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -1093,31 +1078,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>35.077202</v>
+        <v>35.036069</v>
       </c>
       <c r="E10">
-        <v>-85.188649</v>
+        <v>-85.275953</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1125,31 +1110,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.182639</v>
+        <v>35.02432</v>
       </c>
       <c r="E11">
-        <v>-85.24668800000001</v>
+        <v>-85.174239</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1157,31 +1142,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>35.087525</v>
+        <v>35.044</v>
       </c>
       <c r="E12">
-        <v>-85.21756999999999</v>
+        <v>-85.16668300000001</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1189,31 +1174,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.087525</v>
+        <v>35.023676</v>
       </c>
       <c r="E13">
-        <v>-85.21756999999999</v>
+        <v>-85.196347</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
         <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1221,31 +1206,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14">
-        <v>35.261384</v>
+        <v>35.023661</v>
       </c>
       <c r="E14">
-        <v>-85.155897</v>
+        <v>-85.19636800000001</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y14">
         <v>10</v>
@@ -1253,31 +1238,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>35.261384</v>
+        <v>35.161813</v>
       </c>
       <c r="E15">
-        <v>-85.155897</v>
+        <v>-85.090013</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y15">
         <v>10</v>
@@ -1285,31 +1270,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>34.999689</v>
+        <v>35.161813</v>
       </c>
       <c r="E16">
-        <v>-85.256281</v>
+        <v>-85.090013</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -1317,65 +1302,33 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>35.007825</v>
+        <v>35.080045</v>
       </c>
       <c r="E17">
-        <v>-85.201076</v>
+        <v>-85.13266400000001</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
         <v>84</v>
       </c>
-      <c r="K17" t="s">
-        <v>86</v>
-      </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>35.2542</v>
-      </c>
-      <c r="E18">
-        <v>-85.183313</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y18">
         <v>10</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>Accident</t>
   </si>
@@ -172,109 +172,100 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>Delayed</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2018-10-30</t>
-  </si>
-  <si>
-    <t>18:48:14</t>
-  </si>
-  <si>
-    <t>18:47:36</t>
-  </si>
-  <si>
-    <t>18:16:37</t>
-  </si>
-  <si>
-    <t>17:01:03</t>
-  </si>
-  <si>
-    <t>16:51:40</t>
-  </si>
-  <si>
-    <t>16:08:17</t>
-  </si>
-  <si>
-    <t>16:06:25</t>
-  </si>
-  <si>
-    <t>16:06:13</t>
-  </si>
-  <si>
-    <t>13:03:40</t>
-  </si>
-  <si>
-    <t>11:18:03</t>
-  </si>
-  <si>
-    <t>08:36:32</t>
-  </si>
-  <si>
-    <t>08:35:31</t>
-  </si>
-  <si>
-    <t>07:16:39</t>
-  </si>
-  <si>
-    <t>07:15:44</t>
-  </si>
-  <si>
-    <t>06:10:54</t>
-  </si>
-  <si>
-    <t>Bunker Hill Dr / E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>7199 E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>7400-7598 Old Lee Hwy</t>
-  </si>
-  <si>
-    <t>Igou Gap Rd / N Concord Rd</t>
-  </si>
-  <si>
-    <t>1031-1099 John Ross Rd</t>
-  </si>
-  <si>
-    <t>1800 Mccallie Ave</t>
-  </si>
-  <si>
-    <t>400 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>6933 LEE HWY</t>
-  </si>
-  <si>
-    <t>Lee Hwy / Charles Dr</t>
-  </si>
-  <si>
-    <t>5908-5915 LEE HWY</t>
-  </si>
-  <si>
-    <t>8200-8405 Highway 58</t>
-  </si>
-  <si>
-    <t>8001 Volkswagen Dr</t>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>19:35:59</t>
+  </si>
+  <si>
+    <t>18:39:21</t>
+  </si>
+  <si>
+    <t>18:39:03</t>
+  </si>
+  <si>
+    <t>18:05:37</t>
+  </si>
+  <si>
+    <t>18:05:36</t>
+  </si>
+  <si>
+    <t>17:53:06</t>
+  </si>
+  <si>
+    <t>17:52:01</t>
+  </si>
+  <si>
+    <t>17:28:54</t>
+  </si>
+  <si>
+    <t>16:07:19</t>
+  </si>
+  <si>
+    <t>16:06:56</t>
+  </si>
+  <si>
+    <t>16:06:06</t>
+  </si>
+  <si>
+    <t>11:21:36</t>
+  </si>
+  <si>
+    <t>11:20:45</t>
+  </si>
+  <si>
+    <t>00:31:28</t>
+  </si>
+  <si>
+    <t>4024 Smith Ln</t>
+  </si>
+  <si>
+    <t>300 Birmingham Hwy</t>
+  </si>
+  <si>
+    <t>1080 INTERSTATE 75 NB</t>
+  </si>
+  <si>
+    <t>950 W 19TH ST</t>
+  </si>
+  <si>
+    <t>950 - 1099 W 19th St</t>
+  </si>
+  <si>
+    <t>11600 - 12107 HIGHWAY 111 NB</t>
+  </si>
+  <si>
+    <t>HUGHES AVE / W 38TH ST</t>
+  </si>
+  <si>
+    <t>W 38th St / Hughes Ave</t>
+  </si>
+  <si>
+    <t>Hughes Ave / W 38th St</t>
+  </si>
+  <si>
+    <t>1387 Wisdom St</t>
+  </si>
+  <si>
+    <t>Hamill Rd / Highway 153</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>18</t>
@@ -286,19 +277,10 @@
     <t>16</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -656,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,31 +804,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.01779</v>
+        <v>35.047977</v>
       </c>
       <c r="E2">
-        <v>-85.168677</v>
+        <v>-85.10348</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Y2">
         <v>10</v>
@@ -854,31 +836,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
       </c>
       <c r="D3">
-        <v>35.01779</v>
+        <v>35.011414</v>
       </c>
       <c r="E3">
-        <v>-85.168677</v>
+        <v>-85.38863499999999</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
         <v>84</v>
-      </c>
-      <c r="P3" t="s">
-        <v>87</v>
       </c>
       <c r="Y3">
         <v>10</v>
@@ -886,31 +868,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4">
-        <v>35.01779</v>
+        <v>35.011414</v>
       </c>
       <c r="E4">
-        <v>-85.168677</v>
+        <v>-85.38863499999999</v>
       </c>
       <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
         <v>84</v>
-      </c>
-      <c r="P4" t="s">
-        <v>87</v>
       </c>
       <c r="Y4">
         <v>10</v>
@@ -918,31 +900,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.06248</v>
+        <v>35.011414</v>
       </c>
       <c r="E5">
-        <v>-85.12682</v>
+        <v>-85.38863499999999</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s">
         <v>84</v>
-      </c>
-      <c r="P5" t="s">
-        <v>87</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -950,31 +932,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.030416</v>
+        <v>35.081891</v>
       </c>
       <c r="E6">
-        <v>-85.16795500000001</v>
+        <v>-85.08154399999999</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
         <v>84</v>
-      </c>
-      <c r="P6" t="s">
-        <v>88</v>
       </c>
       <c r="Y6">
         <v>10</v>
@@ -982,31 +964,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7">
-        <v>34.996196</v>
+        <v>35.081891</v>
       </c>
       <c r="E7">
-        <v>-85.25289100000001</v>
+        <v>-85.08154399999999</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -1014,31 +996,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.036069</v>
+        <v>35.081891</v>
       </c>
       <c r="E8">
-        <v>-85.275953</v>
+        <v>-85.08154399999999</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
         <v>84</v>
-      </c>
-      <c r="P8" t="s">
-        <v>89</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1046,31 +1028,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>35.036069</v>
+        <v>35.037719</v>
       </c>
       <c r="E9">
-        <v>-85.275953</v>
+        <v>-85.321639</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -1078,31 +1060,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
       </c>
       <c r="D10">
-        <v>35.036069</v>
+        <v>35.037719</v>
       </c>
       <c r="E10">
-        <v>-85.275953</v>
+        <v>-85.321639</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1110,31 +1092,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>35.02432</v>
+        <v>35.304899</v>
       </c>
       <c r="E11">
-        <v>-85.174239</v>
+        <v>-85.163078</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1142,31 +1124,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>35.044</v>
+        <v>35.005851</v>
       </c>
       <c r="E12">
-        <v>-85.16668300000001</v>
+        <v>-85.31162999999999</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1174,31 +1156,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>35.023676</v>
+        <v>35.005851</v>
       </c>
       <c r="E13">
-        <v>-85.196347</v>
+        <v>-85.31162999999999</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1206,31 +1188,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>35.023661</v>
+        <v>35.005851</v>
       </c>
       <c r="E14">
-        <v>-85.19636800000001</v>
+        <v>-85.31162999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Y14">
         <v>10</v>
@@ -1238,31 +1220,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>35.161813</v>
+        <v>35.005851</v>
       </c>
       <c r="E15">
-        <v>-85.090013</v>
+        <v>-85.31162999999999</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="s">
         <v>86</v>
-      </c>
-      <c r="P15" t="s">
-        <v>93</v>
       </c>
       <c r="Y15">
         <v>10</v>
@@ -1270,31 +1252,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>35.161813</v>
+        <v>35.005851</v>
       </c>
       <c r="E16">
-        <v>-85.090013</v>
+        <v>-85.31162999999999</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="s">
         <v>86</v>
-      </c>
-      <c r="P16" t="s">
-        <v>93</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -1302,33 +1284,97 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>35.080045</v>
+        <v>35.07924</v>
       </c>
       <c r="E17">
-        <v>-85.13266400000001</v>
+        <v>-85.257895</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Y17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>35.07924</v>
+      </c>
+      <c r="E18">
+        <v>-85.257895</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>35.123075</v>
+      </c>
+      <c r="E19">
+        <v>-85.239491</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y19">
         <v>10</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="140">
   <si>
     <t>Accident</t>
   </si>
@@ -172,100 +172,229 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>2018-10-31</t>
-  </si>
-  <si>
-    <t>19:35:59</t>
-  </si>
-  <si>
-    <t>18:39:21</t>
-  </si>
-  <si>
-    <t>18:39:03</t>
-  </si>
-  <si>
-    <t>18:05:37</t>
-  </si>
-  <si>
-    <t>18:05:36</t>
-  </si>
-  <si>
-    <t>17:53:06</t>
-  </si>
-  <si>
-    <t>17:52:01</t>
-  </si>
-  <si>
-    <t>17:28:54</t>
-  </si>
-  <si>
-    <t>16:07:19</t>
-  </si>
-  <si>
-    <t>16:06:56</t>
-  </si>
-  <si>
-    <t>16:06:06</t>
-  </si>
-  <si>
-    <t>11:21:36</t>
-  </si>
-  <si>
-    <t>11:20:45</t>
-  </si>
-  <si>
-    <t>00:31:28</t>
-  </si>
-  <si>
-    <t>4024 Smith Ln</t>
-  </si>
-  <si>
-    <t>300 Birmingham Hwy</t>
-  </si>
-  <si>
-    <t>1080 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>950 W 19TH ST</t>
-  </si>
-  <si>
-    <t>950 - 1099 W 19th St</t>
-  </si>
-  <si>
-    <t>11600 - 12107 HIGHWAY 111 NB</t>
-  </si>
-  <si>
-    <t>HUGHES AVE / W 38TH ST</t>
-  </si>
-  <si>
-    <t>W 38th St / Hughes Ave</t>
-  </si>
-  <si>
-    <t>Hughes Ave / W 38th St</t>
-  </si>
-  <si>
-    <t>1387 Wisdom St</t>
-  </si>
-  <si>
-    <t>Hamill Rd / Highway 153</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2018-11-01</t>
+  </si>
+  <si>
+    <t>23:53:43</t>
+  </si>
+  <si>
+    <t>23:53:36</t>
+  </si>
+  <si>
+    <t>21:22:48</t>
+  </si>
+  <si>
+    <t>21:22:10</t>
+  </si>
+  <si>
+    <t>18:47:30</t>
+  </si>
+  <si>
+    <t>18:43:27</t>
+  </si>
+  <si>
+    <t>17:39:40</t>
+  </si>
+  <si>
+    <t>17:13:55</t>
+  </si>
+  <si>
+    <t>17:13:38</t>
+  </si>
+  <si>
+    <t>17:13:30</t>
+  </si>
+  <si>
+    <t>16:21:09</t>
+  </si>
+  <si>
+    <t>16:18:35</t>
+  </si>
+  <si>
+    <t>16:18:34</t>
+  </si>
+  <si>
+    <t>16:17:17</t>
+  </si>
+  <si>
+    <t>16:16:50</t>
+  </si>
+  <si>
+    <t>16:04:00</t>
+  </si>
+  <si>
+    <t>16:03:59</t>
+  </si>
+  <si>
+    <t>15:08:00</t>
+  </si>
+  <si>
+    <t>15:06:40</t>
+  </si>
+  <si>
+    <t>14:44:41</t>
+  </si>
+  <si>
+    <t>14:43:38</t>
+  </si>
+  <si>
+    <t>14:43:37</t>
+  </si>
+  <si>
+    <t>14:37:26</t>
+  </si>
+  <si>
+    <t>14:36:59</t>
+  </si>
+  <si>
+    <t>14:35:42</t>
+  </si>
+  <si>
+    <t>13:39:54</t>
+  </si>
+  <si>
+    <t>13:37:25</t>
+  </si>
+  <si>
+    <t>12:06:51</t>
+  </si>
+  <si>
+    <t>12:05:59</t>
+  </si>
+  <si>
+    <t>09:04:58</t>
+  </si>
+  <si>
+    <t>09:04:33</t>
+  </si>
+  <si>
+    <t>08:57:00</t>
+  </si>
+  <si>
+    <t>07:45:33</t>
+  </si>
+  <si>
+    <t>07:44:01</t>
+  </si>
+  <si>
+    <t>06:08:16</t>
+  </si>
+  <si>
+    <t>03:46:06</t>
+  </si>
+  <si>
+    <t>01:54:25</t>
+  </si>
+  <si>
+    <t>01:54:04</t>
+  </si>
+  <si>
+    <t>18200 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>DODDS AVE / E 23RD ST</t>
+  </si>
+  <si>
+    <t>Dodds Ave / E 23rd St</t>
+  </si>
+  <si>
+    <t>2610 Amnicola Hwy</t>
+  </si>
+  <si>
+    <t>3100 - 3599 Mountain Creek Rd</t>
+  </si>
+  <si>
+    <t>5991 Hickory Valley Rd</t>
+  </si>
+  <si>
+    <t>6740-6799 Lee Hwy</t>
+  </si>
+  <si>
+    <t>800 LEGGETT RD</t>
+  </si>
+  <si>
+    <t>4511 DELASHMITT RD</t>
+  </si>
+  <si>
+    <t>4511 Delashmitt Rd</t>
+  </si>
+  <si>
+    <t>2500 Amnicola Hwy</t>
+  </si>
+  <si>
+    <t>3222 Cummings Hwy</t>
+  </si>
+  <si>
+    <t>6421 Ramsey Rd</t>
+  </si>
+  <si>
+    <t>5223 Hunter Rd</t>
+  </si>
+  <si>
+    <t>2700 Hixson Pike</t>
+  </si>
+  <si>
+    <t>2900 HIXSON PIKE</t>
+  </si>
+  <si>
+    <t>2700 HIXSON PIKE</t>
+  </si>
+  <si>
+    <t>30 Highway 27 Nb</t>
+  </si>
+  <si>
+    <t>241-309 Highway 27 Sb</t>
+  </si>
+  <si>
+    <t>11105 Apison Pike</t>
+  </si>
+  <si>
+    <t>Dayton Blvd / Signal Mountain Rd</t>
+  </si>
+  <si>
+    <t>N Greenwood Ave / Mccallie Ave</t>
+  </si>
+  <si>
+    <t>610 HIGHWAY 153 SB</t>
+  </si>
+  <si>
+    <t>600 Highway 153 Sb</t>
+  </si>
+  <si>
+    <t>10 - 19 Exit 7a Off Ramp Nb</t>
+  </si>
+  <si>
+    <t>11506 - 11613 Apison Pike</t>
+  </si>
+  <si>
+    <t>3718 Thrushwood Dr</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>CHATTANOOGA</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>RED BANK</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>18</t>
@@ -277,10 +406,34 @@
     <t>16</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -638,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,578 +957,1250 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.047977</v>
+        <v>35.019101</v>
       </c>
       <c r="E2">
-        <v>-85.10348</v>
+        <v>-85.266949</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="Y2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>35.011414</v>
+        <v>35.019101</v>
       </c>
       <c r="E3">
-        <v>-85.38863499999999</v>
+        <v>-85.266949</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4">
-        <v>35.011414</v>
+        <v>35.01572</v>
       </c>
       <c r="E4">
-        <v>-85.38863499999999</v>
+        <v>-85.273583</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="Y4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>35.011414</v>
+        <v>35.01572</v>
       </c>
       <c r="E5">
-        <v>-85.38863499999999</v>
+        <v>-85.273583</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="Y5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>35.081891</v>
+        <v>35.073784</v>
       </c>
       <c r="E6">
-        <v>-85.08154399999999</v>
+        <v>-85.26779000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="Y6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.081891</v>
+        <v>35.073784</v>
       </c>
       <c r="E7">
-        <v>-85.08154399999999</v>
+        <v>-85.26779000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8">
-        <v>35.081891</v>
+        <v>35.119746</v>
       </c>
       <c r="E8">
-        <v>-85.08154399999999</v>
+        <v>-85.315652</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="Y8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
       </c>
       <c r="D9">
-        <v>35.037719</v>
+        <v>35.082715</v>
       </c>
       <c r="E9">
-        <v>-85.321639</v>
+        <v>-85.15800299999999</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.037719</v>
+        <v>35.082715</v>
       </c>
       <c r="E10">
-        <v>-85.321639</v>
+        <v>-85.15800299999999</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="Y10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.304899</v>
+        <v>35.082715</v>
       </c>
       <c r="E11">
-        <v>-85.163078</v>
+        <v>-85.15800299999999</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.005851</v>
+        <v>35.082715</v>
       </c>
       <c r="E12">
-        <v>-85.31162999999999</v>
+        <v>-85.15800299999999</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P12" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>35.005851</v>
+        <v>35.040572</v>
       </c>
       <c r="E13">
-        <v>-85.31162999999999</v>
+        <v>-85.169355</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P13" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="Y13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
       </c>
       <c r="D14">
-        <v>35.005851</v>
+        <v>35.38606</v>
       </c>
       <c r="E14">
-        <v>-85.31162999999999</v>
+        <v>-85.13599499999999</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="P14" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="Y14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>53</v>
       </c>
       <c r="D15">
-        <v>35.005851</v>
+        <v>35.38606</v>
       </c>
       <c r="E15">
-        <v>-85.31162999999999</v>
+        <v>-85.13599499999999</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="P15" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="D16">
-        <v>35.005851</v>
+        <v>35.127059</v>
       </c>
       <c r="E16">
-        <v>-85.31162999999999</v>
+        <v>-85.264174</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P16" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="Y16">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>35.07924</v>
+        <v>35.127112</v>
       </c>
       <c r="E17">
-        <v>-85.257895</v>
+        <v>-85.264146</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="Y17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
       </c>
       <c r="D18">
-        <v>35.07924</v>
+        <v>35.072228</v>
       </c>
       <c r="E18">
-        <v>-85.257895</v>
+        <v>-85.269181</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P18" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="Y18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>35.072228</v>
+      </c>
+      <c r="E19">
+        <v>-85.269181</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>35.019037</v>
+      </c>
+      <c r="E20">
+        <v>-85.371242</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>35.019037</v>
+      </c>
+      <c r="E21">
+        <v>-85.371242</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>35.168394</v>
+      </c>
+      <c r="E22">
+        <v>-85.09976</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>35.084594</v>
+      </c>
+      <c r="E23">
+        <v>-85.07846000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>35.084594</v>
+      </c>
+      <c r="E24">
+        <v>-85.07846000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" t="s">
+        <v>122</v>
+      </c>
+      <c r="P24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>35.091409</v>
+      </c>
+      <c r="E25">
+        <v>-85.286519</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>35.123075</v>
-      </c>
-      <c r="E19">
-        <v>-85.239491</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>35.094161</v>
+      </c>
+      <c r="E26">
+        <v>-85.285331</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="1">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>35.091409</v>
+      </c>
+      <c r="E27">
+        <v>-85.286519</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="1">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>35.037364</v>
+      </c>
+      <c r="E28">
+        <v>-85.31949400000001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="1">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>35.06938</v>
+      </c>
+      <c r="E29">
+        <v>-85.3199</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="1">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>35.026869</v>
+      </c>
+      <c r="E30">
+        <v>-85.02516199999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="1">
+        <v>148</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>35.026869</v>
+      </c>
+      <c r="E31">
+        <v>-85.02516199999999</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="1">
+        <v>166</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>35.083977</v>
+      </c>
+      <c r="E32">
+        <v>-85.317611</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="1">
+        <v>167</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>35.083977</v>
+      </c>
+      <c r="E33">
+        <v>-85.317611</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33" t="s">
+        <v>124</v>
+      </c>
+      <c r="P33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="1">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>35.038424</v>
+      </c>
+      <c r="E34">
+        <v>-85.281482</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" t="s">
+        <v>122</v>
+      </c>
+      <c r="P34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="1">
+        <v>177</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>35.104437</v>
+      </c>
+      <c r="E35">
+        <v>-85.229114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="1">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36">
+        <v>35.094618</v>
+      </c>
+      <c r="E36">
+        <v>-85.22519</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="1">
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>35.057812</v>
+      </c>
+      <c r="E37">
+        <v>-85.13214499999999</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="1">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38">
+        <v>35.018003</v>
+      </c>
+      <c r="E38">
+        <v>-85.01290400000001</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" t="s">
+        <v>123</v>
+      </c>
+      <c r="P38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="1">
+        <v>194</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>35.113954</v>
+      </c>
+      <c r="E39">
+        <v>-85.28243399999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K39" t="s">
+        <v>122</v>
+      </c>
+      <c r="P39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="1">
+        <v>195</v>
+      </c>
+      <c r="C40" t="s">
         <v>54</v>
       </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y19">
-        <v>10</v>
+      <c r="D40">
+        <v>35.113954</v>
+      </c>
+      <c r="E40">
+        <v>-85.28243399999999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" t="s">
+        <v>122</v>
+      </c>
+      <c r="P40" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y40">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>Accident</t>
   </si>
@@ -172,235 +172,145 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2018-11-01</t>
-  </si>
-  <si>
-    <t>23:53:43</t>
-  </si>
-  <si>
-    <t>23:53:36</t>
-  </si>
-  <si>
-    <t>21:22:48</t>
-  </si>
-  <si>
-    <t>21:22:10</t>
-  </si>
-  <si>
-    <t>18:47:30</t>
-  </si>
-  <si>
-    <t>18:43:27</t>
-  </si>
-  <si>
-    <t>17:39:40</t>
-  </si>
-  <si>
-    <t>17:13:55</t>
-  </si>
-  <si>
-    <t>17:13:38</t>
-  </si>
-  <si>
-    <t>17:13:30</t>
-  </si>
-  <si>
-    <t>16:21:09</t>
-  </si>
-  <si>
-    <t>16:18:35</t>
-  </si>
-  <si>
-    <t>16:18:34</t>
-  </si>
-  <si>
-    <t>16:17:17</t>
-  </si>
-  <si>
-    <t>16:16:50</t>
-  </si>
-  <si>
-    <t>16:04:00</t>
-  </si>
-  <si>
-    <t>16:03:59</t>
-  </si>
-  <si>
-    <t>15:08:00</t>
-  </si>
-  <si>
-    <t>15:06:40</t>
-  </si>
-  <si>
-    <t>14:44:41</t>
-  </si>
-  <si>
-    <t>14:43:38</t>
-  </si>
-  <si>
-    <t>14:43:37</t>
-  </si>
-  <si>
-    <t>14:37:26</t>
-  </si>
-  <si>
-    <t>14:36:59</t>
-  </si>
-  <si>
-    <t>14:35:42</t>
-  </si>
-  <si>
-    <t>13:39:54</t>
-  </si>
-  <si>
-    <t>13:37:25</t>
-  </si>
-  <si>
-    <t>12:06:51</t>
-  </si>
-  <si>
-    <t>12:05:59</t>
-  </si>
-  <si>
-    <t>09:04:58</t>
-  </si>
-  <si>
-    <t>09:04:33</t>
-  </si>
-  <si>
-    <t>08:57:00</t>
-  </si>
-  <si>
-    <t>07:45:33</t>
-  </si>
-  <si>
-    <t>07:44:01</t>
-  </si>
-  <si>
-    <t>06:08:16</t>
-  </si>
-  <si>
-    <t>03:46:06</t>
-  </si>
-  <si>
-    <t>01:54:25</t>
-  </si>
-  <si>
-    <t>01:54:04</t>
-  </si>
-  <si>
-    <t>18200 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>DODDS AVE / E 23RD ST</t>
-  </si>
-  <si>
-    <t>Dodds Ave / E 23rd St</t>
-  </si>
-  <si>
-    <t>2610 Amnicola Hwy</t>
-  </si>
-  <si>
-    <t>3100 - 3599 Mountain Creek Rd</t>
-  </si>
-  <si>
-    <t>5991 Hickory Valley Rd</t>
-  </si>
-  <si>
-    <t>6740-6799 Lee Hwy</t>
-  </si>
-  <si>
-    <t>800 LEGGETT RD</t>
-  </si>
-  <si>
-    <t>4511 DELASHMITT RD</t>
-  </si>
-  <si>
-    <t>4511 Delashmitt Rd</t>
-  </si>
-  <si>
-    <t>2500 Amnicola Hwy</t>
-  </si>
-  <si>
-    <t>3222 Cummings Hwy</t>
-  </si>
-  <si>
-    <t>6421 Ramsey Rd</t>
-  </si>
-  <si>
-    <t>5223 Hunter Rd</t>
-  </si>
-  <si>
-    <t>2700 Hixson Pike</t>
-  </si>
-  <si>
-    <t>2900 HIXSON PIKE</t>
-  </si>
-  <si>
-    <t>2700 HIXSON PIKE</t>
-  </si>
-  <si>
-    <t>30 Highway 27 Nb</t>
-  </si>
-  <si>
-    <t>241-309 Highway 27 Sb</t>
-  </si>
-  <si>
-    <t>11105 Apison Pike</t>
-  </si>
-  <si>
-    <t>Dayton Blvd / Signal Mountain Rd</t>
-  </si>
-  <si>
-    <t>N Greenwood Ave / Mccallie Ave</t>
-  </si>
-  <si>
-    <t>610 HIGHWAY 153 SB</t>
-  </si>
-  <si>
-    <t>600 Highway 153 Sb</t>
-  </si>
-  <si>
-    <t>10 - 19 Exit 7a Off Ramp Nb</t>
-  </si>
-  <si>
-    <t>11506 - 11613 Apison Pike</t>
-  </si>
-  <si>
-    <t>3718 Thrushwood Dr</t>
+    <t>2018-11-04</t>
+  </si>
+  <si>
+    <t>22:09:42</t>
+  </si>
+  <si>
+    <t>21:32:32</t>
+  </si>
+  <si>
+    <t>21:32:31</t>
+  </si>
+  <si>
+    <t>21:02:43</t>
+  </si>
+  <si>
+    <t>20:44:32</t>
+  </si>
+  <si>
+    <t>20:43:03</t>
+  </si>
+  <si>
+    <t>16:21:38</t>
+  </si>
+  <si>
+    <t>15:10:43</t>
+  </si>
+  <si>
+    <t>14:20:32</t>
+  </si>
+  <si>
+    <t>14:20:04</t>
+  </si>
+  <si>
+    <t>14:19:30</t>
+  </si>
+  <si>
+    <t>13:46:50</t>
+  </si>
+  <si>
+    <t>13:19:33</t>
+  </si>
+  <si>
+    <t>13:19:08</t>
+  </si>
+  <si>
+    <t>13:02:32</t>
+  </si>
+  <si>
+    <t>13:02:02</t>
+  </si>
+  <si>
+    <t>11:18:24</t>
+  </si>
+  <si>
+    <t>11:18:23</t>
+  </si>
+  <si>
+    <t>11:17:48</t>
+  </si>
+  <si>
+    <t>10:37:58</t>
+  </si>
+  <si>
+    <t>10:37:05</t>
+  </si>
+  <si>
+    <t>05:43:50</t>
+  </si>
+  <si>
+    <t>4525 Delashmitt Rd</t>
+  </si>
+  <si>
+    <t>E 32nd St / Clio Ave</t>
+  </si>
+  <si>
+    <t>234 BROWNS FERRY RD</t>
+  </si>
+  <si>
+    <t>852 Mccallie Ave</t>
+  </si>
+  <si>
+    <t>9754 DAYTON PIKE</t>
+  </si>
+  <si>
+    <t>3410 CAMPBELL ST</t>
+  </si>
+  <si>
+    <t>6800 HIGHWAY 58</t>
+  </si>
+  <si>
+    <t>6820 Flamingo Ln</t>
+  </si>
+  <si>
+    <t>6404 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>7700 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>W 53rd St / St Elmo Ave</t>
+  </si>
+  <si>
+    <t>8912 Lee Hwy</t>
+  </si>
+  <si>
+    <t>201-299 W Martin Luther King Blvd</t>
+  </si>
+  <si>
+    <t>2400 DODDS AVE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>RED BANK</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>20</t>
   </si>
   <si>
     <t>16</t>
@@ -415,25 +325,13 @@
     <t>13</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -791,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA40"/>
+  <dimension ref="A1:BA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -957,31 +855,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.019101</v>
+        <v>35.127846</v>
       </c>
       <c r="E2">
-        <v>-85.266949</v>
+        <v>-85.265214</v>
       </c>
       <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -989,31 +887,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.019101</v>
+        <v>35.007748</v>
       </c>
       <c r="E3">
-        <v>-85.266949</v>
+        <v>-85.292197</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -1021,31 +919,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.01572</v>
+        <v>35.007748</v>
       </c>
       <c r="E4">
-        <v>-85.273583</v>
+        <v>-85.292197</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -1053,31 +951,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.01572</v>
+        <v>35.028671</v>
       </c>
       <c r="E5">
-        <v>-85.273583</v>
+        <v>-85.362494</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" t="s">
         <v>97</v>
-      </c>
-      <c r="K5" t="s">
-        <v>122</v>
-      </c>
-      <c r="P5" t="s">
-        <v>126</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -1085,31 +983,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>35.073784</v>
+        <v>35.042874</v>
       </c>
       <c r="E6">
-        <v>-85.26779000000001</v>
+        <v>-85.294189</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" t="s">
         <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P6" t="s">
-        <v>127</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -1117,31 +1015,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.073784</v>
+        <v>35.042874</v>
       </c>
       <c r="E7">
-        <v>-85.26779000000001</v>
+        <v>-85.294189</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s">
         <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P7" t="s">
-        <v>127</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -1149,31 +1047,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.119746</v>
+        <v>35.245315</v>
       </c>
       <c r="E8">
-        <v>-85.315652</v>
+        <v>-85.188388</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s">
         <v>99</v>
-      </c>
-      <c r="K8" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" t="s">
-        <v>128</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1187,25 +1085,25 @@
         <v>53</v>
       </c>
       <c r="D9">
-        <v>35.082715</v>
+        <v>35.073096</v>
       </c>
       <c r="E9">
-        <v>-85.15800299999999</v>
+        <v>-85.238225</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="s">
         <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P9" t="s">
-        <v>128</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1213,31 +1111,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.082715</v>
+        <v>35.139633</v>
       </c>
       <c r="E10">
-        <v>-85.15800299999999</v>
+        <v>-85.120863</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1245,31 +1143,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.082715</v>
+        <v>35.135737</v>
       </c>
       <c r="E11">
-        <v>-85.15800299999999</v>
+        <v>-85.123024</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1277,31 +1175,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.082715</v>
+        <v>35.135737</v>
       </c>
       <c r="E12">
-        <v>-85.15800299999999</v>
+        <v>-85.123024</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="Y12">
         <v>11</v>
@@ -1309,31 +1207,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>35.040572</v>
+        <v>34.989184</v>
       </c>
       <c r="E13">
-        <v>-85.169355</v>
+        <v>-85.210455</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Y13">
         <v>11</v>
@@ -1341,31 +1239,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>35.38606</v>
+        <v>35.010462</v>
       </c>
       <c r="E14">
-        <v>-85.13599499999999</v>
+        <v>-85.155384</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
       </c>
       <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s">
         <v>102</v>
-      </c>
-      <c r="K14" t="s">
-        <v>123</v>
-      </c>
-      <c r="P14" t="s">
-        <v>129</v>
       </c>
       <c r="Y14">
         <v>11</v>
@@ -1373,31 +1271,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>35.38606</v>
+        <v>35.010462</v>
       </c>
       <c r="E15">
-        <v>-85.13599499999999</v>
+        <v>-85.155384</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
       <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s">
         <v>102</v>
-      </c>
-      <c r="K15" t="s">
-        <v>123</v>
-      </c>
-      <c r="P15" t="s">
-        <v>129</v>
       </c>
       <c r="Y15">
         <v>11</v>
@@ -1408,28 +1306,28 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>35.127059</v>
+        <v>34.990703</v>
       </c>
       <c r="E16">
-        <v>-85.264174</v>
+        <v>-85.33104899999999</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Y16">
         <v>11</v>
@@ -1440,28 +1338,28 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>35.127112</v>
+        <v>34.990703</v>
       </c>
       <c r="E17">
-        <v>-85.264146</v>
+        <v>-85.33104899999999</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Y17">
         <v>11</v>
@@ -1469,31 +1367,31 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>35.072228</v>
+        <v>35.087315</v>
       </c>
       <c r="E18">
-        <v>-85.269181</v>
+        <v>-85.07110400000001</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="Y18">
         <v>11</v>
@@ -1501,31 +1399,31 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>35.072228</v>
+        <v>35.087315</v>
       </c>
       <c r="E19">
-        <v>-85.269181</v>
+        <v>-85.07110400000001</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
         <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="Y19">
         <v>11</v>
@@ -1533,31 +1431,31 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
       </c>
       <c r="D20">
-        <v>35.019037</v>
+        <v>35.087315</v>
       </c>
       <c r="E20">
-        <v>-85.371242</v>
+        <v>-85.07110400000001</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="Y20">
         <v>11</v>
@@ -1565,31 +1463,31 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>35.019037</v>
+        <v>35.045963</v>
       </c>
       <c r="E21">
-        <v>-85.371242</v>
+        <v>-85.312343</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
         <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="Y21">
         <v>11</v>
@@ -1597,31 +1495,31 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>35.168394</v>
+        <v>35.045963</v>
       </c>
       <c r="E22">
-        <v>-85.09976</v>
+        <v>-85.312343</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
         <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="Y22">
         <v>11</v>
@@ -1629,577 +1527,33 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>35.084594</v>
+        <v>35.01385</v>
       </c>
       <c r="E23">
-        <v>-85.07846000000001</v>
+        <v>-85.274417</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
         <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Y23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="1">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24">
-        <v>35.084594</v>
-      </c>
-      <c r="E24">
-        <v>-85.07846000000001</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="1">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25">
-        <v>35.091409</v>
-      </c>
-      <c r="E25">
-        <v>-85.286519</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" t="s">
-        <v>122</v>
-      </c>
-      <c r="P25" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="1">
-        <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26">
-        <v>35.094161</v>
-      </c>
-      <c r="E26">
-        <v>-85.285331</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" t="s">
-        <v>122</v>
-      </c>
-      <c r="P26" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="1">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27">
-        <v>35.091409</v>
-      </c>
-      <c r="E27">
-        <v>-85.286519</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" t="s">
-        <v>122</v>
-      </c>
-      <c r="P27" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="1">
-        <v>115</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28">
-        <v>35.037364</v>
-      </c>
-      <c r="E28">
-        <v>-85.31949400000001</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s">
-        <v>112</v>
-      </c>
-      <c r="K28" t="s">
-        <v>122</v>
-      </c>
-      <c r="P28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="1">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29">
-        <v>35.06938</v>
-      </c>
-      <c r="E29">
-        <v>-85.3199</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="1">
-        <v>147</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30">
-        <v>35.026869</v>
-      </c>
-      <c r="E30">
-        <v>-85.02516199999999</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" t="s">
-        <v>114</v>
-      </c>
-      <c r="K30" t="s">
-        <v>123</v>
-      </c>
-      <c r="P30" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="1">
-        <v>148</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31">
-        <v>35.026869</v>
-      </c>
-      <c r="E31">
-        <v>-85.02516199999999</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" t="s">
-        <v>114</v>
-      </c>
-      <c r="K31" t="s">
-        <v>123</v>
-      </c>
-      <c r="P31" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="1">
-        <v>166</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32">
-        <v>35.083977</v>
-      </c>
-      <c r="E32">
-        <v>-85.317611</v>
-      </c>
-      <c r="F32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" t="s">
-        <v>115</v>
-      </c>
-      <c r="K32" t="s">
-        <v>124</v>
-      </c>
-      <c r="P32" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
-      <c r="A33" s="1">
-        <v>167</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33">
-        <v>35.083977</v>
-      </c>
-      <c r="E33">
-        <v>-85.317611</v>
-      </c>
-      <c r="F33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" t="s">
-        <v>115</v>
-      </c>
-      <c r="K33" t="s">
-        <v>124</v>
-      </c>
-      <c r="P33" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
-      <c r="A34" s="1">
-        <v>169</v>
-      </c>
-      <c r="C34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34">
-        <v>35.038424</v>
-      </c>
-      <c r="E34">
-        <v>-85.281482</v>
-      </c>
-      <c r="F34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" t="s">
-        <v>116</v>
-      </c>
-      <c r="K34" t="s">
-        <v>122</v>
-      </c>
-      <c r="P34" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
-      <c r="A35" s="1">
-        <v>177</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35">
-        <v>35.104437</v>
-      </c>
-      <c r="E35">
-        <v>-85.229114</v>
-      </c>
-      <c r="F35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" t="s">
-        <v>117</v>
-      </c>
-      <c r="K35" t="s">
-        <v>122</v>
-      </c>
-      <c r="P35" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
-      <c r="A36" s="1">
-        <v>179</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36">
-        <v>35.094618</v>
-      </c>
-      <c r="E36">
-        <v>-85.22519</v>
-      </c>
-      <c r="F36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" t="s">
-        <v>118</v>
-      </c>
-      <c r="K36" t="s">
-        <v>122</v>
-      </c>
-      <c r="P36" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="1">
-        <v>187</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37">
-        <v>35.057812</v>
-      </c>
-      <c r="E37">
-        <v>-85.13214499999999</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" t="s">
-        <v>119</v>
-      </c>
-      <c r="K37" t="s">
-        <v>122</v>
-      </c>
-      <c r="P37" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
-      <c r="A38" s="1">
-        <v>190</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38">
-        <v>35.018003</v>
-      </c>
-      <c r="E38">
-        <v>-85.01290400000001</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" t="s">
-        <v>120</v>
-      </c>
-      <c r="K38" t="s">
-        <v>123</v>
-      </c>
-      <c r="P38" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
-      <c r="A39" s="1">
-        <v>194</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39">
-        <v>35.113954</v>
-      </c>
-      <c r="E39">
-        <v>-85.28243399999999</v>
-      </c>
-      <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" t="s">
-        <v>121</v>
-      </c>
-      <c r="K39" t="s">
-        <v>122</v>
-      </c>
-      <c r="P39" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="1">
-        <v>195</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40">
-        <v>35.113954</v>
-      </c>
-      <c r="E40">
-        <v>-85.28243399999999</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K40" t="s">
-        <v>122</v>
-      </c>
-      <c r="P40" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y40">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="111">
   <si>
     <t>Accident</t>
   </si>
@@ -175,127 +175,145 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>2018-11-04</t>
-  </si>
-  <si>
-    <t>22:09:42</t>
-  </si>
-  <si>
-    <t>21:32:32</t>
-  </si>
-  <si>
-    <t>21:32:31</t>
-  </si>
-  <si>
-    <t>21:02:43</t>
-  </si>
-  <si>
-    <t>20:44:32</t>
-  </si>
-  <si>
-    <t>20:43:03</t>
-  </si>
-  <si>
-    <t>16:21:38</t>
-  </si>
-  <si>
-    <t>15:10:43</t>
-  </si>
-  <si>
-    <t>14:20:32</t>
-  </si>
-  <si>
-    <t>14:20:04</t>
-  </si>
-  <si>
-    <t>14:19:30</t>
-  </si>
-  <si>
-    <t>13:46:50</t>
-  </si>
-  <si>
-    <t>13:19:33</t>
-  </si>
-  <si>
-    <t>13:19:08</t>
-  </si>
-  <si>
-    <t>13:02:32</t>
-  </si>
-  <si>
-    <t>13:02:02</t>
-  </si>
-  <si>
-    <t>11:18:24</t>
-  </si>
-  <si>
-    <t>11:18:23</t>
-  </si>
-  <si>
-    <t>11:17:48</t>
-  </si>
-  <si>
-    <t>10:37:58</t>
-  </si>
-  <si>
-    <t>10:37:05</t>
-  </si>
-  <si>
-    <t>05:43:50</t>
-  </si>
-  <si>
-    <t>4525 Delashmitt Rd</t>
-  </si>
-  <si>
-    <t>E 32nd St / Clio Ave</t>
-  </si>
-  <si>
-    <t>234 BROWNS FERRY RD</t>
-  </si>
-  <si>
-    <t>852 Mccallie Ave</t>
-  </si>
-  <si>
-    <t>9754 DAYTON PIKE</t>
-  </si>
-  <si>
-    <t>3410 CAMPBELL ST</t>
-  </si>
-  <si>
-    <t>6800 HIGHWAY 58</t>
-  </si>
-  <si>
-    <t>6820 Flamingo Ln</t>
-  </si>
-  <si>
-    <t>6404 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>7700 E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>W 53rd St / St Elmo Ave</t>
-  </si>
-  <si>
-    <t>8912 Lee Hwy</t>
-  </si>
-  <si>
-    <t>201-299 W Martin Luther King Blvd</t>
-  </si>
-  <si>
-    <t>2400 DODDS AVE</t>
+    <t>2018-11-05</t>
+  </si>
+  <si>
+    <t>19:38:19</t>
+  </si>
+  <si>
+    <t>19:37:45</t>
+  </si>
+  <si>
+    <t>19:07:58</t>
+  </si>
+  <si>
+    <t>19:07:20</t>
+  </si>
+  <si>
+    <t>17:40:24</t>
+  </si>
+  <si>
+    <t>15:47:37</t>
+  </si>
+  <si>
+    <t>15:46:45</t>
+  </si>
+  <si>
+    <t>15:35:39</t>
+  </si>
+  <si>
+    <t>13:58:51</t>
+  </si>
+  <si>
+    <t>10:13:14</t>
+  </si>
+  <si>
+    <t>09:14:34</t>
+  </si>
+  <si>
+    <t>09:07:20</t>
+  </si>
+  <si>
+    <t>09:05:26</t>
+  </si>
+  <si>
+    <t>08:56:17</t>
+  </si>
+  <si>
+    <t>08:55:16</t>
+  </si>
+  <si>
+    <t>07:15:06</t>
+  </si>
+  <si>
+    <t>07:15:05</t>
+  </si>
+  <si>
+    <t>07:05:26</t>
+  </si>
+  <si>
+    <t>06:39:36</t>
+  </si>
+  <si>
+    <t>06:38:47</t>
+  </si>
+  <si>
+    <t>06:32:20</t>
+  </si>
+  <si>
+    <t>06:30:48</t>
+  </si>
+  <si>
+    <t>06:27:05</t>
+  </si>
+  <si>
+    <t>06:26:41</t>
+  </si>
+  <si>
+    <t>06:24:38</t>
+  </si>
+  <si>
+    <t>S Orchard Knob Ave / Bailey Ave</t>
+  </si>
+  <si>
+    <t>7734 Lee Hwy</t>
+  </si>
+  <si>
+    <t>6100 - 6799 Highway 153</t>
+  </si>
+  <si>
+    <t>Broad St / W 31st St</t>
+  </si>
+  <si>
+    <t>103 Alden Ave</t>
+  </si>
+  <si>
+    <t>200-209 Gillespie Rd</t>
+  </si>
+  <si>
+    <t>Highway 58 / Champion Rd</t>
+  </si>
+  <si>
+    <t>18400 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>16700-16720 Interstate 24 Wb</t>
+  </si>
+  <si>
+    <t>Shallowford Rd / Wilcox Blvd</t>
+  </si>
+  <si>
+    <t>SHALLOWFORD RD / WILCOX BLVD</t>
+  </si>
+  <si>
+    <t>9207 STANDIFER GAP RD</t>
+  </si>
+  <si>
+    <t>7625 STANDIFER GAP RD</t>
+  </si>
+  <si>
+    <t>2303 Dayton Blvd</t>
+  </si>
+  <si>
+    <t>920 SIGNAL MOUNTAIN RD</t>
+  </si>
+  <si>
+    <t>50-119 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>1 - 9 Exit Shepherd Rd Off Ramp Nb</t>
+  </si>
+  <si>
+    <t>514 Workman Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>SODDY DAISY</t>
+    <t>RED BANK</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
@@ -304,34 +322,31 @@
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>5</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -689,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA23"/>
+  <dimension ref="A1:BA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -855,31 +870,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.127846</v>
+        <v>35.033431</v>
       </c>
       <c r="E2">
-        <v>-85.265214</v>
+        <v>-85.276054</v>
       </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -887,31 +902,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.007748</v>
+        <v>35.033431</v>
       </c>
       <c r="E3">
-        <v>-85.292197</v>
+        <v>-85.276054</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -919,31 +934,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.007748</v>
+        <v>35.062573</v>
       </c>
       <c r="E4">
-        <v>-85.292197</v>
+        <v>-85.130056</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -951,31 +966,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.028671</v>
+        <v>35.062573</v>
       </c>
       <c r="E5">
-        <v>-85.362494</v>
+        <v>-85.130056</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -983,31 +998,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.042874</v>
+        <v>35.170787</v>
       </c>
       <c r="E6">
-        <v>-85.294189</v>
+        <v>-85.247564</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -1015,31 +1030,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.042874</v>
+        <v>35.020911</v>
       </c>
       <c r="E7">
-        <v>-85.294189</v>
+        <v>-85.320435</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -1047,31 +1062,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.245315</v>
+        <v>35.020911</v>
       </c>
       <c r="E8">
-        <v>-85.188388</v>
+        <v>-85.320435</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1079,31 +1094,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.073096</v>
+        <v>35.088713</v>
       </c>
       <c r="E9">
-        <v>-85.238225</v>
+        <v>-85.31991600000001</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1111,31 +1126,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.139633</v>
+        <v>35.088713</v>
       </c>
       <c r="E10">
-        <v>-85.120863</v>
+        <v>-85.31991600000001</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1143,31 +1158,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.135737</v>
+        <v>35.026331</v>
       </c>
       <c r="E11">
-        <v>-85.123024</v>
+        <v>-85.245192</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1175,31 +1190,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.135737</v>
+        <v>35.099881</v>
       </c>
       <c r="E12">
-        <v>-85.123024</v>
+        <v>-85.16970000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Y12">
         <v>11</v>
@@ -1207,31 +1222,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>34.989184</v>
+        <v>35.008661</v>
       </c>
       <c r="E13">
-        <v>-85.210455</v>
+        <v>-85.237709</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Y13">
         <v>11</v>
@@ -1239,31 +1254,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>35.010462</v>
+        <v>34.98563</v>
       </c>
       <c r="E14">
-        <v>-85.155384</v>
+        <v>-85.46822899999999</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Y14">
         <v>11</v>
@@ -1271,31 +1286,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>35.010462</v>
+        <v>34.98563</v>
       </c>
       <c r="E15">
-        <v>-85.155384</v>
+        <v>-85.46822899999999</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Y15">
         <v>11</v>
@@ -1303,31 +1318,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16">
-        <v>34.990703</v>
+        <v>35.042901</v>
       </c>
       <c r="E16">
-        <v>-85.33104899999999</v>
+        <v>-85.222382</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y16">
         <v>11</v>
@@ -1335,31 +1350,31 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
       </c>
       <c r="D17">
-        <v>34.990703</v>
+        <v>35.042901</v>
       </c>
       <c r="E17">
-        <v>-85.33104899999999</v>
+        <v>-85.222382</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y17">
         <v>11</v>
@@ -1367,31 +1382,31 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>35.087315</v>
+        <v>35.042901</v>
       </c>
       <c r="E18">
-        <v>-85.07110400000001</v>
+        <v>-85.222382</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Y18">
         <v>11</v>
@@ -1399,31 +1414,31 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
       <c r="D19">
-        <v>35.087315</v>
+        <v>35.016521</v>
       </c>
       <c r="E19">
-        <v>-85.07110400000001</v>
+        <v>-85.092907</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Y19">
         <v>11</v>
@@ -1431,31 +1446,31 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>35.087315</v>
+        <v>35.016521</v>
       </c>
       <c r="E20">
-        <v>-85.07110400000001</v>
+        <v>-85.092907</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Y20">
         <v>11</v>
@@ -1463,31 +1478,31 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
         <v>52</v>
       </c>
       <c r="D21">
-        <v>35.045963</v>
+        <v>35.050628</v>
       </c>
       <c r="E21">
-        <v>-85.312343</v>
+        <v>-85.13141400000001</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Y21">
         <v>11</v>
@@ -1495,31 +1510,31 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
       </c>
       <c r="D22">
-        <v>35.045963</v>
+        <v>35.094708</v>
       </c>
       <c r="E22">
-        <v>-85.312343</v>
+        <v>-85.30722</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Y22">
         <v>11</v>
@@ -1527,33 +1542,193 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
       </c>
       <c r="D23">
-        <v>35.01385</v>
+        <v>35.094708</v>
       </c>
       <c r="E23">
-        <v>-85.274417</v>
+        <v>-85.30722</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>35.103133</v>
+      </c>
+      <c r="E24">
+        <v>-85.331233</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>34.998772</v>
+      </c>
+      <c r="E25">
+        <v>-85.209571</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>35.039725</v>
+      </c>
+      <c r="E26">
+        <v>-85.18526</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
         <v>77</v>
       </c>
-      <c r="H23" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" t="s">
-        <v>92</v>
-      </c>
-      <c r="P23" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y23">
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="1">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>34.995203</v>
+      </c>
+      <c r="E27">
+        <v>-85.304958</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="1">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>34.995203</v>
+      </c>
+      <c r="E28">
+        <v>-85.304958</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y28">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="121">
   <si>
     <t>Accident</t>
   </si>
@@ -178,168 +178,195 @@
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>2018-11-05</t>
-  </si>
-  <si>
-    <t>19:38:19</t>
-  </si>
-  <si>
-    <t>19:37:45</t>
-  </si>
-  <si>
-    <t>19:07:58</t>
-  </si>
-  <si>
-    <t>19:07:20</t>
-  </si>
-  <si>
-    <t>17:40:24</t>
-  </si>
-  <si>
-    <t>15:47:37</t>
-  </si>
-  <si>
-    <t>15:46:45</t>
-  </si>
-  <si>
-    <t>15:35:39</t>
-  </si>
-  <si>
-    <t>13:58:51</t>
-  </si>
-  <si>
-    <t>10:13:14</t>
-  </si>
-  <si>
-    <t>09:14:34</t>
-  </si>
-  <si>
-    <t>09:07:20</t>
-  </si>
-  <si>
-    <t>09:05:26</t>
-  </si>
-  <si>
-    <t>08:56:17</t>
-  </si>
-  <si>
-    <t>08:55:16</t>
-  </si>
-  <si>
-    <t>07:15:06</t>
-  </si>
-  <si>
-    <t>07:15:05</t>
-  </si>
-  <si>
-    <t>07:05:26</t>
-  </si>
-  <si>
-    <t>06:39:36</t>
-  </si>
-  <si>
-    <t>06:38:47</t>
-  </si>
-  <si>
-    <t>06:32:20</t>
-  </si>
-  <si>
-    <t>06:30:48</t>
-  </si>
-  <si>
-    <t>06:27:05</t>
-  </si>
-  <si>
-    <t>06:26:41</t>
-  </si>
-  <si>
-    <t>06:24:38</t>
-  </si>
-  <si>
-    <t>S Orchard Knob Ave / Bailey Ave</t>
-  </si>
-  <si>
-    <t>7734 Lee Hwy</t>
-  </si>
-  <si>
-    <t>6100 - 6799 Highway 153</t>
-  </si>
-  <si>
-    <t>Broad St / W 31st St</t>
-  </si>
-  <si>
-    <t>103 Alden Ave</t>
-  </si>
-  <si>
-    <t>200-209 Gillespie Rd</t>
-  </si>
-  <si>
-    <t>Highway 58 / Champion Rd</t>
-  </si>
-  <si>
-    <t>18400 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>16700-16720 Interstate 24 Wb</t>
-  </si>
-  <si>
-    <t>Shallowford Rd / Wilcox Blvd</t>
-  </si>
-  <si>
-    <t>SHALLOWFORD RD / WILCOX BLVD</t>
-  </si>
-  <si>
-    <t>9207 STANDIFER GAP RD</t>
-  </si>
-  <si>
-    <t>7625 STANDIFER GAP RD</t>
-  </si>
-  <si>
-    <t>2303 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>920 SIGNAL MOUNTAIN RD</t>
-  </si>
-  <si>
-    <t>50-119 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>1 - 9 Exit Shepherd Rd Off Ramp Nb</t>
-  </si>
-  <si>
-    <t>514 Workman Rd</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2018-11-06</t>
+  </si>
+  <si>
+    <t>22:35:04</t>
+  </si>
+  <si>
+    <t>22:34:28</t>
+  </si>
+  <si>
+    <t>18:12:33</t>
+  </si>
+  <si>
+    <t>18:11:59</t>
+  </si>
+  <si>
+    <t>16:06:51</t>
+  </si>
+  <si>
+    <t>16:06:21</t>
+  </si>
+  <si>
+    <t>15:51:11</t>
+  </si>
+  <si>
+    <t>15:34:13</t>
+  </si>
+  <si>
+    <t>14:06:49</t>
+  </si>
+  <si>
+    <t>13:13:59</t>
+  </si>
+  <si>
+    <t>13:12:32</t>
+  </si>
+  <si>
+    <t>11:36:06</t>
+  </si>
+  <si>
+    <t>11:08:29</t>
+  </si>
+  <si>
+    <t>11:07:52</t>
+  </si>
+  <si>
+    <t>10:47:05</t>
+  </si>
+  <si>
+    <t>10:46:43</t>
+  </si>
+  <si>
+    <t>10:46:34</t>
+  </si>
+  <si>
+    <t>10:36:51</t>
+  </si>
+  <si>
+    <t>10:32:22</t>
+  </si>
+  <si>
+    <t>10:31:46</t>
+  </si>
+  <si>
+    <t>08:55:52</t>
+  </si>
+  <si>
+    <t>08:35:03</t>
+  </si>
+  <si>
+    <t>08:04:36</t>
+  </si>
+  <si>
+    <t>07:24:25</t>
+  </si>
+  <si>
+    <t>07:18:11</t>
+  </si>
+  <si>
+    <t>07:17:02</t>
+  </si>
+  <si>
+    <t>06:27:57</t>
+  </si>
+  <si>
+    <t>03:00:34</t>
+  </si>
+  <si>
+    <t>1809 Dodson Ave</t>
+  </si>
+  <si>
+    <t>4700 Wesleyan Rd</t>
+  </si>
+  <si>
+    <t>1440 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>1330 - 1560 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>Woodland Dr / Bill Reed Rd</t>
+  </si>
+  <si>
+    <t>Shallowford Rd / N Moore Rd</t>
+  </si>
+  <si>
+    <t>2215 VANCE AVE</t>
+  </si>
+  <si>
+    <t>2128 Citico Ave</t>
+  </si>
+  <si>
+    <t>Friar Rd / Central Dr</t>
+  </si>
+  <si>
+    <t>300 CENTRAL DR</t>
+  </si>
+  <si>
+    <t>5579 Highway 153</t>
+  </si>
+  <si>
+    <t>5579 HIGHWAY 153</t>
+  </si>
+  <si>
+    <t>1318 S Seminole Dr</t>
+  </si>
+  <si>
+    <t>4131 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>4106 W RD</t>
+  </si>
+  <si>
+    <t>7499 BONNY OAKS DR</t>
+  </si>
+  <si>
+    <t>17180 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>420 O Neal St</t>
+  </si>
+  <si>
+    <t>1030 Oak St</t>
+  </si>
+  <si>
+    <t>9414 Dallas Hollow Rd</t>
+  </si>
+  <si>
+    <t>641 HIGHWAY 27 NB</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
     <t>RED BANK</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -347,6 +374,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -704,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA28"/>
+  <dimension ref="A1:BA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,31 +900,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.033431</v>
+        <v>35.057199</v>
       </c>
       <c r="E2">
-        <v>-85.276054</v>
+        <v>-85.258551</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -902,31 +932,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.033431</v>
+        <v>35.057199</v>
       </c>
       <c r="E3">
-        <v>-85.276054</v>
+        <v>-85.258551</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -934,31 +964,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.062573</v>
+        <v>35.005983</v>
       </c>
       <c r="E4">
-        <v>-85.130056</v>
+        <v>-84.97447699999999</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -966,31 +996,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.062573</v>
+        <v>35.005983</v>
       </c>
       <c r="E5">
-        <v>-85.130056</v>
+        <v>-84.97447699999999</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -998,31 +1028,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.170787</v>
+        <v>35.12014</v>
       </c>
       <c r="E6">
-        <v>-85.247564</v>
+        <v>-85.044089</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -1030,31 +1060,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.020911</v>
+        <v>35.12014</v>
       </c>
       <c r="E7">
-        <v>-85.320435</v>
+        <v>-85.044089</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -1062,31 +1092,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.020911</v>
+        <v>35.105449</v>
       </c>
       <c r="E8">
-        <v>-85.320435</v>
+        <v>-85.051768</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1094,31 +1124,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>35.088713</v>
+        <v>35.04496</v>
       </c>
       <c r="E9">
-        <v>-85.31991600000001</v>
+        <v>-85.09841</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1126,31 +1156,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.088713</v>
+        <v>35.043284</v>
       </c>
       <c r="E10">
-        <v>-85.31991600000001</v>
+        <v>-85.219735</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1158,31 +1188,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.026331</v>
+        <v>35.029051</v>
       </c>
       <c r="E11">
-        <v>-85.245192</v>
+        <v>-85.27175699999999</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1190,31 +1220,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.099881</v>
+        <v>35.029051</v>
       </c>
       <c r="E12">
-        <v>-85.16970000000001</v>
+        <v>-85.27175699999999</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y12">
         <v>11</v>
@@ -1222,31 +1252,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.008661</v>
+        <v>35.043886</v>
       </c>
       <c r="E13">
-        <v>-85.237709</v>
+        <v>-85.264904</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y13">
         <v>11</v>
@@ -1254,31 +1284,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14">
-        <v>34.98563</v>
+        <v>35.019236</v>
       </c>
       <c r="E14">
-        <v>-85.46822899999999</v>
+        <v>-85.197239</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y14">
         <v>11</v>
@@ -1286,31 +1316,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>34.98563</v>
+        <v>35.019236</v>
       </c>
       <c r="E15">
-        <v>-85.46822899999999</v>
+        <v>-85.197239</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y15">
         <v>11</v>
@@ -1318,31 +1348,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16">
-        <v>35.042901</v>
+        <v>35.146073</v>
       </c>
       <c r="E16">
-        <v>-85.222382</v>
+        <v>-85.25221500000001</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y16">
         <v>11</v>
@@ -1350,31 +1380,31 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
         <v>53</v>
       </c>
       <c r="D17">
-        <v>35.042901</v>
+        <v>35.146073</v>
       </c>
       <c r="E17">
-        <v>-85.222382</v>
+        <v>-85.25221500000001</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y17">
         <v>11</v>
@@ -1382,31 +1412,31 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
       </c>
       <c r="D18">
-        <v>35.042901</v>
+        <v>35.146073</v>
       </c>
       <c r="E18">
-        <v>-85.222382</v>
+        <v>-85.25221500000001</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y18">
         <v>11</v>
@@ -1414,31 +1444,31 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>35.016521</v>
+        <v>35.146073</v>
       </c>
       <c r="E19">
-        <v>-85.092907</v>
+        <v>-85.25221500000001</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y19">
         <v>11</v>
@@ -1446,31 +1476,31 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>35.016521</v>
+        <v>34.994955</v>
       </c>
       <c r="E20">
-        <v>-85.092907</v>
+        <v>-85.268467</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y20">
         <v>11</v>
@@ -1478,31 +1508,31 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
         <v>52</v>
       </c>
       <c r="D21">
-        <v>35.050628</v>
+        <v>34.997998</v>
       </c>
       <c r="E21">
-        <v>-85.13141400000001</v>
+        <v>-85.245493</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y21">
         <v>11</v>
@@ -1510,31 +1540,31 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
       </c>
       <c r="D22">
-        <v>35.094708</v>
+        <v>34.997998</v>
       </c>
       <c r="E22">
-        <v>-85.30722</v>
+        <v>-85.245493</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y22">
         <v>11</v>
@@ -1542,31 +1572,31 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
       </c>
       <c r="D23">
-        <v>35.094708</v>
+        <v>35.129749</v>
       </c>
       <c r="E23">
-        <v>-85.30722</v>
+        <v>-85.317736</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y23">
         <v>11</v>
@@ -1574,31 +1604,31 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
       </c>
       <c r="D24">
-        <v>35.103133</v>
+        <v>35.060689</v>
       </c>
       <c r="E24">
-        <v>-85.331233</v>
+        <v>-85.13423899999999</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y24">
         <v>11</v>
@@ -1606,31 +1636,31 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>34.998772</v>
+        <v>34.9933</v>
       </c>
       <c r="E25">
-        <v>-85.209571</v>
+        <v>-85.399306</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y25">
         <v>11</v>
@@ -1638,31 +1668,31 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="1">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
         <v>52</v>
       </c>
       <c r="D26">
-        <v>35.039725</v>
+        <v>34.9933</v>
       </c>
       <c r="E26">
-        <v>-85.18526</v>
+        <v>-85.399306</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y26">
         <v>11</v>
@@ -1670,31 +1700,31 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
       </c>
       <c r="D27">
-        <v>34.995203</v>
+        <v>35.045143</v>
       </c>
       <c r="E27">
-        <v>-85.304958</v>
+        <v>-85.287233</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y27">
         <v>11</v>
@@ -1702,33 +1732,129 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="1">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
       </c>
       <c r="D28">
-        <v>34.995203</v>
+        <v>35.042179</v>
       </c>
       <c r="E28">
-        <v>-85.304958</v>
+        <v>-85.28935</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="1">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>35.042179</v>
+      </c>
+      <c r="E29">
+        <v>-85.28935</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="1">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>35.229566</v>
+      </c>
+      <c r="E30">
+        <v>-85.151321</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="1">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>35.11613</v>
+      </c>
+      <c r="E31">
+        <v>-85.30224800000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y31">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
   <si>
     <t>Accident</t>
   </si>
@@ -175,181 +175,127 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2018-11-06</t>
-  </si>
-  <si>
-    <t>22:35:04</t>
-  </si>
-  <si>
-    <t>22:34:28</t>
-  </si>
-  <si>
-    <t>18:12:33</t>
-  </si>
-  <si>
-    <t>18:11:59</t>
-  </si>
-  <si>
-    <t>16:06:51</t>
-  </si>
-  <si>
-    <t>16:06:21</t>
-  </si>
-  <si>
-    <t>15:51:11</t>
-  </si>
-  <si>
-    <t>15:34:13</t>
-  </si>
-  <si>
-    <t>14:06:49</t>
-  </si>
-  <si>
-    <t>13:13:59</t>
-  </si>
-  <si>
-    <t>13:12:32</t>
-  </si>
-  <si>
-    <t>11:36:06</t>
-  </si>
-  <si>
-    <t>11:08:29</t>
-  </si>
-  <si>
-    <t>11:07:52</t>
-  </si>
-  <si>
-    <t>10:47:05</t>
-  </si>
-  <si>
-    <t>10:46:43</t>
-  </si>
-  <si>
-    <t>10:46:34</t>
-  </si>
-  <si>
-    <t>10:36:51</t>
-  </si>
-  <si>
-    <t>10:32:22</t>
-  </si>
-  <si>
-    <t>10:31:46</t>
-  </si>
-  <si>
-    <t>08:55:52</t>
-  </si>
-  <si>
-    <t>08:35:03</t>
-  </si>
-  <si>
-    <t>08:04:36</t>
-  </si>
-  <si>
-    <t>07:24:25</t>
-  </si>
-  <si>
-    <t>07:18:11</t>
-  </si>
-  <si>
-    <t>07:17:02</t>
-  </si>
-  <si>
-    <t>06:27:57</t>
-  </si>
-  <si>
-    <t>03:00:34</t>
-  </si>
-  <si>
-    <t>1809 Dodson Ave</t>
-  </si>
-  <si>
-    <t>4700 Wesleyan Rd</t>
-  </si>
-  <si>
-    <t>1440 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>1330 - 1560 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>Woodland Dr / Bill Reed Rd</t>
-  </si>
-  <si>
-    <t>Shallowford Rd / N Moore Rd</t>
-  </si>
-  <si>
-    <t>2215 VANCE AVE</t>
-  </si>
-  <si>
-    <t>2128 Citico Ave</t>
-  </si>
-  <si>
-    <t>Friar Rd / Central Dr</t>
-  </si>
-  <si>
-    <t>300 CENTRAL DR</t>
-  </si>
-  <si>
-    <t>5579 Highway 153</t>
-  </si>
-  <si>
-    <t>5579 HIGHWAY 153</t>
-  </si>
-  <si>
-    <t>1318 S Seminole Dr</t>
-  </si>
-  <si>
-    <t>4131 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>4106 W RD</t>
-  </si>
-  <si>
-    <t>7499 BONNY OAKS DR</t>
-  </si>
-  <si>
-    <t>17180 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>420 O Neal St</t>
-  </si>
-  <si>
-    <t>1030 Oak St</t>
-  </si>
-  <si>
-    <t>9414 Dallas Hollow Rd</t>
-  </si>
-  <si>
-    <t>641 HIGHWAY 27 NB</t>
+    <t>2018-11-12</t>
+  </si>
+  <si>
+    <t>23:19:05</t>
+  </si>
+  <si>
+    <t>23:18:18</t>
+  </si>
+  <si>
+    <t>17:53:23</t>
+  </si>
+  <si>
+    <t>17:23:13</t>
+  </si>
+  <si>
+    <t>17:21:48</t>
+  </si>
+  <si>
+    <t>17:16:58</t>
+  </si>
+  <si>
+    <t>17:14:48</t>
+  </si>
+  <si>
+    <t>17:03:02</t>
+  </si>
+  <si>
+    <t>15:42:31</t>
+  </si>
+  <si>
+    <t>14:28:23</t>
+  </si>
+  <si>
+    <t>12:02:16</t>
+  </si>
+  <si>
+    <t>12:00:28</t>
+  </si>
+  <si>
+    <t>10:00:38</t>
+  </si>
+  <si>
+    <t>09:54:06</t>
+  </si>
+  <si>
+    <t>09:52:22</t>
+  </si>
+  <si>
+    <t>09:49:36</t>
+  </si>
+  <si>
+    <t>09:05:38</t>
+  </si>
+  <si>
+    <t>08:59:12</t>
+  </si>
+  <si>
+    <t>08:58:03</t>
+  </si>
+  <si>
+    <t>18100 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>420 - 479 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>3000-3099 Dodds Ave</t>
+  </si>
+  <si>
+    <t>100 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>Glass St / Campbell St</t>
+  </si>
+  <si>
+    <t>E 11th St / Peeples St</t>
+  </si>
+  <si>
+    <t>18260 INTERSTATE 24 WB</t>
+  </si>
+  <si>
+    <t>1157 Mountain Creek Rd</t>
+  </si>
+  <si>
+    <t>301-319 E Martin Luther King Blvd</t>
+  </si>
+  <si>
+    <t>801-899 Houston St</t>
+  </si>
+  <si>
+    <t>11600-12106 HIGHWAY 111 SB</t>
+  </si>
+  <si>
+    <t>12108-13098 Highway 111 Nb</t>
+  </si>
+  <si>
+    <t>12108-13099 HIGHWAY 111 NB</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>RED BANK</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>15</t>
@@ -358,25 +304,16 @@
     <t>14</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -734,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA31"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,16 +837,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.057199</v>
+        <v>35.016491</v>
       </c>
       <c r="E2">
-        <v>-85.258551</v>
+        <v>-85.28069000000001</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -918,13 +855,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -932,16 +869,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.057199</v>
+        <v>35.016491</v>
       </c>
       <c r="E3">
-        <v>-85.258551</v>
+        <v>-85.28069000000001</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -950,13 +887,13 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -964,16 +901,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.005983</v>
+        <v>35.027345</v>
       </c>
       <c r="E4">
-        <v>-84.97447699999999</v>
+        <v>-85.17252999999999</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -982,13 +919,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -996,16 +933,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.005983</v>
+        <v>35.006002</v>
       </c>
       <c r="E5">
-        <v>-84.97447699999999</v>
+        <v>-85.278818</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1014,13 +951,13 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -1028,16 +965,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.12014</v>
+        <v>35.006002</v>
       </c>
       <c r="E6">
-        <v>-85.044089</v>
+        <v>-85.278818</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -1046,13 +983,13 @@
         <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -1060,16 +997,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.12014</v>
+        <v>34.998664</v>
       </c>
       <c r="E7">
-        <v>-85.044089</v>
+        <v>-85.20989400000001</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1078,13 +1015,13 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -1092,16 +1029,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.105449</v>
+        <v>34.998664</v>
       </c>
       <c r="E8">
-        <v>-85.051768</v>
+        <v>-85.20989400000001</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1110,13 +1047,13 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1124,16 +1061,16 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>35.04496</v>
+        <v>34.998664</v>
       </c>
       <c r="E9">
-        <v>-85.09841</v>
+        <v>-85.20989400000001</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1142,13 +1079,13 @@
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1156,16 +1093,16 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.043284</v>
+        <v>35.067236</v>
       </c>
       <c r="E10">
-        <v>-85.219735</v>
+        <v>-85.243306</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1174,13 +1111,13 @@
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1188,16 +1125,16 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.029051</v>
+        <v>35.040031</v>
       </c>
       <c r="E11">
-        <v>-85.27175699999999</v>
+        <v>-85.299344</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1206,13 +1143,13 @@
         <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1220,16 +1157,16 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.029051</v>
+        <v>35.019555</v>
       </c>
       <c r="E12">
-        <v>-85.27175699999999</v>
+        <v>-85.258653</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
@@ -1238,13 +1175,13 @@
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="Y12">
         <v>11</v>
@@ -1252,16 +1189,16 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.043886</v>
+        <v>35.019555</v>
       </c>
       <c r="E13">
-        <v>-85.264904</v>
+        <v>-85.258653</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
@@ -1270,13 +1207,13 @@
         <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="Y13">
         <v>11</v>
@@ -1284,16 +1221,16 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14">
-        <v>35.019236</v>
+        <v>35.116996</v>
       </c>
       <c r="E14">
-        <v>-85.197239</v>
+        <v>-85.318253</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
@@ -1302,13 +1239,13 @@
         <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="Y14">
         <v>11</v>
@@ -1316,16 +1253,16 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35.019236</v>
+        <v>35.04473</v>
       </c>
       <c r="E15">
-        <v>-85.197239</v>
+        <v>-85.30549000000001</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
@@ -1334,13 +1271,13 @@
         <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="Y15">
         <v>11</v>
@@ -1348,16 +1285,16 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16">
-        <v>35.146073</v>
+        <v>35.04473</v>
       </c>
       <c r="E16">
-        <v>-85.25221500000001</v>
+        <v>-85.30549000000001</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
@@ -1366,13 +1303,13 @@
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="Y16">
         <v>11</v>
@@ -1380,16 +1317,16 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>35.146073</v>
+        <v>35.0448</v>
       </c>
       <c r="E17">
-        <v>-85.25221500000001</v>
+        <v>-85.30556</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
@@ -1398,13 +1335,13 @@
         <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="Y17">
         <v>11</v>
@@ -1412,31 +1349,31 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>35.146073</v>
+        <v>35.0448</v>
       </c>
       <c r="E18">
-        <v>-85.25221500000001</v>
+        <v>-85.30556</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="Y18">
         <v>11</v>
@@ -1444,16 +1381,16 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>35.146073</v>
+        <v>35.30606</v>
       </c>
       <c r="E19">
-        <v>-85.25221500000001</v>
+        <v>-85.16413</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -1462,13 +1399,13 @@
         <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="Y19">
         <v>11</v>
@@ -1476,16 +1413,16 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>34.994955</v>
+        <v>35.31551</v>
       </c>
       <c r="E20">
-        <v>-85.268467</v>
+        <v>-85.16149</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
@@ -1494,13 +1431,13 @@
         <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="Y20">
         <v>11</v>
@@ -1508,16 +1445,16 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21">
-        <v>34.997998</v>
+        <v>35.311505</v>
       </c>
       <c r="E21">
-        <v>-85.245493</v>
+        <v>-85.16298</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -1526,335 +1463,15 @@
         <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="Y21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="1">
-        <v>98</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22">
-        <v>34.997998</v>
-      </c>
-      <c r="E22">
-        <v>-85.245493</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22" t="s">
-        <v>107</v>
-      </c>
-      <c r="P22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="1">
-        <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23">
-        <v>35.129749</v>
-      </c>
-      <c r="E23">
-        <v>-85.317736</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" t="s">
-        <v>106</v>
-      </c>
-      <c r="P23" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="1">
-        <v>112</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24">
-        <v>35.060689</v>
-      </c>
-      <c r="E24">
-        <v>-85.13423899999999</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" t="s">
-        <v>105</v>
-      </c>
-      <c r="P24" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="1">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25">
-        <v>34.9933</v>
-      </c>
-      <c r="E25">
-        <v>-85.399306</v>
-      </c>
-      <c r="F25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" t="s">
-        <v>105</v>
-      </c>
-      <c r="P25" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="1">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26">
-        <v>34.9933</v>
-      </c>
-      <c r="E26">
-        <v>-85.399306</v>
-      </c>
-      <c r="F26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" t="s">
-        <v>105</v>
-      </c>
-      <c r="P26" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="1">
-        <v>128</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27">
-        <v>35.045143</v>
-      </c>
-      <c r="E27">
-        <v>-85.287233</v>
-      </c>
-      <c r="F27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="1">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28">
-        <v>35.042179</v>
-      </c>
-      <c r="E28">
-        <v>-85.28935</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" t="s">
-        <v>105</v>
-      </c>
-      <c r="P28" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="1">
-        <v>132</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29">
-        <v>35.042179</v>
-      </c>
-      <c r="E29">
-        <v>-85.28935</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" t="s">
-        <v>105</v>
-      </c>
-      <c r="P29" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="1">
-        <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30">
-        <v>35.229566</v>
-      </c>
-      <c r="E30">
-        <v>-85.151321</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" t="s">
-        <v>106</v>
-      </c>
-      <c r="P30" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="1">
-        <v>140</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31">
-        <v>35.11613</v>
-      </c>
-      <c r="E31">
-        <v>-85.30224800000001</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" t="s">
-        <v>104</v>
-      </c>
-      <c r="K31" t="s">
-        <v>108</v>
-      </c>
-      <c r="P31" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y31">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
   <si>
     <t>Accident</t>
   </si>
@@ -172,148 +172,160 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2018-11-12</t>
-  </si>
-  <si>
-    <t>23:19:05</t>
-  </si>
-  <si>
-    <t>23:18:18</t>
-  </si>
-  <si>
-    <t>17:53:23</t>
-  </si>
-  <si>
-    <t>17:23:13</t>
-  </si>
-  <si>
-    <t>17:21:48</t>
-  </si>
-  <si>
-    <t>17:16:58</t>
-  </si>
-  <si>
-    <t>17:14:48</t>
-  </si>
-  <si>
-    <t>17:03:02</t>
-  </si>
-  <si>
-    <t>15:42:31</t>
-  </si>
-  <si>
-    <t>14:28:23</t>
-  </si>
-  <si>
-    <t>12:02:16</t>
-  </si>
-  <si>
-    <t>12:00:28</t>
-  </si>
-  <si>
-    <t>10:00:38</t>
-  </si>
-  <si>
-    <t>09:54:06</t>
-  </si>
-  <si>
-    <t>09:52:22</t>
-  </si>
-  <si>
-    <t>09:49:36</t>
-  </si>
-  <si>
-    <t>09:05:38</t>
-  </si>
-  <si>
-    <t>08:59:12</t>
-  </si>
-  <si>
-    <t>08:58:03</t>
-  </si>
-  <si>
-    <t>18100 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>420 - 479 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>3000-3099 Dodds Ave</t>
-  </si>
-  <si>
-    <t>100 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>Glass St / Campbell St</t>
-  </si>
-  <si>
-    <t>E 11th St / Peeples St</t>
-  </si>
-  <si>
-    <t>18260 INTERSTATE 24 WB</t>
-  </si>
-  <si>
-    <t>1157 Mountain Creek Rd</t>
-  </si>
-  <si>
-    <t>301-319 E Martin Luther King Blvd</t>
-  </si>
-  <si>
-    <t>801-899 Houston St</t>
-  </si>
-  <si>
-    <t>11600-12106 HIGHWAY 111 SB</t>
-  </si>
-  <si>
-    <t>12108-13098 Highway 111 Nb</t>
-  </si>
-  <si>
-    <t>12108-13099 HIGHWAY 111 NB</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>2018-11-14</t>
+  </si>
+  <si>
+    <t>23:00:59</t>
+  </si>
+  <si>
+    <t>22:53:16</t>
+  </si>
+  <si>
+    <t>22:53:03</t>
+  </si>
+  <si>
+    <t>22:35:46</t>
+  </si>
+  <si>
+    <t>21:05:14</t>
+  </si>
+  <si>
+    <t>21:04:34</t>
+  </si>
+  <si>
+    <t>19:24:37</t>
+  </si>
+  <si>
+    <t>17:48:31</t>
+  </si>
+  <si>
+    <t>17:47:42</t>
+  </si>
+  <si>
+    <t>17:12:05</t>
+  </si>
+  <si>
+    <t>16:09:56</t>
+  </si>
+  <si>
+    <t>15:11:31</t>
+  </si>
+  <si>
+    <t>14:27:10</t>
+  </si>
+  <si>
+    <t>14:27:00</t>
+  </si>
+  <si>
+    <t>13:22:53</t>
+  </si>
+  <si>
+    <t>13:22:40</t>
+  </si>
+  <si>
+    <t>11:40:15</t>
+  </si>
+  <si>
+    <t>09:07:02</t>
+  </si>
+  <si>
+    <t>18300 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>2324 E 4th St</t>
+  </si>
+  <si>
+    <t>130 INTERSTATE 75 NB</t>
+  </si>
+  <si>
+    <t>2707 Cannon Ave</t>
+  </si>
+  <si>
+    <t>100 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>Bonny Oaks Dr / Highway 58</t>
+  </si>
+  <si>
+    <t>Highway 58 / Bonny Oaks Dr</t>
+  </si>
+  <si>
+    <t>1540 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>S Orchard Knob Ave / E 23rd St</t>
+  </si>
+  <si>
+    <t>1330 E 3rd St</t>
+  </si>
+  <si>
+    <t>BELVOIR AVE / S TERRACE</t>
+  </si>
+  <si>
+    <t>S TERRACE / BELVOIR AVE</t>
+  </si>
+  <si>
+    <t>300 N Hawthorne St</t>
+  </si>
+  <si>
+    <t>300 N HAWTHORNE ST</t>
+  </si>
+  <si>
+    <t>2720 GLASS ST</t>
+  </si>
+  <si>
+    <t>2500 Market St</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -671,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA21"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,16 +849,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.016491</v>
+        <v>35.015818</v>
       </c>
       <c r="E2">
-        <v>-85.28069000000001</v>
+        <v>-85.254192</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -855,13 +867,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -869,16 +881,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.016491</v>
+        <v>35.036773</v>
       </c>
       <c r="E3">
-        <v>-85.28069000000001</v>
+        <v>-85.26484600000001</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -890,10 +902,10 @@
         <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -901,16 +913,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.027345</v>
+        <v>35.036773</v>
       </c>
       <c r="E4">
-        <v>-85.17252999999999</v>
+        <v>-85.26484600000001</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -919,13 +931,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -933,16 +945,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>35.006002</v>
+        <v>35.002679</v>
       </c>
       <c r="E5">
-        <v>-85.278818</v>
+        <v>-85.21117</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -951,13 +963,13 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -965,16 +977,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.006002</v>
+        <v>35.019215</v>
       </c>
       <c r="E6">
-        <v>-85.278818</v>
+        <v>-85.29821200000001</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -986,10 +998,10 @@
         <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -997,16 +1009,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>34.998664</v>
+        <v>35.019215</v>
       </c>
       <c r="E7">
-        <v>-85.20989400000001</v>
+        <v>-85.29821200000001</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1015,13 +1027,13 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -1029,16 +1041,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>34.998664</v>
+        <v>34.996081</v>
       </c>
       <c r="E8">
-        <v>-85.20989400000001</v>
+        <v>-85.206737</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1049,11 +1061,8 @@
       <c r="H8" t="s">
         <v>78</v>
       </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1061,16 +1070,16 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>34.998664</v>
+        <v>35.081593</v>
       </c>
       <c r="E9">
-        <v>-85.20989400000001</v>
+        <v>-85.209734</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1079,13 +1088,13 @@
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1093,16 +1102,16 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.067236</v>
+        <v>35.081593</v>
       </c>
       <c r="E10">
-        <v>-85.243306</v>
+        <v>-85.209734</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1111,13 +1120,13 @@
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1125,31 +1134,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.040031</v>
+        <v>35.081593</v>
       </c>
       <c r="E11">
-        <v>-85.299344</v>
+        <v>-85.209734</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1157,31 +1166,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>35.019555</v>
+        <v>35.127027</v>
       </c>
       <c r="E12">
-        <v>-85.258653</v>
+        <v>-85.02931599999999</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y12">
         <v>11</v>
@@ -1189,31 +1198,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>35.019555</v>
+        <v>35.019438</v>
       </c>
       <c r="E13">
-        <v>-85.258653</v>
+        <v>-85.283738</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y13">
         <v>11</v>
@@ -1221,31 +1230,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>35.116996</v>
+        <v>35.043072</v>
       </c>
       <c r="E14">
-        <v>-85.318253</v>
+        <v>-85.279331</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y14">
         <v>11</v>
@@ -1253,31 +1262,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>35.04473</v>
+        <v>35.01068</v>
       </c>
       <c r="E15">
-        <v>-85.30549000000001</v>
+        <v>-85.24405899999999</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y15">
         <v>11</v>
@@ -1285,31 +1294,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16">
-        <v>35.04473</v>
+        <v>35.01068</v>
       </c>
       <c r="E16">
-        <v>-85.30549000000001</v>
+        <v>-85.24405899999999</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y16">
         <v>11</v>
@@ -1317,31 +1326,31 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>35.0448</v>
+        <v>35.039678</v>
       </c>
       <c r="E17">
-        <v>-85.30556</v>
+        <v>-85.27432</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Y17">
         <v>11</v>
@@ -1349,16 +1358,16 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>35.0448</v>
+        <v>35.039678</v>
       </c>
       <c r="E18">
-        <v>-85.30556</v>
+        <v>-85.27432</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
@@ -1367,13 +1376,13 @@
         <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Y18">
         <v>11</v>
@@ -1381,16 +1390,16 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
       <c r="D19">
-        <v>35.30606</v>
+        <v>35.066856</v>
       </c>
       <c r="E19">
-        <v>-85.16413</v>
+        <v>-85.244523</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -1399,13 +1408,13 @@
         <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y19">
         <v>11</v>
@@ -1413,16 +1422,16 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>35.31551</v>
+        <v>35.026626</v>
       </c>
       <c r="E20">
-        <v>-85.16149</v>
+        <v>-85.31018899999999</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
@@ -1431,47 +1440,12 @@
         <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Y20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="1">
-        <v>125</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21">
-        <v>35.311505</v>
-      </c>
-      <c r="E21">
-        <v>-85.16298</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y21">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
     <t>Accident</t>
   </si>
@@ -172,121 +172,67 @@
     <t>Pavement_Type</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2018-11-14</t>
-  </si>
-  <si>
-    <t>23:00:59</t>
-  </si>
-  <si>
-    <t>22:53:16</t>
-  </si>
-  <si>
-    <t>22:53:03</t>
-  </si>
-  <si>
-    <t>22:35:46</t>
-  </si>
-  <si>
-    <t>21:05:14</t>
-  </si>
-  <si>
-    <t>21:04:34</t>
-  </si>
-  <si>
-    <t>19:24:37</t>
-  </si>
-  <si>
-    <t>17:48:31</t>
-  </si>
-  <si>
-    <t>17:47:42</t>
-  </si>
-  <si>
-    <t>17:12:05</t>
-  </si>
-  <si>
-    <t>16:09:56</t>
-  </si>
-  <si>
-    <t>15:11:31</t>
-  </si>
-  <si>
-    <t>14:27:10</t>
-  </si>
-  <si>
-    <t>14:27:00</t>
-  </si>
-  <si>
-    <t>13:22:53</t>
-  </si>
-  <si>
-    <t>13:22:40</t>
-  </si>
-  <si>
-    <t>11:40:15</t>
-  </si>
-  <si>
-    <t>09:07:02</t>
-  </si>
-  <si>
-    <t>18300 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>2324 E 4th St</t>
-  </si>
-  <si>
-    <t>130 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>2707 Cannon Ave</t>
-  </si>
-  <si>
-    <t>100 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>Bonny Oaks Dr / Highway 58</t>
-  </si>
-  <si>
-    <t>Highway 58 / Bonny Oaks Dr</t>
-  </si>
-  <si>
-    <t>1540 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>S Orchard Knob Ave / E 23rd St</t>
-  </si>
-  <si>
-    <t>1330 E 3rd St</t>
-  </si>
-  <si>
-    <t>BELVOIR AVE / S TERRACE</t>
-  </si>
-  <si>
-    <t>S TERRACE / BELVOIR AVE</t>
-  </si>
-  <si>
-    <t>300 N Hawthorne St</t>
-  </si>
-  <si>
-    <t>300 N HAWTHORNE ST</t>
-  </si>
-  <si>
-    <t>2720 GLASS ST</t>
-  </si>
-  <si>
-    <t>2500 Market St</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2018-11-15</t>
+  </si>
+  <si>
+    <t>23:40:03</t>
+  </si>
+  <si>
+    <t>23:38:54</t>
+  </si>
+  <si>
+    <t>19:10:07</t>
+  </si>
+  <si>
+    <t>17:07:04</t>
+  </si>
+  <si>
+    <t>13:17:34</t>
+  </si>
+  <si>
+    <t>13:17:18</t>
+  </si>
+  <si>
+    <t>09:17:58</t>
+  </si>
+  <si>
+    <t>09:07:13</t>
+  </si>
+  <si>
+    <t>09:06:49</t>
+  </si>
+  <si>
+    <t>07:55:38</t>
+  </si>
+  <si>
+    <t>700 Cherry St</t>
+  </si>
+  <si>
+    <t>2300 - 2399 Bailey Ave</t>
+  </si>
+  <si>
+    <t>1408 Palisades Rd</t>
+  </si>
+  <si>
+    <t>N Orchard Knob Ave / E 3rd St</t>
+  </si>
+  <si>
+    <t>1900 - 1999 E 3rd St</t>
+  </si>
+  <si>
+    <t>7540 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>1928 Poe Rd</t>
+  </si>
+  <si>
+    <t>17600 Interstate 24 Eb</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -298,34 +244,19 @@
     <t>23</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -683,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA20"/>
+  <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -849,31 +780,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.015818</v>
+        <v>35.048404</v>
       </c>
       <c r="E2">
-        <v>-85.254192</v>
+        <v>-85.30847799999999</v>
       </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -881,31 +812,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>35.036773</v>
+        <v>35.048404</v>
       </c>
       <c r="E3">
-        <v>-85.26484600000001</v>
+        <v>-85.30847799999999</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
         <v>75</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" t="s">
-        <v>94</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -913,31 +844,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.036773</v>
+        <v>35.031245</v>
       </c>
       <c r="E4">
-        <v>-85.26484600000001</v>
+        <v>-85.27019900000001</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -945,31 +876,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.002679</v>
+        <v>35.106241</v>
       </c>
       <c r="E5">
-        <v>-85.21117</v>
+        <v>-85.348403</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -977,31 +908,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>35.019215</v>
+        <v>35.040879</v>
       </c>
       <c r="E6">
-        <v>-85.29821200000001</v>
+        <v>-85.27199</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -1009,31 +940,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.019215</v>
+        <v>35.040879</v>
       </c>
       <c r="E7">
-        <v>-85.29821200000001</v>
+        <v>-85.27199</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -1041,28 +972,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>34.996081</v>
+        <v>35.040879</v>
       </c>
       <c r="E8">
-        <v>-85.206737</v>
+        <v>-85.27199</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s">
         <v>78</v>
-      </c>
-      <c r="P8" t="s">
-        <v>96</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1070,31 +1004,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.081593</v>
+        <v>35.013349</v>
       </c>
       <c r="E9">
-        <v>-85.209734</v>
+        <v>-85.160357</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s">
         <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" t="s">
-        <v>97</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1102,31 +1036,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.081593</v>
+        <v>35.267124</v>
       </c>
       <c r="E10">
-        <v>-85.209734</v>
+        <v>-85.23824500000001</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1134,31 +1068,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.081593</v>
+        <v>35.267124</v>
       </c>
       <c r="E11">
-        <v>-85.209734</v>
+        <v>-85.23824500000001</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1166,286 +1100,33 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.127027</v>
+        <v>35.028387</v>
       </c>
       <c r="E12">
-        <v>-85.02931599999999</v>
+        <v>-85.350032</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="Y12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>35.019438</v>
-      </c>
-      <c r="E13">
-        <v>-85.283738</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14">
-        <v>35.043072</v>
-      </c>
-      <c r="E14">
-        <v>-85.279331</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15">
-        <v>35.01068</v>
-      </c>
-      <c r="E15">
-        <v>-85.24405899999999</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" t="s">
-        <v>91</v>
-      </c>
-      <c r="P15" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>35.01068</v>
-      </c>
-      <c r="E16">
-        <v>-85.24405899999999</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>35.039678</v>
-      </c>
-      <c r="E17">
-        <v>-85.27432</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>35.039678</v>
-      </c>
-      <c r="E18">
-        <v>-85.27432</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P18" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>35.066856</v>
-      </c>
-      <c r="E19">
-        <v>-85.244523</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>128</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20">
-        <v>35.026626</v>
-      </c>
-      <c r="E20">
-        <v>-85.31018899999999</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y20">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>Accident</t>
   </si>
@@ -175,88 +175,46 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2018-11-15</t>
-  </si>
-  <si>
-    <t>23:40:03</t>
-  </si>
-  <si>
-    <t>23:38:54</t>
-  </si>
-  <si>
-    <t>19:10:07</t>
-  </si>
-  <si>
-    <t>17:07:04</t>
-  </si>
-  <si>
-    <t>13:17:34</t>
-  </si>
-  <si>
-    <t>13:17:18</t>
-  </si>
-  <si>
-    <t>09:17:58</t>
-  </si>
-  <si>
-    <t>09:07:13</t>
-  </si>
-  <si>
-    <t>09:06:49</t>
-  </si>
-  <si>
-    <t>07:55:38</t>
-  </si>
-  <si>
-    <t>700 Cherry St</t>
-  </si>
-  <si>
-    <t>2300 - 2399 Bailey Ave</t>
-  </si>
-  <si>
-    <t>1408 Palisades Rd</t>
-  </si>
-  <si>
-    <t>N Orchard Knob Ave / E 3rd St</t>
-  </si>
-  <si>
-    <t>1900 - 1999 E 3rd St</t>
-  </si>
-  <si>
-    <t>7540 E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>1928 Poe Rd</t>
-  </si>
-  <si>
-    <t>17600 Interstate 24 Eb</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>2018-11-18</t>
+  </si>
+  <si>
+    <t>22:12:10</t>
+  </si>
+  <si>
+    <t>22:11:56</t>
+  </si>
+  <si>
+    <t>17:03:40</t>
+  </si>
+  <si>
+    <t>02:46:16</t>
+  </si>
+  <si>
+    <t>2700 Broad St</t>
+  </si>
+  <si>
+    <t>Ringgold Rd / St Thomas St</t>
+  </si>
+  <si>
+    <t>18100 Interstate 24 Eb</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -614,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -780,16 +738,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.048404</v>
+        <v>35.025278</v>
       </c>
       <c r="E2">
-        <v>-85.30847799999999</v>
+        <v>-85.317391</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -798,13 +756,13 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -812,16 +770,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.048404</v>
+        <v>35.025278</v>
       </c>
       <c r="E3">
-        <v>-85.30847799999999</v>
+        <v>-85.317391</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -830,13 +788,13 @@
         <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -844,16 +802,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.031245</v>
+        <v>34.990003</v>
       </c>
       <c r="E4">
-        <v>-85.27019900000001</v>
+        <v>-85.199397</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -862,13 +820,13 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -876,16 +834,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.106241</v>
+        <v>35.016491</v>
       </c>
       <c r="E5">
-        <v>-85.348403</v>
+        <v>-85.28069000000001</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -894,239 +852,15 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Y5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53">
-      <c r="A6" s="1">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6">
-        <v>35.040879</v>
-      </c>
-      <c r="E6">
-        <v>-85.27199</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
-      <c r="A7" s="1">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7">
-        <v>35.040879</v>
-      </c>
-      <c r="E7">
-        <v>-85.27199</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
-      <c r="A8" s="1">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>35.040879</v>
-      </c>
-      <c r="E8">
-        <v>-85.27199</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
-      <c r="A9" s="1">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>35.013349</v>
-      </c>
-      <c r="E9">
-        <v>-85.160357</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="1">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>35.267124</v>
-      </c>
-      <c r="E10">
-        <v>-85.23824500000001</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>35.267124</v>
-      </c>
-      <c r="E11">
-        <v>-85.23824500000001</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>35.028387</v>
-      </c>
-      <c r="E12">
-        <v>-85.350032</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y12">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>Accident</t>
   </si>
@@ -175,46 +175,133 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2018-11-18</t>
-  </si>
-  <si>
-    <t>22:12:10</t>
-  </si>
-  <si>
-    <t>22:11:56</t>
-  </si>
-  <si>
-    <t>17:03:40</t>
-  </si>
-  <si>
-    <t>02:46:16</t>
-  </si>
-  <si>
-    <t>2700 Broad St</t>
-  </si>
-  <si>
-    <t>Ringgold Rd / St Thomas St</t>
-  </si>
-  <si>
-    <t>18100 Interstate 24 Eb</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>2018-11-19</t>
+  </si>
+  <si>
+    <t>19:36:24</t>
+  </si>
+  <si>
+    <t>18:19:25</t>
+  </si>
+  <si>
+    <t>18:05:06</t>
+  </si>
+  <si>
+    <t>17:49:33</t>
+  </si>
+  <si>
+    <t>17:49:07</t>
+  </si>
+  <si>
+    <t>17:49:06</t>
+  </si>
+  <si>
+    <t>17:12:54</t>
+  </si>
+  <si>
+    <t>16:01:29</t>
+  </si>
+  <si>
+    <t>16:00:43</t>
+  </si>
+  <si>
+    <t>08:09:06</t>
+  </si>
+  <si>
+    <t>07:24:55</t>
+  </si>
+  <si>
+    <t>06:45:03</t>
+  </si>
+  <si>
+    <t>05:22:55</t>
+  </si>
+  <si>
+    <t>04:18:23</t>
+  </si>
+  <si>
+    <t>04:17:00</t>
+  </si>
+  <si>
+    <t>03:49:18</t>
+  </si>
+  <si>
+    <t>2126 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>Lee Hwy / Weir Way</t>
+  </si>
+  <si>
+    <t>Gunbarrel Rd / E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>301-329 S Moore Rd</t>
+  </si>
+  <si>
+    <t>101 Glenwood Dr</t>
+  </si>
+  <si>
+    <t>6000 Dayton Blvd</t>
+  </si>
+  <si>
+    <t>340-799 MONTLAKE RD</t>
+  </si>
+  <si>
+    <t>Bonny Oaks Dr / Hickory Valley Rd</t>
+  </si>
+  <si>
+    <t>Wilder St / N Hickory St</t>
+  </si>
+  <si>
+    <t>3507 Dayton Blvd</t>
+  </si>
+  <si>
+    <t>729 E 49th St</t>
+  </si>
+  <si>
+    <t>5027 Shoals Ln</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>RED BANK</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>2</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -572,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,10 +831,10 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.025278</v>
+        <v>35.035569</v>
       </c>
       <c r="E2">
-        <v>-85.317391</v>
+        <v>-85.152028</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -756,13 +843,13 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -770,16 +857,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.025278</v>
+        <v>35.084984</v>
       </c>
       <c r="E3">
-        <v>-85.317391</v>
+        <v>-85.064733</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -788,13 +875,13 @@
         <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -805,28 +892,28 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>34.990003</v>
+        <v>35.084984</v>
       </c>
       <c r="E4">
-        <v>-85.199397</v>
+        <v>-85.064733</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -834,33 +921,513 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.016491</v>
+        <v>35.015214</v>
       </c>
       <c r="E5">
-        <v>-85.28069000000001</v>
+        <v>-85.16369899999999</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
       </c>
       <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>35.007795</v>
+      </c>
+      <c r="E6">
+        <v>-85.2311</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" s="1">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>35.007795</v>
+      </c>
+      <c r="E7">
+        <v>-85.2311</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="1">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>35.007795</v>
+      </c>
+      <c r="E8">
+        <v>-85.2311</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>35.007795</v>
+      </c>
+      <c r="E9">
+        <v>-85.2311</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="1">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>35.007795</v>
+      </c>
+      <c r="E10">
+        <v>-85.2311</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>35.032474</v>
+      </c>
+      <c r="E11">
+        <v>-85.263942</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="K5" t="s">
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="1">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>35.166365</v>
+      </c>
+      <c r="E12">
+        <v>-85.260385</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="P5" t="s">
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>35.166365</v>
+      </c>
+      <c r="E13">
+        <v>-85.260385</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>35.235301</v>
+      </c>
+      <c r="E14">
+        <v>-85.22711200000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>35.071531</v>
+      </c>
+      <c r="E15">
+        <v>-85.156379</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>35.075148</v>
+      </c>
+      <c r="E16">
+        <v>-85.255576</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
         <v>66</v>
       </c>
-      <c r="Y5">
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>35.113754</v>
+      </c>
+      <c r="E17">
+        <v>-85.295055</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>34.992135</v>
+      </c>
+      <c r="E18">
+        <v>-85.30683399999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>34.992135</v>
+      </c>
+      <c r="E19">
+        <v>-85.30683399999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>35.133212</v>
+      </c>
+      <c r="E20">
+        <v>-85.149918</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y20">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
   <si>
     <t>Accident</t>
   </si>
@@ -175,103 +175,85 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2018-11-19</t>
-  </si>
-  <si>
-    <t>19:36:24</t>
-  </si>
-  <si>
-    <t>18:19:25</t>
-  </si>
-  <si>
-    <t>18:05:06</t>
-  </si>
-  <si>
-    <t>17:49:33</t>
-  </si>
-  <si>
-    <t>17:49:07</t>
-  </si>
-  <si>
-    <t>17:49:06</t>
-  </si>
-  <si>
-    <t>17:12:54</t>
-  </si>
-  <si>
-    <t>16:01:29</t>
-  </si>
-  <si>
-    <t>16:00:43</t>
-  </si>
-  <si>
-    <t>08:09:06</t>
-  </si>
-  <si>
-    <t>07:24:55</t>
-  </si>
-  <si>
-    <t>06:45:03</t>
-  </si>
-  <si>
-    <t>05:22:55</t>
-  </si>
-  <si>
-    <t>04:18:23</t>
-  </si>
-  <si>
-    <t>04:17:00</t>
-  </si>
-  <si>
-    <t>03:49:18</t>
-  </si>
-  <si>
-    <t>2126 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>Lee Hwy / Weir Way</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2018-11-25</t>
+  </si>
+  <si>
+    <t>23:01:37</t>
+  </si>
+  <si>
+    <t>23:01:30</t>
+  </si>
+  <si>
+    <t>19:03:03</t>
+  </si>
+  <si>
+    <t>18:59:03</t>
+  </si>
+  <si>
+    <t>18:50:34</t>
+  </si>
+  <si>
+    <t>18:48:04</t>
+  </si>
+  <si>
+    <t>18:16:15</t>
+  </si>
+  <si>
+    <t>18:16:14</t>
+  </si>
+  <si>
+    <t>18:01:39</t>
+  </si>
+  <si>
+    <t>13:59:49</t>
+  </si>
+  <si>
+    <t>08:57:30</t>
+  </si>
+  <si>
+    <t>120 - 159 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>121-159 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>660-719 Highway 27 Sb</t>
+  </si>
+  <si>
+    <t>17580 INTERSTATE 24 WB</t>
+  </si>
+  <si>
+    <t>Dodds Ave / E 26th St</t>
+  </si>
+  <si>
+    <t>E 23rd St / Polk St</t>
+  </si>
+  <si>
+    <t>5900-5999 Mountain View Rd</t>
   </si>
   <si>
     <t>Gunbarrel Rd / E Brainerd Rd</t>
   </si>
   <si>
-    <t>301-329 S Moore Rd</t>
-  </si>
-  <si>
-    <t>101 Glenwood Dr</t>
-  </si>
-  <si>
-    <t>6000 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>340-799 MONTLAKE RD</t>
-  </si>
-  <si>
-    <t>Bonny Oaks Dr / Hickory Valley Rd</t>
-  </si>
-  <si>
-    <t>Wilder St / N Hickory St</t>
-  </si>
-  <si>
-    <t>3507 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>729 E 49th St</t>
-  </si>
-  <si>
-    <t>5027 Shoals Ln</t>
+    <t>4300 Norcross Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>RED BANK</t>
+  </si>
+  <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>RED BANK</t>
+    <t>23</t>
   </si>
   <si>
     <t>19</t>
@@ -280,28 +262,10 @@
     <t>18</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>13</t>
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -659,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA20"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,31 +789,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.035569</v>
+        <v>35.001154</v>
       </c>
       <c r="E2">
-        <v>-85.152028</v>
+        <v>-85.21160399999999</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -857,31 +821,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.084984</v>
+        <v>35.00412</v>
       </c>
       <c r="E3">
-        <v>-85.064733</v>
+        <v>-85.21173</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -889,31 +853,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.084984</v>
+        <v>35.001154</v>
       </c>
       <c r="E4">
-        <v>-85.064733</v>
+        <v>-85.21160399999999</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -921,31 +885,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.015214</v>
+        <v>35.124937</v>
       </c>
       <c r="E5">
-        <v>-85.16369899999999</v>
+        <v>-85.295295</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -953,31 +917,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.007795</v>
+        <v>35.029031</v>
       </c>
       <c r="E6">
-        <v>-85.2311</v>
+        <v>-85.35209999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -985,31 +949,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>35.007795</v>
+        <v>35.010832</v>
       </c>
       <c r="E7">
-        <v>-85.2311</v>
+        <v>-85.27626600000001</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -1017,31 +981,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>35.007795</v>
+        <v>35.010832</v>
       </c>
       <c r="E8">
-        <v>-85.2311</v>
+        <v>-85.27626600000001</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1049,31 +1013,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.007795</v>
+        <v>35.02411</v>
       </c>
       <c r="E9">
-        <v>-85.2311</v>
+        <v>-85.296701</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1081,31 +1045,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.007795</v>
+        <v>35.02411</v>
       </c>
       <c r="E10">
-        <v>-85.2311</v>
+        <v>-85.296701</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1113,31 +1077,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.032474</v>
+        <v>35.088219</v>
       </c>
       <c r="E11">
-        <v>-85.263942</v>
+        <v>-85.069141</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1145,31 +1109,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.166365</v>
+        <v>35.015214</v>
       </c>
       <c r="E12">
-        <v>-85.260385</v>
+        <v>-85.16369899999999</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
         <v>76</v>
       </c>
-      <c r="K12" t="s">
-        <v>83</v>
-      </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Y12">
         <v>11</v>
@@ -1177,257 +1141,33 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.166365</v>
+        <v>35.121483</v>
       </c>
       <c r="E13">
-        <v>-85.260385</v>
+        <v>-85.257706</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
         <v>76</v>
       </c>
-      <c r="K13" t="s">
+      <c r="P13" t="s">
         <v>83</v>
       </c>
-      <c r="P13" t="s">
-        <v>89</v>
-      </c>
       <c r="Y13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>35.235301</v>
-      </c>
-      <c r="E14">
-        <v>-85.22711200000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>35.071531</v>
-      </c>
-      <c r="E15">
-        <v>-85.156379</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>111</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16">
-        <v>35.075148</v>
-      </c>
-      <c r="E16">
-        <v>-85.255576</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>114</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>35.113754</v>
-      </c>
-      <c r="E17">
-        <v>-85.295055</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>34.992135</v>
-      </c>
-      <c r="E18">
-        <v>-85.30683399999999</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>118</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>34.992135</v>
-      </c>
-      <c r="E19">
-        <v>-85.30683399999999</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>120</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20">
-        <v>35.133212</v>
-      </c>
-      <c r="E20">
-        <v>-85.149918</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y20">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>Accident</t>
   </si>
@@ -175,97 +175,82 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2018-11-25</t>
-  </si>
-  <si>
-    <t>23:01:37</t>
-  </si>
-  <si>
-    <t>23:01:30</t>
-  </si>
-  <si>
-    <t>19:03:03</t>
-  </si>
-  <si>
-    <t>18:59:03</t>
-  </si>
-  <si>
-    <t>18:50:34</t>
-  </si>
-  <si>
-    <t>18:48:04</t>
-  </si>
-  <si>
-    <t>18:16:15</t>
-  </si>
-  <si>
-    <t>18:16:14</t>
-  </si>
-  <si>
-    <t>18:01:39</t>
-  </si>
-  <si>
-    <t>13:59:49</t>
-  </si>
-  <si>
-    <t>08:57:30</t>
-  </si>
-  <si>
-    <t>120 - 159 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>121-159 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>660-719 Highway 27 Sb</t>
-  </si>
-  <si>
-    <t>17580 INTERSTATE 24 WB</t>
-  </si>
-  <si>
-    <t>Dodds Ave / E 26th St</t>
-  </si>
-  <si>
-    <t>E 23rd St / Polk St</t>
-  </si>
-  <si>
-    <t>5900-5999 Mountain View Rd</t>
-  </si>
-  <si>
-    <t>Gunbarrel Rd / E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>4300 Norcross Rd</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>2018-11-26</t>
+  </si>
+  <si>
+    <t>21:29:37</t>
+  </si>
+  <si>
+    <t>17:16:02</t>
+  </si>
+  <si>
+    <t>17:15:52</t>
+  </si>
+  <si>
+    <t>16:56:50</t>
+  </si>
+  <si>
+    <t>16:39:30</t>
+  </si>
+  <si>
+    <t>16:38:25</t>
+  </si>
+  <si>
+    <t>16:21:36</t>
+  </si>
+  <si>
+    <t>07:26:33</t>
+  </si>
+  <si>
+    <t>00:08:13</t>
+  </si>
+  <si>
+    <t>10731-10759 Hixson Pike</t>
+  </si>
+  <si>
+    <t>Mountain Creek Rd / Signal Mountain Rd</t>
+  </si>
+  <si>
+    <t>Main St / Ocoee St</t>
+  </si>
+  <si>
+    <t>Glenwood Dr / Oak St</t>
+  </si>
+  <si>
+    <t>100 W 20th St</t>
+  </si>
+  <si>
+    <t>200 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>1715 JENKINS RD</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>RED BANK</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>COLLEGEDALE</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -623,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,31 +774,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.001154</v>
+        <v>35.244997</v>
       </c>
       <c r="E2">
-        <v>-85.21160399999999</v>
+        <v>-85.10848799999999</v>
       </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -821,31 +806,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.00412</v>
+        <v>35.244997</v>
       </c>
       <c r="E3">
-        <v>-85.21173</v>
+        <v>-85.10848799999999</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -853,31 +838,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.001154</v>
+        <v>35.098369</v>
       </c>
       <c r="E4">
-        <v>-85.21160399999999</v>
+        <v>-85.327973</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -885,31 +870,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.124937</v>
+        <v>35.098369</v>
       </c>
       <c r="E5">
-        <v>-85.295295</v>
+        <v>-85.327973</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -917,31 +902,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.029031</v>
+        <v>35.075019</v>
       </c>
       <c r="E6">
-        <v>-85.35209999999999</v>
+        <v>-85.061744</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s">
         <v>76</v>
-      </c>
-      <c r="P6" t="s">
-        <v>81</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -949,31 +934,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>35.032718</v>
+      </c>
+      <c r="E7">
+        <v>-85.263344</v>
+      </c>
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="D7">
-        <v>35.010832</v>
-      </c>
-      <c r="E7">
-        <v>-85.27626600000001</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s">
         <v>76</v>
-      </c>
-      <c r="P7" t="s">
-        <v>81</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -981,31 +966,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>35.032718</v>
+      </c>
+      <c r="E8">
+        <v>-85.263344</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="D8">
-        <v>35.010832</v>
-      </c>
-      <c r="E8">
-        <v>-85.27626600000001</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s">
         <v>76</v>
-      </c>
-      <c r="P8" t="s">
-        <v>81</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1013,31 +998,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.02411</v>
+        <v>35.032049</v>
       </c>
       <c r="E9">
-        <v>-85.296701</v>
+        <v>-85.311255</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
         <v>72</v>
       </c>
-      <c r="K9" t="s">
+      <c r="P9" t="s">
         <v>76</v>
-      </c>
-      <c r="P9" t="s">
-        <v>81</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1045,31 +1030,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.02411</v>
+        <v>35.008246</v>
       </c>
       <c r="E10">
-        <v>-85.296701</v>
+        <v>-85.20027399999999</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
         <v>72</v>
       </c>
-      <c r="K10" t="s">
-        <v>76</v>
-      </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1077,31 +1062,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.088219</v>
+        <v>35.008246</v>
       </c>
       <c r="E11">
-        <v>-85.069141</v>
+        <v>-85.20027399999999</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1109,65 +1094,33 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.015214</v>
+        <v>35.015821</v>
       </c>
       <c r="E12">
-        <v>-85.16369899999999</v>
+        <v>-85.144578</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>35.121483</v>
-      </c>
-      <c r="E13">
-        <v>-85.257706</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y13">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>Accident</t>
   </si>
@@ -178,55 +178,67 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2018-11-26</t>
-  </si>
-  <si>
-    <t>21:29:37</t>
-  </si>
-  <si>
-    <t>17:16:02</t>
-  </si>
-  <si>
-    <t>17:15:52</t>
-  </si>
-  <si>
-    <t>16:56:50</t>
-  </si>
-  <si>
-    <t>16:39:30</t>
-  </si>
-  <si>
-    <t>16:38:25</t>
-  </si>
-  <si>
-    <t>16:21:36</t>
-  </si>
-  <si>
-    <t>07:26:33</t>
-  </si>
-  <si>
-    <t>00:08:13</t>
-  </si>
-  <si>
-    <t>10731-10759 Hixson Pike</t>
-  </si>
-  <si>
-    <t>Mountain Creek Rd / Signal Mountain Rd</t>
-  </si>
-  <si>
-    <t>Main St / Ocoee St</t>
-  </si>
-  <si>
-    <t>Glenwood Dr / Oak St</t>
-  </si>
-  <si>
-    <t>100 W 20th St</t>
-  </si>
-  <si>
-    <t>200 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>1715 JENKINS RD</t>
+    <t>2018-11-27</t>
+  </si>
+  <si>
+    <t>22:00:22</t>
+  </si>
+  <si>
+    <t>18:11:30</t>
+  </si>
+  <si>
+    <t>18:11:00</t>
+  </si>
+  <si>
+    <t>16:08:39</t>
+  </si>
+  <si>
+    <t>13:46:52</t>
+  </si>
+  <si>
+    <t>12:53:41</t>
+  </si>
+  <si>
+    <t>12:53:30</t>
+  </si>
+  <si>
+    <t>12:52:37</t>
+  </si>
+  <si>
+    <t>09:12:36</t>
+  </si>
+  <si>
+    <t>08:57:54</t>
+  </si>
+  <si>
+    <t>07:00:54</t>
+  </si>
+  <si>
+    <t>2100 Suck Creek Rd</t>
+  </si>
+  <si>
+    <t>300-309 E Main St</t>
+  </si>
+  <si>
+    <t>3500 - 3799 Amnicola Hwy</t>
+  </si>
+  <si>
+    <t>300 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>2905 E 38th St</t>
+  </si>
+  <si>
+    <t>2900 E 38th St</t>
+  </si>
+  <si>
+    <t>1387 Wisdom St</t>
+  </si>
+  <si>
+    <t>810-899 Palmetto St</t>
+  </si>
+  <si>
+    <t>1900 - 1999 Wilcox Blvd</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
@@ -235,22 +247,28 @@
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>COLLEGEDALE</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -608,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -780,10 +798,10 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.244997</v>
+        <v>35.113207</v>
       </c>
       <c r="E2">
-        <v>-85.10848799999999</v>
+        <v>-85.369349</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -792,13 +810,13 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -806,16 +824,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.244997</v>
+        <v>35.113207</v>
       </c>
       <c r="E3">
-        <v>-85.10848799999999</v>
+        <v>-85.369349</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -824,13 +842,13 @@
         <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -838,16 +856,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.098369</v>
+        <v>35.034872</v>
       </c>
       <c r="E4">
-        <v>-85.327973</v>
+        <v>-85.304002</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -856,13 +874,13 @@
         <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -870,16 +888,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.098369</v>
+        <v>35.034872</v>
       </c>
       <c r="E5">
-        <v>-85.327973</v>
+        <v>-85.304002</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -888,13 +906,13 @@
         <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -902,16 +920,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>35.075019</v>
+        <v>35.083787</v>
       </c>
       <c r="E6">
-        <v>-85.061744</v>
+        <v>-85.262783</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -920,13 +938,13 @@
         <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -934,16 +952,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.032718</v>
+        <v>35.01246</v>
       </c>
       <c r="E7">
-        <v>-85.263344</v>
+        <v>-85.184679</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -952,13 +970,13 @@
         <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -966,16 +984,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.032718</v>
+        <v>34.997782</v>
       </c>
       <c r="E8">
-        <v>-85.263344</v>
+        <v>-85.28114100000001</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -984,13 +1002,13 @@
         <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -998,16 +1016,16 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.032049</v>
+        <v>34.9978</v>
       </c>
       <c r="E9">
-        <v>-85.311255</v>
+        <v>-85.28168100000001</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -1016,13 +1034,13 @@
         <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1030,16 +1048,16 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.008246</v>
+        <v>34.9978</v>
       </c>
       <c r="E10">
-        <v>-85.20027399999999</v>
+        <v>-85.28168100000001</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1048,13 +1066,13 @@
         <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1062,31 +1080,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.008246</v>
+        <v>35.07924</v>
       </c>
       <c r="E11">
-        <v>-85.20027399999999</v>
+        <v>-85.257895</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1094,33 +1112,65 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.015821</v>
+        <v>35.041919</v>
       </c>
       <c r="E12">
-        <v>-85.144578</v>
+        <v>-85.297416</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>35.053804</v>
+      </c>
+      <c r="E13">
+        <v>-85.263983</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y13">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Accident</t>
   </si>
@@ -175,94 +175,124 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2018-11-27</t>
-  </si>
-  <si>
-    <t>22:00:22</t>
-  </si>
-  <si>
-    <t>18:11:30</t>
-  </si>
-  <si>
-    <t>18:11:00</t>
-  </si>
-  <si>
-    <t>16:08:39</t>
-  </si>
-  <si>
-    <t>13:46:52</t>
-  </si>
-  <si>
-    <t>12:53:41</t>
-  </si>
-  <si>
-    <t>12:53:30</t>
-  </si>
-  <si>
-    <t>12:52:37</t>
-  </si>
-  <si>
-    <t>09:12:36</t>
-  </si>
-  <si>
-    <t>08:57:54</t>
-  </si>
-  <si>
-    <t>07:00:54</t>
-  </si>
-  <si>
-    <t>2100 Suck Creek Rd</t>
-  </si>
-  <si>
-    <t>300-309 E Main St</t>
-  </si>
-  <si>
-    <t>3500 - 3799 Amnicola Hwy</t>
-  </si>
-  <si>
-    <t>300 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>2905 E 38th St</t>
-  </si>
-  <si>
-    <t>2900 E 38th St</t>
-  </si>
-  <si>
-    <t>1387 Wisdom St</t>
-  </si>
-  <si>
-    <t>810-899 Palmetto St</t>
-  </si>
-  <si>
-    <t>1900 - 1999 Wilcox Blvd</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>2018-11-28</t>
+  </si>
+  <si>
+    <t>19:43:52</t>
+  </si>
+  <si>
+    <t>19:42:38</t>
+  </si>
+  <si>
+    <t>18:15:25</t>
+  </si>
+  <si>
+    <t>18:14:46</t>
+  </si>
+  <si>
+    <t>17:09:39</t>
+  </si>
+  <si>
+    <t>14:21:59</t>
+  </si>
+  <si>
+    <t>14:18:37</t>
+  </si>
+  <si>
+    <t>13:31:54</t>
+  </si>
+  <si>
+    <t>13:31:49</t>
+  </si>
+  <si>
+    <t>13:24:16</t>
+  </si>
+  <si>
+    <t>11:59:35</t>
+  </si>
+  <si>
+    <t>10:40:46</t>
+  </si>
+  <si>
+    <t>08:06:36</t>
+  </si>
+  <si>
+    <t>08:05:40</t>
+  </si>
+  <si>
+    <t>08:00:33</t>
+  </si>
+  <si>
+    <t>07:59:29</t>
+  </si>
+  <si>
+    <t>5518 - 5559 Highway 153</t>
+  </si>
+  <si>
+    <t>OCOEE ST / N CHAMBERLAIN AVE</t>
+  </si>
+  <si>
+    <t>N CHAMBERLAIN AVE / OCOEE ST</t>
+  </si>
+  <si>
+    <t>Gunbarrel Rd / Crane Rd</t>
+  </si>
+  <si>
+    <t>15100 Dayton Pike</t>
+  </si>
+  <si>
+    <t>290 Highway 27 Nb</t>
+  </si>
+  <si>
+    <t>1182 MOUNTAIN CREEK RD</t>
+  </si>
+  <si>
+    <t>Shallowford Rd / Moss St</t>
+  </si>
+  <si>
+    <t>709 Lee Pike</t>
+  </si>
+  <si>
+    <t>6951 Lee Hwy</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>CHATTANOOGA</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>19</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>8</t>
@@ -626,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,31 +822,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.113207</v>
+        <v>35.144351</v>
       </c>
       <c r="E2">
-        <v>-85.369349</v>
+        <v>-85.24912</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -824,31 +854,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.113207</v>
+        <v>35.144351</v>
       </c>
       <c r="E3">
-        <v>-85.369349</v>
+        <v>-85.24912</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -862,25 +892,25 @@
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.034872</v>
+        <v>35.053957</v>
       </c>
       <c r="E4">
-        <v>-85.304002</v>
+        <v>-85.25528199999999</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -894,25 +924,25 @@
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.034872</v>
+        <v>35.053957</v>
       </c>
       <c r="E5">
-        <v>-85.304002</v>
+        <v>-85.25528199999999</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -920,31 +950,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>35.083787</v>
+        <v>35.023569</v>
       </c>
       <c r="E6">
-        <v>-85.262783</v>
+        <v>-85.159148</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -952,31 +982,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7">
-        <v>35.01246</v>
+        <v>35.382316</v>
       </c>
       <c r="E7">
-        <v>-85.184679</v>
+        <v>-85.108934</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -984,31 +1014,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>34.997782</v>
+        <v>35.382316</v>
       </c>
       <c r="E8">
-        <v>-85.28114100000001</v>
+        <v>-85.108934</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1016,31 +1046,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>34.9978</v>
+        <v>35.070655</v>
       </c>
       <c r="E9">
-        <v>-85.28168100000001</v>
+        <v>-85.320286</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1048,31 +1078,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>34.9978</v>
+        <v>35.070655</v>
       </c>
       <c r="E10">
-        <v>-85.28168100000001</v>
+        <v>-85.320286</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1080,31 +1110,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.07924</v>
+        <v>35.070655</v>
       </c>
       <c r="E11">
-        <v>-85.257895</v>
+        <v>-85.320286</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1112,31 +1142,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>35.118812</v>
+      </c>
+      <c r="E12">
+        <v>-85.31610000000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>35.041919</v>
-      </c>
-      <c r="E12">
-        <v>-85.297416</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Y12">
         <v>11</v>
@@ -1144,33 +1174,161 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>35.037585</v>
+      </c>
+      <c r="E13">
+        <v>-85.24587699999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" t="s">
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D13">
-        <v>35.053804</v>
-      </c>
-      <c r="E13">
-        <v>-85.263983</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D14">
+        <v>35.312338</v>
+      </c>
+      <c r="E14">
+        <v>-85.123231</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="D15">
+        <v>35.312338</v>
+      </c>
+      <c r="E15">
+        <v>-85.123231</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>35.044762</v>
+      </c>
+      <c r="E16">
+        <v>-85.164109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="Y13">
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>35.044762</v>
+      </c>
+      <c r="E17">
+        <v>-85.164109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y17">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
   <si>
     <t>Accident</t>
   </si>
@@ -172,100 +172,130 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>Entrapment</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>Delayed</t>
-  </si>
-  <si>
-    <t>2018-11-28</t>
-  </si>
-  <si>
-    <t>19:43:52</t>
-  </si>
-  <si>
-    <t>19:42:38</t>
-  </si>
-  <si>
-    <t>18:15:25</t>
-  </si>
-  <si>
-    <t>18:14:46</t>
-  </si>
-  <si>
-    <t>17:09:39</t>
-  </si>
-  <si>
-    <t>14:21:59</t>
-  </si>
-  <si>
-    <t>14:18:37</t>
-  </si>
-  <si>
-    <t>13:31:54</t>
-  </si>
-  <si>
-    <t>13:31:49</t>
-  </si>
-  <si>
-    <t>13:24:16</t>
-  </si>
-  <si>
-    <t>11:59:35</t>
-  </si>
-  <si>
-    <t>10:40:46</t>
-  </si>
-  <si>
-    <t>08:06:36</t>
-  </si>
-  <si>
-    <t>08:05:40</t>
-  </si>
-  <si>
-    <t>08:00:33</t>
-  </si>
-  <si>
-    <t>07:59:29</t>
-  </si>
-  <si>
-    <t>5518 - 5559 Highway 153</t>
-  </si>
-  <si>
-    <t>OCOEE ST / N CHAMBERLAIN AVE</t>
-  </si>
-  <si>
-    <t>N CHAMBERLAIN AVE / OCOEE ST</t>
-  </si>
-  <si>
-    <t>Gunbarrel Rd / Crane Rd</t>
-  </si>
-  <si>
-    <t>15100 Dayton Pike</t>
-  </si>
-  <si>
-    <t>290 Highway 27 Nb</t>
-  </si>
-  <si>
-    <t>1182 MOUNTAIN CREEK RD</t>
-  </si>
-  <si>
-    <t>Shallowford Rd / Moss St</t>
-  </si>
-  <si>
-    <t>709 Lee Pike</t>
-  </si>
-  <si>
-    <t>6951 Lee Hwy</t>
+    <t>2018-11-29</t>
+  </si>
+  <si>
+    <t>20:51:08</t>
+  </si>
+  <si>
+    <t>20:29:53</t>
+  </si>
+  <si>
+    <t>19:09:14</t>
+  </si>
+  <si>
+    <t>16:47:24</t>
+  </si>
+  <si>
+    <t>16:14:11</t>
+  </si>
+  <si>
+    <t>16:06:43</t>
+  </si>
+  <si>
+    <t>16:01:50</t>
+  </si>
+  <si>
+    <t>15:08:56</t>
+  </si>
+  <si>
+    <t>15:06:22</t>
+  </si>
+  <si>
+    <t>14:20:39</t>
+  </si>
+  <si>
+    <t>14:18:48</t>
+  </si>
+  <si>
+    <t>12:17:16</t>
+  </si>
+  <si>
+    <t>10:14:25</t>
+  </si>
+  <si>
+    <t>10:02:29</t>
+  </si>
+  <si>
+    <t>07:55:04</t>
+  </si>
+  <si>
+    <t>07:53:17</t>
+  </si>
+  <si>
+    <t>07:51:24</t>
+  </si>
+  <si>
+    <t>07:13:21</t>
+  </si>
+  <si>
+    <t>06:52:26</t>
+  </si>
+  <si>
+    <t>06:51:35</t>
+  </si>
+  <si>
+    <t>3399 Amnicola Hwy</t>
+  </si>
+  <si>
+    <t>8900 - 8935 Lee Hwy</t>
+  </si>
+  <si>
+    <t>Hixson Pike / Thrasher Pike</t>
+  </si>
+  <si>
+    <t>8950 - 8999 Lee Hwy</t>
+  </si>
+  <si>
+    <t>14th Ave / E 29th St</t>
+  </si>
+  <si>
+    <t>600 N Holtzclaw Ave</t>
+  </si>
+  <si>
+    <t>54 SHALLOWFORD RD</t>
+  </si>
+  <si>
+    <t>1607 Anderson Pike</t>
+  </si>
+  <si>
+    <t>Key West Ave / State Line Rd</t>
+  </si>
+  <si>
+    <t>1808 Jenkins Rd</t>
+  </si>
+  <si>
+    <t>Broad St / Tennessee Ave</t>
+  </si>
+  <si>
+    <t>2106 E Main St</t>
+  </si>
+  <si>
+    <t>E MAIN ST / S KELLEY ST</t>
+  </si>
+  <si>
+    <t>HIGHWAY 153 / BOY SCOUT RD</t>
+  </si>
+  <si>
+    <t>Highway 153 / Boy Scout Rd</t>
+  </si>
+  <si>
+    <t>2601 HARRISON PIKE</t>
+  </si>
+  <si>
+    <t>Highway 58 / Bonny Oaks Dr</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -274,31 +304,37 @@
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
+    <t>WALDEN</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -656,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,31 +858,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.144351</v>
+        <v>35.080462</v>
       </c>
       <c r="E2">
-        <v>-85.24912</v>
+        <v>-85.26512099999999</v>
       </c>
       <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="Y2">
         <v>11</v>
@@ -854,31 +890,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.144351</v>
+        <v>35.087713</v>
       </c>
       <c r="E3">
-        <v>-85.24912</v>
+        <v>-85.071062</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -886,31 +922,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.053957</v>
+        <v>35.17114</v>
       </c>
       <c r="E4">
-        <v>-85.25528199999999</v>
+        <v>-85.17641399999999</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="Y4">
         <v>11</v>
@@ -918,31 +954,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.053957</v>
+        <v>35.086343</v>
       </c>
       <c r="E5">
-        <v>-85.25528199999999</v>
+        <v>-85.068399</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="Y5">
         <v>11</v>
@@ -950,31 +986,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.023569</v>
+        <v>35.086343</v>
       </c>
       <c r="E6">
-        <v>-85.159148</v>
+        <v>-85.068399</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="Y6">
         <v>11</v>
@@ -982,31 +1018,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7">
-        <v>35.382316</v>
+        <v>35.008065</v>
       </c>
       <c r="E7">
-        <v>-85.108934</v>
+        <v>-85.273591</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Y7">
         <v>11</v>
@@ -1014,31 +1050,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8">
-        <v>35.382316</v>
+        <v>35.046354</v>
       </c>
       <c r="E8">
-        <v>-85.108934</v>
+        <v>-85.27803400000001</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Y8">
         <v>11</v>
@@ -1046,31 +1082,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>35.070655</v>
+        <v>35.033649</v>
       </c>
       <c r="E9">
-        <v>-85.320286</v>
+        <v>-85.257524</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y9">
         <v>11</v>
@@ -1078,31 +1114,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>35.070655</v>
+        <v>35.145962</v>
       </c>
       <c r="E10">
-        <v>-85.320286</v>
+        <v>-85.318082</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Y10">
         <v>11</v>
@@ -1110,31 +1146,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>35.070655</v>
+        <v>34.985759</v>
       </c>
       <c r="E11">
-        <v>-85.320286</v>
+        <v>-85.226483</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Y11">
         <v>11</v>
@@ -1142,31 +1178,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>35.118812</v>
+        <v>35.01796</v>
       </c>
       <c r="E12">
-        <v>-85.31610000000001</v>
+        <v>-85.142169</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="Y12">
         <v>11</v>
@@ -1174,31 +1210,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>35.037585</v>
+        <v>35.01796</v>
       </c>
       <c r="E13">
-        <v>-85.24587699999999</v>
+        <v>-85.142169</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="Y13">
         <v>11</v>
@@ -1206,31 +1242,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>35.312338</v>
+        <v>35.014497</v>
       </c>
       <c r="E14">
-        <v>-85.123231</v>
+        <v>-85.325187</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Y14">
         <v>11</v>
@@ -1238,31 +1274,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>35.312338</v>
+        <v>35.024777</v>
       </c>
       <c r="E15">
-        <v>-85.123231</v>
+        <v>-85.276914</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Y15">
         <v>11</v>
@@ -1270,31 +1306,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>35.044762</v>
+        <v>35.024527</v>
       </c>
       <c r="E16">
-        <v>-85.164109</v>
+        <v>-85.275778</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Y16">
         <v>11</v>
@@ -1302,33 +1338,193 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>35.044762</v>
+        <v>35.182577</v>
       </c>
       <c r="E17">
-        <v>-85.164109</v>
+        <v>-85.246697</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>35.182577</v>
+      </c>
+      <c r="E18">
+        <v>-85.246697</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>35.182577</v>
+      </c>
+      <c r="E19">
+        <v>-85.246697</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
         <v>73</v>
       </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" t="s">
-        <v>84</v>
-      </c>
-      <c r="P17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y17">
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>35.08104</v>
+      </c>
+      <c r="E20">
+        <v>-85.236081</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>35.081593</v>
+      </c>
+      <c r="E21">
+        <v>-85.209734</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>35.081593</v>
+      </c>
+      <c r="E22">
+        <v>-85.209734</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y22">
         <v>11</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Accident</t>
   </si>
@@ -172,160 +172,85 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Injuries</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2018-11-29</t>
-  </si>
-  <si>
-    <t>20:51:08</t>
-  </si>
-  <si>
-    <t>20:29:53</t>
-  </si>
-  <si>
-    <t>19:09:14</t>
-  </si>
-  <si>
-    <t>16:47:24</t>
-  </si>
-  <si>
-    <t>16:14:11</t>
-  </si>
-  <si>
-    <t>16:06:43</t>
-  </si>
-  <si>
-    <t>16:01:50</t>
-  </si>
-  <si>
-    <t>15:08:56</t>
-  </si>
-  <si>
-    <t>15:06:22</t>
-  </si>
-  <si>
-    <t>14:20:39</t>
-  </si>
-  <si>
-    <t>14:18:48</t>
-  </si>
-  <si>
-    <t>12:17:16</t>
-  </si>
-  <si>
-    <t>10:14:25</t>
-  </si>
-  <si>
-    <t>10:02:29</t>
-  </si>
-  <si>
-    <t>07:55:04</t>
-  </si>
-  <si>
-    <t>07:53:17</t>
-  </si>
-  <si>
-    <t>07:51:24</t>
-  </si>
-  <si>
-    <t>07:13:21</t>
-  </si>
-  <si>
-    <t>06:52:26</t>
-  </si>
-  <si>
-    <t>06:51:35</t>
-  </si>
-  <si>
-    <t>3399 Amnicola Hwy</t>
-  </si>
-  <si>
-    <t>8900 - 8935 Lee Hwy</t>
-  </si>
-  <si>
-    <t>Hixson Pike / Thrasher Pike</t>
-  </si>
-  <si>
-    <t>8950 - 8999 Lee Hwy</t>
-  </si>
-  <si>
-    <t>14th Ave / E 29th St</t>
-  </si>
-  <si>
-    <t>600 N Holtzclaw Ave</t>
-  </si>
-  <si>
-    <t>54 SHALLOWFORD RD</t>
-  </si>
-  <si>
-    <t>1607 Anderson Pike</t>
-  </si>
-  <si>
-    <t>Key West Ave / State Line Rd</t>
-  </si>
-  <si>
-    <t>1808 Jenkins Rd</t>
-  </si>
-  <si>
-    <t>Broad St / Tennessee Ave</t>
-  </si>
-  <si>
-    <t>2106 E Main St</t>
-  </si>
-  <si>
-    <t>E MAIN ST / S KELLEY ST</t>
-  </si>
-  <si>
-    <t>HIGHWAY 153 / BOY SCOUT RD</t>
-  </si>
-  <si>
-    <t>Highway 153 / Boy Scout Rd</t>
-  </si>
-  <si>
-    <t>2601 HARRISON PIKE</t>
-  </si>
-  <si>
-    <t>Highway 58 / Bonny Oaks Dr</t>
+    <t>2018-12-04</t>
+  </si>
+  <si>
+    <t>17:51:31</t>
+  </si>
+  <si>
+    <t>17:07:10</t>
+  </si>
+  <si>
+    <t>13:21:33</t>
+  </si>
+  <si>
+    <t>13:21:25</t>
+  </si>
+  <si>
+    <t>13:16:41</t>
+  </si>
+  <si>
+    <t>11:21:30</t>
+  </si>
+  <si>
+    <t>10:29:36</t>
+  </si>
+  <si>
+    <t>07:39:34</t>
+  </si>
+  <si>
+    <t>07:16:45</t>
+  </si>
+  <si>
+    <t>05:54:47</t>
+  </si>
+  <si>
+    <t>1000 - 1099 Gadd Rd</t>
+  </si>
+  <si>
+    <t>N Moore Rd / Greenview Dr</t>
+  </si>
+  <si>
+    <t>Mccallie Ave / S Hawthorne St</t>
+  </si>
+  <si>
+    <t>N Chamberlain Ave / Wilcox Blvd</t>
+  </si>
+  <si>
+    <t>100 MARKET ST</t>
+  </si>
+  <si>
+    <t>1300 - 1399 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>3615 Rossville Blvd</t>
+  </si>
+  <si>
+    <t>Market St / E Main St</t>
+  </si>
+  <si>
+    <t>5100 Hixson Pike</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>WALDEN</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>10</t>
@@ -334,7 +259,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>6</t>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -692,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,674 +783,354 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.080462</v>
+        <v>35.140757</v>
       </c>
       <c r="E2">
-        <v>-85.26512099999999</v>
+        <v>-85.252151</v>
       </c>
       <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="Y2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>35.140757</v>
+      </c>
+      <c r="E3">
+        <v>-85.252151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3">
-        <v>35.087713</v>
-      </c>
-      <c r="E3">
-        <v>-85.071062</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4">
-        <v>35.17114</v>
+        <v>35.021969</v>
       </c>
       <c r="E4">
-        <v>-85.17641399999999</v>
+        <v>-85.22333</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="Y4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>35.086343</v>
+        <v>35.036428</v>
       </c>
       <c r="E5">
-        <v>-85.068399</v>
+        <v>-85.276098</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="Y5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>35.086343</v>
+        <v>35.036428</v>
       </c>
       <c r="E6">
-        <v>-85.068399</v>
+        <v>-85.276098</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="Y6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.008065</v>
+        <v>35.051718</v>
       </c>
       <c r="E7">
-        <v>-85.273591</v>
+        <v>-85.25651000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="Y7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.046354</v>
+        <v>35.055677</v>
       </c>
       <c r="E8">
-        <v>-85.27803400000001</v>
+        <v>-85.309741</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="Y8">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.033649</v>
+        <v>35.041423</v>
       </c>
       <c r="E9">
-        <v>-85.257524</v>
+        <v>-85.223803</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="Y9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.145962</v>
+        <v>35.001542</v>
       </c>
       <c r="E10">
-        <v>-85.318082</v>
+        <v>-85.292579</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="Y10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
       </c>
       <c r="D11">
-        <v>34.985759</v>
+        <v>35.036143</v>
       </c>
       <c r="E11">
-        <v>-85.226483</v>
+        <v>-85.307328</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="Y11">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.01796</v>
+        <v>35.13449</v>
       </c>
       <c r="E12">
-        <v>-85.142169</v>
+        <v>-85.240382</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="Y12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>35.01796</v>
-      </c>
-      <c r="E13">
-        <v>-85.142169</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14">
-        <v>35.014497</v>
-      </c>
-      <c r="E14">
-        <v>-85.325187</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" t="s">
-        <v>94</v>
-      </c>
-      <c r="P14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>35.024777</v>
-      </c>
-      <c r="E15">
-        <v>-85.276914</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" t="s">
-        <v>94</v>
-      </c>
-      <c r="P15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16">
-        <v>35.024527</v>
-      </c>
-      <c r="E16">
-        <v>-85.275778</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>35.182577</v>
-      </c>
-      <c r="E17">
-        <v>-85.246697</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>35.182577</v>
-      </c>
-      <c r="E18">
-        <v>-85.246697</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19">
-        <v>35.182577</v>
-      </c>
-      <c r="E19">
-        <v>-85.246697</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>127</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>35.08104</v>
-      </c>
-      <c r="E20">
-        <v>-85.236081</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" t="s">
-        <v>94</v>
-      </c>
-      <c r="P20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="1">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21">
-        <v>35.081593</v>
-      </c>
-      <c r="E21">
-        <v>-85.209734</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="1">
-        <v>130</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22">
-        <v>35.081593</v>
-      </c>
-      <c r="E22">
-        <v>-85.209734</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>Accident</t>
   </si>
@@ -172,94 +172,106 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2018-12-04</t>
-  </si>
-  <si>
-    <t>17:51:31</t>
-  </si>
-  <si>
-    <t>17:07:10</t>
-  </si>
-  <si>
-    <t>13:21:33</t>
-  </si>
-  <si>
-    <t>13:21:25</t>
-  </si>
-  <si>
-    <t>13:16:41</t>
-  </si>
-  <si>
-    <t>11:21:30</t>
-  </si>
-  <si>
-    <t>10:29:36</t>
-  </si>
-  <si>
-    <t>07:39:34</t>
-  </si>
-  <si>
-    <t>07:16:45</t>
-  </si>
-  <si>
-    <t>05:54:47</t>
-  </si>
-  <si>
-    <t>1000 - 1099 Gadd Rd</t>
-  </si>
-  <si>
-    <t>N Moore Rd / Greenview Dr</t>
-  </si>
-  <si>
-    <t>Mccallie Ave / S Hawthorne St</t>
-  </si>
-  <si>
-    <t>N Chamberlain Ave / Wilcox Blvd</t>
-  </si>
-  <si>
-    <t>100 MARKET ST</t>
-  </si>
-  <si>
-    <t>1300 - 1399 Shallowford Rd</t>
-  </si>
-  <si>
-    <t>3615 Rossville Blvd</t>
-  </si>
-  <si>
-    <t>Market St / E Main St</t>
-  </si>
-  <si>
-    <t>5100 Hixson Pike</t>
+    <t>2018-12-05</t>
+  </si>
+  <si>
+    <t>23:33:51</t>
+  </si>
+  <si>
+    <t>19:30:11</t>
+  </si>
+  <si>
+    <t>18:29:19</t>
+  </si>
+  <si>
+    <t>18:28:02</t>
+  </si>
+  <si>
+    <t>18:27:35</t>
+  </si>
+  <si>
+    <t>18:19:00</t>
+  </si>
+  <si>
+    <t>17:40:25</t>
+  </si>
+  <si>
+    <t>13:42:22</t>
+  </si>
+  <si>
+    <t>10:23:59</t>
+  </si>
+  <si>
+    <t>10:23:20</t>
+  </si>
+  <si>
+    <t>08:44:48</t>
+  </si>
+  <si>
+    <t>2536 CUMMINGS HWY</t>
+  </si>
+  <si>
+    <t>Ringgold Rd / Camp Jordan Pkwy</t>
+  </si>
+  <si>
+    <t>Old Lee Hwy / Apison Pike</t>
+  </si>
+  <si>
+    <t>8080 - 8120 Old Lee Hwy</t>
+  </si>
+  <si>
+    <t>Glenwood Dr / Oak St</t>
+  </si>
+  <si>
+    <t>400 Highway 153 Nb</t>
+  </si>
+  <si>
+    <t>Anderson Ave / S Moore Rd</t>
+  </si>
+  <si>
+    <t>6912 Benwood Dr</t>
+  </si>
+  <si>
+    <t>600 State Line Rd</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -617,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,16 +795,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.140757</v>
+        <v>35.020319</v>
       </c>
       <c r="E2">
-        <v>-85.252151</v>
+        <v>-85.35286600000001</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -801,13 +813,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y2">
         <v>12</v>
@@ -815,31 +827,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.140757</v>
+        <v>34.990122</v>
       </c>
       <c r="E3">
-        <v>-85.252151</v>
+        <v>-85.20144500000001</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -847,31 +859,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>35.021969</v>
+        <v>35.069722</v>
       </c>
       <c r="E4">
-        <v>-85.22333</v>
+        <v>-85.100611</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Y4">
         <v>12</v>
@@ -879,16 +891,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>35.036428</v>
+        <v>35.069722</v>
       </c>
       <c r="E5">
-        <v>-85.276098</v>
+        <v>-85.100611</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -897,13 +909,13 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5">
         <v>12</v>
@@ -911,16 +923,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>35.036428</v>
+        <v>35.069589</v>
       </c>
       <c r="E6">
-        <v>-85.276098</v>
+        <v>-85.10088</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -929,13 +941,13 @@
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y6">
         <v>12</v>
@@ -943,31 +955,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>35.051718</v>
+        <v>35.069589</v>
       </c>
       <c r="E7">
-        <v>-85.25651000000001</v>
+        <v>-85.10088</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y7">
         <v>12</v>
@@ -975,31 +987,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>35.055677</v>
+        <v>35.069589</v>
       </c>
       <c r="E8">
-        <v>-85.309741</v>
+        <v>-85.10088</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
         <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y8">
         <v>12</v>
@@ -1007,31 +1019,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>35.032718</v>
+      </c>
+      <c r="E9">
+        <v>-85.263344</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>35.041423</v>
-      </c>
-      <c r="E9">
-        <v>-85.223803</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
       </c>
       <c r="H9" t="s">
         <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y9">
         <v>12</v>
@@ -1039,31 +1051,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>35.001542</v>
+        <v>35.074095</v>
       </c>
       <c r="E10">
-        <v>-85.292579</v>
+        <v>-85.19839399999999</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y10">
         <v>12</v>
@@ -1071,31 +1083,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
       </c>
       <c r="D11">
-        <v>35.036143</v>
+        <v>35.074095</v>
       </c>
       <c r="E11">
-        <v>-85.307328</v>
+        <v>-85.19839399999999</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y11">
         <v>12</v>
@@ -1103,33 +1115,129 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.13449</v>
+        <v>35.005307</v>
       </c>
       <c r="E12">
-        <v>-85.240382</v>
+        <v>-85.23237899999999</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>35.118798</v>
+      </c>
+      <c r="E13">
+        <v>-85.096605</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>35.118798</v>
+      </c>
+      <c r="E14">
+        <v>-85.096605</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" t="s">
         <v>74</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>34.985011</v>
+      </c>
+      <c r="E15">
+        <v>-85.257104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
         <v>75</v>
       </c>
-      <c r="P12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y12">
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y15">
         <v>12</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
   <si>
     <t>Accident</t>
   </si>
@@ -172,79 +172,103 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>2018-12-05</t>
-  </si>
-  <si>
-    <t>23:33:51</t>
-  </si>
-  <si>
-    <t>19:30:11</t>
-  </si>
-  <si>
-    <t>18:29:19</t>
-  </si>
-  <si>
-    <t>18:28:02</t>
-  </si>
-  <si>
-    <t>18:27:35</t>
-  </si>
-  <si>
-    <t>18:19:00</t>
-  </si>
-  <si>
-    <t>17:40:25</t>
-  </si>
-  <si>
-    <t>13:42:22</t>
-  </si>
-  <si>
-    <t>10:23:59</t>
-  </si>
-  <si>
-    <t>10:23:20</t>
-  </si>
-  <si>
-    <t>08:44:48</t>
-  </si>
-  <si>
-    <t>2536 CUMMINGS HWY</t>
-  </si>
-  <si>
-    <t>Ringgold Rd / Camp Jordan Pkwy</t>
-  </si>
-  <si>
-    <t>Old Lee Hwy / Apison Pike</t>
-  </si>
-  <si>
-    <t>8080 - 8120 Old Lee Hwy</t>
-  </si>
-  <si>
-    <t>Glenwood Dr / Oak St</t>
-  </si>
-  <si>
-    <t>400 Highway 153 Nb</t>
-  </si>
-  <si>
-    <t>Anderson Ave / S Moore Rd</t>
-  </si>
-  <si>
-    <t>6912 Benwood Dr</t>
-  </si>
-  <si>
-    <t>600 State Line Rd</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
+    <t>2018-12-06</t>
+  </si>
+  <si>
+    <t>23:33:17</t>
+  </si>
+  <si>
+    <t>23:29:41</t>
+  </si>
+  <si>
+    <t>20:45:11</t>
+  </si>
+  <si>
+    <t>17:55:07</t>
+  </si>
+  <si>
+    <t>17:52:41</t>
+  </si>
+  <si>
+    <t>15:43:00</t>
+  </si>
+  <si>
+    <t>15:41:45</t>
+  </si>
+  <si>
+    <t>15:18:09</t>
+  </si>
+  <si>
+    <t>14:39:25</t>
+  </si>
+  <si>
+    <t>14:38:47</t>
+  </si>
+  <si>
+    <t>14:23:09</t>
+  </si>
+  <si>
+    <t>14:22:57</t>
+  </si>
+  <si>
+    <t>08:42:00</t>
+  </si>
+  <si>
+    <t>08:41:04</t>
+  </si>
+  <si>
+    <t>06:12:24</t>
+  </si>
+  <si>
+    <t>06:10:41</t>
+  </si>
+  <si>
+    <t>05:32:08</t>
+  </si>
+  <si>
+    <t>3850-3898 S Terrace</t>
+  </si>
+  <si>
+    <t>18400 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>401-499 S Moore Rd</t>
+  </si>
+  <si>
+    <t>270 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>6100 - 6799 Highway 153</t>
+  </si>
+  <si>
+    <t>6100 HIGHWAY 153</t>
+  </si>
+  <si>
+    <t>3200-3216 Broad St</t>
+  </si>
+  <si>
+    <t>Ault Rd / Taft Hwy</t>
+  </si>
+  <si>
+    <t>7024 Mccutcheon Rd</t>
+  </si>
+  <si>
+    <t>2200 E 35TH ST</t>
+  </si>
+  <si>
+    <t>311 S Lyerly St</t>
+  </si>
+  <si>
+    <t>1850 Highway 27 Sb</t>
   </si>
   <si>
     <t>EAST RIDGE</t>
@@ -253,25 +277,34 @@
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>SIGNAL MOUNTAIN</t>
+  </si>
+  <si>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>20</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -629,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,10 +834,10 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.020319</v>
+        <v>35.01133</v>
       </c>
       <c r="E2">
-        <v>-85.35286600000001</v>
+        <v>-85.24581000000001</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -813,13 +846,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="Y2">
         <v>12</v>
@@ -827,31 +860,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>34.990122</v>
+        <v>35.01133</v>
       </c>
       <c r="E3">
-        <v>-85.20144500000001</v>
+        <v>-85.24581000000001</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -859,31 +892,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.069722</v>
+        <v>35.01133</v>
       </c>
       <c r="E4">
-        <v>-85.100611</v>
+        <v>-85.24581000000001</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Y4">
         <v>12</v>
@@ -891,16 +924,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.069722</v>
+        <v>35.008661</v>
       </c>
       <c r="E5">
-        <v>-85.100611</v>
+        <v>-85.237709</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -909,13 +942,13 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Y5">
         <v>12</v>
@@ -923,16 +956,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>35.069589</v>
+        <v>35.00586</v>
       </c>
       <c r="E6">
-        <v>-85.10088</v>
+        <v>-85.23218</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -941,13 +974,13 @@
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="Y6">
         <v>12</v>
@@ -955,31 +988,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.069589</v>
+        <v>35.011396</v>
       </c>
       <c r="E7">
-        <v>-85.10088</v>
+        <v>-85.188948</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="Y7">
         <v>12</v>
@@ -987,31 +1020,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.069589</v>
+        <v>35.170787</v>
       </c>
       <c r="E8">
-        <v>-85.10088</v>
+        <v>-85.247564</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="Y8">
         <v>12</v>
@@ -1019,31 +1052,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.032718</v>
+        <v>35.170787</v>
       </c>
       <c r="E9">
-        <v>-85.263344</v>
+        <v>-85.247564</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="Y9">
         <v>12</v>
@@ -1051,31 +1084,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.074095</v>
+        <v>35.019015</v>
       </c>
       <c r="E10">
-        <v>-85.19839399999999</v>
+        <v>-85.321478</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Y10">
         <v>12</v>
@@ -1083,31 +1116,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.074095</v>
+        <v>35.138054</v>
       </c>
       <c r="E11">
-        <v>-85.19839399999999</v>
+        <v>-85.330726</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Y11">
         <v>12</v>
@@ -1115,31 +1148,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.005307</v>
+        <v>35.138054</v>
       </c>
       <c r="E12">
-        <v>-85.23237899999999</v>
+        <v>-85.330726</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Y12">
         <v>12</v>
@@ -1147,31 +1180,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>35.118798</v>
+        <v>35.046084</v>
       </c>
       <c r="E13">
-        <v>-85.096605</v>
+        <v>-85.15622500000001</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Y13">
         <v>12</v>
@@ -1179,31 +1212,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>35.118798</v>
+        <v>35.046084</v>
       </c>
       <c r="E14">
-        <v>-85.096605</v>
+        <v>-85.15622500000001</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Y14">
         <v>12</v>
@@ -1211,33 +1244,161 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>35.003068</v>
+      </c>
+      <c r="E15">
+        <v>-85.287153</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>35.003068</v>
+      </c>
+      <c r="E16">
+        <v>-85.287153</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>35.033324</v>
+      </c>
+      <c r="E17">
+        <v>-85.26931</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>35.033324</v>
+      </c>
+      <c r="E18">
+        <v>-85.26931</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D15">
-        <v>34.985011</v>
-      </c>
-      <c r="E15">
-        <v>-85.257104</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y15">
+      <c r="D19">
+        <v>35.248456</v>
+      </c>
+      <c r="E19">
+        <v>-85.17934099999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y19">
         <v>12</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Accident</t>
   </si>
@@ -175,136 +175,70 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2018-12-06</t>
-  </si>
-  <si>
-    <t>23:33:17</t>
-  </si>
-  <si>
-    <t>23:29:41</t>
-  </si>
-  <si>
-    <t>20:45:11</t>
-  </si>
-  <si>
-    <t>17:55:07</t>
-  </si>
-  <si>
-    <t>17:52:41</t>
-  </si>
-  <si>
-    <t>15:43:00</t>
-  </si>
-  <si>
-    <t>15:41:45</t>
-  </si>
-  <si>
-    <t>15:18:09</t>
-  </si>
-  <si>
-    <t>14:39:25</t>
-  </si>
-  <si>
-    <t>14:38:47</t>
-  </si>
-  <si>
-    <t>14:23:09</t>
-  </si>
-  <si>
-    <t>14:22:57</t>
-  </si>
-  <si>
-    <t>08:42:00</t>
-  </si>
-  <si>
-    <t>08:41:04</t>
-  </si>
-  <si>
-    <t>06:12:24</t>
-  </si>
-  <si>
-    <t>06:10:41</t>
-  </si>
-  <si>
-    <t>05:32:08</t>
-  </si>
-  <si>
-    <t>3850-3898 S Terrace</t>
-  </si>
-  <si>
-    <t>18400 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>401-499 S Moore Rd</t>
-  </si>
-  <si>
-    <t>270 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>6100 - 6799 Highway 153</t>
-  </si>
-  <si>
-    <t>6100 HIGHWAY 153</t>
-  </si>
-  <si>
-    <t>3200-3216 Broad St</t>
-  </si>
-  <si>
-    <t>Ault Rd / Taft Hwy</t>
-  </si>
-  <si>
-    <t>7024 Mccutcheon Rd</t>
-  </si>
-  <si>
-    <t>2200 E 35TH ST</t>
-  </si>
-  <si>
-    <t>311 S Lyerly St</t>
-  </si>
-  <si>
-    <t>1850 Highway 27 Sb</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
+    <t>2018-12-09</t>
+  </si>
+  <si>
+    <t>18:57:56</t>
+  </si>
+  <si>
+    <t>18:19:48</t>
+  </si>
+  <si>
+    <t>17:45:07</t>
+  </si>
+  <si>
+    <t>16:20:39</t>
+  </si>
+  <si>
+    <t>16:19:46</t>
+  </si>
+  <si>
+    <t>13:11:18</t>
+  </si>
+  <si>
+    <t>12:42:10</t>
+  </si>
+  <si>
+    <t>12:39:19</t>
+  </si>
+  <si>
+    <t>12:38:24</t>
+  </si>
+  <si>
+    <t>4500 Highway 58</t>
+  </si>
+  <si>
+    <t>4500 Rossville Blvd</t>
+  </si>
+  <si>
+    <t>1341 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>5500 - 5517 Highway 153</t>
+  </si>
+  <si>
+    <t>1-9 Exit Interstate 75 Off Ramp Nb</t>
+  </si>
+  <si>
+    <t>5106 Hixson Pike</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>SIGNAL MOUNTAIN</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>18</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -662,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,31 +762,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.01133</v>
+        <v>35.084245</v>
       </c>
       <c r="E2">
-        <v>-85.24581000000001</v>
+        <v>-85.19831000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="Y2">
         <v>12</v>
@@ -860,31 +794,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.01133</v>
+        <v>34.99105</v>
       </c>
       <c r="E3">
-        <v>-85.24581000000001</v>
+        <v>-85.290122</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -892,31 +826,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.01133</v>
+        <v>35.011017</v>
       </c>
       <c r="E4">
-        <v>-85.24581000000001</v>
+        <v>-85.166431</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="Y4">
         <v>12</v>
@@ -924,31 +858,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>35.14182</v>
+      </c>
+      <c r="E5">
+        <v>-85.248735</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="D5">
-        <v>35.008661</v>
-      </c>
-      <c r="E5">
-        <v>-85.237709</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="Y5">
         <v>12</v>
@@ -956,31 +890,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.00586</v>
+        <v>35.14182</v>
       </c>
       <c r="E6">
-        <v>-85.23218</v>
+        <v>-85.248735</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="Y6">
         <v>12</v>
@@ -988,31 +922,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.011396</v>
+        <v>35.0274</v>
       </c>
       <c r="E7">
-        <v>-85.188948</v>
+        <v>-85.17461</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="Y7">
         <v>12</v>
@@ -1020,31 +954,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.170787</v>
+        <v>35.135292</v>
       </c>
       <c r="E8">
-        <v>-85.247564</v>
+        <v>-85.239279</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="Y8">
         <v>12</v>
@@ -1052,31 +986,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.170787</v>
+        <v>35.135292</v>
       </c>
       <c r="E9">
-        <v>-85.247564</v>
+        <v>-85.239279</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="Y9">
         <v>12</v>
@@ -1084,321 +1018,33 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.019015</v>
+        <v>35.135292</v>
       </c>
       <c r="E10">
-        <v>-85.321478</v>
+        <v>-85.239279</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="Y10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>35.138054</v>
-      </c>
-      <c r="E11">
-        <v>-85.330726</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>35.138054</v>
-      </c>
-      <c r="E12">
-        <v>-85.330726</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>35.046084</v>
-      </c>
-      <c r="E13">
-        <v>-85.15622500000001</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>35.046084</v>
-      </c>
-      <c r="E14">
-        <v>-85.15622500000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>91</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>35.003068</v>
-      </c>
-      <c r="E15">
-        <v>-85.287153</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>35.003068</v>
-      </c>
-      <c r="E16">
-        <v>-85.287153</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>35.033324</v>
-      </c>
-      <c r="E17">
-        <v>-85.26931</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>35.033324</v>
-      </c>
-      <c r="E18">
-        <v>-85.26931</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19">
-        <v>35.248456</v>
-      </c>
-      <c r="E19">
-        <v>-85.17934099999999</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y19">
         <v>12</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>Accident</t>
   </si>
@@ -175,57 +175,96 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>2018-12-09</t>
-  </si>
-  <si>
-    <t>18:57:56</t>
-  </si>
-  <si>
-    <t>18:19:48</t>
-  </si>
-  <si>
-    <t>17:45:07</t>
-  </si>
-  <si>
-    <t>16:20:39</t>
-  </si>
-  <si>
-    <t>16:19:46</t>
-  </si>
-  <si>
-    <t>13:11:18</t>
-  </si>
-  <si>
-    <t>12:42:10</t>
-  </si>
-  <si>
-    <t>12:39:19</t>
-  </si>
-  <si>
-    <t>12:38:24</t>
-  </si>
-  <si>
-    <t>4500 Highway 58</t>
-  </si>
-  <si>
-    <t>4500 Rossville Blvd</t>
-  </si>
-  <si>
-    <t>1341 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>5500 - 5517 Highway 153</t>
-  </si>
-  <si>
-    <t>1-9 Exit Interstate 75 Off Ramp Nb</t>
-  </si>
-  <si>
-    <t>5106 Hixson Pike</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2018-12-10</t>
+  </si>
+  <si>
+    <t>22:50:19</t>
+  </si>
+  <si>
+    <t>18:23:43</t>
+  </si>
+  <si>
+    <t>17:54:52</t>
+  </si>
+  <si>
+    <t>17:54:15</t>
+  </si>
+  <si>
+    <t>17:14:49</t>
+  </si>
+  <si>
+    <t>17:14:18</t>
+  </si>
+  <si>
+    <t>16:58:39</t>
+  </si>
+  <si>
+    <t>16:06:43</t>
+  </si>
+  <si>
+    <t>16:05:33</t>
+  </si>
+  <si>
+    <t>16:04:58</t>
+  </si>
+  <si>
+    <t>16:04:49</t>
+  </si>
+  <si>
+    <t>11:23:51</t>
+  </si>
+  <si>
+    <t>10:27:18</t>
+  </si>
+  <si>
+    <t>6317-6339 BONNY OAKS DR</t>
+  </si>
+  <si>
+    <t>Riverside Dr / Latta St</t>
+  </si>
+  <si>
+    <t>6100 Lee Hwy</t>
+  </si>
+  <si>
+    <t>520 - 549 Highway 153 Nb</t>
+  </si>
+  <si>
+    <t>520 HIGHWAY 153 NB</t>
+  </si>
+  <si>
+    <t>4150 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>7600 DAYTON PIKE</t>
+  </si>
+  <si>
+    <t>4513 HIXSON PIKE</t>
+  </si>
+  <si>
+    <t>600 GREEN POND RD</t>
+  </si>
+  <si>
+    <t>480 HIGHWAY 153 SB</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -235,10 +274,10 @@
     <t>16</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -596,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA10"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,31 +801,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.084245</v>
+        <v>35.07438</v>
       </c>
       <c r="E2">
-        <v>-85.19831000000001</v>
+        <v>-85.17346000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Y2">
         <v>12</v>
@@ -794,31 +833,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>34.99105</v>
+        <v>35.068625</v>
       </c>
       <c r="E3">
-        <v>-85.290122</v>
+        <v>-85.263132</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -826,31 +865,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.011017</v>
+        <v>35.027174</v>
       </c>
       <c r="E4">
-        <v>-85.166431</v>
+        <v>-85.190759</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="Y4">
         <v>12</v>
@@ -858,31 +897,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.14182</v>
+        <v>35.027174</v>
       </c>
       <c r="E5">
-        <v>-85.248735</v>
+        <v>-85.190759</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y5">
         <v>12</v>
@@ -890,31 +929,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.14182</v>
+        <v>35.087611</v>
       </c>
       <c r="E6">
-        <v>-85.248735</v>
+        <v>-85.214113</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y6">
         <v>12</v>
@@ -922,31 +961,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.0274</v>
+        <v>35.087611</v>
       </c>
       <c r="E7">
-        <v>-85.17461</v>
+        <v>-85.214113</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="Y7">
         <v>12</v>
@@ -954,31 +993,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.135292</v>
+        <v>34.996398</v>
       </c>
       <c r="E8">
-        <v>-85.239279</v>
+        <v>-85.245409</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Y8">
         <v>12</v>
@@ -986,31 +1025,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.135292</v>
+        <v>35.201065</v>
       </c>
       <c r="E9">
-        <v>-85.239279</v>
+        <v>-85.238303</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Y9">
         <v>12</v>
@@ -1018,33 +1057,225 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.135292</v>
+        <v>35.201065</v>
       </c>
       <c r="E10">
-        <v>-85.239279</v>
+        <v>-85.238303</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="1">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>35.201065</v>
+      </c>
+      <c r="E11">
+        <v>-85.238303</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="1">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>35.201065</v>
+      </c>
+      <c r="E12">
+        <v>-85.238303</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>35.12002</v>
+      </c>
+      <c r="E13">
+        <v>-85.24914200000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>35.24122</v>
+      </c>
+      <c r="E14">
+        <v>-85.17551400000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>35.084112</v>
+      </c>
+      <c r="E15">
+        <v>-85.20862700000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
         <v>68</v>
       </c>
-      <c r="K10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y10">
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>35.084112</v>
+      </c>
+      <c r="E16">
+        <v>-85.20862700000001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y16">
         <v>12</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>Accident</t>
   </si>
@@ -178,79 +178,67 @@
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2018-12-10</t>
-  </si>
-  <si>
-    <t>22:50:19</t>
-  </si>
-  <si>
-    <t>18:23:43</t>
-  </si>
-  <si>
-    <t>17:54:52</t>
-  </si>
-  <si>
-    <t>17:54:15</t>
-  </si>
-  <si>
-    <t>17:14:49</t>
-  </si>
-  <si>
-    <t>17:14:18</t>
-  </si>
-  <si>
-    <t>16:58:39</t>
-  </si>
-  <si>
-    <t>16:06:43</t>
-  </si>
-  <si>
-    <t>16:05:33</t>
-  </si>
-  <si>
-    <t>16:04:58</t>
-  </si>
-  <si>
-    <t>16:04:49</t>
-  </si>
-  <si>
-    <t>11:23:51</t>
-  </si>
-  <si>
-    <t>10:27:18</t>
-  </si>
-  <si>
-    <t>6317-6339 BONNY OAKS DR</t>
-  </si>
-  <si>
-    <t>Riverside Dr / Latta St</t>
-  </si>
-  <si>
-    <t>6100 Lee Hwy</t>
-  </si>
-  <si>
-    <t>520 - 549 Highway 153 Nb</t>
-  </si>
-  <si>
-    <t>520 HIGHWAY 153 NB</t>
-  </si>
-  <si>
-    <t>4150 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>7600 DAYTON PIKE</t>
-  </si>
-  <si>
-    <t>4513 HIXSON PIKE</t>
-  </si>
-  <si>
-    <t>600 GREEN POND RD</t>
-  </si>
-  <si>
-    <t>480 HIGHWAY 153 SB</t>
+    <t>2018-12-13</t>
+  </si>
+  <si>
+    <t>18:31:52</t>
+  </si>
+  <si>
+    <t>18:31:28</t>
+  </si>
+  <si>
+    <t>17:07:40</t>
+  </si>
+  <si>
+    <t>17:06:03</t>
+  </si>
+  <si>
+    <t>16:25:57</t>
+  </si>
+  <si>
+    <t>16:19:27</t>
+  </si>
+  <si>
+    <t>16:16:27</t>
+  </si>
+  <si>
+    <t>08:43:32</t>
+  </si>
+  <si>
+    <t>07:53:27</t>
+  </si>
+  <si>
+    <t>07:53:26</t>
+  </si>
+  <si>
+    <t>06:42:00</t>
+  </si>
+  <si>
+    <t>06:40:42</t>
+  </si>
+  <si>
+    <t>Highway 153 / Northgate Mall Dr</t>
+  </si>
+  <si>
+    <t>5300 HIGHWAY 153</t>
+  </si>
+  <si>
+    <t>3909 Clio Ave</t>
+  </si>
+  <si>
+    <t>3628 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>100 Highway 153 Sb</t>
+  </si>
+  <si>
+    <t>120 - 129 Highway 27 Sb</t>
+  </si>
+  <si>
+    <t>CALHOUN AVE / E 36TH ST</t>
+  </si>
+  <si>
+    <t>7647 E Brainerd Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -259,12 +247,6 @@
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -274,10 +256,13 @@
     <t>16</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -635,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA16"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,31 +786,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.07438</v>
+        <v>35.127346</v>
       </c>
       <c r="E2">
-        <v>-85.17346000000001</v>
+        <v>-85.242192</v>
       </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y2">
         <v>12</v>
@@ -833,31 +818,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.068625</v>
+        <v>35.127346</v>
       </c>
       <c r="E3">
-        <v>-85.263132</v>
+        <v>-85.242192</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -865,31 +850,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.027174</v>
+        <v>34.998385</v>
       </c>
       <c r="E4">
-        <v>-85.190759</v>
+        <v>-85.29057</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Y4">
         <v>12</v>
@@ -897,31 +882,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.027174</v>
+        <v>34.998385</v>
       </c>
       <c r="E5">
-        <v>-85.190759</v>
+        <v>-85.29057</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Y5">
         <v>12</v>
@@ -929,31 +914,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.087611</v>
+        <v>35.001911</v>
       </c>
       <c r="E6">
-        <v>-85.214113</v>
+        <v>-85.25922300000001</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
         <v>79</v>
-      </c>
-      <c r="P6" t="s">
-        <v>84</v>
       </c>
       <c r="Y6">
         <v>12</v>
@@ -961,31 +946,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.087611</v>
+        <v>35.034506</v>
       </c>
       <c r="E7">
-        <v>-85.214113</v>
+        <v>-85.183441</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
         <v>79</v>
-      </c>
-      <c r="P7" t="s">
-        <v>84</v>
       </c>
       <c r="Y7">
         <v>12</v>
@@ -993,31 +978,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>34.996398</v>
+        <v>35.034506</v>
       </c>
       <c r="E8">
-        <v>-85.245409</v>
+        <v>-85.183441</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Y8">
         <v>12</v>
@@ -1025,31 +1010,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.201065</v>
+        <v>35.049113</v>
       </c>
       <c r="E9">
-        <v>-85.238303</v>
+        <v>-85.314339</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
         <v>75</v>
       </c>
-      <c r="K9" t="s">
-        <v>81</v>
-      </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y9">
         <v>12</v>
@@ -1057,31 +1042,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.201065</v>
+        <v>35.002488</v>
       </c>
       <c r="E10">
-        <v>-85.238303</v>
+        <v>-85.293651</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
         <v>63</v>
       </c>
       <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
         <v>75</v>
       </c>
-      <c r="K10" t="s">
+      <c r="P10" t="s">
         <v>81</v>
-      </c>
-      <c r="P10" t="s">
-        <v>85</v>
       </c>
       <c r="Y10">
         <v>12</v>
@@ -1089,31 +1074,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>35.002488</v>
+      </c>
+      <c r="E11">
+        <v>-85.293651</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
-      </c>
-      <c r="D11">
-        <v>35.201065</v>
-      </c>
-      <c r="E11">
-        <v>-85.238303</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>64</v>
       </c>
       <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
         <v>75</v>
       </c>
-      <c r="K11" t="s">
+      <c r="P11" t="s">
         <v>81</v>
-      </c>
-      <c r="P11" t="s">
-        <v>85</v>
       </c>
       <c r="Y11">
         <v>12</v>
@@ -1121,31 +1106,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>35.012146</v>
+      </c>
+      <c r="E12">
+        <v>-85.15700699999999</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
-      </c>
-      <c r="D12">
-        <v>35.201065</v>
-      </c>
-      <c r="E12">
-        <v>-85.238303</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
       </c>
       <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
         <v>75</v>
       </c>
-      <c r="K12" t="s">
-        <v>81</v>
-      </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y12">
         <v>12</v>
@@ -1153,129 +1138,33 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.12002</v>
+        <v>35.012146</v>
       </c>
       <c r="E13">
-        <v>-85.24914200000001</v>
+        <v>-85.15700699999999</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>35.24122</v>
-      </c>
-      <c r="E14">
-        <v>-85.17551400000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>35.084112</v>
-      </c>
-      <c r="E15">
-        <v>-85.20862700000001</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>35.084112</v>
-      </c>
-      <c r="E16">
-        <v>-85.20862700000001</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y16">
         <v>12</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Accident</t>
   </si>
@@ -172,79 +172,49 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2018-12-13</t>
-  </si>
-  <si>
-    <t>18:31:52</t>
-  </si>
-  <si>
-    <t>18:31:28</t>
-  </si>
-  <si>
-    <t>17:07:40</t>
-  </si>
-  <si>
-    <t>17:06:03</t>
-  </si>
-  <si>
-    <t>16:25:57</t>
-  </si>
-  <si>
-    <t>16:19:27</t>
-  </si>
-  <si>
-    <t>16:16:27</t>
-  </si>
-  <si>
-    <t>08:43:32</t>
-  </si>
-  <si>
-    <t>07:53:27</t>
-  </si>
-  <si>
-    <t>07:53:26</t>
-  </si>
-  <si>
-    <t>06:42:00</t>
-  </si>
-  <si>
-    <t>06:40:42</t>
-  </si>
-  <si>
-    <t>Highway 153 / Northgate Mall Dr</t>
-  </si>
-  <si>
-    <t>5300 HIGHWAY 153</t>
-  </si>
-  <si>
-    <t>3909 Clio Ave</t>
-  </si>
-  <si>
-    <t>3628 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>100 Highway 153 Sb</t>
-  </si>
-  <si>
-    <t>120 - 129 Highway 27 Sb</t>
-  </si>
-  <si>
-    <t>CALHOUN AVE / E 36TH ST</t>
-  </si>
-  <si>
-    <t>7647 E Brainerd Rd</t>
+    <t>2018-12-16</t>
+  </si>
+  <si>
+    <t>18:18:39</t>
+  </si>
+  <si>
+    <t>18:16:29</t>
+  </si>
+  <si>
+    <t>18:00:03</t>
+  </si>
+  <si>
+    <t>17:55:27</t>
+  </si>
+  <si>
+    <t>15:52:02</t>
+  </si>
+  <si>
+    <t>15:51:33</t>
+  </si>
+  <si>
+    <t>10 - 19 Exit Interstate 75 Off Ramp Sb</t>
+  </si>
+  <si>
+    <t>1921 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>1920 - 1999 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>5850 Ed Ken Dr</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
+    <t>COLLEGEDALE</t>
   </si>
   <si>
     <t>18</t>
@@ -253,16 +223,7 @@
     <t>17</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -620,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,16 +747,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.127346</v>
+        <v>35.026057</v>
       </c>
       <c r="E2">
-        <v>-85.242192</v>
+        <v>-85.17452400000001</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -804,13 +765,13 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" t="s">
         <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" t="s">
-        <v>77</v>
       </c>
       <c r="Y2">
         <v>12</v>
@@ -818,16 +779,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.127346</v>
+        <v>35.026057</v>
       </c>
       <c r="E3">
-        <v>-85.242192</v>
+        <v>-85.17452400000001</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -836,13 +797,13 @@
         <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -850,16 +811,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>34.998385</v>
+        <v>35.028897</v>
       </c>
       <c r="E4">
-        <v>-85.29057</v>
+        <v>-85.156806</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -868,13 +829,13 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Y4">
         <v>12</v>
@@ -882,16 +843,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>34.998385</v>
+        <v>35.028516</v>
       </c>
       <c r="E5">
-        <v>-85.29057</v>
+        <v>-85.156479</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -900,13 +861,13 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Y5">
         <v>12</v>
@@ -914,16 +875,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>35.001911</v>
+        <v>35.065017</v>
       </c>
       <c r="E6">
-        <v>-85.25922300000001</v>
+        <v>-85.029867</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -932,13 +893,13 @@
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y6">
         <v>12</v>
@@ -946,16 +907,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.034506</v>
+        <v>35.065017</v>
       </c>
       <c r="E7">
-        <v>-85.183441</v>
+        <v>-85.029867</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -964,207 +925,15 @@
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
-      <c r="A8" s="1">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>35.034506</v>
-      </c>
-      <c r="E8">
-        <v>-85.183441</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
-      <c r="A9" s="1">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>35.049113</v>
-      </c>
-      <c r="E9">
-        <v>-85.314339</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="1">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>35.002488</v>
-      </c>
-      <c r="E10">
-        <v>-85.293651</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>35.002488</v>
-      </c>
-      <c r="E11">
-        <v>-85.293651</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>35.012146</v>
-      </c>
-      <c r="E12">
-        <v>-85.15700699999999</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>35.012146</v>
-      </c>
-      <c r="E13">
-        <v>-85.15700699999999</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y13">
         <v>12</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>Accident</t>
   </si>
@@ -172,58 +172,127 @@
     <t>Pavement_Type</t>
   </si>
   <si>
-    <t>No Injuries</t>
+    <t>Unknown Injuries</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>2018-12-16</t>
-  </si>
-  <si>
-    <t>18:18:39</t>
-  </si>
-  <si>
-    <t>18:16:29</t>
-  </si>
-  <si>
-    <t>18:00:03</t>
-  </si>
-  <si>
-    <t>17:55:27</t>
-  </si>
-  <si>
-    <t>15:52:02</t>
-  </si>
-  <si>
-    <t>15:51:33</t>
-  </si>
-  <si>
-    <t>10 - 19 Exit Interstate 75 Off Ramp Sb</t>
-  </si>
-  <si>
-    <t>1921 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>1920 - 1999 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>5850 Ed Ken Dr</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>20:38:41</t>
+  </si>
+  <si>
+    <t>15:40:04</t>
+  </si>
+  <si>
+    <t>15:21:53</t>
+  </si>
+  <si>
+    <t>13:24:51</t>
+  </si>
+  <si>
+    <t>13:23:09</t>
+  </si>
+  <si>
+    <t>13:12:14</t>
+  </si>
+  <si>
+    <t>12:28:39</t>
+  </si>
+  <si>
+    <t>09:43:42</t>
+  </si>
+  <si>
+    <t>09:42:35</t>
+  </si>
+  <si>
+    <t>07:43:12</t>
+  </si>
+  <si>
+    <t>07:42:35</t>
+  </si>
+  <si>
+    <t>01:15:37</t>
+  </si>
+  <si>
+    <t>01:15:06</t>
+  </si>
+  <si>
+    <t>01:02:16</t>
+  </si>
+  <si>
+    <t>00:20:14</t>
+  </si>
+  <si>
+    <t>409 Frawley Rd</t>
+  </si>
+  <si>
+    <t>Highway 58 / Monger Ln</t>
+  </si>
+  <si>
+    <t>Hunter Rd / Old Hunter Rd</t>
+  </si>
+  <si>
+    <t>Brainerd Rd / Greenway View Dr</t>
+  </si>
+  <si>
+    <t>400 INTERSTATE 75 NB</t>
+  </si>
+  <si>
+    <t>S Hawthorne St / Bailey Ave</t>
+  </si>
+  <si>
+    <t>100-117 Ochs Hwy</t>
+  </si>
+  <si>
+    <t>222 - 233 Browns Ferry Rd</t>
+  </si>
+  <si>
+    <t>3014 Campbell St</t>
+  </si>
+  <si>
+    <t>712 N CREST RD</t>
+  </si>
+  <si>
+    <t>Gann Rd / Moses Rd</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>COLLEGEDALE</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>20</t>
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -581,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA7"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,31 +816,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.026057</v>
+        <v>34.997592</v>
       </c>
       <c r="E2">
-        <v>-85.17452400000001</v>
+        <v>-85.18812200000001</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="Y2">
         <v>12</v>
@@ -779,31 +848,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.026057</v>
+        <v>35.21554</v>
       </c>
       <c r="E3">
-        <v>-85.17452400000001</v>
+        <v>-85.03051600000001</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -811,31 +880,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.028897</v>
+        <v>35.094899</v>
       </c>
       <c r="E4">
-        <v>-85.156806</v>
+        <v>-85.078706</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Y4">
         <v>12</v>
@@ -843,31 +912,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.028516</v>
+        <v>35.013904</v>
       </c>
       <c r="E5">
-        <v>-85.156479</v>
+        <v>-85.211097</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="Y5">
         <v>12</v>
@@ -875,31 +944,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>35.065017</v>
+        <v>35.013904</v>
       </c>
       <c r="E6">
-        <v>-85.029867</v>
+        <v>-85.211097</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="Y6">
         <v>12</v>
@@ -907,33 +976,321 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.065017</v>
+        <v>35.02432</v>
       </c>
       <c r="E7">
-        <v>-85.029867</v>
+        <v>-85.174239</v>
       </c>
       <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="1">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>35.033946</v>
+      </c>
+      <c r="E8">
+        <v>-85.27744300000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" s="1">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>35.007311</v>
+      </c>
+      <c r="E9">
+        <v>-85.32902900000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="1">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>35.007311</v>
+      </c>
+      <c r="E10">
+        <v>-85.32902900000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="1">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>35.027036</v>
+      </c>
+      <c r="E11">
+        <v>-85.363804</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="1">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>35.027036</v>
+      </c>
+      <c r="E12">
+        <v>-85.363804</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>35.070344</v>
+      </c>
+      <c r="E13">
+        <v>-85.2431</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>35.070344</v>
+      </c>
+      <c r="E14">
+        <v>-85.2431</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="D15">
+        <v>35.065124</v>
+      </c>
+      <c r="E15">
+        <v>-85.24060799999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="Y7">
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>35.195459</v>
+      </c>
+      <c r="E16">
+        <v>-85.20765299999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y16">
         <v>12</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>Accident</t>
   </si>
@@ -181,85 +181,112 @@
     <t>Entrapment</t>
   </si>
   <si>
-    <t>2018-12-17</t>
-  </si>
-  <si>
-    <t>20:38:41</t>
-  </si>
-  <si>
-    <t>15:40:04</t>
-  </si>
-  <si>
-    <t>15:21:53</t>
-  </si>
-  <si>
-    <t>13:24:51</t>
-  </si>
-  <si>
-    <t>13:23:09</t>
-  </si>
-  <si>
-    <t>13:12:14</t>
-  </si>
-  <si>
-    <t>12:28:39</t>
-  </si>
-  <si>
-    <t>09:43:42</t>
-  </si>
-  <si>
-    <t>09:42:35</t>
-  </si>
-  <si>
-    <t>07:43:12</t>
-  </si>
-  <si>
-    <t>07:42:35</t>
-  </si>
-  <si>
-    <t>01:15:37</t>
-  </si>
-  <si>
-    <t>01:15:06</t>
-  </si>
-  <si>
-    <t>01:02:16</t>
-  </si>
-  <si>
-    <t>00:20:14</t>
-  </si>
-  <si>
-    <t>409 Frawley Rd</t>
-  </si>
-  <si>
-    <t>Highway 58 / Monger Ln</t>
-  </si>
-  <si>
-    <t>Hunter Rd / Old Hunter Rd</t>
-  </si>
-  <si>
-    <t>Brainerd Rd / Greenway View Dr</t>
-  </si>
-  <si>
-    <t>400 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>S Hawthorne St / Bailey Ave</t>
-  </si>
-  <si>
-    <t>100-117 Ochs Hwy</t>
-  </si>
-  <si>
-    <t>222 - 233 Browns Ferry Rd</t>
-  </si>
-  <si>
-    <t>3014 Campbell St</t>
-  </si>
-  <si>
-    <t>712 N CREST RD</t>
-  </si>
-  <si>
-    <t>Gann Rd / Moses Rd</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>2018-12-18</t>
+  </si>
+  <si>
+    <t>22:40:16</t>
+  </si>
+  <si>
+    <t>18:44:04</t>
+  </si>
+  <si>
+    <t>18:43:21</t>
+  </si>
+  <si>
+    <t>18:33:00</t>
+  </si>
+  <si>
+    <t>18:10:46</t>
+  </si>
+  <si>
+    <t>17:56:52</t>
+  </si>
+  <si>
+    <t>16:15:01</t>
+  </si>
+  <si>
+    <t>16:14:16</t>
+  </si>
+  <si>
+    <t>16:14:15</t>
+  </si>
+  <si>
+    <t>16:14:09</t>
+  </si>
+  <si>
+    <t>16:13:33</t>
+  </si>
+  <si>
+    <t>16:13:30</t>
+  </si>
+  <si>
+    <t>15:33:38</t>
+  </si>
+  <si>
+    <t>12:14:56</t>
+  </si>
+  <si>
+    <t>12:04:28</t>
+  </si>
+  <si>
+    <t>09:07:52</t>
+  </si>
+  <si>
+    <t>09:05:24</t>
+  </si>
+  <si>
+    <t>09:02:21</t>
+  </si>
+  <si>
+    <t>07:42:25</t>
+  </si>
+  <si>
+    <t>2200 Hamilton Place Blvd</t>
+  </si>
+  <si>
+    <t>640 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>1629 John Ross Rd</t>
+  </si>
+  <si>
+    <t>Ashland Ter / Hixson Pike</t>
+  </si>
+  <si>
+    <t>1618 - 1819 Hickory Valley Rd</t>
+  </si>
+  <si>
+    <t>Mahan Gap Rd / Highway 58</t>
+  </si>
+  <si>
+    <t>Highway 58 / Mahan Gap Rd</t>
+  </si>
+  <si>
+    <t>7400 - 7521 Mahan Gap Rd</t>
+  </si>
+  <si>
+    <t>GEORGIA AVE / FRAZIER AVE</t>
+  </si>
+  <si>
+    <t>5346 - 5429 Highway 153</t>
+  </si>
+  <si>
+    <t>1900-1999 N CONCORD RD</t>
+  </si>
+  <si>
+    <t>Shallowford Rd / Wilcox Blvd</t>
+  </si>
+  <si>
+    <t>W 4TH ST / EXIT W 4TH ST ON RAMP SB</t>
+  </si>
+  <si>
+    <t>6829 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>EAST RIDGE</t>
@@ -268,18 +295,21 @@
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>CHATTANOOGA</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -287,12 +317,6 @@
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -650,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA16"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,31 +840,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>34.997592</v>
+        <v>35.035241</v>
       </c>
       <c r="E2">
-        <v>-85.18812200000001</v>
+        <v>-85.155691</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Y2">
         <v>12</v>
@@ -848,31 +872,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
       </c>
       <c r="D3">
-        <v>35.21554</v>
+        <v>35.050296</v>
       </c>
       <c r="E3">
-        <v>-85.03051600000001</v>
+        <v>-85.14613</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -880,31 +904,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.094899</v>
+        <v>35.050296</v>
       </c>
       <c r="E4">
-        <v>-85.078706</v>
+        <v>-85.14613</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Y4">
         <v>12</v>
@@ -912,31 +936,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
       <c r="D5">
-        <v>35.013904</v>
+        <v>34.989235</v>
       </c>
       <c r="E5">
-        <v>-85.211097</v>
+        <v>-85.26755</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Y5">
         <v>12</v>
@@ -944,31 +968,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>35.013904</v>
+        <v>35.113821</v>
       </c>
       <c r="E6">
-        <v>-85.211097</v>
+        <v>-85.260077</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Y6">
         <v>12</v>
@@ -976,31 +1000,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7">
-        <v>35.02432</v>
+        <v>35.026287</v>
       </c>
       <c r="E7">
-        <v>-85.174239</v>
+        <v>-85.17703899999999</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Y7">
         <v>12</v>
@@ -1008,31 +1032,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8">
-        <v>35.033946</v>
+        <v>35.185745</v>
       </c>
       <c r="E8">
-        <v>-85.27744300000001</v>
+        <v>-85.059561</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Y8">
         <v>12</v>
@@ -1040,31 +1064,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
       </c>
       <c r="D9">
-        <v>35.007311</v>
+        <v>35.185745</v>
       </c>
       <c r="E9">
-        <v>-85.32902900000001</v>
+        <v>-85.059561</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y9">
         <v>12</v>
@@ -1072,31 +1096,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
       </c>
       <c r="D10">
-        <v>35.007311</v>
+        <v>35.185745</v>
       </c>
       <c r="E10">
-        <v>-85.32902900000001</v>
+        <v>-85.059561</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y10">
         <v>12</v>
@@ -1104,31 +1128,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>35.185745</v>
+      </c>
+      <c r="E11">
+        <v>-85.059561</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s">
         <v>96</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>35.027036</v>
-      </c>
-      <c r="E11">
-        <v>-85.363804</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" t="s">
-        <v>90</v>
       </c>
       <c r="Y11">
         <v>12</v>
@@ -1136,31 +1160,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.027036</v>
+        <v>35.185745</v>
       </c>
       <c r="E12">
-        <v>-85.363804</v>
+        <v>-85.059561</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y12">
         <v>12</v>
@@ -1168,31 +1192,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13">
-        <v>35.070344</v>
+        <v>35.185745</v>
       </c>
       <c r="E13">
-        <v>-85.2431</v>
+        <v>-85.059561</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y13">
         <v>12</v>
@@ -1200,31 +1224,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>35.070344</v>
+        <v>35.185745</v>
       </c>
       <c r="E14">
-        <v>-85.2431</v>
+        <v>-85.059561</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y14">
         <v>12</v>
@@ -1232,31 +1256,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>35.065124</v>
+        <v>35.06096</v>
       </c>
       <c r="E15">
-        <v>-85.24060799999999</v>
+        <v>-85.30148800000001</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y15">
         <v>12</v>
@@ -1264,33 +1288,193 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16">
-        <v>35.195459</v>
+        <v>35.132653</v>
       </c>
       <c r="E16">
-        <v>-85.20765299999999</v>
+        <v>-85.245445</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>35.032035</v>
+      </c>
+      <c r="E17">
+        <v>-85.16629</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>35.042901</v>
+      </c>
+      <c r="E18">
+        <v>-85.222382</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>35.052248</v>
+      </c>
+      <c r="E19">
+        <v>-85.312862</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>35.042901</v>
+      </c>
+      <c r="E20">
+        <v>-85.222382</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>35.016889</v>
+      </c>
+      <c r="E21">
+        <v>-85.181912</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y21">
         <v>12</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2018 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>Accident</t>
   </si>
@@ -172,151 +172,82 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Injuries</t>
+  </si>
+  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2018-12-18</t>
-  </si>
-  <si>
-    <t>22:40:16</t>
-  </si>
-  <si>
-    <t>18:44:04</t>
-  </si>
-  <si>
-    <t>18:43:21</t>
-  </si>
-  <si>
-    <t>18:33:00</t>
-  </si>
-  <si>
-    <t>18:10:46</t>
-  </si>
-  <si>
-    <t>17:56:52</t>
-  </si>
-  <si>
-    <t>16:15:01</t>
-  </si>
-  <si>
-    <t>16:14:16</t>
-  </si>
-  <si>
-    <t>16:14:15</t>
-  </si>
-  <si>
-    <t>16:14:09</t>
-  </si>
-  <si>
-    <t>16:13:33</t>
-  </si>
-  <si>
-    <t>16:13:30</t>
-  </si>
-  <si>
-    <t>15:33:38</t>
-  </si>
-  <si>
-    <t>12:14:56</t>
-  </si>
-  <si>
-    <t>12:04:28</t>
-  </si>
-  <si>
-    <t>09:07:52</t>
-  </si>
-  <si>
-    <t>09:05:24</t>
-  </si>
-  <si>
-    <t>09:02:21</t>
-  </si>
-  <si>
-    <t>07:42:25</t>
-  </si>
-  <si>
-    <t>2200 Hamilton Place Blvd</t>
-  </si>
-  <si>
-    <t>640 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>1629 John Ross Rd</t>
-  </si>
-  <si>
-    <t>Ashland Ter / Hixson Pike</t>
-  </si>
-  <si>
-    <t>1618 - 1819 Hickory Valley Rd</t>
-  </si>
-  <si>
-    <t>Mahan Gap Rd / Highway 58</t>
-  </si>
-  <si>
-    <t>Highway 58 / Mahan Gap Rd</t>
-  </si>
-  <si>
-    <t>7400 - 7521 Mahan Gap Rd</t>
-  </si>
-  <si>
-    <t>GEORGIA AVE / FRAZIER AVE</t>
-  </si>
-  <si>
-    <t>5346 - 5429 Highway 153</t>
-  </si>
-  <si>
-    <t>1900-1999 N CONCORD RD</t>
-  </si>
-  <si>
-    <t>Shallowford Rd / Wilcox Blvd</t>
-  </si>
-  <si>
-    <t>W 4TH ST / EXIT W 4TH ST ON RAMP SB</t>
-  </si>
-  <si>
-    <t>6829 E Brainerd Rd</t>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>21:42:40</t>
+  </si>
+  <si>
+    <t>19:31:09</t>
+  </si>
+  <si>
+    <t>19:29:25</t>
+  </si>
+  <si>
+    <t>07:15:12</t>
+  </si>
+  <si>
+    <t>03:47:08</t>
+  </si>
+  <si>
+    <t>03:16:52</t>
+  </si>
+  <si>
+    <t>02:41:46</t>
+  </si>
+  <si>
+    <t>02:18:49</t>
+  </si>
+  <si>
+    <t>Cummings Hwy / Birmingham Hwy</t>
+  </si>
+  <si>
+    <t>S TERRACE / S LOVELL AVE</t>
+  </si>
+  <si>
+    <t>10 HIGHWAY 27 SB</t>
+  </si>
+  <si>
+    <t>5426 JOHNSON RD</t>
+  </si>
+  <si>
+    <t>18300 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>6100 HUNTER RD</t>
+  </si>
+  <si>
+    <t>6708 Ringgold Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -674,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA21"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,220 +777,220 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.035241</v>
+        <v>35.01811</v>
       </c>
       <c r="E2">
-        <v>-85.155691</v>
+        <v>-85.380825</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="Y2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>35.050296</v>
+        <v>35.01811</v>
       </c>
       <c r="E3">
-        <v>-85.14613</v>
+        <v>-85.380825</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="Y3">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.050296</v>
+        <v>35.005783</v>
       </c>
       <c r="E4">
-        <v>-85.14613</v>
+        <v>-85.230757</v>
       </c>
       <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="Y4">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>34.989235</v>
+        <v>35.005783</v>
       </c>
       <c r="E5">
-        <v>-85.26755</v>
+        <v>-85.230757</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="Y5">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>35.113821</v>
+        <v>35.033453</v>
       </c>
       <c r="E6">
-        <v>-85.260077</v>
+        <v>-85.31922299999999</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="Y6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.026287</v>
+        <v>35.360765</v>
       </c>
       <c r="E7">
-        <v>-85.17703899999999</v>
+        <v>-84.99426099999999</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="Y7">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8">
-        <v>35.185745</v>
+        <v>35.015818</v>
       </c>
       <c r="E8">
-        <v>-85.059561</v>
+        <v>-85.254192</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="Y8">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -1067,415 +998,63 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.185745</v>
+        <v>35.12155</v>
       </c>
       <c r="E9">
-        <v>-85.059561</v>
+        <v>-85.10423900000001</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="Y9">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
       </c>
       <c r="D10">
-        <v>35.185745</v>
+        <v>34.989554</v>
       </c>
       <c r="E10">
-        <v>-85.059561</v>
+        <v>-85.19892299999999</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="Y10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>35.185745</v>
-      </c>
-      <c r="E11">
-        <v>-85.059561</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>35.185745</v>
-      </c>
-      <c r="E12">
-        <v>-85.059561</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>35.185745</v>
-      </c>
-      <c r="E13">
-        <v>-85.059561</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>35.185745</v>
-      </c>
-      <c r="E14">
-        <v>-85.059561</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>35.06096</v>
-      </c>
-      <c r="E15">
-        <v>-85.30148800000001</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16">
-        <v>35.132653</v>
-      </c>
-      <c r="E16">
-        <v>-85.245445</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>35.032035</v>
-      </c>
-      <c r="E17">
-        <v>-85.16629</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>114</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>35.042901</v>
-      </c>
-      <c r="E18">
-        <v>-85.222382</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>35.052248</v>
-      </c>
-      <c r="E19">
-        <v>-85.312862</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20">
-        <v>35.042901</v>
-      </c>
-      <c r="E20">
-        <v>-85.222382</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="1">
-        <v>128</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <v>35.016889</v>
-      </c>
-      <c r="E21">
-        <v>-85.181912</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" t="s">
-        <v>90</v>
-      </c>
-      <c r="P21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y21">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
